--- a/src/main/resources/UMS_Data.xlsx
+++ b/src/main/resources/UMS_Data.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brodin's Thinkpad\IdeaProjects\UMS\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="3"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Subjects" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Courses" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Students " sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Faculties " sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Events " sheetId="5" r:id="rId8"/>
+    <sheet name="Subjects" sheetId="1" r:id="rId1"/>
+    <sheet name="Courses" sheetId="2" r:id="rId2"/>
+    <sheet name="Students " sheetId="3" r:id="rId3"/>
+    <sheet name="Faculties " sheetId="4" r:id="rId4"/>
+    <sheet name="Events " sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="32oBWZ1eDfz3no8QH1W2370V3Z+Akmh7/rIliHwvF4o="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>Subject Code</t>
   </si>
@@ -451,6 +452,9 @@
     <t>Courses Offered</t>
   </si>
   <si>
+    <t>Role</t>
+  </si>
+  <si>
     <t>F0001</t>
   </si>
   <si>
@@ -463,6 +467,9 @@
     <t>turing@university.edu</t>
   </si>
   <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
     <t>F0002</t>
   </si>
   <si>
@@ -473,6 +480,9 @@
   </si>
   <si>
     <t>bronte@university.edu</t>
+  </si>
+  <si>
+    <t>USER</t>
   </si>
   <si>
     <t>F0003</t>
@@ -574,50 +584,46 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m/d/yy h:mm"/>
-    <numFmt numFmtId="165" formatCode="mm/dd/yy h:mm"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yy h:mm"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Quattrocento Sans"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Aptos Narrow"/>
     </font>
@@ -627,84 +633,49 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
     <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="22" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="9" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -786,6 +757,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -812,24 +784,25 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="19050" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -890,6 +863,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -898,21 +872,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.0"/>
-    <col customWidth="1" min="2" max="2" width="25.63"/>
-    <col customWidth="1" min="3" max="26" width="18.0"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="25.63" customWidth="1"/>
+    <col min="3" max="26" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.0" customHeight="1">
+    <row r="1" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -920,7 +891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="18.0" customHeight="1">
+    <row r="2" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -928,7 +899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="18.0" customHeight="1">
+    <row r="3" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -936,7 +907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="18.0" customHeight="1">
+    <row r="4" ht="18" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -944,7 +915,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="18.0" customHeight="1">
+    <row r="5" ht="18" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -952,15 +923,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="18.0" customHeight="1">
-      <c r="A6" s="3" t="s">
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="18.0" customHeight="1">
+    <row r="7" ht="18" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -968,5775 +939,5765 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="18.0" customHeight="1">
-      <c r="A8" s="3" t="s">
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="18.0" customHeight="1">
-      <c r="A9" s="3" t="s">
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" ht="18.0" customHeight="1">
-      <c r="A10" s="3" t="s">
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="18.0" customHeight="1">
+    <row r="11" ht="18" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" ht="18.0" customHeight="1">
+    <row r="12" ht="18" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" ht="18.0" customHeight="1">
+    <row r="13" ht="18" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" ht="18.0" customHeight="1">
+    <row r="14" ht="18" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" ht="18.0" customHeight="1">
+    <row r="15" ht="18" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" ht="18.0" customHeight="1">
+    <row r="16" ht="18" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" ht="18.0" customHeight="1">
+    <row r="17" ht="18" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" ht="18.0" customHeight="1">
+    <row r="18" ht="18" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" ht="18.0" customHeight="1">
+    <row r="19" ht="18" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" ht="18.0" customHeight="1">
+    <row r="20" ht="18" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" ht="18.0" customHeight="1">
+    <row r="21" ht="18" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" ht="18.0" customHeight="1">
+    <row r="22" ht="18" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" ht="18.0" customHeight="1">
+    <row r="23" ht="18" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" ht="18.0" customHeight="1">
+    <row r="24" ht="18" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" ht="18.0" customHeight="1">
+    <row r="25" ht="18" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" ht="18.0" customHeight="1">
+    <row r="26" ht="18" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" ht="18.0" customHeight="1">
+    <row r="27" ht="18" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" ht="18.0" customHeight="1">
+    <row r="28" ht="18" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" ht="18.0" customHeight="1">
+    <row r="29" ht="18" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" ht="18.0" customHeight="1">
+    <row r="30" ht="18" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" ht="18.0" customHeight="1">
+    <row r="31" ht="18" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" ht="18.0" customHeight="1">
+    <row r="32" ht="18" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" ht="18.0" customHeight="1">
+    <row r="33" ht="18" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" ht="18.0" customHeight="1">
+    <row r="34" ht="18" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" ht="18.0" customHeight="1">
+    <row r="35" ht="18" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" ht="18.0" customHeight="1">
+    <row r="36" ht="18" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" ht="18.0" customHeight="1">
+    <row r="37" ht="18" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" ht="18.0" customHeight="1">
+    <row r="38" ht="18" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" ht="18.0" customHeight="1">
+    <row r="39" ht="18" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" ht="18.0" customHeight="1">
+    <row r="40" ht="18" customHeight="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" ht="18.0" customHeight="1">
+    <row r="41" ht="18" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" ht="18.0" customHeight="1">
+    <row r="42" ht="18" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" ht="18.0" customHeight="1">
+    <row r="43" ht="18" customHeight="1">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" ht="18.0" customHeight="1">
+    <row r="44" ht="18" customHeight="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" ht="18.0" customHeight="1">
+    <row r="45" ht="18" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" ht="18.0" customHeight="1">
+    <row r="46" ht="18" customHeight="1">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" ht="18.0" customHeight="1">
+    <row r="47" ht="18" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" ht="18.0" customHeight="1">
+    <row r="48" ht="18" customHeight="1">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" ht="18.0" customHeight="1">
+    <row r="49" ht="18" customHeight="1">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" ht="18.0" customHeight="1">
+    <row r="50" ht="18" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" ht="18.0" customHeight="1">
+    <row r="51" ht="18" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" ht="18.0" customHeight="1">
+    <row r="52" ht="18" customHeight="1">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" ht="18.0" customHeight="1">
+    <row r="53" ht="18" customHeight="1">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" ht="18.0" customHeight="1">
+    <row r="54" ht="18" customHeight="1">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" ht="18.0" customHeight="1">
+    <row r="55" ht="18" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" ht="18.0" customHeight="1">
+    <row r="56" ht="18" customHeight="1">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
     </row>
-    <row r="57" ht="18.0" customHeight="1">
+    <row r="57" ht="18" customHeight="1">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
     </row>
-    <row r="58" ht="18.0" customHeight="1">
+    <row r="58" ht="18" customHeight="1">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
     </row>
-    <row r="59" ht="18.0" customHeight="1">
+    <row r="59" ht="18" customHeight="1">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" ht="18.0" customHeight="1">
+    <row r="60" ht="18" customHeight="1">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" ht="18.0" customHeight="1">
+    <row r="61" ht="18" customHeight="1">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
     </row>
-    <row r="62" ht="18.0" customHeight="1">
+    <row r="62" ht="18" customHeight="1">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" ht="18.0" customHeight="1">
+    <row r="63" ht="18" customHeight="1">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
     </row>
-    <row r="64" ht="18.0" customHeight="1">
+    <row r="64" ht="18" customHeight="1">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
     </row>
-    <row r="65" ht="18.0" customHeight="1">
+    <row r="65" ht="18" customHeight="1">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
     </row>
-    <row r="66" ht="18.0" customHeight="1">
+    <row r="66" ht="18" customHeight="1">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
     </row>
-    <row r="67" ht="18.0" customHeight="1">
+    <row r="67" ht="18" customHeight="1">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
     </row>
-    <row r="68" ht="18.0" customHeight="1">
+    <row r="68" ht="18" customHeight="1">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
     </row>
-    <row r="69" ht="18.0" customHeight="1">
+    <row r="69" ht="18" customHeight="1">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
     </row>
-    <row r="70" ht="18.0" customHeight="1">
+    <row r="70" ht="18" customHeight="1">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
     </row>
-    <row r="71" ht="18.0" customHeight="1">
+    <row r="71" ht="18" customHeight="1">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
     </row>
-    <row r="72" ht="18.0" customHeight="1">
+    <row r="72" ht="18" customHeight="1">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
     </row>
-    <row r="73" ht="18.0" customHeight="1">
+    <row r="73" ht="18" customHeight="1">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
     </row>
-    <row r="74" ht="18.0" customHeight="1">
+    <row r="74" ht="18" customHeight="1">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
     </row>
-    <row r="75" ht="18.0" customHeight="1">
+    <row r="75" ht="18" customHeight="1">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
     </row>
-    <row r="76" ht="18.0" customHeight="1">
+    <row r="76" ht="18" customHeight="1">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
     </row>
-    <row r="77" ht="18.0" customHeight="1">
+    <row r="77" ht="18" customHeight="1">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
     </row>
-    <row r="78" ht="18.0" customHeight="1">
+    <row r="78" ht="18" customHeight="1">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
     </row>
-    <row r="79" ht="18.0" customHeight="1">
+    <row r="79" ht="18" customHeight="1">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
     </row>
-    <row r="80" ht="18.0" customHeight="1">
+    <row r="80" ht="18" customHeight="1">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
     </row>
-    <row r="81" ht="18.0" customHeight="1">
+    <row r="81" ht="18" customHeight="1">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
     </row>
-    <row r="82" ht="18.0" customHeight="1">
+    <row r="82" ht="18" customHeight="1">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
     </row>
-    <row r="83" ht="18.0" customHeight="1">
+    <row r="83" ht="18" customHeight="1">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
     </row>
-    <row r="84" ht="18.0" customHeight="1">
+    <row r="84" ht="18" customHeight="1">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
     </row>
-    <row r="85" ht="18.0" customHeight="1">
+    <row r="85" ht="18" customHeight="1">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
     </row>
-    <row r="86" ht="18.0" customHeight="1">
+    <row r="86" ht="18" customHeight="1">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
     </row>
-    <row r="87" ht="18.0" customHeight="1">
+    <row r="87" ht="18" customHeight="1">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
     </row>
-    <row r="88" ht="18.0" customHeight="1">
+    <row r="88" ht="18" customHeight="1">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
     </row>
-    <row r="89" ht="18.0" customHeight="1">
+    <row r="89" ht="18" customHeight="1">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
     </row>
-    <row r="90" ht="18.0" customHeight="1">
+    <row r="90" ht="18" customHeight="1">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
     </row>
-    <row r="91" ht="18.0" customHeight="1">
+    <row r="91" ht="18" customHeight="1">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
     </row>
-    <row r="92" ht="18.0" customHeight="1">
+    <row r="92" ht="18" customHeight="1">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
     </row>
-    <row r="93" ht="18.0" customHeight="1">
+    <row r="93" ht="18" customHeight="1">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
     </row>
-    <row r="94" ht="18.0" customHeight="1">
+    <row r="94" ht="18" customHeight="1">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
     </row>
-    <row r="95" ht="18.0" customHeight="1">
+    <row r="95" ht="18" customHeight="1">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
     </row>
-    <row r="96" ht="18.0" customHeight="1">
+    <row r="96" ht="18" customHeight="1">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
     </row>
-    <row r="97" ht="18.0" customHeight="1">
+    <row r="97" ht="18" customHeight="1">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
     </row>
-    <row r="98" ht="18.0" customHeight="1">
+    <row r="98" ht="18" customHeight="1">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
     </row>
-    <row r="99" ht="18.0" customHeight="1">
+    <row r="99" ht="18" customHeight="1">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
     </row>
-    <row r="100" ht="18.0" customHeight="1">
+    <row r="100" ht="18" customHeight="1">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
     </row>
-    <row r="101" ht="18.0" customHeight="1">
+    <row r="101" ht="18" customHeight="1">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
     </row>
-    <row r="102" ht="18.0" customHeight="1">
+    <row r="102" ht="18" customHeight="1">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
     </row>
-    <row r="103" ht="18.0" customHeight="1">
+    <row r="103" ht="18" customHeight="1">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
     </row>
-    <row r="104" ht="18.0" customHeight="1">
+    <row r="104" ht="18" customHeight="1">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
     </row>
-    <row r="105" ht="18.0" customHeight="1">
+    <row r="105" ht="18" customHeight="1">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
     </row>
-    <row r="106" ht="18.0" customHeight="1">
+    <row r="106" ht="18" customHeight="1">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
     </row>
-    <row r="107" ht="18.0" customHeight="1">
+    <row r="107" ht="18" customHeight="1">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
     </row>
-    <row r="108" ht="18.0" customHeight="1">
+    <row r="108" ht="18" customHeight="1">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
     </row>
-    <row r="109" ht="18.0" customHeight="1">
+    <row r="109" ht="18" customHeight="1">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
     </row>
-    <row r="110" ht="18.0" customHeight="1">
+    <row r="110" ht="18" customHeight="1">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
     </row>
-    <row r="111" ht="18.0" customHeight="1">
+    <row r="111" ht="18" customHeight="1">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
     </row>
-    <row r="112" ht="18.0" customHeight="1">
+    <row r="112" ht="18" customHeight="1">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
     </row>
-    <row r="113" ht="18.0" customHeight="1">
+    <row r="113" ht="18" customHeight="1">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
     </row>
-    <row r="114" ht="18.0" customHeight="1">
+    <row r="114" ht="18" customHeight="1">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
     </row>
-    <row r="115" ht="18.0" customHeight="1">
+    <row r="115" ht="18" customHeight="1">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
     </row>
-    <row r="116" ht="18.0" customHeight="1">
+    <row r="116" ht="18" customHeight="1">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
     </row>
-    <row r="117" ht="18.0" customHeight="1">
+    <row r="117" ht="18" customHeight="1">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
     </row>
-    <row r="118" ht="18.0" customHeight="1">
+    <row r="118" ht="18" customHeight="1">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
     </row>
-    <row r="119" ht="18.0" customHeight="1">
+    <row r="119" ht="18" customHeight="1">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
     </row>
-    <row r="120" ht="18.0" customHeight="1">
+    <row r="120" ht="18" customHeight="1">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
     </row>
-    <row r="121" ht="18.0" customHeight="1">
+    <row r="121" ht="18" customHeight="1">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
     </row>
-    <row r="122" ht="18.0" customHeight="1">
+    <row r="122" ht="18" customHeight="1">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
     </row>
-    <row r="123" ht="18.0" customHeight="1">
+    <row r="123" ht="18" customHeight="1">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
     </row>
-    <row r="124" ht="18.0" customHeight="1">
+    <row r="124" ht="18" customHeight="1">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
     </row>
-    <row r="125" ht="18.0" customHeight="1">
+    <row r="125" ht="18" customHeight="1">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
     </row>
-    <row r="126" ht="18.0" customHeight="1">
+    <row r="126" ht="18" customHeight="1">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
     </row>
-    <row r="127" ht="18.0" customHeight="1">
+    <row r="127" ht="18" customHeight="1">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
     </row>
-    <row r="128" ht="18.0" customHeight="1">
+    <row r="128" ht="18" customHeight="1">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
     </row>
-    <row r="129" ht="18.0" customHeight="1">
+    <row r="129" ht="18" customHeight="1">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
     </row>
-    <row r="130" ht="18.0" customHeight="1">
+    <row r="130" ht="18" customHeight="1">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
     </row>
-    <row r="131" ht="18.0" customHeight="1">
+    <row r="131" ht="18" customHeight="1">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
     </row>
-    <row r="132" ht="18.0" customHeight="1">
+    <row r="132" ht="18" customHeight="1">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
     </row>
-    <row r="133" ht="18.0" customHeight="1">
+    <row r="133" ht="18" customHeight="1">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
     </row>
-    <row r="134" ht="18.0" customHeight="1">
+    <row r="134" ht="18" customHeight="1">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
     </row>
-    <row r="135" ht="18.0" customHeight="1">
+    <row r="135" ht="18" customHeight="1">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
     </row>
-    <row r="136" ht="18.0" customHeight="1">
+    <row r="136" ht="18" customHeight="1">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
     </row>
-    <row r="137" ht="18.0" customHeight="1">
+    <row r="137" ht="18" customHeight="1">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
     </row>
-    <row r="138" ht="18.0" customHeight="1">
+    <row r="138" ht="18" customHeight="1">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
     </row>
-    <row r="139" ht="18.0" customHeight="1">
+    <row r="139" ht="18" customHeight="1">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
     </row>
-    <row r="140" ht="18.0" customHeight="1">
+    <row r="140" ht="18" customHeight="1">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
     </row>
-    <row r="141" ht="18.0" customHeight="1">
+    <row r="141" ht="18" customHeight="1">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
     </row>
-    <row r="142" ht="18.0" customHeight="1">
+    <row r="142" ht="18" customHeight="1">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
     </row>
-    <row r="143" ht="18.0" customHeight="1">
+    <row r="143" ht="18" customHeight="1">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
     </row>
-    <row r="144" ht="18.0" customHeight="1">
+    <row r="144" ht="18" customHeight="1">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
     </row>
-    <row r="145" ht="18.0" customHeight="1">
+    <row r="145" ht="18" customHeight="1">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
     </row>
-    <row r="146" ht="18.0" customHeight="1">
+    <row r="146" ht="18" customHeight="1">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
     </row>
-    <row r="147" ht="18.0" customHeight="1">
+    <row r="147" ht="18" customHeight="1">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
     </row>
-    <row r="148" ht="18.0" customHeight="1">
+    <row r="148" ht="18" customHeight="1">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
     </row>
-    <row r="149" ht="18.0" customHeight="1">
+    <row r="149" ht="18" customHeight="1">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
     </row>
-    <row r="150" ht="18.0" customHeight="1">
+    <row r="150" ht="18" customHeight="1">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
     </row>
-    <row r="151" ht="18.0" customHeight="1">
+    <row r="151" ht="18" customHeight="1">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
     </row>
-    <row r="152" ht="18.0" customHeight="1">
+    <row r="152" ht="18" customHeight="1">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
     </row>
-    <row r="153" ht="18.0" customHeight="1">
+    <row r="153" ht="18" customHeight="1">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
     </row>
-    <row r="154" ht="18.0" customHeight="1">
+    <row r="154" ht="18" customHeight="1">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
     </row>
-    <row r="155" ht="18.0" customHeight="1">
+    <row r="155" ht="18" customHeight="1">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
     </row>
-    <row r="156" ht="18.0" customHeight="1">
+    <row r="156" ht="18" customHeight="1">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
     </row>
-    <row r="157" ht="18.0" customHeight="1">
+    <row r="157" ht="18" customHeight="1">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
     </row>
-    <row r="158" ht="18.0" customHeight="1">
+    <row r="158" ht="18" customHeight="1">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
     </row>
-    <row r="159" ht="18.0" customHeight="1">
+    <row r="159" ht="18" customHeight="1">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
     </row>
-    <row r="160" ht="18.0" customHeight="1">
+    <row r="160" ht="18" customHeight="1">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
     </row>
-    <row r="161" ht="18.0" customHeight="1">
+    <row r="161" ht="18" customHeight="1">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
     </row>
-    <row r="162" ht="18.0" customHeight="1">
+    <row r="162" ht="18" customHeight="1">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
     </row>
-    <row r="163" ht="18.0" customHeight="1">
+    <row r="163" ht="18" customHeight="1">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
     </row>
-    <row r="164" ht="18.0" customHeight="1">
+    <row r="164" ht="18" customHeight="1">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
     </row>
-    <row r="165" ht="18.0" customHeight="1">
+    <row r="165" ht="18" customHeight="1">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
     </row>
-    <row r="166" ht="18.0" customHeight="1">
+    <row r="166" ht="18" customHeight="1">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
     </row>
-    <row r="167" ht="18.0" customHeight="1">
+    <row r="167" ht="18" customHeight="1">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
     </row>
-    <row r="168" ht="18.0" customHeight="1">
+    <row r="168" ht="18" customHeight="1">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
     </row>
-    <row r="169" ht="18.0" customHeight="1">
+    <row r="169" ht="18" customHeight="1">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
     </row>
-    <row r="170" ht="18.0" customHeight="1">
+    <row r="170" ht="18" customHeight="1">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
     </row>
-    <row r="171" ht="18.0" customHeight="1">
+    <row r="171" ht="18" customHeight="1">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
     </row>
-    <row r="172" ht="18.0" customHeight="1">
+    <row r="172" ht="18" customHeight="1">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
     </row>
-    <row r="173" ht="18.0" customHeight="1">
+    <row r="173" ht="18" customHeight="1">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
     </row>
-    <row r="174" ht="18.0" customHeight="1">
+    <row r="174" ht="18" customHeight="1">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
     </row>
-    <row r="175" ht="18.0" customHeight="1">
+    <row r="175" ht="18" customHeight="1">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
     </row>
-    <row r="176" ht="18.0" customHeight="1">
+    <row r="176" ht="18" customHeight="1">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
     </row>
-    <row r="177" ht="18.0" customHeight="1">
+    <row r="177" ht="18" customHeight="1">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
     </row>
-    <row r="178" ht="18.0" customHeight="1">
+    <row r="178" ht="18" customHeight="1">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
     </row>
-    <row r="179" ht="18.0" customHeight="1">
+    <row r="179" ht="18" customHeight="1">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
     </row>
-    <row r="180" ht="18.0" customHeight="1">
+    <row r="180" ht="18" customHeight="1">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
     </row>
-    <row r="181" ht="18.0" customHeight="1">
+    <row r="181" ht="18" customHeight="1">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
     </row>
-    <row r="182" ht="18.0" customHeight="1">
+    <row r="182" ht="18" customHeight="1">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
     </row>
-    <row r="183" ht="18.0" customHeight="1">
+    <row r="183" ht="18" customHeight="1">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
     </row>
-    <row r="184" ht="18.0" customHeight="1">
+    <row r="184" ht="18" customHeight="1">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
     </row>
-    <row r="185" ht="18.0" customHeight="1">
+    <row r="185" ht="18" customHeight="1">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
     </row>
-    <row r="186" ht="18.0" customHeight="1">
+    <row r="186" ht="18" customHeight="1">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
     </row>
-    <row r="187" ht="18.0" customHeight="1">
+    <row r="187" ht="18" customHeight="1">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
     </row>
-    <row r="188" ht="18.0" customHeight="1">
+    <row r="188" ht="18" customHeight="1">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
     </row>
-    <row r="189" ht="18.0" customHeight="1">
+    <row r="189" ht="18" customHeight="1">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
     </row>
-    <row r="190" ht="18.0" customHeight="1">
+    <row r="190" ht="18" customHeight="1">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
     </row>
-    <row r="191" ht="18.0" customHeight="1">
+    <row r="191" ht="18" customHeight="1">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
     </row>
-    <row r="192" ht="18.0" customHeight="1">
+    <row r="192" ht="18" customHeight="1">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
     </row>
-    <row r="193" ht="18.0" customHeight="1">
+    <row r="193" ht="18" customHeight="1">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
     </row>
-    <row r="194" ht="18.0" customHeight="1">
+    <row r="194" ht="18" customHeight="1">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
     </row>
-    <row r="195" ht="18.0" customHeight="1">
+    <row r="195" ht="18" customHeight="1">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
     </row>
-    <row r="196" ht="18.0" customHeight="1">
+    <row r="196" ht="18" customHeight="1">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
     </row>
-    <row r="197" ht="18.0" customHeight="1">
+    <row r="197" ht="18" customHeight="1">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
     </row>
-    <row r="198" ht="18.0" customHeight="1">
+    <row r="198" ht="18" customHeight="1">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
     </row>
-    <row r="199" ht="18.0" customHeight="1">
+    <row r="199" ht="18" customHeight="1">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
     </row>
-    <row r="200" ht="18.0" customHeight="1">
+    <row r="200" ht="18" customHeight="1">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
     </row>
-    <row r="201" ht="18.0" customHeight="1">
+    <row r="201" ht="18" customHeight="1">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
     </row>
-    <row r="202" ht="18.0" customHeight="1">
+    <row r="202" ht="18" customHeight="1">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
     </row>
-    <row r="203" ht="18.0" customHeight="1">
+    <row r="203" ht="18" customHeight="1">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
     </row>
-    <row r="204" ht="18.0" customHeight="1">
+    <row r="204" ht="18" customHeight="1">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
     </row>
-    <row r="205" ht="18.0" customHeight="1">
+    <row r="205" ht="18" customHeight="1">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
     </row>
-    <row r="206" ht="18.0" customHeight="1">
+    <row r="206" ht="18" customHeight="1">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
     </row>
-    <row r="207" ht="18.0" customHeight="1">
+    <row r="207" ht="18" customHeight="1">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
     </row>
-    <row r="208" ht="18.0" customHeight="1">
+    <row r="208" ht="18" customHeight="1">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
     </row>
-    <row r="209" ht="18.0" customHeight="1">
+    <row r="209" ht="18" customHeight="1">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
     </row>
-    <row r="210" ht="18.0" customHeight="1">
+    <row r="210" ht="18" customHeight="1">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
     </row>
-    <row r="211" ht="18.0" customHeight="1">
+    <row r="211" ht="18" customHeight="1">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
     </row>
-    <row r="212" ht="18.0" customHeight="1">
+    <row r="212" ht="18" customHeight="1">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
     </row>
-    <row r="213" ht="18.0" customHeight="1">
+    <row r="213" ht="18" customHeight="1">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
     </row>
-    <row r="214" ht="18.0" customHeight="1">
+    <row r="214" ht="18" customHeight="1">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
     </row>
-    <row r="215" ht="18.0" customHeight="1">
+    <row r="215" ht="18" customHeight="1">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
     </row>
-    <row r="216" ht="18.0" customHeight="1">
+    <row r="216" ht="18" customHeight="1">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
     </row>
-    <row r="217" ht="18.0" customHeight="1">
+    <row r="217" ht="18" customHeight="1">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
     </row>
-    <row r="218" ht="18.0" customHeight="1">
+    <row r="218" ht="18" customHeight="1">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
     </row>
-    <row r="219" ht="18.0" customHeight="1">
+    <row r="219" ht="18" customHeight="1">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
     </row>
-    <row r="220" ht="18.0" customHeight="1">
+    <row r="220" ht="18" customHeight="1">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
     </row>
-    <row r="221" ht="18.0" customHeight="1">
+    <row r="221" ht="18" customHeight="1">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
     </row>
-    <row r="222" ht="18.0" customHeight="1">
+    <row r="222" ht="18" customHeight="1">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
     </row>
-    <row r="223" ht="18.0" customHeight="1">
+    <row r="223" ht="18" customHeight="1">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
     </row>
-    <row r="224" ht="18.0" customHeight="1">
+    <row r="224" ht="18" customHeight="1">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
     </row>
-    <row r="225" ht="18.0" customHeight="1">
+    <row r="225" ht="18" customHeight="1">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
     </row>
-    <row r="226" ht="18.0" customHeight="1">
+    <row r="226" ht="18" customHeight="1">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
     </row>
-    <row r="227" ht="18.0" customHeight="1">
+    <row r="227" ht="18" customHeight="1">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
     </row>
-    <row r="228" ht="18.0" customHeight="1">
+    <row r="228" ht="18" customHeight="1">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
     </row>
-    <row r="229" ht="18.0" customHeight="1">
+    <row r="229" ht="18" customHeight="1">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
     </row>
-    <row r="230" ht="18.0" customHeight="1">
+    <row r="230" ht="18" customHeight="1">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
     </row>
-    <row r="231" ht="18.0" customHeight="1">
+    <row r="231" ht="18" customHeight="1">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
     </row>
-    <row r="232" ht="18.0" customHeight="1">
+    <row r="232" ht="18" customHeight="1">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
     </row>
-    <row r="233" ht="18.0" customHeight="1">
+    <row r="233" ht="18" customHeight="1">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
     </row>
-    <row r="234" ht="18.0" customHeight="1">
+    <row r="234" ht="18" customHeight="1">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
     </row>
-    <row r="235" ht="18.0" customHeight="1">
+    <row r="235" ht="18" customHeight="1">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
     </row>
-    <row r="236" ht="18.0" customHeight="1">
+    <row r="236" ht="18" customHeight="1">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
     </row>
-    <row r="237" ht="18.0" customHeight="1">
+    <row r="237" ht="18" customHeight="1">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
     </row>
-    <row r="238" ht="18.0" customHeight="1">
+    <row r="238" ht="18" customHeight="1">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
     </row>
-    <row r="239" ht="18.0" customHeight="1">
+    <row r="239" ht="18" customHeight="1">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
     </row>
-    <row r="240" ht="18.0" customHeight="1">
+    <row r="240" ht="18" customHeight="1">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
     </row>
-    <row r="241" ht="18.0" customHeight="1">
+    <row r="241" ht="18" customHeight="1">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
     </row>
-    <row r="242" ht="18.0" customHeight="1">
+    <row r="242" ht="18" customHeight="1">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
     </row>
-    <row r="243" ht="18.0" customHeight="1">
+    <row r="243" ht="18" customHeight="1">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
     </row>
-    <row r="244" ht="18.0" customHeight="1">
+    <row r="244" ht="18" customHeight="1">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
     </row>
-    <row r="245" ht="18.0" customHeight="1">
+    <row r="245" ht="18" customHeight="1">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
     </row>
-    <row r="246" ht="18.0" customHeight="1">
+    <row r="246" ht="18" customHeight="1">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
     </row>
-    <row r="247" ht="18.0" customHeight="1">
+    <row r="247" ht="18" customHeight="1">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
     </row>
-    <row r="248" ht="18.0" customHeight="1">
+    <row r="248" ht="18" customHeight="1">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
     </row>
-    <row r="249" ht="18.0" customHeight="1">
+    <row r="249" ht="18" customHeight="1">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
     </row>
-    <row r="250" ht="18.0" customHeight="1">
+    <row r="250" ht="18" customHeight="1">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
     </row>
-    <row r="251" ht="18.0" customHeight="1">
+    <row r="251" ht="18" customHeight="1">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
     </row>
-    <row r="252" ht="18.0" customHeight="1">
+    <row r="252" ht="18" customHeight="1">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
     </row>
-    <row r="253" ht="18.0" customHeight="1">
+    <row r="253" ht="18" customHeight="1">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
     </row>
-    <row r="254" ht="18.0" customHeight="1">
+    <row r="254" ht="18" customHeight="1">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
     </row>
-    <row r="255" ht="18.0" customHeight="1">
+    <row r="255" ht="18" customHeight="1">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
     </row>
-    <row r="256" ht="18.0" customHeight="1">
+    <row r="256" ht="18" customHeight="1">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
     </row>
-    <row r="257" ht="18.0" customHeight="1">
+    <row r="257" ht="18" customHeight="1">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
     </row>
-    <row r="258" ht="18.0" customHeight="1">
+    <row r="258" ht="18" customHeight="1">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
     </row>
-    <row r="259" ht="18.0" customHeight="1">
+    <row r="259" ht="18" customHeight="1">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
     </row>
-    <row r="260" ht="18.0" customHeight="1">
+    <row r="260" ht="18" customHeight="1">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
     </row>
-    <row r="261" ht="18.0" customHeight="1">
+    <row r="261" ht="18" customHeight="1">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
     </row>
-    <row r="262" ht="18.0" customHeight="1">
+    <row r="262" ht="18" customHeight="1">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
     </row>
-    <row r="263" ht="18.0" customHeight="1">
+    <row r="263" ht="18" customHeight="1">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
     </row>
-    <row r="264" ht="18.0" customHeight="1">
+    <row r="264" ht="18" customHeight="1">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
     </row>
-    <row r="265" ht="18.0" customHeight="1">
+    <row r="265" ht="18" customHeight="1">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
     </row>
-    <row r="266" ht="18.0" customHeight="1">
+    <row r="266" ht="18" customHeight="1">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
     </row>
-    <row r="267" ht="18.0" customHeight="1">
+    <row r="267" ht="18" customHeight="1">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
     </row>
-    <row r="268" ht="18.0" customHeight="1">
+    <row r="268" ht="18" customHeight="1">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
     </row>
-    <row r="269" ht="18.0" customHeight="1">
+    <row r="269" ht="18" customHeight="1">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
     </row>
-    <row r="270" ht="18.0" customHeight="1">
+    <row r="270" ht="18" customHeight="1">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
     </row>
-    <row r="271" ht="18.0" customHeight="1">
+    <row r="271" ht="18" customHeight="1">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
     </row>
-    <row r="272" ht="18.0" customHeight="1">
+    <row r="272" ht="18" customHeight="1">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
     </row>
-    <row r="273" ht="18.0" customHeight="1">
+    <row r="273" ht="18" customHeight="1">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
     </row>
-    <row r="274" ht="18.0" customHeight="1">
+    <row r="274" ht="18" customHeight="1">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
     </row>
-    <row r="275" ht="18.0" customHeight="1">
+    <row r="275" ht="18" customHeight="1">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
     </row>
-    <row r="276" ht="18.0" customHeight="1">
+    <row r="276" ht="18" customHeight="1">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
     </row>
-    <row r="277" ht="18.0" customHeight="1">
+    <row r="277" ht="18" customHeight="1">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
     </row>
-    <row r="278" ht="18.0" customHeight="1">
+    <row r="278" ht="18" customHeight="1">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
     </row>
-    <row r="279" ht="18.0" customHeight="1">
+    <row r="279" ht="18" customHeight="1">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
     </row>
-    <row r="280" ht="18.0" customHeight="1">
+    <row r="280" ht="18" customHeight="1">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
     </row>
-    <row r="281" ht="18.0" customHeight="1">
+    <row r="281" ht="18" customHeight="1">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
     </row>
-    <row r="282" ht="18.0" customHeight="1">
+    <row r="282" ht="18" customHeight="1">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
     </row>
-    <row r="283" ht="18.0" customHeight="1">
+    <row r="283" ht="18" customHeight="1">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
     </row>
-    <row r="284" ht="18.0" customHeight="1">
+    <row r="284" ht="18" customHeight="1">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
     </row>
-    <row r="285" ht="18.0" customHeight="1">
+    <row r="285" ht="18" customHeight="1">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
     </row>
-    <row r="286" ht="18.0" customHeight="1">
+    <row r="286" ht="18" customHeight="1">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
     </row>
-    <row r="287" ht="18.0" customHeight="1">
+    <row r="287" ht="18" customHeight="1">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
     </row>
-    <row r="288" ht="18.0" customHeight="1">
+    <row r="288" ht="18" customHeight="1">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
     </row>
-    <row r="289" ht="18.0" customHeight="1">
+    <row r="289" ht="18" customHeight="1">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
     </row>
-    <row r="290" ht="18.0" customHeight="1">
+    <row r="290" ht="18" customHeight="1">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
     </row>
-    <row r="291" ht="18.0" customHeight="1">
+    <row r="291" ht="18" customHeight="1">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
     </row>
-    <row r="292" ht="18.0" customHeight="1">
+    <row r="292" ht="18" customHeight="1">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
     </row>
-    <row r="293" ht="18.0" customHeight="1">
+    <row r="293" ht="18" customHeight="1">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
     </row>
-    <row r="294" ht="18.0" customHeight="1">
+    <row r="294" ht="18" customHeight="1">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
     </row>
-    <row r="295" ht="18.0" customHeight="1">
+    <row r="295" ht="18" customHeight="1">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
     </row>
-    <row r="296" ht="18.0" customHeight="1">
+    <row r="296" ht="18" customHeight="1">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
     </row>
-    <row r="297" ht="18.0" customHeight="1">
+    <row r="297" ht="18" customHeight="1">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
     </row>
-    <row r="298" ht="18.0" customHeight="1">
+    <row r="298" ht="18" customHeight="1">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
     </row>
-    <row r="299" ht="18.0" customHeight="1">
+    <row r="299" ht="18" customHeight="1">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
     </row>
-    <row r="300" ht="18.0" customHeight="1">
+    <row r="300" ht="18" customHeight="1">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
     </row>
-    <row r="301" ht="18.0" customHeight="1">
+    <row r="301" ht="18" customHeight="1">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
     </row>
-    <row r="302" ht="18.0" customHeight="1">
+    <row r="302" ht="18" customHeight="1">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
     </row>
-    <row r="303" ht="18.0" customHeight="1">
+    <row r="303" ht="18" customHeight="1">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
     </row>
-    <row r="304" ht="18.0" customHeight="1">
+    <row r="304" ht="18" customHeight="1">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
     </row>
-    <row r="305" ht="18.0" customHeight="1">
+    <row r="305" ht="18" customHeight="1">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
     </row>
-    <row r="306" ht="18.0" customHeight="1">
+    <row r="306" ht="18" customHeight="1">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
     </row>
-    <row r="307" ht="18.0" customHeight="1">
+    <row r="307" ht="18" customHeight="1">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
     </row>
-    <row r="308" ht="18.0" customHeight="1">
+    <row r="308" ht="18" customHeight="1">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
     </row>
-    <row r="309" ht="18.0" customHeight="1">
+    <row r="309" ht="18" customHeight="1">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
     </row>
-    <row r="310" ht="18.0" customHeight="1">
+    <row r="310" ht="18" customHeight="1">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
     </row>
-    <row r="311" ht="18.0" customHeight="1">
+    <row r="311" ht="18" customHeight="1">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
     </row>
-    <row r="312" ht="18.0" customHeight="1">
+    <row r="312" ht="18" customHeight="1">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
     </row>
-    <row r="313" ht="18.0" customHeight="1">
+    <row r="313" ht="18" customHeight="1">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
     </row>
-    <row r="314" ht="18.0" customHeight="1">
+    <row r="314" ht="18" customHeight="1">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
     </row>
-    <row r="315" ht="18.0" customHeight="1">
+    <row r="315" ht="18" customHeight="1">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
     </row>
-    <row r="316" ht="18.0" customHeight="1">
+    <row r="316" ht="18" customHeight="1">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
     </row>
-    <row r="317" ht="18.0" customHeight="1">
+    <row r="317" ht="18" customHeight="1">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
     </row>
-    <row r="318" ht="18.0" customHeight="1">
+    <row r="318" ht="18" customHeight="1">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
     </row>
-    <row r="319" ht="18.0" customHeight="1">
+    <row r="319" ht="18" customHeight="1">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
     </row>
-    <row r="320" ht="18.0" customHeight="1">
+    <row r="320" ht="18" customHeight="1">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
     </row>
-    <row r="321" ht="18.0" customHeight="1">
+    <row r="321" ht="18" customHeight="1">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
     </row>
-    <row r="322" ht="18.0" customHeight="1">
+    <row r="322" ht="18" customHeight="1">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
     </row>
-    <row r="323" ht="18.0" customHeight="1">
+    <row r="323" ht="18" customHeight="1">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
     </row>
-    <row r="324" ht="18.0" customHeight="1">
+    <row r="324" ht="18" customHeight="1">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
     </row>
-    <row r="325" ht="18.0" customHeight="1">
+    <row r="325" ht="18" customHeight="1">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
     </row>
-    <row r="326" ht="18.0" customHeight="1">
+    <row r="326" ht="18" customHeight="1">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
     </row>
-    <row r="327" ht="18.0" customHeight="1">
+    <row r="327" ht="18" customHeight="1">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
     </row>
-    <row r="328" ht="18.0" customHeight="1">
+    <row r="328" ht="18" customHeight="1">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
     </row>
-    <row r="329" ht="18.0" customHeight="1">
+    <row r="329" ht="18" customHeight="1">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
     </row>
-    <row r="330" ht="18.0" customHeight="1">
+    <row r="330" ht="18" customHeight="1">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
     </row>
-    <row r="331" ht="18.0" customHeight="1">
+    <row r="331" ht="18" customHeight="1">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
     </row>
-    <row r="332" ht="18.0" customHeight="1">
+    <row r="332" ht="18" customHeight="1">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
     </row>
-    <row r="333" ht="18.0" customHeight="1">
+    <row r="333" ht="18" customHeight="1">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
     </row>
-    <row r="334" ht="18.0" customHeight="1">
+    <row r="334" ht="18" customHeight="1">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
     </row>
-    <row r="335" ht="18.0" customHeight="1">
+    <row r="335" ht="18" customHeight="1">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
     </row>
-    <row r="336" ht="18.0" customHeight="1">
+    <row r="336" ht="18" customHeight="1">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
     </row>
-    <row r="337" ht="18.0" customHeight="1">
+    <row r="337" ht="18" customHeight="1">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
     </row>
-    <row r="338" ht="18.0" customHeight="1">
+    <row r="338" ht="18" customHeight="1">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
     </row>
-    <row r="339" ht="18.0" customHeight="1">
+    <row r="339" ht="18" customHeight="1">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
     </row>
-    <row r="340" ht="18.0" customHeight="1">
+    <row r="340" ht="18" customHeight="1">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
     </row>
-    <row r="341" ht="18.0" customHeight="1">
+    <row r="341" ht="18" customHeight="1">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
     </row>
-    <row r="342" ht="18.0" customHeight="1">
+    <row r="342" ht="18" customHeight="1">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
     </row>
-    <row r="343" ht="18.0" customHeight="1">
+    <row r="343" ht="18" customHeight="1">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
     </row>
-    <row r="344" ht="18.0" customHeight="1">
+    <row r="344" ht="18" customHeight="1">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
     </row>
-    <row r="345" ht="18.0" customHeight="1">
+    <row r="345" ht="18" customHeight="1">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
     </row>
-    <row r="346" ht="18.0" customHeight="1">
+    <row r="346" ht="18" customHeight="1">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
     </row>
-    <row r="347" ht="18.0" customHeight="1">
+    <row r="347" ht="18" customHeight="1">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
     </row>
-    <row r="348" ht="18.0" customHeight="1">
+    <row r="348" ht="18" customHeight="1">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
     </row>
-    <row r="349" ht="18.0" customHeight="1">
+    <row r="349" ht="18" customHeight="1">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
     </row>
-    <row r="350" ht="18.0" customHeight="1">
+    <row r="350" ht="18" customHeight="1">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
     </row>
-    <row r="351" ht="18.0" customHeight="1">
+    <row r="351" ht="18" customHeight="1">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
     </row>
-    <row r="352" ht="18.0" customHeight="1">
+    <row r="352" ht="18" customHeight="1">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
     </row>
-    <row r="353" ht="18.0" customHeight="1">
+    <row r="353" ht="18" customHeight="1">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
     </row>
-    <row r="354" ht="18.0" customHeight="1">
+    <row r="354" ht="18" customHeight="1">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
     </row>
-    <row r="355" ht="18.0" customHeight="1">
+    <row r="355" ht="18" customHeight="1">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
     </row>
-    <row r="356" ht="18.0" customHeight="1">
+    <row r="356" ht="18" customHeight="1">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
     </row>
-    <row r="357" ht="18.0" customHeight="1">
+    <row r="357" ht="18" customHeight="1">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
     </row>
-    <row r="358" ht="18.0" customHeight="1">
+    <row r="358" ht="18" customHeight="1">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
     </row>
-    <row r="359" ht="18.0" customHeight="1">
+    <row r="359" ht="18" customHeight="1">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
     </row>
-    <row r="360" ht="18.0" customHeight="1">
+    <row r="360" ht="18" customHeight="1">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
     </row>
-    <row r="361" ht="18.0" customHeight="1">
+    <row r="361" ht="18" customHeight="1">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
     </row>
-    <row r="362" ht="18.0" customHeight="1">
+    <row r="362" ht="18" customHeight="1">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
     </row>
-    <row r="363" ht="18.0" customHeight="1">
+    <row r="363" ht="18" customHeight="1">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
     </row>
-    <row r="364" ht="18.0" customHeight="1">
+    <row r="364" ht="18" customHeight="1">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
     </row>
-    <row r="365" ht="18.0" customHeight="1">
+    <row r="365" ht="18" customHeight="1">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
     </row>
-    <row r="366" ht="18.0" customHeight="1">
+    <row r="366" ht="18" customHeight="1">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
     </row>
-    <row r="367" ht="18.0" customHeight="1">
+    <row r="367" ht="18" customHeight="1">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
     </row>
-    <row r="368" ht="18.0" customHeight="1">
+    <row r="368" ht="18" customHeight="1">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
     </row>
-    <row r="369" ht="18.0" customHeight="1">
+    <row r="369" ht="18" customHeight="1">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
     </row>
-    <row r="370" ht="18.0" customHeight="1">
+    <row r="370" ht="18" customHeight="1">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
     </row>
-    <row r="371" ht="18.0" customHeight="1">
+    <row r="371" ht="18" customHeight="1">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
     </row>
-    <row r="372" ht="18.0" customHeight="1">
+    <row r="372" ht="18" customHeight="1">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
     </row>
-    <row r="373" ht="18.0" customHeight="1">
+    <row r="373" ht="18" customHeight="1">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
     </row>
-    <row r="374" ht="18.0" customHeight="1">
+    <row r="374" ht="18" customHeight="1">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
     </row>
-    <row r="375" ht="18.0" customHeight="1">
+    <row r="375" ht="18" customHeight="1">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
     </row>
-    <row r="376" ht="18.0" customHeight="1">
+    <row r="376" ht="18" customHeight="1">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
     </row>
-    <row r="377" ht="18.0" customHeight="1">
+    <row r="377" ht="18" customHeight="1">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
     </row>
-    <row r="378" ht="18.0" customHeight="1">
+    <row r="378" ht="18" customHeight="1">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
     </row>
-    <row r="379" ht="18.0" customHeight="1">
+    <row r="379" ht="18" customHeight="1">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
     </row>
-    <row r="380" ht="18.0" customHeight="1">
+    <row r="380" ht="18" customHeight="1">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
     </row>
-    <row r="381" ht="18.0" customHeight="1">
+    <row r="381" ht="18" customHeight="1">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
     </row>
-    <row r="382" ht="18.0" customHeight="1">
+    <row r="382" ht="18" customHeight="1">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
     </row>
-    <row r="383" ht="18.0" customHeight="1">
+    <row r="383" ht="18" customHeight="1">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
     </row>
-    <row r="384" ht="18.0" customHeight="1">
+    <row r="384" ht="18" customHeight="1">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
     </row>
-    <row r="385" ht="18.0" customHeight="1">
+    <row r="385" ht="18" customHeight="1">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
     </row>
-    <row r="386" ht="18.0" customHeight="1">
+    <row r="386" ht="18" customHeight="1">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
     </row>
-    <row r="387" ht="18.0" customHeight="1">
+    <row r="387" ht="18" customHeight="1">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
     </row>
-    <row r="388" ht="18.0" customHeight="1">
+    <row r="388" ht="18" customHeight="1">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
     </row>
-    <row r="389" ht="18.0" customHeight="1">
+    <row r="389" ht="18" customHeight="1">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
     </row>
-    <row r="390" ht="18.0" customHeight="1">
+    <row r="390" ht="18" customHeight="1">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
     </row>
-    <row r="391" ht="18.0" customHeight="1">
+    <row r="391" ht="18" customHeight="1">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
     </row>
-    <row r="392" ht="18.0" customHeight="1">
+    <row r="392" ht="18" customHeight="1">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
     </row>
-    <row r="393" ht="18.0" customHeight="1">
+    <row r="393" ht="18" customHeight="1">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
     </row>
-    <row r="394" ht="18.0" customHeight="1">
+    <row r="394" ht="18" customHeight="1">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
     </row>
-    <row r="395" ht="18.0" customHeight="1">
+    <row r="395" ht="18" customHeight="1">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
     </row>
-    <row r="396" ht="18.0" customHeight="1">
+    <row r="396" ht="18" customHeight="1">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
     </row>
-    <row r="397" ht="18.0" customHeight="1">
+    <row r="397" ht="18" customHeight="1">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
     </row>
-    <row r="398" ht="18.0" customHeight="1">
+    <row r="398" ht="18" customHeight="1">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
     </row>
-    <row r="399" ht="18.0" customHeight="1">
+    <row r="399" ht="18" customHeight="1">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
     </row>
-    <row r="400" ht="18.0" customHeight="1">
+    <row r="400" ht="18" customHeight="1">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
     </row>
-    <row r="401" ht="18.0" customHeight="1">
+    <row r="401" ht="18" customHeight="1">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
     </row>
-    <row r="402" ht="18.0" customHeight="1">
+    <row r="402" ht="18" customHeight="1">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
     </row>
-    <row r="403" ht="18.0" customHeight="1">
+    <row r="403" ht="18" customHeight="1">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
     </row>
-    <row r="404" ht="18.0" customHeight="1">
+    <row r="404" ht="18" customHeight="1">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
     </row>
-    <row r="405" ht="18.0" customHeight="1">
+    <row r="405" ht="18" customHeight="1">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
     </row>
-    <row r="406" ht="18.0" customHeight="1">
+    <row r="406" ht="18" customHeight="1">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
     </row>
-    <row r="407" ht="18.0" customHeight="1">
+    <row r="407" ht="18" customHeight="1">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
     </row>
-    <row r="408" ht="18.0" customHeight="1">
+    <row r="408" ht="18" customHeight="1">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
     </row>
-    <row r="409" ht="18.0" customHeight="1">
+    <row r="409" ht="18" customHeight="1">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
     </row>
-    <row r="410" ht="18.0" customHeight="1">
+    <row r="410" ht="18" customHeight="1">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
     </row>
-    <row r="411" ht="18.0" customHeight="1">
+    <row r="411" ht="18" customHeight="1">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
     </row>
-    <row r="412" ht="18.0" customHeight="1">
+    <row r="412" ht="18" customHeight="1">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
     </row>
-    <row r="413" ht="18.0" customHeight="1">
+    <row r="413" ht="18" customHeight="1">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
     </row>
-    <row r="414" ht="18.0" customHeight="1">
+    <row r="414" ht="18" customHeight="1">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
     </row>
-    <row r="415" ht="18.0" customHeight="1">
+    <row r="415" ht="18" customHeight="1">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
     </row>
-    <row r="416" ht="18.0" customHeight="1">
+    <row r="416" ht="18" customHeight="1">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
     </row>
-    <row r="417" ht="18.0" customHeight="1">
+    <row r="417" ht="18" customHeight="1">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
     </row>
-    <row r="418" ht="18.0" customHeight="1">
+    <row r="418" ht="18" customHeight="1">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
     </row>
-    <row r="419" ht="18.0" customHeight="1">
+    <row r="419" ht="18" customHeight="1">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
     </row>
-    <row r="420" ht="18.0" customHeight="1">
+    <row r="420" ht="18" customHeight="1">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
     </row>
-    <row r="421" ht="18.0" customHeight="1">
+    <row r="421" ht="18" customHeight="1">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
     </row>
-    <row r="422" ht="18.0" customHeight="1">
+    <row r="422" ht="18" customHeight="1">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
     </row>
-    <row r="423" ht="18.0" customHeight="1">
+    <row r="423" ht="18" customHeight="1">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
     </row>
-    <row r="424" ht="18.0" customHeight="1">
+    <row r="424" ht="18" customHeight="1">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
     </row>
-    <row r="425" ht="18.0" customHeight="1">
+    <row r="425" ht="18" customHeight="1">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
     </row>
-    <row r="426" ht="18.0" customHeight="1">
+    <row r="426" ht="18" customHeight="1">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
     </row>
-    <row r="427" ht="18.0" customHeight="1">
+    <row r="427" ht="18" customHeight="1">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
     </row>
-    <row r="428" ht="18.0" customHeight="1">
+    <row r="428" ht="18" customHeight="1">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
     </row>
-    <row r="429" ht="18.0" customHeight="1">
+    <row r="429" ht="18" customHeight="1">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
     </row>
-    <row r="430" ht="18.0" customHeight="1">
+    <row r="430" ht="18" customHeight="1">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
     </row>
-    <row r="431" ht="18.0" customHeight="1">
+    <row r="431" ht="18" customHeight="1">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
     </row>
-    <row r="432" ht="18.0" customHeight="1">
+    <row r="432" ht="18" customHeight="1">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
     </row>
-    <row r="433" ht="18.0" customHeight="1">
+    <row r="433" ht="18" customHeight="1">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
     </row>
-    <row r="434" ht="18.0" customHeight="1">
+    <row r="434" ht="18" customHeight="1">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
     </row>
-    <row r="435" ht="18.0" customHeight="1">
+    <row r="435" ht="18" customHeight="1">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
     </row>
-    <row r="436" ht="18.0" customHeight="1">
+    <row r="436" ht="18" customHeight="1">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
     </row>
-    <row r="437" ht="18.0" customHeight="1">
+    <row r="437" ht="18" customHeight="1">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
     </row>
-    <row r="438" ht="18.0" customHeight="1">
+    <row r="438" ht="18" customHeight="1">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
     </row>
-    <row r="439" ht="18.0" customHeight="1">
+    <row r="439" ht="18" customHeight="1">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
     </row>
-    <row r="440" ht="18.0" customHeight="1">
+    <row r="440" ht="18" customHeight="1">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
     </row>
-    <row r="441" ht="18.0" customHeight="1">
+    <row r="441" ht="18" customHeight="1">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
     </row>
-    <row r="442" ht="18.0" customHeight="1">
+    <row r="442" ht="18" customHeight="1">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
     </row>
-    <row r="443" ht="18.0" customHeight="1">
+    <row r="443" ht="18" customHeight="1">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
     </row>
-    <row r="444" ht="18.0" customHeight="1">
+    <row r="444" ht="18" customHeight="1">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
     </row>
-    <row r="445" ht="18.0" customHeight="1">
+    <row r="445" ht="18" customHeight="1">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
     </row>
-    <row r="446" ht="18.0" customHeight="1">
+    <row r="446" ht="18" customHeight="1">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
     </row>
-    <row r="447" ht="18.0" customHeight="1">
+    <row r="447" ht="18" customHeight="1">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
     </row>
-    <row r="448" ht="18.0" customHeight="1">
+    <row r="448" ht="18" customHeight="1">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
     </row>
-    <row r="449" ht="18.0" customHeight="1">
+    <row r="449" ht="18" customHeight="1">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
     </row>
-    <row r="450" ht="18.0" customHeight="1">
+    <row r="450" ht="18" customHeight="1">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
     </row>
-    <row r="451" ht="18.0" customHeight="1">
+    <row r="451" ht="18" customHeight="1">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
     </row>
-    <row r="452" ht="18.0" customHeight="1">
+    <row r="452" ht="18" customHeight="1">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
     </row>
-    <row r="453" ht="18.0" customHeight="1">
+    <row r="453" ht="18" customHeight="1">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
     </row>
-    <row r="454" ht="18.0" customHeight="1">
+    <row r="454" ht="18" customHeight="1">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
     </row>
-    <row r="455" ht="18.0" customHeight="1">
+    <row r="455" ht="18" customHeight="1">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
     </row>
-    <row r="456" ht="18.0" customHeight="1">
+    <row r="456" ht="18" customHeight="1">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
     </row>
-    <row r="457" ht="18.0" customHeight="1">
+    <row r="457" ht="18" customHeight="1">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
     </row>
-    <row r="458" ht="18.0" customHeight="1">
+    <row r="458" ht="18" customHeight="1">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
     </row>
-    <row r="459" ht="18.0" customHeight="1">
+    <row r="459" ht="18" customHeight="1">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
     </row>
-    <row r="460" ht="18.0" customHeight="1">
+    <row r="460" ht="18" customHeight="1">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
     </row>
-    <row r="461" ht="18.0" customHeight="1">
+    <row r="461" ht="18" customHeight="1">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
     </row>
-    <row r="462" ht="18.0" customHeight="1">
+    <row r="462" ht="18" customHeight="1">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
     </row>
-    <row r="463" ht="18.0" customHeight="1">
+    <row r="463" ht="18" customHeight="1">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
     </row>
-    <row r="464" ht="18.0" customHeight="1">
+    <row r="464" ht="18" customHeight="1">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
     </row>
-    <row r="465" ht="18.0" customHeight="1">
+    <row r="465" ht="18" customHeight="1">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
     </row>
-    <row r="466" ht="18.0" customHeight="1">
+    <row r="466" ht="18" customHeight="1">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
     </row>
-    <row r="467" ht="18.0" customHeight="1">
+    <row r="467" ht="18" customHeight="1">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
     </row>
-    <row r="468" ht="18.0" customHeight="1">
+    <row r="468" ht="18" customHeight="1">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
     </row>
-    <row r="469" ht="18.0" customHeight="1">
+    <row r="469" ht="18" customHeight="1">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
     </row>
-    <row r="470" ht="18.0" customHeight="1">
+    <row r="470" ht="18" customHeight="1">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
     </row>
-    <row r="471" ht="18.0" customHeight="1">
+    <row r="471" ht="18" customHeight="1">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
     </row>
-    <row r="472" ht="18.0" customHeight="1">
+    <row r="472" ht="18" customHeight="1">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
     </row>
-    <row r="473" ht="18.0" customHeight="1">
+    <row r="473" ht="18" customHeight="1">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
     </row>
-    <row r="474" ht="18.0" customHeight="1">
+    <row r="474" ht="18" customHeight="1">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
     </row>
-    <row r="475" ht="18.0" customHeight="1">
+    <row r="475" ht="18" customHeight="1">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
     </row>
-    <row r="476" ht="18.0" customHeight="1">
+    <row r="476" ht="18" customHeight="1">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
     </row>
-    <row r="477" ht="18.0" customHeight="1">
+    <row r="477" ht="18" customHeight="1">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
     </row>
-    <row r="478" ht="18.0" customHeight="1">
+    <row r="478" ht="18" customHeight="1">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
     </row>
-    <row r="479" ht="18.0" customHeight="1">
+    <row r="479" ht="18" customHeight="1">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
     </row>
-    <row r="480" ht="18.0" customHeight="1">
+    <row r="480" ht="18" customHeight="1">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
     </row>
-    <row r="481" ht="18.0" customHeight="1">
+    <row r="481" ht="18" customHeight="1">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
     </row>
-    <row r="482" ht="18.0" customHeight="1">
+    <row r="482" ht="18" customHeight="1">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
     </row>
-    <row r="483" ht="18.0" customHeight="1">
+    <row r="483" ht="18" customHeight="1">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
     </row>
-    <row r="484" ht="18.0" customHeight="1">
+    <row r="484" ht="18" customHeight="1">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
     </row>
-    <row r="485" ht="18.0" customHeight="1">
+    <row r="485" ht="18" customHeight="1">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
     </row>
-    <row r="486" ht="18.0" customHeight="1">
+    <row r="486" ht="18" customHeight="1">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
     </row>
-    <row r="487" ht="18.0" customHeight="1">
+    <row r="487" ht="18" customHeight="1">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
     </row>
-    <row r="488" ht="18.0" customHeight="1">
+    <row r="488" ht="18" customHeight="1">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
     </row>
-    <row r="489" ht="18.0" customHeight="1">
+    <row r="489" ht="18" customHeight="1">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
     </row>
-    <row r="490" ht="18.0" customHeight="1">
+    <row r="490" ht="18" customHeight="1">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
     </row>
-    <row r="491" ht="18.0" customHeight="1">
+    <row r="491" ht="18" customHeight="1">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
     </row>
-    <row r="492" ht="18.0" customHeight="1">
+    <row r="492" ht="18" customHeight="1">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
     </row>
-    <row r="493" ht="18.0" customHeight="1">
+    <row r="493" ht="18" customHeight="1">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
     </row>
-    <row r="494" ht="18.0" customHeight="1">
+    <row r="494" ht="18" customHeight="1">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
     </row>
-    <row r="495" ht="18.0" customHeight="1">
+    <row r="495" ht="18" customHeight="1">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
     </row>
-    <row r="496" ht="18.0" customHeight="1">
+    <row r="496" ht="18" customHeight="1">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
     </row>
-    <row r="497" ht="18.0" customHeight="1">
+    <row r="497" ht="18" customHeight="1">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
     </row>
-    <row r="498" ht="18.0" customHeight="1">
+    <row r="498" ht="18" customHeight="1">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
     </row>
-    <row r="499" ht="18.0" customHeight="1">
+    <row r="499" ht="18" customHeight="1">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
     </row>
-    <row r="500" ht="18.0" customHeight="1">
+    <row r="500" ht="18" customHeight="1">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
     </row>
-    <row r="501" ht="18.0" customHeight="1">
+    <row r="501" ht="18" customHeight="1">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
     </row>
-    <row r="502" ht="18.0" customHeight="1">
+    <row r="502" ht="18" customHeight="1">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
     </row>
-    <row r="503" ht="18.0" customHeight="1">
+    <row r="503" ht="18" customHeight="1">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
     </row>
-    <row r="504" ht="18.0" customHeight="1">
+    <row r="504" ht="18" customHeight="1">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
     </row>
-    <row r="505" ht="18.0" customHeight="1">
+    <row r="505" ht="18" customHeight="1">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
     </row>
-    <row r="506" ht="18.0" customHeight="1">
+    <row r="506" ht="18" customHeight="1">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
     </row>
-    <row r="507" ht="18.0" customHeight="1">
+    <row r="507" ht="18" customHeight="1">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
     </row>
-    <row r="508" ht="18.0" customHeight="1">
+    <row r="508" ht="18" customHeight="1">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
     </row>
-    <row r="509" ht="18.0" customHeight="1">
+    <row r="509" ht="18" customHeight="1">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
     </row>
-    <row r="510" ht="18.0" customHeight="1">
+    <row r="510" ht="18" customHeight="1">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
     </row>
-    <row r="511" ht="18.0" customHeight="1">
+    <row r="511" ht="18" customHeight="1">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
     </row>
-    <row r="512" ht="18.0" customHeight="1">
+    <row r="512" ht="18" customHeight="1">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
     </row>
-    <row r="513" ht="18.0" customHeight="1">
+    <row r="513" ht="18" customHeight="1">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
     </row>
-    <row r="514" ht="18.0" customHeight="1">
+    <row r="514" ht="18" customHeight="1">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
     </row>
-    <row r="515" ht="18.0" customHeight="1">
+    <row r="515" ht="18" customHeight="1">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
     </row>
-    <row r="516" ht="18.0" customHeight="1">
+    <row r="516" ht="18" customHeight="1">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
     </row>
-    <row r="517" ht="18.0" customHeight="1">
+    <row r="517" ht="18" customHeight="1">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
     </row>
-    <row r="518" ht="18.0" customHeight="1">
+    <row r="518" ht="18" customHeight="1">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
     </row>
-    <row r="519" ht="18.0" customHeight="1">
+    <row r="519" ht="18" customHeight="1">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
     </row>
-    <row r="520" ht="18.0" customHeight="1">
+    <row r="520" ht="18" customHeight="1">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
     </row>
-    <row r="521" ht="18.0" customHeight="1">
+    <row r="521" ht="18" customHeight="1">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
     </row>
-    <row r="522" ht="18.0" customHeight="1">
+    <row r="522" ht="18" customHeight="1">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
     </row>
-    <row r="523" ht="18.0" customHeight="1">
+    <row r="523" ht="18" customHeight="1">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
     </row>
-    <row r="524" ht="18.0" customHeight="1">
+    <row r="524" ht="18" customHeight="1">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
     </row>
-    <row r="525" ht="18.0" customHeight="1">
+    <row r="525" ht="18" customHeight="1">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
     </row>
-    <row r="526" ht="18.0" customHeight="1">
+    <row r="526" ht="18" customHeight="1">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
     </row>
-    <row r="527" ht="18.0" customHeight="1">
+    <row r="527" ht="18" customHeight="1">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
     </row>
-    <row r="528" ht="18.0" customHeight="1">
+    <row r="528" ht="18" customHeight="1">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
     </row>
-    <row r="529" ht="18.0" customHeight="1">
+    <row r="529" ht="18" customHeight="1">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
     </row>
-    <row r="530" ht="18.0" customHeight="1">
+    <row r="530" ht="18" customHeight="1">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
     </row>
-    <row r="531" ht="18.0" customHeight="1">
+    <row r="531" ht="18" customHeight="1">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
     </row>
-    <row r="532" ht="18.0" customHeight="1">
+    <row r="532" ht="18" customHeight="1">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
     </row>
-    <row r="533" ht="18.0" customHeight="1">
+    <row r="533" ht="18" customHeight="1">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
     </row>
-    <row r="534" ht="18.0" customHeight="1">
+    <row r="534" ht="18" customHeight="1">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
     </row>
-    <row r="535" ht="18.0" customHeight="1">
+    <row r="535" ht="18" customHeight="1">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
     </row>
-    <row r="536" ht="18.0" customHeight="1">
+    <row r="536" ht="18" customHeight="1">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
     </row>
-    <row r="537" ht="18.0" customHeight="1">
+    <row r="537" ht="18" customHeight="1">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
     </row>
-    <row r="538" ht="18.0" customHeight="1">
+    <row r="538" ht="18" customHeight="1">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
     </row>
-    <row r="539" ht="18.0" customHeight="1">
+    <row r="539" ht="18" customHeight="1">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
     </row>
-    <row r="540" ht="18.0" customHeight="1">
+    <row r="540" ht="18" customHeight="1">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
     </row>
-    <row r="541" ht="18.0" customHeight="1">
+    <row r="541" ht="18" customHeight="1">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
     </row>
-    <row r="542" ht="18.0" customHeight="1">
+    <row r="542" ht="18" customHeight="1">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
     </row>
-    <row r="543" ht="18.0" customHeight="1">
+    <row r="543" ht="18" customHeight="1">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
     </row>
-    <row r="544" ht="18.0" customHeight="1">
+    <row r="544" ht="18" customHeight="1">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
     </row>
-    <row r="545" ht="18.0" customHeight="1">
+    <row r="545" ht="18" customHeight="1">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
     </row>
-    <row r="546" ht="18.0" customHeight="1">
+    <row r="546" ht="18" customHeight="1">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
     </row>
-    <row r="547" ht="18.0" customHeight="1">
+    <row r="547" ht="18" customHeight="1">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
     </row>
-    <row r="548" ht="18.0" customHeight="1">
+    <row r="548" ht="18" customHeight="1">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
     </row>
-    <row r="549" ht="18.0" customHeight="1">
+    <row r="549" ht="18" customHeight="1">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
     </row>
-    <row r="550" ht="18.0" customHeight="1">
+    <row r="550" ht="18" customHeight="1">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
     </row>
-    <row r="551" ht="18.0" customHeight="1">
+    <row r="551" ht="18" customHeight="1">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
     </row>
-    <row r="552" ht="18.0" customHeight="1">
+    <row r="552" ht="18" customHeight="1">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
     </row>
-    <row r="553" ht="18.0" customHeight="1">
+    <row r="553" ht="18" customHeight="1">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
     </row>
-    <row r="554" ht="18.0" customHeight="1">
+    <row r="554" ht="18" customHeight="1">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
     </row>
-    <row r="555" ht="18.0" customHeight="1">
+    <row r="555" ht="18" customHeight="1">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
     </row>
-    <row r="556" ht="18.0" customHeight="1">
+    <row r="556" ht="18" customHeight="1">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
     </row>
-    <row r="557" ht="18.0" customHeight="1">
+    <row r="557" ht="18" customHeight="1">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
     </row>
-    <row r="558" ht="18.0" customHeight="1">
+    <row r="558" ht="18" customHeight="1">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
     </row>
-    <row r="559" ht="18.0" customHeight="1">
+    <row r="559" ht="18" customHeight="1">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
     </row>
-    <row r="560" ht="18.0" customHeight="1">
+    <row r="560" ht="18" customHeight="1">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
     </row>
-    <row r="561" ht="18.0" customHeight="1">
+    <row r="561" ht="18" customHeight="1">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
     </row>
-    <row r="562" ht="18.0" customHeight="1">
+    <row r="562" ht="18" customHeight="1">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
     </row>
-    <row r="563" ht="18.0" customHeight="1">
+    <row r="563" ht="18" customHeight="1">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
     </row>
-    <row r="564" ht="18.0" customHeight="1">
+    <row r="564" ht="18" customHeight="1">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
     </row>
-    <row r="565" ht="18.0" customHeight="1">
+    <row r="565" ht="18" customHeight="1">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
     </row>
-    <row r="566" ht="18.0" customHeight="1">
+    <row r="566" ht="18" customHeight="1">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
     </row>
-    <row r="567" ht="18.0" customHeight="1">
+    <row r="567" ht="18" customHeight="1">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
     </row>
-    <row r="568" ht="18.0" customHeight="1">
+    <row r="568" ht="18" customHeight="1">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
     </row>
-    <row r="569" ht="18.0" customHeight="1">
+    <row r="569" ht="18" customHeight="1">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
     </row>
-    <row r="570" ht="18.0" customHeight="1">
+    <row r="570" ht="18" customHeight="1">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
     </row>
-    <row r="571" ht="18.0" customHeight="1">
+    <row r="571" ht="18" customHeight="1">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
     </row>
-    <row r="572" ht="18.0" customHeight="1">
+    <row r="572" ht="18" customHeight="1">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
     </row>
-    <row r="573" ht="18.0" customHeight="1">
+    <row r="573" ht="18" customHeight="1">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
     </row>
-    <row r="574" ht="18.0" customHeight="1">
+    <row r="574" ht="18" customHeight="1">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
     </row>
-    <row r="575" ht="18.0" customHeight="1">
+    <row r="575" ht="18" customHeight="1">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
     </row>
-    <row r="576" ht="18.0" customHeight="1">
+    <row r="576" ht="18" customHeight="1">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
     </row>
-    <row r="577" ht="18.0" customHeight="1">
+    <row r="577" ht="18" customHeight="1">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
     </row>
-    <row r="578" ht="18.0" customHeight="1">
+    <row r="578" ht="18" customHeight="1">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
     </row>
-    <row r="579" ht="18.0" customHeight="1">
+    <row r="579" ht="18" customHeight="1">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
     </row>
-    <row r="580" ht="18.0" customHeight="1">
+    <row r="580" ht="18" customHeight="1">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
     </row>
-    <row r="581" ht="18.0" customHeight="1">
+    <row r="581" ht="18" customHeight="1">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
     </row>
-    <row r="582" ht="18.0" customHeight="1">
+    <row r="582" ht="18" customHeight="1">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
     </row>
-    <row r="583" ht="18.0" customHeight="1">
+    <row r="583" ht="18" customHeight="1">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
     </row>
-    <row r="584" ht="18.0" customHeight="1">
+    <row r="584" ht="18" customHeight="1">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
     </row>
-    <row r="585" ht="18.0" customHeight="1">
+    <row r="585" ht="18" customHeight="1">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
     </row>
-    <row r="586" ht="18.0" customHeight="1">
+    <row r="586" ht="18" customHeight="1">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
     </row>
-    <row r="587" ht="18.0" customHeight="1">
+    <row r="587" ht="18" customHeight="1">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
     </row>
-    <row r="588" ht="18.0" customHeight="1">
+    <row r="588" ht="18" customHeight="1">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
     </row>
-    <row r="589" ht="18.0" customHeight="1">
+    <row r="589" ht="18" customHeight="1">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
     </row>
-    <row r="590" ht="18.0" customHeight="1">
+    <row r="590" ht="18" customHeight="1">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
     </row>
-    <row r="591" ht="18.0" customHeight="1">
+    <row r="591" ht="18" customHeight="1">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
     </row>
-    <row r="592" ht="18.0" customHeight="1">
+    <row r="592" ht="18" customHeight="1">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
     </row>
-    <row r="593" ht="18.0" customHeight="1">
+    <row r="593" ht="18" customHeight="1">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
     </row>
-    <row r="594" ht="18.0" customHeight="1">
+    <row r="594" ht="18" customHeight="1">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
     </row>
-    <row r="595" ht="18.0" customHeight="1">
+    <row r="595" ht="18" customHeight="1">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
     </row>
-    <row r="596" ht="18.0" customHeight="1">
+    <row r="596" ht="18" customHeight="1">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
     </row>
-    <row r="597" ht="18.0" customHeight="1">
+    <row r="597" ht="18" customHeight="1">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
     </row>
-    <row r="598" ht="18.0" customHeight="1">
+    <row r="598" ht="18" customHeight="1">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
     </row>
-    <row r="599" ht="18.0" customHeight="1">
+    <row r="599" ht="18" customHeight="1">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
     </row>
-    <row r="600" ht="18.0" customHeight="1">
+    <row r="600" ht="18" customHeight="1">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
     </row>
-    <row r="601" ht="18.0" customHeight="1">
+    <row r="601" ht="18" customHeight="1">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
     </row>
-    <row r="602" ht="18.0" customHeight="1">
+    <row r="602" ht="18" customHeight="1">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
     </row>
-    <row r="603" ht="18.0" customHeight="1">
+    <row r="603" ht="18" customHeight="1">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
     </row>
-    <row r="604" ht="18.0" customHeight="1">
+    <row r="604" ht="18" customHeight="1">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
     </row>
-    <row r="605" ht="18.0" customHeight="1">
+    <row r="605" ht="18" customHeight="1">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
     </row>
-    <row r="606" ht="18.0" customHeight="1">
+    <row r="606" ht="18" customHeight="1">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
     </row>
-    <row r="607" ht="18.0" customHeight="1">
+    <row r="607" ht="18" customHeight="1">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
     </row>
-    <row r="608" ht="18.0" customHeight="1">
+    <row r="608" ht="18" customHeight="1">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
     </row>
-    <row r="609" ht="18.0" customHeight="1">
+    <row r="609" ht="18" customHeight="1">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
     </row>
-    <row r="610" ht="18.0" customHeight="1">
+    <row r="610" ht="18" customHeight="1">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
     </row>
-    <row r="611" ht="18.0" customHeight="1">
+    <row r="611" ht="18" customHeight="1">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
     </row>
-    <row r="612" ht="18.0" customHeight="1">
+    <row r="612" ht="18" customHeight="1">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
     </row>
-    <row r="613" ht="18.0" customHeight="1">
+    <row r="613" ht="18" customHeight="1">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
     </row>
-    <row r="614" ht="18.0" customHeight="1">
+    <row r="614" ht="18" customHeight="1">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
     </row>
-    <row r="615" ht="18.0" customHeight="1">
+    <row r="615" ht="18" customHeight="1">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
     </row>
-    <row r="616" ht="18.0" customHeight="1">
+    <row r="616" ht="18" customHeight="1">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
     </row>
-    <row r="617" ht="18.0" customHeight="1">
+    <row r="617" ht="18" customHeight="1">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
     </row>
-    <row r="618" ht="18.0" customHeight="1">
+    <row r="618" ht="18" customHeight="1">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
     </row>
-    <row r="619" ht="18.0" customHeight="1">
+    <row r="619" ht="18" customHeight="1">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
     </row>
-    <row r="620" ht="18.0" customHeight="1">
+    <row r="620" ht="18" customHeight="1">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
     </row>
-    <row r="621" ht="18.0" customHeight="1">
+    <row r="621" ht="18" customHeight="1">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
     </row>
-    <row r="622" ht="18.0" customHeight="1">
+    <row r="622" ht="18" customHeight="1">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
     </row>
-    <row r="623" ht="18.0" customHeight="1">
+    <row r="623" ht="18" customHeight="1">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
     </row>
-    <row r="624" ht="18.0" customHeight="1">
+    <row r="624" ht="18" customHeight="1">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
     </row>
-    <row r="625" ht="18.0" customHeight="1">
+    <row r="625" ht="18" customHeight="1">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
     </row>
-    <row r="626" ht="18.0" customHeight="1">
+    <row r="626" ht="18" customHeight="1">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
     </row>
-    <row r="627" ht="18.0" customHeight="1">
+    <row r="627" ht="18" customHeight="1">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
     </row>
-    <row r="628" ht="18.0" customHeight="1">
+    <row r="628" ht="18" customHeight="1">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
     </row>
-    <row r="629" ht="18.0" customHeight="1">
+    <row r="629" ht="18" customHeight="1">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
     </row>
-    <row r="630" ht="18.0" customHeight="1">
+    <row r="630" ht="18" customHeight="1">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
     </row>
-    <row r="631" ht="18.0" customHeight="1">
+    <row r="631" ht="18" customHeight="1">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
     </row>
-    <row r="632" ht="18.0" customHeight="1">
+    <row r="632" ht="18" customHeight="1">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
     </row>
-    <row r="633" ht="18.0" customHeight="1">
+    <row r="633" ht="18" customHeight="1">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
     </row>
-    <row r="634" ht="18.0" customHeight="1">
+    <row r="634" ht="18" customHeight="1">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
     </row>
-    <row r="635" ht="18.0" customHeight="1">
+    <row r="635" ht="18" customHeight="1">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
     </row>
-    <row r="636" ht="18.0" customHeight="1">
+    <row r="636" ht="18" customHeight="1">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
     </row>
-    <row r="637" ht="18.0" customHeight="1">
+    <row r="637" ht="18" customHeight="1">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
     </row>
-    <row r="638" ht="18.0" customHeight="1">
+    <row r="638" ht="18" customHeight="1">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
     </row>
-    <row r="639" ht="18.0" customHeight="1">
+    <row r="639" ht="18" customHeight="1">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
     </row>
-    <row r="640" ht="18.0" customHeight="1">
+    <row r="640" ht="18" customHeight="1">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
     </row>
-    <row r="641" ht="18.0" customHeight="1">
+    <row r="641" ht="18" customHeight="1">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
     </row>
-    <row r="642" ht="18.0" customHeight="1">
+    <row r="642" ht="18" customHeight="1">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
     </row>
-    <row r="643" ht="18.0" customHeight="1">
+    <row r="643" ht="18" customHeight="1">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
     </row>
-    <row r="644" ht="18.0" customHeight="1">
+    <row r="644" ht="18" customHeight="1">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
     </row>
-    <row r="645" ht="18.0" customHeight="1">
+    <row r="645" ht="18" customHeight="1">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
     </row>
-    <row r="646" ht="18.0" customHeight="1">
+    <row r="646" ht="18" customHeight="1">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
     </row>
-    <row r="647" ht="18.0" customHeight="1">
+    <row r="647" ht="18" customHeight="1">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
     </row>
-    <row r="648" ht="18.0" customHeight="1">
+    <row r="648" ht="18" customHeight="1">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
     </row>
-    <row r="649" ht="18.0" customHeight="1">
+    <row r="649" ht="18" customHeight="1">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
     </row>
-    <row r="650" ht="18.0" customHeight="1">
+    <row r="650" ht="18" customHeight="1">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
     </row>
-    <row r="651" ht="18.0" customHeight="1">
+    <row r="651" ht="18" customHeight="1">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
     </row>
-    <row r="652" ht="18.0" customHeight="1">
+    <row r="652" ht="18" customHeight="1">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
     </row>
-    <row r="653" ht="18.0" customHeight="1">
+    <row r="653" ht="18" customHeight="1">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
     </row>
-    <row r="654" ht="18.0" customHeight="1">
+    <row r="654" ht="18" customHeight="1">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
     </row>
-    <row r="655" ht="18.0" customHeight="1">
+    <row r="655" ht="18" customHeight="1">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
     </row>
-    <row r="656" ht="18.0" customHeight="1">
+    <row r="656" ht="18" customHeight="1">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
     </row>
-    <row r="657" ht="18.0" customHeight="1">
+    <row r="657" ht="18" customHeight="1">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
     </row>
-    <row r="658" ht="18.0" customHeight="1">
+    <row r="658" ht="18" customHeight="1">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
     </row>
-    <row r="659" ht="18.0" customHeight="1">
+    <row r="659" ht="18" customHeight="1">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
     </row>
-    <row r="660" ht="18.0" customHeight="1">
+    <row r="660" ht="18" customHeight="1">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
     </row>
-    <row r="661" ht="18.0" customHeight="1">
+    <row r="661" ht="18" customHeight="1">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
     </row>
-    <row r="662" ht="18.0" customHeight="1">
+    <row r="662" ht="18" customHeight="1">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
     </row>
-    <row r="663" ht="18.0" customHeight="1">
+    <row r="663" ht="18" customHeight="1">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
     </row>
-    <row r="664" ht="18.0" customHeight="1">
+    <row r="664" ht="18" customHeight="1">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
     </row>
-    <row r="665" ht="18.0" customHeight="1">
+    <row r="665" ht="18" customHeight="1">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
     </row>
-    <row r="666" ht="18.0" customHeight="1">
+    <row r="666" ht="18" customHeight="1">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
     </row>
-    <row r="667" ht="18.0" customHeight="1">
+    <row r="667" ht="18" customHeight="1">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
     </row>
-    <row r="668" ht="18.0" customHeight="1">
+    <row r="668" ht="18" customHeight="1">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
     </row>
-    <row r="669" ht="18.0" customHeight="1">
+    <row r="669" ht="18" customHeight="1">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
     </row>
-    <row r="670" ht="18.0" customHeight="1">
+    <row r="670" ht="18" customHeight="1">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
     </row>
-    <row r="671" ht="18.0" customHeight="1">
+    <row r="671" ht="18" customHeight="1">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
     </row>
-    <row r="672" ht="18.0" customHeight="1">
+    <row r="672" ht="18" customHeight="1">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
     </row>
-    <row r="673" ht="18.0" customHeight="1">
+    <row r="673" ht="18" customHeight="1">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
     </row>
-    <row r="674" ht="18.0" customHeight="1">
+    <row r="674" ht="18" customHeight="1">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
     </row>
-    <row r="675" ht="18.0" customHeight="1">
+    <row r="675" ht="18" customHeight="1">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
     </row>
-    <row r="676" ht="18.0" customHeight="1">
+    <row r="676" ht="18" customHeight="1">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
     </row>
-    <row r="677" ht="18.0" customHeight="1">
+    <row r="677" ht="18" customHeight="1">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
     </row>
-    <row r="678" ht="18.0" customHeight="1">
+    <row r="678" ht="18" customHeight="1">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
     </row>
-    <row r="679" ht="18.0" customHeight="1">
+    <row r="679" ht="18" customHeight="1">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
     </row>
-    <row r="680" ht="18.0" customHeight="1">
+    <row r="680" ht="18" customHeight="1">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
     </row>
-    <row r="681" ht="18.0" customHeight="1">
+    <row r="681" ht="18" customHeight="1">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
     </row>
-    <row r="682" ht="18.0" customHeight="1">
+    <row r="682" ht="18" customHeight="1">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
     </row>
-    <row r="683" ht="18.0" customHeight="1">
+    <row r="683" ht="18" customHeight="1">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
     </row>
-    <row r="684" ht="18.0" customHeight="1">
+    <row r="684" ht="18" customHeight="1">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
     </row>
-    <row r="685" ht="18.0" customHeight="1">
+    <row r="685" ht="18" customHeight="1">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
     </row>
-    <row r="686" ht="18.0" customHeight="1">
+    <row r="686" ht="18" customHeight="1">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
     </row>
-    <row r="687" ht="18.0" customHeight="1">
+    <row r="687" ht="18" customHeight="1">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
     </row>
-    <row r="688" ht="18.0" customHeight="1">
+    <row r="688" ht="18" customHeight="1">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
     </row>
-    <row r="689" ht="18.0" customHeight="1">
+    <row r="689" ht="18" customHeight="1">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
     </row>
-    <row r="690" ht="18.0" customHeight="1">
+    <row r="690" ht="18" customHeight="1">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
     </row>
-    <row r="691" ht="18.0" customHeight="1">
+    <row r="691" ht="18" customHeight="1">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
     </row>
-    <row r="692" ht="18.0" customHeight="1">
+    <row r="692" ht="18" customHeight="1">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
     </row>
-    <row r="693" ht="18.0" customHeight="1">
+    <row r="693" ht="18" customHeight="1">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
     </row>
-    <row r="694" ht="18.0" customHeight="1">
+    <row r="694" ht="18" customHeight="1">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
     </row>
-    <row r="695" ht="18.0" customHeight="1">
+    <row r="695" ht="18" customHeight="1">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
     </row>
-    <row r="696" ht="18.0" customHeight="1">
+    <row r="696" ht="18" customHeight="1">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
     </row>
-    <row r="697" ht="18.0" customHeight="1">
+    <row r="697" ht="18" customHeight="1">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
     </row>
-    <row r="698" ht="18.0" customHeight="1">
+    <row r="698" ht="18" customHeight="1">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
     </row>
-    <row r="699" ht="18.0" customHeight="1">
+    <row r="699" ht="18" customHeight="1">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
     </row>
-    <row r="700" ht="18.0" customHeight="1">
+    <row r="700" ht="18" customHeight="1">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
     </row>
-    <row r="701" ht="18.0" customHeight="1">
+    <row r="701" ht="18" customHeight="1">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
     </row>
-    <row r="702" ht="18.0" customHeight="1">
+    <row r="702" ht="18" customHeight="1">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
     </row>
-    <row r="703" ht="18.0" customHeight="1">
+    <row r="703" ht="18" customHeight="1">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
     </row>
-    <row r="704" ht="18.0" customHeight="1">
+    <row r="704" ht="18" customHeight="1">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
     </row>
-    <row r="705" ht="18.0" customHeight="1">
+    <row r="705" ht="18" customHeight="1">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
     </row>
-    <row r="706" ht="18.0" customHeight="1">
+    <row r="706" ht="18" customHeight="1">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
     </row>
-    <row r="707" ht="18.0" customHeight="1">
+    <row r="707" ht="18" customHeight="1">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
     </row>
-    <row r="708" ht="18.0" customHeight="1">
+    <row r="708" ht="18" customHeight="1">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
     </row>
-    <row r="709" ht="18.0" customHeight="1">
+    <row r="709" ht="18" customHeight="1">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
     </row>
-    <row r="710" ht="18.0" customHeight="1">
+    <row r="710" ht="18" customHeight="1">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
     </row>
-    <row r="711" ht="18.0" customHeight="1">
+    <row r="711" ht="18" customHeight="1">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
     </row>
-    <row r="712" ht="18.0" customHeight="1">
+    <row r="712" ht="18" customHeight="1">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
     </row>
-    <row r="713" ht="18.0" customHeight="1">
+    <row r="713" ht="18" customHeight="1">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
     </row>
-    <row r="714" ht="18.0" customHeight="1">
+    <row r="714" ht="18" customHeight="1">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
     </row>
-    <row r="715" ht="18.0" customHeight="1">
+    <row r="715" ht="18" customHeight="1">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
     </row>
-    <row r="716" ht="18.0" customHeight="1">
+    <row r="716" ht="18" customHeight="1">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
     </row>
-    <row r="717" ht="18.0" customHeight="1">
+    <row r="717" ht="18" customHeight="1">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
     </row>
-    <row r="718" ht="18.0" customHeight="1">
+    <row r="718" ht="18" customHeight="1">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
     </row>
-    <row r="719" ht="18.0" customHeight="1">
+    <row r="719" ht="18" customHeight="1">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
     </row>
-    <row r="720" ht="18.0" customHeight="1">
+    <row r="720" ht="18" customHeight="1">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
     </row>
-    <row r="721" ht="18.0" customHeight="1">
+    <row r="721" ht="18" customHeight="1">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
     </row>
-    <row r="722" ht="18.0" customHeight="1">
+    <row r="722" ht="18" customHeight="1">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
     </row>
-    <row r="723" ht="18.0" customHeight="1">
+    <row r="723" ht="18" customHeight="1">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
     </row>
-    <row r="724" ht="18.0" customHeight="1">
+    <row r="724" ht="18" customHeight="1">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
     </row>
-    <row r="725" ht="18.0" customHeight="1">
+    <row r="725" ht="18" customHeight="1">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
     </row>
-    <row r="726" ht="18.0" customHeight="1">
+    <row r="726" ht="18" customHeight="1">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
     </row>
-    <row r="727" ht="18.0" customHeight="1">
+    <row r="727" ht="18" customHeight="1">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
     </row>
-    <row r="728" ht="18.0" customHeight="1">
+    <row r="728" ht="18" customHeight="1">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
     </row>
-    <row r="729" ht="18.0" customHeight="1">
+    <row r="729" ht="18" customHeight="1">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
     </row>
-    <row r="730" ht="18.0" customHeight="1">
+    <row r="730" ht="18" customHeight="1">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
     </row>
-    <row r="731" ht="18.0" customHeight="1">
+    <row r="731" ht="18" customHeight="1">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
     </row>
-    <row r="732" ht="18.0" customHeight="1">
+    <row r="732" ht="18" customHeight="1">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
     </row>
-    <row r="733" ht="18.0" customHeight="1">
+    <row r="733" ht="18" customHeight="1">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
     </row>
-    <row r="734" ht="18.0" customHeight="1">
+    <row r="734" ht="18" customHeight="1">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
     </row>
-    <row r="735" ht="18.0" customHeight="1">
+    <row r="735" ht="18" customHeight="1">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
     </row>
-    <row r="736" ht="18.0" customHeight="1">
+    <row r="736" ht="18" customHeight="1">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
     </row>
-    <row r="737" ht="18.0" customHeight="1">
+    <row r="737" ht="18" customHeight="1">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
     </row>
-    <row r="738" ht="18.0" customHeight="1">
+    <row r="738" ht="18" customHeight="1">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
     </row>
-    <row r="739" ht="18.0" customHeight="1">
+    <row r="739" ht="18" customHeight="1">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
     </row>
-    <row r="740" ht="18.0" customHeight="1">
+    <row r="740" ht="18" customHeight="1">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
     </row>
-    <row r="741" ht="18.0" customHeight="1">
+    <row r="741" ht="18" customHeight="1">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
     </row>
-    <row r="742" ht="18.0" customHeight="1">
+    <row r="742" ht="18" customHeight="1">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
     </row>
-    <row r="743" ht="18.0" customHeight="1">
+    <row r="743" ht="18" customHeight="1">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
     </row>
-    <row r="744" ht="18.0" customHeight="1">
+    <row r="744" ht="18" customHeight="1">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
     </row>
-    <row r="745" ht="18.0" customHeight="1">
+    <row r="745" ht="18" customHeight="1">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
     </row>
-    <row r="746" ht="18.0" customHeight="1">
+    <row r="746" ht="18" customHeight="1">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
     </row>
-    <row r="747" ht="18.0" customHeight="1">
+    <row r="747" ht="18" customHeight="1">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
     </row>
-    <row r="748" ht="18.0" customHeight="1">
+    <row r="748" ht="18" customHeight="1">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
     </row>
-    <row r="749" ht="18.0" customHeight="1">
+    <row r="749" ht="18" customHeight="1">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
     </row>
-    <row r="750" ht="18.0" customHeight="1">
+    <row r="750" ht="18" customHeight="1">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
     </row>
-    <row r="751" ht="18.0" customHeight="1">
+    <row r="751" ht="18" customHeight="1">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
     </row>
-    <row r="752" ht="18.0" customHeight="1">
+    <row r="752" ht="18" customHeight="1">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
     </row>
-    <row r="753" ht="18.0" customHeight="1">
+    <row r="753" ht="18" customHeight="1">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
     </row>
-    <row r="754" ht="18.0" customHeight="1">
+    <row r="754" ht="18" customHeight="1">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
     </row>
-    <row r="755" ht="18.0" customHeight="1">
+    <row r="755" ht="18" customHeight="1">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
     </row>
-    <row r="756" ht="18.0" customHeight="1">
+    <row r="756" ht="18" customHeight="1">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
     </row>
-    <row r="757" ht="18.0" customHeight="1">
+    <row r="757" ht="18" customHeight="1">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
     </row>
-    <row r="758" ht="18.0" customHeight="1">
+    <row r="758" ht="18" customHeight="1">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
     </row>
-    <row r="759" ht="18.0" customHeight="1">
+    <row r="759" ht="18" customHeight="1">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
     </row>
-    <row r="760" ht="18.0" customHeight="1">
+    <row r="760" ht="18" customHeight="1">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
     </row>
-    <row r="761" ht="18.0" customHeight="1">
+    <row r="761" ht="18" customHeight="1">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
     </row>
-    <row r="762" ht="18.0" customHeight="1">
+    <row r="762" ht="18" customHeight="1">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
     </row>
-    <row r="763" ht="18.0" customHeight="1">
+    <row r="763" ht="18" customHeight="1">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
     </row>
-    <row r="764" ht="18.0" customHeight="1">
+    <row r="764" ht="18" customHeight="1">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
     </row>
-    <row r="765" ht="18.0" customHeight="1">
+    <row r="765" ht="18" customHeight="1">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
     </row>
-    <row r="766" ht="18.0" customHeight="1">
+    <row r="766" ht="18" customHeight="1">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
     </row>
-    <row r="767" ht="18.0" customHeight="1">
+    <row r="767" ht="18" customHeight="1">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
     </row>
-    <row r="768" ht="18.0" customHeight="1">
+    <row r="768" ht="18" customHeight="1">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
     </row>
-    <row r="769" ht="18.0" customHeight="1">
+    <row r="769" ht="18" customHeight="1">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
     </row>
-    <row r="770" ht="18.0" customHeight="1">
+    <row r="770" ht="18" customHeight="1">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
     </row>
-    <row r="771" ht="18.0" customHeight="1">
+    <row r="771" ht="18" customHeight="1">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
     </row>
-    <row r="772" ht="18.0" customHeight="1">
+    <row r="772" ht="18" customHeight="1">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
     </row>
-    <row r="773" ht="18.0" customHeight="1">
+    <row r="773" ht="18" customHeight="1">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
     </row>
-    <row r="774" ht="18.0" customHeight="1">
+    <row r="774" ht="18" customHeight="1">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
     </row>
-    <row r="775" ht="18.0" customHeight="1">
+    <row r="775" ht="18" customHeight="1">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
     </row>
-    <row r="776" ht="18.0" customHeight="1">
+    <row r="776" ht="18" customHeight="1">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
     </row>
-    <row r="777" ht="18.0" customHeight="1">
+    <row r="777" ht="18" customHeight="1">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
     </row>
-    <row r="778" ht="18.0" customHeight="1">
+    <row r="778" ht="18" customHeight="1">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
     </row>
-    <row r="779" ht="18.0" customHeight="1">
+    <row r="779" ht="18" customHeight="1">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
     </row>
-    <row r="780" ht="18.0" customHeight="1">
+    <row r="780" ht="18" customHeight="1">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
     </row>
-    <row r="781" ht="18.0" customHeight="1">
+    <row r="781" ht="18" customHeight="1">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
     </row>
-    <row r="782" ht="18.0" customHeight="1">
+    <row r="782" ht="18" customHeight="1">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
     </row>
-    <row r="783" ht="18.0" customHeight="1">
+    <row r="783" ht="18" customHeight="1">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
     </row>
-    <row r="784" ht="18.0" customHeight="1">
+    <row r="784" ht="18" customHeight="1">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
     </row>
-    <row r="785" ht="18.0" customHeight="1">
+    <row r="785" ht="18" customHeight="1">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
     </row>
-    <row r="786" ht="18.0" customHeight="1">
+    <row r="786" ht="18" customHeight="1">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
     </row>
-    <row r="787" ht="18.0" customHeight="1">
+    <row r="787" ht="18" customHeight="1">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
     </row>
-    <row r="788" ht="18.0" customHeight="1">
+    <row r="788" ht="18" customHeight="1">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
     </row>
-    <row r="789" ht="18.0" customHeight="1">
+    <row r="789" ht="18" customHeight="1">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
     </row>
-    <row r="790" ht="18.0" customHeight="1">
+    <row r="790" ht="18" customHeight="1">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
     </row>
-    <row r="791" ht="18.0" customHeight="1">
+    <row r="791" ht="18" customHeight="1">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
     </row>
-    <row r="792" ht="18.0" customHeight="1">
+    <row r="792" ht="18" customHeight="1">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
     </row>
-    <row r="793" ht="18.0" customHeight="1">
+    <row r="793" ht="18" customHeight="1">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
     </row>
-    <row r="794" ht="18.0" customHeight="1">
+    <row r="794" ht="18" customHeight="1">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
     </row>
-    <row r="795" ht="18.0" customHeight="1">
+    <row r="795" ht="18" customHeight="1">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
     </row>
-    <row r="796" ht="18.0" customHeight="1">
+    <row r="796" ht="18" customHeight="1">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
     </row>
-    <row r="797" ht="18.0" customHeight="1">
+    <row r="797" ht="18" customHeight="1">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
     </row>
-    <row r="798" ht="18.0" customHeight="1">
+    <row r="798" ht="18" customHeight="1">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
     </row>
-    <row r="799" ht="18.0" customHeight="1">
+    <row r="799" ht="18" customHeight="1">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
     </row>
-    <row r="800" ht="18.0" customHeight="1">
+    <row r="800" ht="18" customHeight="1">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
     </row>
-    <row r="801" ht="18.0" customHeight="1">
+    <row r="801" ht="18" customHeight="1">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
     </row>
-    <row r="802" ht="18.0" customHeight="1">
+    <row r="802" ht="18" customHeight="1">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
     </row>
-    <row r="803" ht="18.0" customHeight="1">
+    <row r="803" ht="18" customHeight="1">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
     </row>
-    <row r="804" ht="18.0" customHeight="1">
+    <row r="804" ht="18" customHeight="1">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
     </row>
-    <row r="805" ht="18.0" customHeight="1">
+    <row r="805" ht="18" customHeight="1">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
     </row>
-    <row r="806" ht="18.0" customHeight="1">
+    <row r="806" ht="18" customHeight="1">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
     </row>
-    <row r="807" ht="18.0" customHeight="1">
+    <row r="807" ht="18" customHeight="1">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
     </row>
-    <row r="808" ht="18.0" customHeight="1">
+    <row r="808" ht="18" customHeight="1">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
     </row>
-    <row r="809" ht="18.0" customHeight="1">
+    <row r="809" ht="18" customHeight="1">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
     </row>
-    <row r="810" ht="18.0" customHeight="1">
+    <row r="810" ht="18" customHeight="1">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
     </row>
-    <row r="811" ht="18.0" customHeight="1">
+    <row r="811" ht="18" customHeight="1">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
     </row>
-    <row r="812" ht="18.0" customHeight="1">
+    <row r="812" ht="18" customHeight="1">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
     </row>
-    <row r="813" ht="18.0" customHeight="1">
+    <row r="813" ht="18" customHeight="1">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
     </row>
-    <row r="814" ht="18.0" customHeight="1">
+    <row r="814" ht="18" customHeight="1">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
     </row>
-    <row r="815" ht="18.0" customHeight="1">
+    <row r="815" ht="18" customHeight="1">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
     </row>
-    <row r="816" ht="18.0" customHeight="1">
+    <row r="816" ht="18" customHeight="1">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
     </row>
-    <row r="817" ht="18.0" customHeight="1">
+    <row r="817" ht="18" customHeight="1">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
     </row>
-    <row r="818" ht="18.0" customHeight="1">
+    <row r="818" ht="18" customHeight="1">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
     </row>
-    <row r="819" ht="18.0" customHeight="1">
+    <row r="819" ht="18" customHeight="1">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
     </row>
-    <row r="820" ht="18.0" customHeight="1">
+    <row r="820" ht="18" customHeight="1">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
     </row>
-    <row r="821" ht="18.0" customHeight="1">
+    <row r="821" ht="18" customHeight="1">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
     </row>
-    <row r="822" ht="18.0" customHeight="1">
+    <row r="822" ht="18" customHeight="1">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
     </row>
-    <row r="823" ht="18.0" customHeight="1">
+    <row r="823" ht="18" customHeight="1">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
     </row>
-    <row r="824" ht="18.0" customHeight="1">
+    <row r="824" ht="18" customHeight="1">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
     </row>
-    <row r="825" ht="18.0" customHeight="1">
+    <row r="825" ht="18" customHeight="1">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
     </row>
-    <row r="826" ht="18.0" customHeight="1">
+    <row r="826" ht="18" customHeight="1">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
     </row>
-    <row r="827" ht="18.0" customHeight="1">
+    <row r="827" ht="18" customHeight="1">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
     </row>
-    <row r="828" ht="18.0" customHeight="1">
+    <row r="828" ht="18" customHeight="1">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
     </row>
-    <row r="829" ht="18.0" customHeight="1">
+    <row r="829" ht="18" customHeight="1">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
     </row>
-    <row r="830" ht="18.0" customHeight="1">
+    <row r="830" ht="18" customHeight="1">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
     </row>
-    <row r="831" ht="18.0" customHeight="1">
+    <row r="831" ht="18" customHeight="1">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
     </row>
-    <row r="832" ht="18.0" customHeight="1">
+    <row r="832" ht="18" customHeight="1">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
     </row>
-    <row r="833" ht="18.0" customHeight="1">
+    <row r="833" ht="18" customHeight="1">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
     </row>
-    <row r="834" ht="18.0" customHeight="1">
+    <row r="834" ht="18" customHeight="1">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
     </row>
-    <row r="835" ht="18.0" customHeight="1">
+    <row r="835" ht="18" customHeight="1">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
     </row>
-    <row r="836" ht="18.0" customHeight="1">
+    <row r="836" ht="18" customHeight="1">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
     </row>
-    <row r="837" ht="18.0" customHeight="1">
+    <row r="837" ht="18" customHeight="1">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
     </row>
-    <row r="838" ht="18.0" customHeight="1">
+    <row r="838" ht="18" customHeight="1">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
     </row>
-    <row r="839" ht="18.0" customHeight="1">
+    <row r="839" ht="18" customHeight="1">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
     </row>
-    <row r="840" ht="18.0" customHeight="1">
+    <row r="840" ht="18" customHeight="1">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
     </row>
-    <row r="841" ht="18.0" customHeight="1">
+    <row r="841" ht="18" customHeight="1">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
     </row>
-    <row r="842" ht="18.0" customHeight="1">
+    <row r="842" ht="18" customHeight="1">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
     </row>
-    <row r="843" ht="18.0" customHeight="1">
+    <row r="843" ht="18" customHeight="1">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
     </row>
-    <row r="844" ht="18.0" customHeight="1">
+    <row r="844" ht="18" customHeight="1">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
     </row>
-    <row r="845" ht="18.0" customHeight="1">
+    <row r="845" ht="18" customHeight="1">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
     </row>
-    <row r="846" ht="18.0" customHeight="1">
+    <row r="846" ht="18" customHeight="1">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
     </row>
-    <row r="847" ht="18.0" customHeight="1">
+    <row r="847" ht="18" customHeight="1">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
     </row>
-    <row r="848" ht="18.0" customHeight="1">
+    <row r="848" ht="18" customHeight="1">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
     </row>
-    <row r="849" ht="18.0" customHeight="1">
+    <row r="849" ht="18" customHeight="1">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
     </row>
-    <row r="850" ht="18.0" customHeight="1">
+    <row r="850" ht="18" customHeight="1">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
     </row>
-    <row r="851" ht="18.0" customHeight="1">
+    <row r="851" ht="18" customHeight="1">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
     </row>
-    <row r="852" ht="18.0" customHeight="1">
+    <row r="852" ht="18" customHeight="1">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
     </row>
-    <row r="853" ht="18.0" customHeight="1">
+    <row r="853" ht="18" customHeight="1">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
     </row>
-    <row r="854" ht="18.0" customHeight="1">
+    <row r="854" ht="18" customHeight="1">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
     </row>
-    <row r="855" ht="18.0" customHeight="1">
+    <row r="855" ht="18" customHeight="1">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
     </row>
-    <row r="856" ht="18.0" customHeight="1">
+    <row r="856" ht="18" customHeight="1">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
     </row>
-    <row r="857" ht="18.0" customHeight="1">
+    <row r="857" ht="18" customHeight="1">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
     </row>
-    <row r="858" ht="18.0" customHeight="1">
+    <row r="858" ht="18" customHeight="1">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
     </row>
-    <row r="859" ht="18.0" customHeight="1">
+    <row r="859" ht="18" customHeight="1">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
     </row>
-    <row r="860" ht="18.0" customHeight="1">
+    <row r="860" ht="18" customHeight="1">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
     </row>
-    <row r="861" ht="18.0" customHeight="1">
+    <row r="861" ht="18" customHeight="1">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
     </row>
-    <row r="862" ht="18.0" customHeight="1">
+    <row r="862" ht="18" customHeight="1">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
     </row>
-    <row r="863" ht="18.0" customHeight="1">
+    <row r="863" ht="18" customHeight="1">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
     </row>
-    <row r="864" ht="18.0" customHeight="1">
+    <row r="864" ht="18" customHeight="1">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
     </row>
-    <row r="865" ht="18.0" customHeight="1">
+    <row r="865" ht="18" customHeight="1">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
     </row>
-    <row r="866" ht="18.0" customHeight="1">
+    <row r="866" ht="18" customHeight="1">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
     </row>
-    <row r="867" ht="18.0" customHeight="1">
+    <row r="867" ht="18" customHeight="1">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
     </row>
-    <row r="868" ht="18.0" customHeight="1">
+    <row r="868" ht="18" customHeight="1">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
     </row>
-    <row r="869" ht="18.0" customHeight="1">
+    <row r="869" ht="18" customHeight="1">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
     </row>
-    <row r="870" ht="18.0" customHeight="1">
+    <row r="870" ht="18" customHeight="1">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
     </row>
-    <row r="871" ht="18.0" customHeight="1">
+    <row r="871" ht="18" customHeight="1">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
     </row>
-    <row r="872" ht="18.0" customHeight="1">
+    <row r="872" ht="18" customHeight="1">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
     </row>
-    <row r="873" ht="18.0" customHeight="1">
+    <row r="873" ht="18" customHeight="1">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
     </row>
-    <row r="874" ht="18.0" customHeight="1">
+    <row r="874" ht="18" customHeight="1">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
     </row>
-    <row r="875" ht="18.0" customHeight="1">
+    <row r="875" ht="18" customHeight="1">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
     </row>
-    <row r="876" ht="18.0" customHeight="1">
+    <row r="876" ht="18" customHeight="1">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
     </row>
-    <row r="877" ht="18.0" customHeight="1">
+    <row r="877" ht="18" customHeight="1">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
     </row>
-    <row r="878" ht="18.0" customHeight="1">
+    <row r="878" ht="18" customHeight="1">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
     </row>
-    <row r="879" ht="18.0" customHeight="1">
+    <row r="879" ht="18" customHeight="1">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
     </row>
-    <row r="880" ht="18.0" customHeight="1">
+    <row r="880" ht="18" customHeight="1">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
     </row>
-    <row r="881" ht="18.0" customHeight="1">
+    <row r="881" ht="18" customHeight="1">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
     </row>
-    <row r="882" ht="18.0" customHeight="1">
+    <row r="882" ht="18" customHeight="1">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
     </row>
-    <row r="883" ht="18.0" customHeight="1">
+    <row r="883" ht="18" customHeight="1">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
     </row>
-    <row r="884" ht="18.0" customHeight="1">
+    <row r="884" ht="18" customHeight="1">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
     </row>
-    <row r="885" ht="18.0" customHeight="1">
+    <row r="885" ht="18" customHeight="1">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
     </row>
-    <row r="886" ht="18.0" customHeight="1">
+    <row r="886" ht="18" customHeight="1">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
     </row>
-    <row r="887" ht="18.0" customHeight="1">
+    <row r="887" ht="18" customHeight="1">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
     </row>
-    <row r="888" ht="18.0" customHeight="1">
+    <row r="888" ht="18" customHeight="1">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
     </row>
-    <row r="889" ht="18.0" customHeight="1">
+    <row r="889" ht="18" customHeight="1">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
     </row>
-    <row r="890" ht="18.0" customHeight="1">
+    <row r="890" ht="18" customHeight="1">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
     </row>
-    <row r="891" ht="18.0" customHeight="1">
+    <row r="891" ht="18" customHeight="1">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
     </row>
-    <row r="892" ht="18.0" customHeight="1">
+    <row r="892" ht="18" customHeight="1">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
     </row>
-    <row r="893" ht="18.0" customHeight="1">
+    <row r="893" ht="18" customHeight="1">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
     </row>
-    <row r="894" ht="18.0" customHeight="1">
+    <row r="894" ht="18" customHeight="1">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
     </row>
-    <row r="895" ht="18.0" customHeight="1">
+    <row r="895" ht="18" customHeight="1">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
     </row>
-    <row r="896" ht="18.0" customHeight="1">
+    <row r="896" ht="18" customHeight="1">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
     </row>
-    <row r="897" ht="18.0" customHeight="1">
+    <row r="897" ht="18" customHeight="1">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
     </row>
-    <row r="898" ht="18.0" customHeight="1">
+    <row r="898" ht="18" customHeight="1">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
     </row>
-    <row r="899" ht="18.0" customHeight="1">
+    <row r="899" ht="18" customHeight="1">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
     </row>
-    <row r="900" ht="18.0" customHeight="1">
+    <row r="900" ht="18" customHeight="1">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
     </row>
-    <row r="901" ht="18.0" customHeight="1">
+    <row r="901" ht="18" customHeight="1">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
     </row>
-    <row r="902" ht="18.0" customHeight="1">
+    <row r="902" ht="18" customHeight="1">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
     </row>
-    <row r="903" ht="18.0" customHeight="1">
+    <row r="903" ht="18" customHeight="1">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
     </row>
-    <row r="904" ht="18.0" customHeight="1">
+    <row r="904" ht="18" customHeight="1">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
     </row>
-    <row r="905" ht="18.0" customHeight="1">
+    <row r="905" ht="18" customHeight="1">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
     </row>
-    <row r="906" ht="18.0" customHeight="1">
+    <row r="906" ht="18" customHeight="1">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
     </row>
-    <row r="907" ht="18.0" customHeight="1">
+    <row r="907" ht="18" customHeight="1">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
     </row>
-    <row r="908" ht="18.0" customHeight="1">
+    <row r="908" ht="18" customHeight="1">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
     </row>
-    <row r="909" ht="18.0" customHeight="1">
+    <row r="909" ht="18" customHeight="1">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
     </row>
-    <row r="910" ht="18.0" customHeight="1">
+    <row r="910" ht="18" customHeight="1">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
     </row>
-    <row r="911" ht="18.0" customHeight="1">
+    <row r="911" ht="18" customHeight="1">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
     </row>
-    <row r="912" ht="18.0" customHeight="1">
+    <row r="912" ht="18" customHeight="1">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
     </row>
-    <row r="913" ht="18.0" customHeight="1">
+    <row r="913" ht="18" customHeight="1">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
     </row>
-    <row r="914" ht="18.0" customHeight="1">
+    <row r="914" ht="18" customHeight="1">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
     </row>
-    <row r="915" ht="18.0" customHeight="1">
+    <row r="915" ht="18" customHeight="1">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
     </row>
-    <row r="916" ht="18.0" customHeight="1">
+    <row r="916" ht="18" customHeight="1">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
     </row>
-    <row r="917" ht="18.0" customHeight="1">
+    <row r="917" ht="18" customHeight="1">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
     </row>
-    <row r="918" ht="18.0" customHeight="1">
+    <row r="918" ht="18" customHeight="1">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
     </row>
-    <row r="919" ht="18.0" customHeight="1">
+    <row r="919" ht="18" customHeight="1">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
     </row>
-    <row r="920" ht="18.0" customHeight="1">
+    <row r="920" ht="18" customHeight="1">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
     </row>
-    <row r="921" ht="18.0" customHeight="1">
+    <row r="921" ht="18" customHeight="1">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
     </row>
-    <row r="922" ht="18.0" customHeight="1">
+    <row r="922" ht="18" customHeight="1">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
     </row>
-    <row r="923" ht="18.0" customHeight="1">
+    <row r="923" ht="18" customHeight="1">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
     </row>
-    <row r="924" ht="18.0" customHeight="1">
+    <row r="924" ht="18" customHeight="1">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
     </row>
-    <row r="925" ht="18.0" customHeight="1">
+    <row r="925" ht="18" customHeight="1">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
     </row>
-    <row r="926" ht="18.0" customHeight="1">
+    <row r="926" ht="18" customHeight="1">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
     </row>
-    <row r="927" ht="18.0" customHeight="1">
+    <row r="927" ht="18" customHeight="1">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
     </row>
-    <row r="928" ht="18.0" customHeight="1">
+    <row r="928" ht="18" customHeight="1">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
     </row>
-    <row r="929" ht="18.0" customHeight="1">
+    <row r="929" ht="18" customHeight="1">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
     </row>
-    <row r="930" ht="18.0" customHeight="1">
+    <row r="930" ht="18" customHeight="1">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
     </row>
-    <row r="931" ht="18.0" customHeight="1">
+    <row r="931" ht="18" customHeight="1">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
     </row>
-    <row r="932" ht="18.0" customHeight="1">
+    <row r="932" ht="18" customHeight="1">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
     </row>
-    <row r="933" ht="18.0" customHeight="1">
+    <row r="933" ht="18" customHeight="1">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
     </row>
-    <row r="934" ht="18.0" customHeight="1">
+    <row r="934" ht="18" customHeight="1">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
     </row>
-    <row r="935" ht="18.0" customHeight="1">
+    <row r="935" ht="18" customHeight="1">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
     </row>
-    <row r="936" ht="18.0" customHeight="1">
+    <row r="936" ht="18" customHeight="1">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
     </row>
-    <row r="937" ht="18.0" customHeight="1">
+    <row r="937" ht="18" customHeight="1">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
     </row>
-    <row r="938" ht="18.0" customHeight="1">
+    <row r="938" ht="18" customHeight="1">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
     </row>
-    <row r="939" ht="18.0" customHeight="1">
+    <row r="939" ht="18" customHeight="1">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
     </row>
-    <row r="940" ht="18.0" customHeight="1">
+    <row r="940" ht="18" customHeight="1">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
     </row>
-    <row r="941" ht="18.0" customHeight="1">
+    <row r="941" ht="18" customHeight="1">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
     </row>
-    <row r="942" ht="18.0" customHeight="1">
+    <row r="942" ht="18" customHeight="1">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
     </row>
-    <row r="943" ht="18.0" customHeight="1">
+    <row r="943" ht="18" customHeight="1">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
     </row>
-    <row r="944" ht="18.0" customHeight="1">
+    <row r="944" ht="18" customHeight="1">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
     </row>
-    <row r="945" ht="18.0" customHeight="1">
+    <row r="945" ht="18" customHeight="1">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
     </row>
-    <row r="946" ht="18.0" customHeight="1">
+    <row r="946" ht="18" customHeight="1">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
     </row>
-    <row r="947" ht="18.0" customHeight="1">
+    <row r="947" ht="18" customHeight="1">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
     </row>
-    <row r="948" ht="18.0" customHeight="1">
+    <row r="948" ht="18" customHeight="1">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
     </row>
-    <row r="949" ht="18.0" customHeight="1">
+    <row r="949" ht="18" customHeight="1">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
     </row>
-    <row r="950" ht="18.0" customHeight="1">
+    <row r="950" ht="18" customHeight="1">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
     </row>
-    <row r="951" ht="18.0" customHeight="1">
+    <row r="951" ht="18" customHeight="1">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
     </row>
-    <row r="952" ht="18.0" customHeight="1">
+    <row r="952" ht="18" customHeight="1">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
     </row>
-    <row r="953" ht="18.0" customHeight="1">
+    <row r="953" ht="18" customHeight="1">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
     </row>
-    <row r="954" ht="18.0" customHeight="1">
+    <row r="954" ht="18" customHeight="1">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
     </row>
-    <row r="955" ht="18.0" customHeight="1">
+    <row r="955" ht="18" customHeight="1">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
     </row>
-    <row r="956" ht="18.0" customHeight="1">
+    <row r="956" ht="18" customHeight="1">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
     </row>
-    <row r="957" ht="18.0" customHeight="1">
+    <row r="957" ht="18" customHeight="1">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
     </row>
-    <row r="958" ht="18.0" customHeight="1">
+    <row r="958" ht="18" customHeight="1">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
     </row>
-    <row r="959" ht="18.0" customHeight="1">
+    <row r="959" ht="18" customHeight="1">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
     </row>
-    <row r="960" ht="18.0" customHeight="1">
+    <row r="960" ht="18" customHeight="1">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
     </row>
-    <row r="961" ht="18.0" customHeight="1">
+    <row r="961" ht="18" customHeight="1">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
     </row>
-    <row r="962" ht="18.0" customHeight="1">
+    <row r="962" ht="18" customHeight="1">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
     </row>
-    <row r="963" ht="18.0" customHeight="1">
+    <row r="963" ht="18" customHeight="1">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
     </row>
-    <row r="964" ht="18.0" customHeight="1">
+    <row r="964" ht="18" customHeight="1">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
     </row>
-    <row r="965" ht="18.0" customHeight="1">
+    <row r="965" ht="18" customHeight="1">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
     </row>
-    <row r="966" ht="18.0" customHeight="1">
+    <row r="966" ht="18" customHeight="1">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
     </row>
-    <row r="967" ht="18.0" customHeight="1">
+    <row r="967" ht="18" customHeight="1">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
     </row>
-    <row r="968" ht="18.0" customHeight="1">
+    <row r="968" ht="18" customHeight="1">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
     </row>
-    <row r="969" ht="18.0" customHeight="1">
+    <row r="969" ht="18" customHeight="1">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
     </row>
-    <row r="970" ht="18.0" customHeight="1">
+    <row r="970" ht="18" customHeight="1">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
     </row>
-    <row r="971" ht="18.0" customHeight="1">
+    <row r="971" ht="18" customHeight="1">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
     </row>
-    <row r="972" ht="18.0" customHeight="1">
+    <row r="972" ht="18" customHeight="1">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
     </row>
-    <row r="973" ht="18.0" customHeight="1">
+    <row r="973" ht="18" customHeight="1">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
     </row>
-    <row r="974" ht="18.0" customHeight="1">
+    <row r="974" ht="18" customHeight="1">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
     </row>
-    <row r="975" ht="18.0" customHeight="1">
+    <row r="975" ht="18" customHeight="1">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
     </row>
-    <row r="976" ht="18.0" customHeight="1">
+    <row r="976" ht="18" customHeight="1">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
     </row>
-    <row r="977" ht="18.0" customHeight="1">
+    <row r="977" ht="18" customHeight="1">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
     </row>
-    <row r="978" ht="18.0" customHeight="1">
+    <row r="978" ht="18" customHeight="1">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
     </row>
-    <row r="979" ht="18.0" customHeight="1">
+    <row r="979" ht="18" customHeight="1">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
     </row>
-    <row r="980" ht="18.0" customHeight="1">
+    <row r="980" ht="18" customHeight="1">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
     </row>
-    <row r="981" ht="18.0" customHeight="1">
+    <row r="981" ht="18" customHeight="1">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
     </row>
-    <row r="982" ht="18.0" customHeight="1">
+    <row r="982" ht="18" customHeight="1">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
     </row>
-    <row r="983" ht="18.0" customHeight="1">
+    <row r="983" ht="18" customHeight="1">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
     </row>
-    <row r="984" ht="18.0" customHeight="1">
+    <row r="984" ht="18" customHeight="1">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
     </row>
-    <row r="985" ht="18.0" customHeight="1">
+    <row r="985" ht="18" customHeight="1">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
     </row>
-    <row r="986" ht="18.0" customHeight="1">
+    <row r="986" ht="18" customHeight="1">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
     </row>
-    <row r="987" ht="18.0" customHeight="1">
+    <row r="987" ht="18" customHeight="1">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
     </row>
-    <row r="988" ht="18.0" customHeight="1">
+    <row r="988" ht="18" customHeight="1">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
     </row>
-    <row r="989" ht="18.0" customHeight="1">
+    <row r="989" ht="18" customHeight="1">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
     </row>
-    <row r="990" ht="18.0" customHeight="1">
+    <row r="990" ht="18" customHeight="1">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
     </row>
-    <row r="991" ht="18.0" customHeight="1">
+    <row r="991" ht="18" customHeight="1">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
     </row>
-    <row r="992" ht="18.0" customHeight="1">
+    <row r="992" ht="18" customHeight="1">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
     </row>
-    <row r="993" ht="18.0" customHeight="1">
+    <row r="993" ht="18" customHeight="1">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
     </row>
-    <row r="994" ht="18.0" customHeight="1">
+    <row r="994" ht="18" customHeight="1">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
     </row>
-    <row r="995" ht="18.0" customHeight="1">
+    <row r="995" ht="18" customHeight="1">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
     </row>
-    <row r="996" ht="18.0" customHeight="1">
+    <row r="996" ht="18" customHeight="1">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
     </row>
-    <row r="997" ht="18.0" customHeight="1">
+    <row r="997" ht="18" customHeight="1">
       <c r="A997" s="2"/>
       <c r="B997" s="2"/>
     </row>
-    <row r="998" ht="18.0" customHeight="1">
+    <row r="998" ht="18" customHeight="1">
       <c r="A998" s="2"/>
       <c r="B998" s="2"/>
     </row>
-    <row r="999" ht="18.0" customHeight="1">
+    <row r="999" ht="18" customHeight="1">
       <c r="A999" s="2"/>
       <c r="B999" s="2"/>
     </row>
-    <row r="1000" ht="18.0" customHeight="1">
+    <row r="1000" ht="18" customHeight="1">
       <c r="A1000" s="2"/>
       <c r="B1000" s="2"/>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.25"/>
-    <col customWidth="1" min="2" max="2" width="27.0"/>
-    <col customWidth="1" min="3" max="3" width="12.75"/>
-    <col customWidth="1" min="4" max="4" width="15.38"/>
-    <col customWidth="1" min="5" max="5" width="8.75"/>
-    <col customWidth="1" min="6" max="6" width="16.88"/>
-    <col customWidth="1" min="7" max="7" width="20.63"/>
-    <col customWidth="1" min="8" max="8" width="9.63"/>
-    <col customWidth="1" min="9" max="9" width="16.63"/>
-    <col customWidth="1" min="10" max="26" width="10.88"/>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="15.38" customWidth="1"/>
+    <col min="5" max="5" width="8.75" customWidth="1"/>
+    <col min="6" max="6" width="16.88" customWidth="1"/>
+    <col min="7" max="7" width="20.63" customWidth="1"/>
+    <col min="8" max="8" width="9.63" customWidth="1"/>
+    <col min="9" max="9" width="16.63" customWidth="1"/>
+    <col min="10" max="26" width="10.88" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.0" customHeight="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="21" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" ht="21.0" customHeight="1">
-      <c r="A2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" ht="21" customHeight="1">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="5">
-        <v>30.0</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="4">
         <v>30</v>
       </c>
-      <c r="G2" s="6">
+      <c r="F2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="5">
         <v>46006.375</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" ht="21.0" customHeight="1">
-      <c r="A3" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="3" ht="21" customHeight="1">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="4">
+        <v>25</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>46007.416666666664</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" ht="21.0" customHeight="1">
-      <c r="A4" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="4" ht="21" customHeight="1">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="4">
+        <v>25</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>46007.416666666664</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" ht="21.0" customHeight="1">
-      <c r="A5" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    <row r="5" ht="21" customHeight="1">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="5">
-        <v>42.0</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="4">
+        <v>42</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>46007.520833333336</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" ht="21.0" customHeight="1">
-      <c r="A6" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="B6" s="5" t="s">
+    <row r="6" ht="21" customHeight="1">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="5">
-        <v>50.0</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="4">
+        <v>50</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>46005.166666666664</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" ht="21.0" customHeight="1">
-      <c r="A7" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="B7" s="5" t="s">
+    <row r="7" ht="21" customHeight="1">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="5">
-        <v>50.0</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="4">
+        <v>50</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>46005.166666666664</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" ht="21.0" customHeight="1">
-      <c r="A8" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="B8" s="5" t="s">
+    <row r="8" ht="21" customHeight="1">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="5">
-        <v>50.0</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="E8" s="4">
+        <v>50</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>46005.166666666664</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" ht="21.0" customHeight="1">
-      <c r="A9" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="B9" s="8" t="s">
+    <row r="9" ht="21" customHeight="1">
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="8">
-        <v>25.0</v>
-      </c>
-      <c r="F9" s="8" t="s">
+      <c r="E9" s="7">
+        <v>25</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>46004.416666666664</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" ht="21.0" customHeight="1">
-      <c r="A10" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="B10" s="8" t="s">
+    <row r="10" ht="21" customHeight="1">
+      <c r="A10" s="7">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="8">
-        <v>25.0</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="E10" s="7">
+        <v>25</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>46004.416666666664</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" ht="21.0" customHeight="1">
-      <c r="A11" s="8">
-        <v>6.0</v>
-      </c>
-      <c r="B11" s="8" t="s">
+    <row r="11" ht="21" customHeight="1">
+      <c r="A11" s="7">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="8">
-        <v>50.0</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="E11" s="7">
+        <v>50</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>45992.375</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" ht="21.0" customHeight="1"/>
-    <row r="13" ht="21.0" customHeight="1"/>
-    <row r="14" ht="21.0" customHeight="1"/>
-    <row r="15" ht="21.0" customHeight="1"/>
-    <row r="16" ht="21.0" customHeight="1"/>
-    <row r="17" ht="21.0" customHeight="1"/>
-    <row r="18" ht="21.0" customHeight="1"/>
-    <row r="19" ht="21.0" customHeight="1"/>
-    <row r="20" ht="21.0" customHeight="1"/>
-    <row r="21" ht="21.0" customHeight="1"/>
-    <row r="22" ht="21.0" customHeight="1"/>
-    <row r="23" ht="21.0" customHeight="1"/>
-    <row r="24" ht="21.0" customHeight="1"/>
-    <row r="25" ht="21.0" customHeight="1"/>
-    <row r="26" ht="21.0" customHeight="1"/>
-    <row r="27" ht="21.0" customHeight="1"/>
-    <row r="28" ht="21.0" customHeight="1"/>
-    <row r="29" ht="21.0" customHeight="1"/>
-    <row r="30" ht="21.0" customHeight="1"/>
-    <row r="31" ht="21.0" customHeight="1"/>
-    <row r="32" ht="21.0" customHeight="1"/>
-    <row r="33" ht="21.0" customHeight="1"/>
-    <row r="34" ht="21.0" customHeight="1"/>
-    <row r="35" ht="21.0" customHeight="1"/>
-    <row r="36" ht="21.0" customHeight="1"/>
-    <row r="37" ht="21.0" customHeight="1"/>
-    <row r="38" ht="21.0" customHeight="1"/>
-    <row r="39" ht="21.0" customHeight="1"/>
-    <row r="40" ht="21.0" customHeight="1"/>
-    <row r="41" ht="21.0" customHeight="1"/>
-    <row r="42" ht="21.0" customHeight="1"/>
-    <row r="43" ht="21.0" customHeight="1"/>
-    <row r="44" ht="21.0" customHeight="1"/>
-    <row r="45" ht="21.0" customHeight="1"/>
-    <row r="46" ht="21.0" customHeight="1"/>
-    <row r="47" ht="21.0" customHeight="1"/>
-    <row r="48" ht="21.0" customHeight="1"/>
-    <row r="49" ht="21.0" customHeight="1"/>
-    <row r="50" ht="21.0" customHeight="1"/>
-    <row r="51" ht="21.0" customHeight="1"/>
-    <row r="52" ht="21.0" customHeight="1"/>
-    <row r="53" ht="21.0" customHeight="1"/>
-    <row r="54" ht="21.0" customHeight="1"/>
-    <row r="55" ht="21.0" customHeight="1"/>
-    <row r="56" ht="21.0" customHeight="1"/>
-    <row r="57" ht="21.0" customHeight="1"/>
-    <row r="58" ht="21.0" customHeight="1"/>
-    <row r="59" ht="21.0" customHeight="1"/>
-    <row r="60" ht="21.0" customHeight="1"/>
-    <row r="61" ht="21.0" customHeight="1"/>
-    <row r="62" ht="21.0" customHeight="1"/>
-    <row r="63" ht="21.0" customHeight="1"/>
-    <row r="64" ht="21.0" customHeight="1"/>
-    <row r="65" ht="21.0" customHeight="1"/>
-    <row r="66" ht="21.0" customHeight="1"/>
-    <row r="67" ht="21.0" customHeight="1"/>
-    <row r="68" ht="21.0" customHeight="1"/>
-    <row r="69" ht="21.0" customHeight="1"/>
-    <row r="70" ht="21.0" customHeight="1"/>
-    <row r="71" ht="21.0" customHeight="1"/>
-    <row r="72" ht="21.0" customHeight="1"/>
-    <row r="73" ht="21.0" customHeight="1"/>
-    <row r="74" ht="21.0" customHeight="1"/>
-    <row r="75" ht="21.0" customHeight="1"/>
-    <row r="76" ht="21.0" customHeight="1"/>
-    <row r="77" ht="21.0" customHeight="1"/>
-    <row r="78" ht="21.0" customHeight="1"/>
-    <row r="79" ht="21.0" customHeight="1"/>
-    <row r="80" ht="21.0" customHeight="1"/>
-    <row r="81" ht="21.0" customHeight="1"/>
-    <row r="82" ht="21.0" customHeight="1"/>
-    <row r="83" ht="21.0" customHeight="1"/>
-    <row r="84" ht="21.0" customHeight="1"/>
-    <row r="85" ht="21.0" customHeight="1"/>
-    <row r="86" ht="21.0" customHeight="1"/>
-    <row r="87" ht="21.0" customHeight="1"/>
-    <row r="88" ht="21.0" customHeight="1"/>
-    <row r="89" ht="21.0" customHeight="1"/>
-    <row r="90" ht="21.0" customHeight="1"/>
-    <row r="91" ht="21.0" customHeight="1"/>
-    <row r="92" ht="21.0" customHeight="1"/>
-    <row r="93" ht="21.0" customHeight="1"/>
-    <row r="94" ht="21.0" customHeight="1"/>
-    <row r="95" ht="21.0" customHeight="1"/>
-    <row r="96" ht="21.0" customHeight="1"/>
-    <row r="97" ht="21.0" customHeight="1"/>
-    <row r="98" ht="21.0" customHeight="1"/>
-    <row r="99" ht="21.0" customHeight="1"/>
-    <row r="100" ht="21.0" customHeight="1"/>
-    <row r="101" ht="21.0" customHeight="1"/>
-    <row r="102" ht="21.0" customHeight="1"/>
-    <row r="103" ht="21.0" customHeight="1"/>
-    <row r="104" ht="21.0" customHeight="1"/>
-    <row r="105" ht="21.0" customHeight="1"/>
-    <row r="106" ht="21.0" customHeight="1"/>
-    <row r="107" ht="21.0" customHeight="1"/>
-    <row r="108" ht="21.0" customHeight="1"/>
-    <row r="109" ht="21.0" customHeight="1"/>
-    <row r="110" ht="21.0" customHeight="1"/>
-    <row r="111" ht="21.0" customHeight="1"/>
-    <row r="112" ht="21.0" customHeight="1"/>
-    <row r="113" ht="21.0" customHeight="1"/>
-    <row r="114" ht="21.0" customHeight="1"/>
-    <row r="115" ht="21.0" customHeight="1"/>
-    <row r="116" ht="21.0" customHeight="1"/>
-    <row r="117" ht="21.0" customHeight="1"/>
-    <row r="118" ht="21.0" customHeight="1"/>
-    <row r="119" ht="21.0" customHeight="1"/>
-    <row r="120" ht="21.0" customHeight="1"/>
-    <row r="121" ht="21.0" customHeight="1"/>
-    <row r="122" ht="21.0" customHeight="1"/>
-    <row r="123" ht="21.0" customHeight="1"/>
-    <row r="124" ht="21.0" customHeight="1"/>
-    <row r="125" ht="21.0" customHeight="1"/>
-    <row r="126" ht="21.0" customHeight="1"/>
-    <row r="127" ht="21.0" customHeight="1"/>
-    <row r="128" ht="21.0" customHeight="1"/>
-    <row r="129" ht="21.0" customHeight="1"/>
-    <row r="130" ht="21.0" customHeight="1"/>
-    <row r="131" ht="21.0" customHeight="1"/>
-    <row r="132" ht="21.0" customHeight="1"/>
-    <row r="133" ht="21.0" customHeight="1"/>
-    <row r="134" ht="21.0" customHeight="1"/>
-    <row r="135" ht="21.0" customHeight="1"/>
-    <row r="136" ht="21.0" customHeight="1"/>
-    <row r="137" ht="21.0" customHeight="1"/>
-    <row r="138" ht="21.0" customHeight="1"/>
-    <row r="139" ht="21.0" customHeight="1"/>
-    <row r="140" ht="21.0" customHeight="1"/>
-    <row r="141" ht="21.0" customHeight="1"/>
-    <row r="142" ht="21.0" customHeight="1"/>
-    <row r="143" ht="21.0" customHeight="1"/>
-    <row r="144" ht="21.0" customHeight="1"/>
-    <row r="145" ht="21.0" customHeight="1"/>
-    <row r="146" ht="21.0" customHeight="1"/>
-    <row r="147" ht="21.0" customHeight="1"/>
-    <row r="148" ht="21.0" customHeight="1"/>
-    <row r="149" ht="21.0" customHeight="1"/>
-    <row r="150" ht="21.0" customHeight="1"/>
-    <row r="151" ht="21.0" customHeight="1"/>
-    <row r="152" ht="21.0" customHeight="1"/>
-    <row r="153" ht="21.0" customHeight="1"/>
-    <row r="154" ht="21.0" customHeight="1"/>
-    <row r="155" ht="21.0" customHeight="1"/>
-    <row r="156" ht="21.0" customHeight="1"/>
-    <row r="157" ht="21.0" customHeight="1"/>
-    <row r="158" ht="21.0" customHeight="1"/>
-    <row r="159" ht="21.0" customHeight="1"/>
-    <row r="160" ht="21.0" customHeight="1"/>
-    <row r="161" ht="21.0" customHeight="1"/>
-    <row r="162" ht="21.0" customHeight="1"/>
-    <row r="163" ht="21.0" customHeight="1"/>
-    <row r="164" ht="21.0" customHeight="1"/>
-    <row r="165" ht="21.0" customHeight="1"/>
-    <row r="166" ht="21.0" customHeight="1"/>
-    <row r="167" ht="21.0" customHeight="1"/>
-    <row r="168" ht="21.0" customHeight="1"/>
-    <row r="169" ht="21.0" customHeight="1"/>
-    <row r="170" ht="21.0" customHeight="1"/>
-    <row r="171" ht="21.0" customHeight="1"/>
-    <row r="172" ht="21.0" customHeight="1"/>
-    <row r="173" ht="21.0" customHeight="1"/>
-    <row r="174" ht="21.0" customHeight="1"/>
-    <row r="175" ht="21.0" customHeight="1"/>
-    <row r="176" ht="21.0" customHeight="1"/>
-    <row r="177" ht="21.0" customHeight="1"/>
-    <row r="178" ht="21.0" customHeight="1"/>
-    <row r="179" ht="21.0" customHeight="1"/>
-    <row r="180" ht="21.0" customHeight="1"/>
-    <row r="181" ht="21.0" customHeight="1"/>
-    <row r="182" ht="21.0" customHeight="1"/>
-    <row r="183" ht="21.0" customHeight="1"/>
-    <row r="184" ht="21.0" customHeight="1"/>
-    <row r="185" ht="21.0" customHeight="1"/>
-    <row r="186" ht="21.0" customHeight="1"/>
-    <row r="187" ht="21.0" customHeight="1"/>
-    <row r="188" ht="21.0" customHeight="1"/>
-    <row r="189" ht="21.0" customHeight="1"/>
-    <row r="190" ht="21.0" customHeight="1"/>
-    <row r="191" ht="21.0" customHeight="1"/>
-    <row r="192" ht="21.0" customHeight="1"/>
-    <row r="193" ht="21.0" customHeight="1"/>
-    <row r="194" ht="21.0" customHeight="1"/>
-    <row r="195" ht="21.0" customHeight="1"/>
-    <row r="196" ht="21.0" customHeight="1"/>
-    <row r="197" ht="21.0" customHeight="1"/>
-    <row r="198" ht="21.0" customHeight="1"/>
-    <row r="199" ht="21.0" customHeight="1"/>
-    <row r="200" ht="21.0" customHeight="1"/>
-    <row r="201" ht="21.0" customHeight="1"/>
-    <row r="202" ht="21.0" customHeight="1"/>
-    <row r="203" ht="21.0" customHeight="1"/>
-    <row r="204" ht="21.0" customHeight="1"/>
-    <row r="205" ht="21.0" customHeight="1"/>
-    <row r="206" ht="21.0" customHeight="1"/>
-    <row r="207" ht="21.0" customHeight="1"/>
-    <row r="208" ht="21.0" customHeight="1"/>
-    <row r="209" ht="21.0" customHeight="1"/>
-    <row r="210" ht="21.0" customHeight="1"/>
-    <row r="211" ht="21.0" customHeight="1"/>
-    <row r="212" ht="21.0" customHeight="1"/>
-    <row r="213" ht="21.0" customHeight="1"/>
-    <row r="214" ht="21.0" customHeight="1"/>
-    <row r="215" ht="21.0" customHeight="1"/>
-    <row r="216" ht="21.0" customHeight="1"/>
-    <row r="217" ht="21.0" customHeight="1"/>
-    <row r="218" ht="21.0" customHeight="1"/>
-    <row r="219" ht="21.0" customHeight="1"/>
-    <row r="220" ht="21.0" customHeight="1"/>
-    <row r="221" ht="21.0" customHeight="1"/>
-    <row r="222" ht="21.0" customHeight="1"/>
-    <row r="223" ht="21.0" customHeight="1"/>
-    <row r="224" ht="21.0" customHeight="1"/>
-    <row r="225" ht="21.0" customHeight="1"/>
-    <row r="226" ht="21.0" customHeight="1"/>
-    <row r="227" ht="21.0" customHeight="1"/>
-    <row r="228" ht="21.0" customHeight="1"/>
-    <row r="229" ht="21.0" customHeight="1"/>
-    <row r="230" ht="21.0" customHeight="1"/>
-    <row r="231" ht="21.0" customHeight="1"/>
-    <row r="232" ht="21.0" customHeight="1"/>
-    <row r="233" ht="21.0" customHeight="1"/>
-    <row r="234" ht="21.0" customHeight="1"/>
-    <row r="235" ht="21.0" customHeight="1"/>
-    <row r="236" ht="21.0" customHeight="1"/>
-    <row r="237" ht="21.0" customHeight="1"/>
-    <row r="238" ht="21.0" customHeight="1"/>
-    <row r="239" ht="21.0" customHeight="1"/>
-    <row r="240" ht="21.0" customHeight="1"/>
-    <row r="241" ht="21.0" customHeight="1"/>
-    <row r="242" ht="21.0" customHeight="1"/>
-    <row r="243" ht="21.0" customHeight="1"/>
-    <row r="244" ht="21.0" customHeight="1"/>
-    <row r="245" ht="21.0" customHeight="1"/>
-    <row r="246" ht="21.0" customHeight="1"/>
-    <row r="247" ht="21.0" customHeight="1"/>
-    <row r="248" ht="21.0" customHeight="1"/>
-    <row r="249" ht="21.0" customHeight="1"/>
-    <row r="250" ht="21.0" customHeight="1"/>
-    <row r="251" ht="21.0" customHeight="1"/>
-    <row r="252" ht="21.0" customHeight="1"/>
-    <row r="253" ht="21.0" customHeight="1"/>
-    <row r="254" ht="21.0" customHeight="1"/>
-    <row r="255" ht="21.0" customHeight="1"/>
-    <row r="256" ht="21.0" customHeight="1"/>
-    <row r="257" ht="21.0" customHeight="1"/>
-    <row r="258" ht="21.0" customHeight="1"/>
-    <row r="259" ht="21.0" customHeight="1"/>
-    <row r="260" ht="21.0" customHeight="1"/>
-    <row r="261" ht="21.0" customHeight="1"/>
-    <row r="262" ht="21.0" customHeight="1"/>
-    <row r="263" ht="21.0" customHeight="1"/>
-    <row r="264" ht="21.0" customHeight="1"/>
-    <row r="265" ht="21.0" customHeight="1"/>
-    <row r="266" ht="21.0" customHeight="1"/>
-    <row r="267" ht="21.0" customHeight="1"/>
-    <row r="268" ht="21.0" customHeight="1"/>
-    <row r="269" ht="21.0" customHeight="1"/>
-    <row r="270" ht="21.0" customHeight="1"/>
-    <row r="271" ht="21.0" customHeight="1"/>
-    <row r="272" ht="21.0" customHeight="1"/>
-    <row r="273" ht="21.0" customHeight="1"/>
-    <row r="274" ht="21.0" customHeight="1"/>
-    <row r="275" ht="21.0" customHeight="1"/>
-    <row r="276" ht="21.0" customHeight="1"/>
-    <row r="277" ht="21.0" customHeight="1"/>
-    <row r="278" ht="21.0" customHeight="1"/>
-    <row r="279" ht="21.0" customHeight="1"/>
-    <row r="280" ht="21.0" customHeight="1"/>
-    <row r="281" ht="21.0" customHeight="1"/>
-    <row r="282" ht="21.0" customHeight="1"/>
-    <row r="283" ht="21.0" customHeight="1"/>
-    <row r="284" ht="21.0" customHeight="1"/>
-    <row r="285" ht="21.0" customHeight="1"/>
-    <row r="286" ht="21.0" customHeight="1"/>
-    <row r="287" ht="21.0" customHeight="1"/>
-    <row r="288" ht="21.0" customHeight="1"/>
-    <row r="289" ht="21.0" customHeight="1"/>
-    <row r="290" ht="21.0" customHeight="1"/>
-    <row r="291" ht="21.0" customHeight="1"/>
-    <row r="292" ht="21.0" customHeight="1"/>
-    <row r="293" ht="21.0" customHeight="1"/>
-    <row r="294" ht="21.0" customHeight="1"/>
-    <row r="295" ht="21.0" customHeight="1"/>
-    <row r="296" ht="21.0" customHeight="1"/>
-    <row r="297" ht="21.0" customHeight="1"/>
-    <row r="298" ht="21.0" customHeight="1"/>
-    <row r="299" ht="21.0" customHeight="1"/>
-    <row r="300" ht="21.0" customHeight="1"/>
-    <row r="301" ht="21.0" customHeight="1"/>
-    <row r="302" ht="21.0" customHeight="1"/>
-    <row r="303" ht="21.0" customHeight="1"/>
-    <row r="304" ht="21.0" customHeight="1"/>
-    <row r="305" ht="21.0" customHeight="1"/>
-    <row r="306" ht="21.0" customHeight="1"/>
-    <row r="307" ht="21.0" customHeight="1"/>
-    <row r="308" ht="21.0" customHeight="1"/>
-    <row r="309" ht="21.0" customHeight="1"/>
-    <row r="310" ht="21.0" customHeight="1"/>
-    <row r="311" ht="21.0" customHeight="1"/>
-    <row r="312" ht="21.0" customHeight="1"/>
-    <row r="313" ht="21.0" customHeight="1"/>
-    <row r="314" ht="21.0" customHeight="1"/>
-    <row r="315" ht="21.0" customHeight="1"/>
-    <row r="316" ht="21.0" customHeight="1"/>
-    <row r="317" ht="21.0" customHeight="1"/>
-    <row r="318" ht="21.0" customHeight="1"/>
-    <row r="319" ht="21.0" customHeight="1"/>
-    <row r="320" ht="21.0" customHeight="1"/>
-    <row r="321" ht="21.0" customHeight="1"/>
-    <row r="322" ht="21.0" customHeight="1"/>
-    <row r="323" ht="21.0" customHeight="1"/>
-    <row r="324" ht="21.0" customHeight="1"/>
-    <row r="325" ht="21.0" customHeight="1"/>
-    <row r="326" ht="21.0" customHeight="1"/>
-    <row r="327" ht="21.0" customHeight="1"/>
-    <row r="328" ht="21.0" customHeight="1"/>
-    <row r="329" ht="21.0" customHeight="1"/>
-    <row r="330" ht="21.0" customHeight="1"/>
-    <row r="331" ht="21.0" customHeight="1"/>
-    <row r="332" ht="21.0" customHeight="1"/>
-    <row r="333" ht="21.0" customHeight="1"/>
-    <row r="334" ht="21.0" customHeight="1"/>
-    <row r="335" ht="21.0" customHeight="1"/>
-    <row r="336" ht="21.0" customHeight="1"/>
-    <row r="337" ht="21.0" customHeight="1"/>
-    <row r="338" ht="21.0" customHeight="1"/>
-    <row r="339" ht="21.0" customHeight="1"/>
-    <row r="340" ht="21.0" customHeight="1"/>
-    <row r="341" ht="21.0" customHeight="1"/>
-    <row r="342" ht="21.0" customHeight="1"/>
-    <row r="343" ht="21.0" customHeight="1"/>
-    <row r="344" ht="21.0" customHeight="1"/>
-    <row r="345" ht="21.0" customHeight="1"/>
-    <row r="346" ht="21.0" customHeight="1"/>
-    <row r="347" ht="21.0" customHeight="1"/>
-    <row r="348" ht="21.0" customHeight="1"/>
-    <row r="349" ht="21.0" customHeight="1"/>
-    <row r="350" ht="21.0" customHeight="1"/>
-    <row r="351" ht="21.0" customHeight="1"/>
-    <row r="352" ht="21.0" customHeight="1"/>
-    <row r="353" ht="21.0" customHeight="1"/>
-    <row r="354" ht="21.0" customHeight="1"/>
-    <row r="355" ht="21.0" customHeight="1"/>
-    <row r="356" ht="21.0" customHeight="1"/>
-    <row r="357" ht="21.0" customHeight="1"/>
-    <row r="358" ht="21.0" customHeight="1"/>
-    <row r="359" ht="21.0" customHeight="1"/>
-    <row r="360" ht="21.0" customHeight="1"/>
-    <row r="361" ht="21.0" customHeight="1"/>
-    <row r="362" ht="21.0" customHeight="1"/>
-    <row r="363" ht="21.0" customHeight="1"/>
-    <row r="364" ht="21.0" customHeight="1"/>
-    <row r="365" ht="21.0" customHeight="1"/>
-    <row r="366" ht="21.0" customHeight="1"/>
-    <row r="367" ht="21.0" customHeight="1"/>
-    <row r="368" ht="21.0" customHeight="1"/>
-    <row r="369" ht="21.0" customHeight="1"/>
-    <row r="370" ht="21.0" customHeight="1"/>
-    <row r="371" ht="21.0" customHeight="1"/>
-    <row r="372" ht="21.0" customHeight="1"/>
-    <row r="373" ht="21.0" customHeight="1"/>
-    <row r="374" ht="21.0" customHeight="1"/>
-    <row r="375" ht="21.0" customHeight="1"/>
-    <row r="376" ht="21.0" customHeight="1"/>
-    <row r="377" ht="21.0" customHeight="1"/>
-    <row r="378" ht="21.0" customHeight="1"/>
-    <row r="379" ht="21.0" customHeight="1"/>
-    <row r="380" ht="21.0" customHeight="1"/>
-    <row r="381" ht="21.0" customHeight="1"/>
-    <row r="382" ht="21.0" customHeight="1"/>
-    <row r="383" ht="21.0" customHeight="1"/>
-    <row r="384" ht="21.0" customHeight="1"/>
-    <row r="385" ht="21.0" customHeight="1"/>
-    <row r="386" ht="21.0" customHeight="1"/>
-    <row r="387" ht="21.0" customHeight="1"/>
-    <row r="388" ht="21.0" customHeight="1"/>
-    <row r="389" ht="21.0" customHeight="1"/>
-    <row r="390" ht="21.0" customHeight="1"/>
-    <row r="391" ht="21.0" customHeight="1"/>
-    <row r="392" ht="21.0" customHeight="1"/>
-    <row r="393" ht="21.0" customHeight="1"/>
-    <row r="394" ht="21.0" customHeight="1"/>
-    <row r="395" ht="21.0" customHeight="1"/>
-    <row r="396" ht="21.0" customHeight="1"/>
-    <row r="397" ht="21.0" customHeight="1"/>
-    <row r="398" ht="21.0" customHeight="1"/>
-    <row r="399" ht="21.0" customHeight="1"/>
-    <row r="400" ht="21.0" customHeight="1"/>
-    <row r="401" ht="21.0" customHeight="1"/>
-    <row r="402" ht="21.0" customHeight="1"/>
-    <row r="403" ht="21.0" customHeight="1"/>
-    <row r="404" ht="21.0" customHeight="1"/>
-    <row r="405" ht="21.0" customHeight="1"/>
-    <row r="406" ht="21.0" customHeight="1"/>
-    <row r="407" ht="21.0" customHeight="1"/>
-    <row r="408" ht="21.0" customHeight="1"/>
-    <row r="409" ht="21.0" customHeight="1"/>
-    <row r="410" ht="21.0" customHeight="1"/>
-    <row r="411" ht="21.0" customHeight="1"/>
-    <row r="412" ht="21.0" customHeight="1"/>
-    <row r="413" ht="21.0" customHeight="1"/>
-    <row r="414" ht="21.0" customHeight="1"/>
-    <row r="415" ht="21.0" customHeight="1"/>
-    <row r="416" ht="21.0" customHeight="1"/>
-    <row r="417" ht="21.0" customHeight="1"/>
-    <row r="418" ht="21.0" customHeight="1"/>
-    <row r="419" ht="21.0" customHeight="1"/>
-    <row r="420" ht="21.0" customHeight="1"/>
-    <row r="421" ht="21.0" customHeight="1"/>
-    <row r="422" ht="21.0" customHeight="1"/>
-    <row r="423" ht="21.0" customHeight="1"/>
-    <row r="424" ht="21.0" customHeight="1"/>
-    <row r="425" ht="21.0" customHeight="1"/>
-    <row r="426" ht="21.0" customHeight="1"/>
-    <row r="427" ht="21.0" customHeight="1"/>
-    <row r="428" ht="21.0" customHeight="1"/>
-    <row r="429" ht="21.0" customHeight="1"/>
-    <row r="430" ht="21.0" customHeight="1"/>
-    <row r="431" ht="21.0" customHeight="1"/>
-    <row r="432" ht="21.0" customHeight="1"/>
-    <row r="433" ht="21.0" customHeight="1"/>
-    <row r="434" ht="21.0" customHeight="1"/>
-    <row r="435" ht="21.0" customHeight="1"/>
-    <row r="436" ht="21.0" customHeight="1"/>
-    <row r="437" ht="21.0" customHeight="1"/>
-    <row r="438" ht="21.0" customHeight="1"/>
-    <row r="439" ht="21.0" customHeight="1"/>
-    <row r="440" ht="21.0" customHeight="1"/>
-    <row r="441" ht="21.0" customHeight="1"/>
-    <row r="442" ht="21.0" customHeight="1"/>
-    <row r="443" ht="21.0" customHeight="1"/>
-    <row r="444" ht="21.0" customHeight="1"/>
-    <row r="445" ht="21.0" customHeight="1"/>
-    <row r="446" ht="21.0" customHeight="1"/>
-    <row r="447" ht="21.0" customHeight="1"/>
-    <row r="448" ht="21.0" customHeight="1"/>
-    <row r="449" ht="21.0" customHeight="1"/>
-    <row r="450" ht="21.0" customHeight="1"/>
-    <row r="451" ht="21.0" customHeight="1"/>
-    <row r="452" ht="21.0" customHeight="1"/>
-    <row r="453" ht="21.0" customHeight="1"/>
-    <row r="454" ht="21.0" customHeight="1"/>
-    <row r="455" ht="21.0" customHeight="1"/>
-    <row r="456" ht="21.0" customHeight="1"/>
-    <row r="457" ht="21.0" customHeight="1"/>
-    <row r="458" ht="21.0" customHeight="1"/>
-    <row r="459" ht="21.0" customHeight="1"/>
-    <row r="460" ht="21.0" customHeight="1"/>
-    <row r="461" ht="21.0" customHeight="1"/>
-    <row r="462" ht="21.0" customHeight="1"/>
-    <row r="463" ht="21.0" customHeight="1"/>
-    <row r="464" ht="21.0" customHeight="1"/>
-    <row r="465" ht="21.0" customHeight="1"/>
-    <row r="466" ht="21.0" customHeight="1"/>
-    <row r="467" ht="21.0" customHeight="1"/>
-    <row r="468" ht="21.0" customHeight="1"/>
-    <row r="469" ht="21.0" customHeight="1"/>
-    <row r="470" ht="21.0" customHeight="1"/>
-    <row r="471" ht="21.0" customHeight="1"/>
-    <row r="472" ht="21.0" customHeight="1"/>
-    <row r="473" ht="21.0" customHeight="1"/>
-    <row r="474" ht="21.0" customHeight="1"/>
-    <row r="475" ht="21.0" customHeight="1"/>
-    <row r="476" ht="21.0" customHeight="1"/>
-    <row r="477" ht="21.0" customHeight="1"/>
-    <row r="478" ht="21.0" customHeight="1"/>
-    <row r="479" ht="21.0" customHeight="1"/>
-    <row r="480" ht="21.0" customHeight="1"/>
-    <row r="481" ht="21.0" customHeight="1"/>
-    <row r="482" ht="21.0" customHeight="1"/>
-    <row r="483" ht="21.0" customHeight="1"/>
-    <row r="484" ht="21.0" customHeight="1"/>
-    <row r="485" ht="21.0" customHeight="1"/>
-    <row r="486" ht="21.0" customHeight="1"/>
-    <row r="487" ht="21.0" customHeight="1"/>
-    <row r="488" ht="21.0" customHeight="1"/>
-    <row r="489" ht="21.0" customHeight="1"/>
-    <row r="490" ht="21.0" customHeight="1"/>
-    <row r="491" ht="21.0" customHeight="1"/>
-    <row r="492" ht="21.0" customHeight="1"/>
-    <row r="493" ht="21.0" customHeight="1"/>
-    <row r="494" ht="21.0" customHeight="1"/>
-    <row r="495" ht="21.0" customHeight="1"/>
-    <row r="496" ht="21.0" customHeight="1"/>
-    <row r="497" ht="21.0" customHeight="1"/>
-    <row r="498" ht="21.0" customHeight="1"/>
-    <row r="499" ht="21.0" customHeight="1"/>
-    <row r="500" ht="21.0" customHeight="1"/>
-    <row r="501" ht="21.0" customHeight="1"/>
-    <row r="502" ht="21.0" customHeight="1"/>
-    <row r="503" ht="21.0" customHeight="1"/>
-    <row r="504" ht="21.0" customHeight="1"/>
-    <row r="505" ht="21.0" customHeight="1"/>
-    <row r="506" ht="21.0" customHeight="1"/>
-    <row r="507" ht="21.0" customHeight="1"/>
-    <row r="508" ht="21.0" customHeight="1"/>
-    <row r="509" ht="21.0" customHeight="1"/>
-    <row r="510" ht="21.0" customHeight="1"/>
-    <row r="511" ht="21.0" customHeight="1"/>
-    <row r="512" ht="21.0" customHeight="1"/>
-    <row r="513" ht="21.0" customHeight="1"/>
-    <row r="514" ht="21.0" customHeight="1"/>
-    <row r="515" ht="21.0" customHeight="1"/>
-    <row r="516" ht="21.0" customHeight="1"/>
-    <row r="517" ht="21.0" customHeight="1"/>
-    <row r="518" ht="21.0" customHeight="1"/>
-    <row r="519" ht="21.0" customHeight="1"/>
-    <row r="520" ht="21.0" customHeight="1"/>
-    <row r="521" ht="21.0" customHeight="1"/>
-    <row r="522" ht="21.0" customHeight="1"/>
-    <row r="523" ht="21.0" customHeight="1"/>
-    <row r="524" ht="21.0" customHeight="1"/>
-    <row r="525" ht="21.0" customHeight="1"/>
-    <row r="526" ht="21.0" customHeight="1"/>
-    <row r="527" ht="21.0" customHeight="1"/>
-    <row r="528" ht="21.0" customHeight="1"/>
-    <row r="529" ht="21.0" customHeight="1"/>
-    <row r="530" ht="21.0" customHeight="1"/>
-    <row r="531" ht="21.0" customHeight="1"/>
-    <row r="532" ht="21.0" customHeight="1"/>
-    <row r="533" ht="21.0" customHeight="1"/>
-    <row r="534" ht="21.0" customHeight="1"/>
-    <row r="535" ht="21.0" customHeight="1"/>
-    <row r="536" ht="21.0" customHeight="1"/>
-    <row r="537" ht="21.0" customHeight="1"/>
-    <row r="538" ht="21.0" customHeight="1"/>
-    <row r="539" ht="21.0" customHeight="1"/>
-    <row r="540" ht="21.0" customHeight="1"/>
-    <row r="541" ht="21.0" customHeight="1"/>
-    <row r="542" ht="21.0" customHeight="1"/>
-    <row r="543" ht="21.0" customHeight="1"/>
-    <row r="544" ht="21.0" customHeight="1"/>
-    <row r="545" ht="21.0" customHeight="1"/>
-    <row r="546" ht="21.0" customHeight="1"/>
-    <row r="547" ht="21.0" customHeight="1"/>
-    <row r="548" ht="21.0" customHeight="1"/>
-    <row r="549" ht="21.0" customHeight="1"/>
-    <row r="550" ht="21.0" customHeight="1"/>
-    <row r="551" ht="21.0" customHeight="1"/>
-    <row r="552" ht="21.0" customHeight="1"/>
-    <row r="553" ht="21.0" customHeight="1"/>
-    <row r="554" ht="21.0" customHeight="1"/>
-    <row r="555" ht="21.0" customHeight="1"/>
-    <row r="556" ht="21.0" customHeight="1"/>
-    <row r="557" ht="21.0" customHeight="1"/>
-    <row r="558" ht="21.0" customHeight="1"/>
-    <row r="559" ht="21.0" customHeight="1"/>
-    <row r="560" ht="21.0" customHeight="1"/>
-    <row r="561" ht="21.0" customHeight="1"/>
-    <row r="562" ht="21.0" customHeight="1"/>
-    <row r="563" ht="21.0" customHeight="1"/>
-    <row r="564" ht="21.0" customHeight="1"/>
-    <row r="565" ht="21.0" customHeight="1"/>
-    <row r="566" ht="21.0" customHeight="1"/>
-    <row r="567" ht="21.0" customHeight="1"/>
-    <row r="568" ht="21.0" customHeight="1"/>
-    <row r="569" ht="21.0" customHeight="1"/>
-    <row r="570" ht="21.0" customHeight="1"/>
-    <row r="571" ht="21.0" customHeight="1"/>
-    <row r="572" ht="21.0" customHeight="1"/>
-    <row r="573" ht="21.0" customHeight="1"/>
-    <row r="574" ht="21.0" customHeight="1"/>
-    <row r="575" ht="21.0" customHeight="1"/>
-    <row r="576" ht="21.0" customHeight="1"/>
-    <row r="577" ht="21.0" customHeight="1"/>
-    <row r="578" ht="21.0" customHeight="1"/>
-    <row r="579" ht="21.0" customHeight="1"/>
-    <row r="580" ht="21.0" customHeight="1"/>
-    <row r="581" ht="21.0" customHeight="1"/>
-    <row r="582" ht="21.0" customHeight="1"/>
-    <row r="583" ht="21.0" customHeight="1"/>
-    <row r="584" ht="21.0" customHeight="1"/>
-    <row r="585" ht="21.0" customHeight="1"/>
-    <row r="586" ht="21.0" customHeight="1"/>
-    <row r="587" ht="21.0" customHeight="1"/>
-    <row r="588" ht="21.0" customHeight="1"/>
-    <row r="589" ht="21.0" customHeight="1"/>
-    <row r="590" ht="21.0" customHeight="1"/>
-    <row r="591" ht="21.0" customHeight="1"/>
-    <row r="592" ht="21.0" customHeight="1"/>
-    <row r="593" ht="21.0" customHeight="1"/>
-    <row r="594" ht="21.0" customHeight="1"/>
-    <row r="595" ht="21.0" customHeight="1"/>
-    <row r="596" ht="21.0" customHeight="1"/>
-    <row r="597" ht="21.0" customHeight="1"/>
-    <row r="598" ht="21.0" customHeight="1"/>
-    <row r="599" ht="21.0" customHeight="1"/>
-    <row r="600" ht="21.0" customHeight="1"/>
-    <row r="601" ht="21.0" customHeight="1"/>
-    <row r="602" ht="21.0" customHeight="1"/>
-    <row r="603" ht="21.0" customHeight="1"/>
-    <row r="604" ht="21.0" customHeight="1"/>
-    <row r="605" ht="21.0" customHeight="1"/>
-    <row r="606" ht="21.0" customHeight="1"/>
-    <row r="607" ht="21.0" customHeight="1"/>
-    <row r="608" ht="21.0" customHeight="1"/>
-    <row r="609" ht="21.0" customHeight="1"/>
-    <row r="610" ht="21.0" customHeight="1"/>
-    <row r="611" ht="21.0" customHeight="1"/>
-    <row r="612" ht="21.0" customHeight="1"/>
-    <row r="613" ht="21.0" customHeight="1"/>
-    <row r="614" ht="21.0" customHeight="1"/>
-    <row r="615" ht="21.0" customHeight="1"/>
-    <row r="616" ht="21.0" customHeight="1"/>
-    <row r="617" ht="21.0" customHeight="1"/>
-    <row r="618" ht="21.0" customHeight="1"/>
-    <row r="619" ht="21.0" customHeight="1"/>
-    <row r="620" ht="21.0" customHeight="1"/>
-    <row r="621" ht="21.0" customHeight="1"/>
-    <row r="622" ht="21.0" customHeight="1"/>
-    <row r="623" ht="21.0" customHeight="1"/>
-    <row r="624" ht="21.0" customHeight="1"/>
-    <row r="625" ht="21.0" customHeight="1"/>
-    <row r="626" ht="21.0" customHeight="1"/>
-    <row r="627" ht="21.0" customHeight="1"/>
-    <row r="628" ht="21.0" customHeight="1"/>
-    <row r="629" ht="21.0" customHeight="1"/>
-    <row r="630" ht="21.0" customHeight="1"/>
-    <row r="631" ht="21.0" customHeight="1"/>
-    <row r="632" ht="21.0" customHeight="1"/>
-    <row r="633" ht="21.0" customHeight="1"/>
-    <row r="634" ht="21.0" customHeight="1"/>
-    <row r="635" ht="21.0" customHeight="1"/>
-    <row r="636" ht="21.0" customHeight="1"/>
-    <row r="637" ht="21.0" customHeight="1"/>
-    <row r="638" ht="21.0" customHeight="1"/>
-    <row r="639" ht="21.0" customHeight="1"/>
-    <row r="640" ht="21.0" customHeight="1"/>
-    <row r="641" ht="21.0" customHeight="1"/>
-    <row r="642" ht="21.0" customHeight="1"/>
-    <row r="643" ht="21.0" customHeight="1"/>
-    <row r="644" ht="21.0" customHeight="1"/>
-    <row r="645" ht="21.0" customHeight="1"/>
-    <row r="646" ht="21.0" customHeight="1"/>
-    <row r="647" ht="21.0" customHeight="1"/>
-    <row r="648" ht="21.0" customHeight="1"/>
-    <row r="649" ht="21.0" customHeight="1"/>
-    <row r="650" ht="21.0" customHeight="1"/>
-    <row r="651" ht="21.0" customHeight="1"/>
-    <row r="652" ht="21.0" customHeight="1"/>
-    <row r="653" ht="21.0" customHeight="1"/>
-    <row r="654" ht="21.0" customHeight="1"/>
-    <row r="655" ht="21.0" customHeight="1"/>
-    <row r="656" ht="21.0" customHeight="1"/>
-    <row r="657" ht="21.0" customHeight="1"/>
-    <row r="658" ht="21.0" customHeight="1"/>
-    <row r="659" ht="21.0" customHeight="1"/>
-    <row r="660" ht="21.0" customHeight="1"/>
-    <row r="661" ht="21.0" customHeight="1"/>
-    <row r="662" ht="21.0" customHeight="1"/>
-    <row r="663" ht="21.0" customHeight="1"/>
-    <row r="664" ht="21.0" customHeight="1"/>
-    <row r="665" ht="21.0" customHeight="1"/>
-    <row r="666" ht="21.0" customHeight="1"/>
-    <row r="667" ht="21.0" customHeight="1"/>
-    <row r="668" ht="21.0" customHeight="1"/>
-    <row r="669" ht="21.0" customHeight="1"/>
-    <row r="670" ht="21.0" customHeight="1"/>
-    <row r="671" ht="21.0" customHeight="1"/>
-    <row r="672" ht="21.0" customHeight="1"/>
-    <row r="673" ht="21.0" customHeight="1"/>
-    <row r="674" ht="21.0" customHeight="1"/>
-    <row r="675" ht="21.0" customHeight="1"/>
-    <row r="676" ht="21.0" customHeight="1"/>
-    <row r="677" ht="21.0" customHeight="1"/>
-    <row r="678" ht="21.0" customHeight="1"/>
-    <row r="679" ht="21.0" customHeight="1"/>
-    <row r="680" ht="21.0" customHeight="1"/>
-    <row r="681" ht="21.0" customHeight="1"/>
-    <row r="682" ht="21.0" customHeight="1"/>
-    <row r="683" ht="21.0" customHeight="1"/>
-    <row r="684" ht="21.0" customHeight="1"/>
-    <row r="685" ht="21.0" customHeight="1"/>
-    <row r="686" ht="21.0" customHeight="1"/>
-    <row r="687" ht="21.0" customHeight="1"/>
-    <row r="688" ht="21.0" customHeight="1"/>
-    <row r="689" ht="21.0" customHeight="1"/>
-    <row r="690" ht="21.0" customHeight="1"/>
-    <row r="691" ht="21.0" customHeight="1"/>
-    <row r="692" ht="21.0" customHeight="1"/>
-    <row r="693" ht="21.0" customHeight="1"/>
-    <row r="694" ht="21.0" customHeight="1"/>
-    <row r="695" ht="21.0" customHeight="1"/>
-    <row r="696" ht="21.0" customHeight="1"/>
-    <row r="697" ht="21.0" customHeight="1"/>
-    <row r="698" ht="21.0" customHeight="1"/>
-    <row r="699" ht="21.0" customHeight="1"/>
-    <row r="700" ht="21.0" customHeight="1"/>
-    <row r="701" ht="21.0" customHeight="1"/>
-    <row r="702" ht="21.0" customHeight="1"/>
-    <row r="703" ht="21.0" customHeight="1"/>
-    <row r="704" ht="21.0" customHeight="1"/>
-    <row r="705" ht="21.0" customHeight="1"/>
-    <row r="706" ht="21.0" customHeight="1"/>
-    <row r="707" ht="21.0" customHeight="1"/>
-    <row r="708" ht="21.0" customHeight="1"/>
-    <row r="709" ht="21.0" customHeight="1"/>
-    <row r="710" ht="21.0" customHeight="1"/>
-    <row r="711" ht="21.0" customHeight="1"/>
-    <row r="712" ht="21.0" customHeight="1"/>
-    <row r="713" ht="21.0" customHeight="1"/>
-    <row r="714" ht="21.0" customHeight="1"/>
-    <row r="715" ht="21.0" customHeight="1"/>
-    <row r="716" ht="21.0" customHeight="1"/>
-    <row r="717" ht="21.0" customHeight="1"/>
-    <row r="718" ht="21.0" customHeight="1"/>
-    <row r="719" ht="21.0" customHeight="1"/>
-    <row r="720" ht="21.0" customHeight="1"/>
-    <row r="721" ht="21.0" customHeight="1"/>
-    <row r="722" ht="21.0" customHeight="1"/>
-    <row r="723" ht="21.0" customHeight="1"/>
-    <row r="724" ht="21.0" customHeight="1"/>
-    <row r="725" ht="21.0" customHeight="1"/>
-    <row r="726" ht="21.0" customHeight="1"/>
-    <row r="727" ht="21.0" customHeight="1"/>
-    <row r="728" ht="21.0" customHeight="1"/>
-    <row r="729" ht="21.0" customHeight="1"/>
-    <row r="730" ht="21.0" customHeight="1"/>
-    <row r="731" ht="21.0" customHeight="1"/>
-    <row r="732" ht="21.0" customHeight="1"/>
-    <row r="733" ht="21.0" customHeight="1"/>
-    <row r="734" ht="21.0" customHeight="1"/>
-    <row r="735" ht="21.0" customHeight="1"/>
-    <row r="736" ht="21.0" customHeight="1"/>
-    <row r="737" ht="21.0" customHeight="1"/>
-    <row r="738" ht="21.0" customHeight="1"/>
-    <row r="739" ht="21.0" customHeight="1"/>
-    <row r="740" ht="21.0" customHeight="1"/>
-    <row r="741" ht="21.0" customHeight="1"/>
-    <row r="742" ht="21.0" customHeight="1"/>
-    <row r="743" ht="21.0" customHeight="1"/>
-    <row r="744" ht="21.0" customHeight="1"/>
-    <row r="745" ht="21.0" customHeight="1"/>
-    <row r="746" ht="21.0" customHeight="1"/>
-    <row r="747" ht="21.0" customHeight="1"/>
-    <row r="748" ht="21.0" customHeight="1"/>
-    <row r="749" ht="21.0" customHeight="1"/>
-    <row r="750" ht="21.0" customHeight="1"/>
-    <row r="751" ht="21.0" customHeight="1"/>
-    <row r="752" ht="21.0" customHeight="1"/>
-    <row r="753" ht="21.0" customHeight="1"/>
-    <row r="754" ht="21.0" customHeight="1"/>
-    <row r="755" ht="21.0" customHeight="1"/>
-    <row r="756" ht="21.0" customHeight="1"/>
-    <row r="757" ht="21.0" customHeight="1"/>
-    <row r="758" ht="21.0" customHeight="1"/>
-    <row r="759" ht="21.0" customHeight="1"/>
-    <row r="760" ht="21.0" customHeight="1"/>
-    <row r="761" ht="21.0" customHeight="1"/>
-    <row r="762" ht="21.0" customHeight="1"/>
-    <row r="763" ht="21.0" customHeight="1"/>
-    <row r="764" ht="21.0" customHeight="1"/>
-    <row r="765" ht="21.0" customHeight="1"/>
-    <row r="766" ht="21.0" customHeight="1"/>
-    <row r="767" ht="21.0" customHeight="1"/>
-    <row r="768" ht="21.0" customHeight="1"/>
-    <row r="769" ht="21.0" customHeight="1"/>
-    <row r="770" ht="21.0" customHeight="1"/>
-    <row r="771" ht="21.0" customHeight="1"/>
-    <row r="772" ht="21.0" customHeight="1"/>
-    <row r="773" ht="21.0" customHeight="1"/>
-    <row r="774" ht="21.0" customHeight="1"/>
-    <row r="775" ht="21.0" customHeight="1"/>
-    <row r="776" ht="21.0" customHeight="1"/>
-    <row r="777" ht="21.0" customHeight="1"/>
-    <row r="778" ht="21.0" customHeight="1"/>
-    <row r="779" ht="21.0" customHeight="1"/>
-    <row r="780" ht="21.0" customHeight="1"/>
-    <row r="781" ht="21.0" customHeight="1"/>
-    <row r="782" ht="21.0" customHeight="1"/>
-    <row r="783" ht="21.0" customHeight="1"/>
-    <row r="784" ht="21.0" customHeight="1"/>
-    <row r="785" ht="21.0" customHeight="1"/>
-    <row r="786" ht="21.0" customHeight="1"/>
-    <row r="787" ht="21.0" customHeight="1"/>
-    <row r="788" ht="21.0" customHeight="1"/>
-    <row r="789" ht="21.0" customHeight="1"/>
-    <row r="790" ht="21.0" customHeight="1"/>
-    <row r="791" ht="21.0" customHeight="1"/>
-    <row r="792" ht="21.0" customHeight="1"/>
-    <row r="793" ht="21.0" customHeight="1"/>
-    <row r="794" ht="21.0" customHeight="1"/>
-    <row r="795" ht="21.0" customHeight="1"/>
-    <row r="796" ht="21.0" customHeight="1"/>
-    <row r="797" ht="21.0" customHeight="1"/>
-    <row r="798" ht="21.0" customHeight="1"/>
-    <row r="799" ht="21.0" customHeight="1"/>
-    <row r="800" ht="21.0" customHeight="1"/>
-    <row r="801" ht="21.0" customHeight="1"/>
-    <row r="802" ht="21.0" customHeight="1"/>
-    <row r="803" ht="21.0" customHeight="1"/>
-    <row r="804" ht="21.0" customHeight="1"/>
-    <row r="805" ht="21.0" customHeight="1"/>
-    <row r="806" ht="21.0" customHeight="1"/>
-    <row r="807" ht="21.0" customHeight="1"/>
-    <row r="808" ht="21.0" customHeight="1"/>
-    <row r="809" ht="21.0" customHeight="1"/>
-    <row r="810" ht="21.0" customHeight="1"/>
-    <row r="811" ht="21.0" customHeight="1"/>
-    <row r="812" ht="21.0" customHeight="1"/>
-    <row r="813" ht="21.0" customHeight="1"/>
-    <row r="814" ht="21.0" customHeight="1"/>
-    <row r="815" ht="21.0" customHeight="1"/>
-    <row r="816" ht="21.0" customHeight="1"/>
-    <row r="817" ht="21.0" customHeight="1"/>
-    <row r="818" ht="21.0" customHeight="1"/>
-    <row r="819" ht="21.0" customHeight="1"/>
-    <row r="820" ht="21.0" customHeight="1"/>
-    <row r="821" ht="21.0" customHeight="1"/>
-    <row r="822" ht="21.0" customHeight="1"/>
-    <row r="823" ht="21.0" customHeight="1"/>
-    <row r="824" ht="21.0" customHeight="1"/>
-    <row r="825" ht="21.0" customHeight="1"/>
-    <row r="826" ht="21.0" customHeight="1"/>
-    <row r="827" ht="21.0" customHeight="1"/>
-    <row r="828" ht="21.0" customHeight="1"/>
-    <row r="829" ht="21.0" customHeight="1"/>
-    <row r="830" ht="21.0" customHeight="1"/>
-    <row r="831" ht="21.0" customHeight="1"/>
-    <row r="832" ht="21.0" customHeight="1"/>
-    <row r="833" ht="21.0" customHeight="1"/>
-    <row r="834" ht="21.0" customHeight="1"/>
-    <row r="835" ht="21.0" customHeight="1"/>
-    <row r="836" ht="21.0" customHeight="1"/>
-    <row r="837" ht="21.0" customHeight="1"/>
-    <row r="838" ht="21.0" customHeight="1"/>
-    <row r="839" ht="21.0" customHeight="1"/>
-    <row r="840" ht="21.0" customHeight="1"/>
-    <row r="841" ht="21.0" customHeight="1"/>
-    <row r="842" ht="21.0" customHeight="1"/>
-    <row r="843" ht="21.0" customHeight="1"/>
-    <row r="844" ht="21.0" customHeight="1"/>
-    <row r="845" ht="21.0" customHeight="1"/>
-    <row r="846" ht="21.0" customHeight="1"/>
-    <row r="847" ht="21.0" customHeight="1"/>
-    <row r="848" ht="21.0" customHeight="1"/>
-    <row r="849" ht="21.0" customHeight="1"/>
-    <row r="850" ht="21.0" customHeight="1"/>
-    <row r="851" ht="21.0" customHeight="1"/>
-    <row r="852" ht="21.0" customHeight="1"/>
-    <row r="853" ht="21.0" customHeight="1"/>
-    <row r="854" ht="21.0" customHeight="1"/>
-    <row r="855" ht="21.0" customHeight="1"/>
-    <row r="856" ht="21.0" customHeight="1"/>
-    <row r="857" ht="21.0" customHeight="1"/>
-    <row r="858" ht="21.0" customHeight="1"/>
-    <row r="859" ht="21.0" customHeight="1"/>
-    <row r="860" ht="21.0" customHeight="1"/>
-    <row r="861" ht="21.0" customHeight="1"/>
-    <row r="862" ht="21.0" customHeight="1"/>
-    <row r="863" ht="21.0" customHeight="1"/>
-    <row r="864" ht="21.0" customHeight="1"/>
-    <row r="865" ht="21.0" customHeight="1"/>
-    <row r="866" ht="21.0" customHeight="1"/>
-    <row r="867" ht="21.0" customHeight="1"/>
-    <row r="868" ht="21.0" customHeight="1"/>
-    <row r="869" ht="21.0" customHeight="1"/>
-    <row r="870" ht="21.0" customHeight="1"/>
-    <row r="871" ht="21.0" customHeight="1"/>
-    <row r="872" ht="21.0" customHeight="1"/>
-    <row r="873" ht="21.0" customHeight="1"/>
-    <row r="874" ht="21.0" customHeight="1"/>
-    <row r="875" ht="21.0" customHeight="1"/>
-    <row r="876" ht="21.0" customHeight="1"/>
-    <row r="877" ht="21.0" customHeight="1"/>
-    <row r="878" ht="21.0" customHeight="1"/>
-    <row r="879" ht="21.0" customHeight="1"/>
-    <row r="880" ht="21.0" customHeight="1"/>
-    <row r="881" ht="21.0" customHeight="1"/>
-    <row r="882" ht="21.0" customHeight="1"/>
-    <row r="883" ht="21.0" customHeight="1"/>
-    <row r="884" ht="21.0" customHeight="1"/>
-    <row r="885" ht="21.0" customHeight="1"/>
-    <row r="886" ht="21.0" customHeight="1"/>
-    <row r="887" ht="21.0" customHeight="1"/>
-    <row r="888" ht="21.0" customHeight="1"/>
-    <row r="889" ht="21.0" customHeight="1"/>
-    <row r="890" ht="21.0" customHeight="1"/>
-    <row r="891" ht="21.0" customHeight="1"/>
-    <row r="892" ht="21.0" customHeight="1"/>
-    <row r="893" ht="21.0" customHeight="1"/>
-    <row r="894" ht="21.0" customHeight="1"/>
-    <row r="895" ht="21.0" customHeight="1"/>
-    <row r="896" ht="21.0" customHeight="1"/>
-    <row r="897" ht="21.0" customHeight="1"/>
-    <row r="898" ht="21.0" customHeight="1"/>
-    <row r="899" ht="21.0" customHeight="1"/>
-    <row r="900" ht="21.0" customHeight="1"/>
-    <row r="901" ht="21.0" customHeight="1"/>
-    <row r="902" ht="21.0" customHeight="1"/>
-    <row r="903" ht="21.0" customHeight="1"/>
-    <row r="904" ht="21.0" customHeight="1"/>
-    <row r="905" ht="21.0" customHeight="1"/>
-    <row r="906" ht="21.0" customHeight="1"/>
-    <row r="907" ht="21.0" customHeight="1"/>
-    <row r="908" ht="21.0" customHeight="1"/>
-    <row r="909" ht="21.0" customHeight="1"/>
-    <row r="910" ht="21.0" customHeight="1"/>
-    <row r="911" ht="21.0" customHeight="1"/>
-    <row r="912" ht="21.0" customHeight="1"/>
-    <row r="913" ht="21.0" customHeight="1"/>
-    <row r="914" ht="21.0" customHeight="1"/>
-    <row r="915" ht="21.0" customHeight="1"/>
-    <row r="916" ht="21.0" customHeight="1"/>
-    <row r="917" ht="21.0" customHeight="1"/>
-    <row r="918" ht="21.0" customHeight="1"/>
-    <row r="919" ht="21.0" customHeight="1"/>
-    <row r="920" ht="21.0" customHeight="1"/>
-    <row r="921" ht="21.0" customHeight="1"/>
-    <row r="922" ht="21.0" customHeight="1"/>
-    <row r="923" ht="21.0" customHeight="1"/>
-    <row r="924" ht="21.0" customHeight="1"/>
-    <row r="925" ht="21.0" customHeight="1"/>
-    <row r="926" ht="21.0" customHeight="1"/>
-    <row r="927" ht="21.0" customHeight="1"/>
-    <row r="928" ht="21.0" customHeight="1"/>
-    <row r="929" ht="21.0" customHeight="1"/>
-    <row r="930" ht="21.0" customHeight="1"/>
-    <row r="931" ht="21.0" customHeight="1"/>
-    <row r="932" ht="21.0" customHeight="1"/>
-    <row r="933" ht="21.0" customHeight="1"/>
-    <row r="934" ht="21.0" customHeight="1"/>
-    <row r="935" ht="21.0" customHeight="1"/>
-    <row r="936" ht="21.0" customHeight="1"/>
-    <row r="937" ht="21.0" customHeight="1"/>
-    <row r="938" ht="21.0" customHeight="1"/>
-    <row r="939" ht="21.0" customHeight="1"/>
-    <row r="940" ht="21.0" customHeight="1"/>
-    <row r="941" ht="21.0" customHeight="1"/>
-    <row r="942" ht="21.0" customHeight="1"/>
-    <row r="943" ht="21.0" customHeight="1"/>
-    <row r="944" ht="21.0" customHeight="1"/>
-    <row r="945" ht="21.0" customHeight="1"/>
-    <row r="946" ht="21.0" customHeight="1"/>
-    <row r="947" ht="21.0" customHeight="1"/>
-    <row r="948" ht="21.0" customHeight="1"/>
-    <row r="949" ht="21.0" customHeight="1"/>
-    <row r="950" ht="21.0" customHeight="1"/>
-    <row r="951" ht="21.0" customHeight="1"/>
-    <row r="952" ht="21.0" customHeight="1"/>
-    <row r="953" ht="21.0" customHeight="1"/>
-    <row r="954" ht="21.0" customHeight="1"/>
-    <row r="955" ht="21.0" customHeight="1"/>
-    <row r="956" ht="21.0" customHeight="1"/>
-    <row r="957" ht="21.0" customHeight="1"/>
-    <row r="958" ht="21.0" customHeight="1"/>
-    <row r="959" ht="21.0" customHeight="1"/>
-    <row r="960" ht="21.0" customHeight="1"/>
-    <row r="961" ht="21.0" customHeight="1"/>
-    <row r="962" ht="21.0" customHeight="1"/>
-    <row r="963" ht="21.0" customHeight="1"/>
-    <row r="964" ht="21.0" customHeight="1"/>
-    <row r="965" ht="21.0" customHeight="1"/>
-    <row r="966" ht="21.0" customHeight="1"/>
-    <row r="967" ht="21.0" customHeight="1"/>
-    <row r="968" ht="21.0" customHeight="1"/>
-    <row r="969" ht="21.0" customHeight="1"/>
-    <row r="970" ht="21.0" customHeight="1"/>
-    <row r="971" ht="21.0" customHeight="1"/>
-    <row r="972" ht="21.0" customHeight="1"/>
-    <row r="973" ht="21.0" customHeight="1"/>
-    <row r="974" ht="21.0" customHeight="1"/>
-    <row r="975" ht="21.0" customHeight="1"/>
-    <row r="976" ht="21.0" customHeight="1"/>
-    <row r="977" ht="21.0" customHeight="1"/>
-    <row r="978" ht="21.0" customHeight="1"/>
-    <row r="979" ht="21.0" customHeight="1"/>
-    <row r="980" ht="21.0" customHeight="1"/>
-    <row r="981" ht="21.0" customHeight="1"/>
-    <row r="982" ht="21.0" customHeight="1"/>
-    <row r="983" ht="21.0" customHeight="1"/>
-    <row r="984" ht="21.0" customHeight="1"/>
-    <row r="985" ht="21.0" customHeight="1"/>
-    <row r="986" ht="21.0" customHeight="1"/>
-    <row r="987" ht="21.0" customHeight="1"/>
-    <row r="988" ht="21.0" customHeight="1"/>
-    <row r="989" ht="21.0" customHeight="1"/>
-    <row r="990" ht="21.0" customHeight="1"/>
-    <row r="991" ht="21.0" customHeight="1"/>
-    <row r="992" ht="21.0" customHeight="1"/>
-    <row r="993" ht="21.0" customHeight="1"/>
-    <row r="994" ht="21.0" customHeight="1"/>
-    <row r="995" ht="21.0" customHeight="1"/>
-    <row r="996" ht="21.0" customHeight="1"/>
-    <row r="997" ht="21.0" customHeight="1"/>
-    <row r="998" ht="21.0" customHeight="1"/>
-    <row r="999" ht="21.0" customHeight="1"/>
-    <row r="1000" ht="21.0" customHeight="1"/>
+    <row r="12" ht="21" customHeight="1"/>
+    <row r="13" ht="21" customHeight="1"/>
+    <row r="14" ht="21" customHeight="1"/>
+    <row r="15" ht="21" customHeight="1"/>
+    <row r="16" ht="21" customHeight="1"/>
+    <row r="17" ht="21" customHeight="1"/>
+    <row r="18" ht="21" customHeight="1"/>
+    <row r="19" ht="21" customHeight="1"/>
+    <row r="20" ht="21" customHeight="1"/>
+    <row r="21" ht="21" customHeight="1"/>
+    <row r="22" ht="21" customHeight="1"/>
+    <row r="23" ht="21" customHeight="1"/>
+    <row r="24" ht="21" customHeight="1"/>
+    <row r="25" ht="21" customHeight="1"/>
+    <row r="26" ht="21" customHeight="1"/>
+    <row r="27" ht="21" customHeight="1"/>
+    <row r="28" ht="21" customHeight="1"/>
+    <row r="29" ht="21" customHeight="1"/>
+    <row r="30" ht="21" customHeight="1"/>
+    <row r="31" ht="21" customHeight="1"/>
+    <row r="32" ht="21" customHeight="1"/>
+    <row r="33" ht="21" customHeight="1"/>
+    <row r="34" ht="21" customHeight="1"/>
+    <row r="35" ht="21" customHeight="1"/>
+    <row r="36" ht="21" customHeight="1"/>
+    <row r="37" ht="21" customHeight="1"/>
+    <row r="38" ht="21" customHeight="1"/>
+    <row r="39" ht="21" customHeight="1"/>
+    <row r="40" ht="21" customHeight="1"/>
+    <row r="41" ht="21" customHeight="1"/>
+    <row r="42" ht="21" customHeight="1"/>
+    <row r="43" ht="21" customHeight="1"/>
+    <row r="44" ht="21" customHeight="1"/>
+    <row r="45" ht="21" customHeight="1"/>
+    <row r="46" ht="21" customHeight="1"/>
+    <row r="47" ht="21" customHeight="1"/>
+    <row r="48" ht="21" customHeight="1"/>
+    <row r="49" ht="21" customHeight="1"/>
+    <row r="50" ht="21" customHeight="1"/>
+    <row r="51" ht="21" customHeight="1"/>
+    <row r="52" ht="21" customHeight="1"/>
+    <row r="53" ht="21" customHeight="1"/>
+    <row r="54" ht="21" customHeight="1"/>
+    <row r="55" ht="21" customHeight="1"/>
+    <row r="56" ht="21" customHeight="1"/>
+    <row r="57" ht="21" customHeight="1"/>
+    <row r="58" ht="21" customHeight="1"/>
+    <row r="59" ht="21" customHeight="1"/>
+    <row r="60" ht="21" customHeight="1"/>
+    <row r="61" ht="21" customHeight="1"/>
+    <row r="62" ht="21" customHeight="1"/>
+    <row r="63" ht="21" customHeight="1"/>
+    <row r="64" ht="21" customHeight="1"/>
+    <row r="65" ht="21" customHeight="1"/>
+    <row r="66" ht="21" customHeight="1"/>
+    <row r="67" ht="21" customHeight="1"/>
+    <row r="68" ht="21" customHeight="1"/>
+    <row r="69" ht="21" customHeight="1"/>
+    <row r="70" ht="21" customHeight="1"/>
+    <row r="71" ht="21" customHeight="1"/>
+    <row r="72" ht="21" customHeight="1"/>
+    <row r="73" ht="21" customHeight="1"/>
+    <row r="74" ht="21" customHeight="1"/>
+    <row r="75" ht="21" customHeight="1"/>
+    <row r="76" ht="21" customHeight="1"/>
+    <row r="77" ht="21" customHeight="1"/>
+    <row r="78" ht="21" customHeight="1"/>
+    <row r="79" ht="21" customHeight="1"/>
+    <row r="80" ht="21" customHeight="1"/>
+    <row r="81" ht="21" customHeight="1"/>
+    <row r="82" ht="21" customHeight="1"/>
+    <row r="83" ht="21" customHeight="1"/>
+    <row r="84" ht="21" customHeight="1"/>
+    <row r="85" ht="21" customHeight="1"/>
+    <row r="86" ht="21" customHeight="1"/>
+    <row r="87" ht="21" customHeight="1"/>
+    <row r="88" ht="21" customHeight="1"/>
+    <row r="89" ht="21" customHeight="1"/>
+    <row r="90" ht="21" customHeight="1"/>
+    <row r="91" ht="21" customHeight="1"/>
+    <row r="92" ht="21" customHeight="1"/>
+    <row r="93" ht="21" customHeight="1"/>
+    <row r="94" ht="21" customHeight="1"/>
+    <row r="95" ht="21" customHeight="1"/>
+    <row r="96" ht="21" customHeight="1"/>
+    <row r="97" ht="21" customHeight="1"/>
+    <row r="98" ht="21" customHeight="1"/>
+    <row r="99" ht="21" customHeight="1"/>
+    <row r="100" ht="21" customHeight="1"/>
+    <row r="101" ht="21" customHeight="1"/>
+    <row r="102" ht="21" customHeight="1"/>
+    <row r="103" ht="21" customHeight="1"/>
+    <row r="104" ht="21" customHeight="1"/>
+    <row r="105" ht="21" customHeight="1"/>
+    <row r="106" ht="21" customHeight="1"/>
+    <row r="107" ht="21" customHeight="1"/>
+    <row r="108" ht="21" customHeight="1"/>
+    <row r="109" ht="21" customHeight="1"/>
+    <row r="110" ht="21" customHeight="1"/>
+    <row r="111" ht="21" customHeight="1"/>
+    <row r="112" ht="21" customHeight="1"/>
+    <row r="113" ht="21" customHeight="1"/>
+    <row r="114" ht="21" customHeight="1"/>
+    <row r="115" ht="21" customHeight="1"/>
+    <row r="116" ht="21" customHeight="1"/>
+    <row r="117" ht="21" customHeight="1"/>
+    <row r="118" ht="21" customHeight="1"/>
+    <row r="119" ht="21" customHeight="1"/>
+    <row r="120" ht="21" customHeight="1"/>
+    <row r="121" ht="21" customHeight="1"/>
+    <row r="122" ht="21" customHeight="1"/>
+    <row r="123" ht="21" customHeight="1"/>
+    <row r="124" ht="21" customHeight="1"/>
+    <row r="125" ht="21" customHeight="1"/>
+    <row r="126" ht="21" customHeight="1"/>
+    <row r="127" ht="21" customHeight="1"/>
+    <row r="128" ht="21" customHeight="1"/>
+    <row r="129" ht="21" customHeight="1"/>
+    <row r="130" ht="21" customHeight="1"/>
+    <row r="131" ht="21" customHeight="1"/>
+    <row r="132" ht="21" customHeight="1"/>
+    <row r="133" ht="21" customHeight="1"/>
+    <row r="134" ht="21" customHeight="1"/>
+    <row r="135" ht="21" customHeight="1"/>
+    <row r="136" ht="21" customHeight="1"/>
+    <row r="137" ht="21" customHeight="1"/>
+    <row r="138" ht="21" customHeight="1"/>
+    <row r="139" ht="21" customHeight="1"/>
+    <row r="140" ht="21" customHeight="1"/>
+    <row r="141" ht="21" customHeight="1"/>
+    <row r="142" ht="21" customHeight="1"/>
+    <row r="143" ht="21" customHeight="1"/>
+    <row r="144" ht="21" customHeight="1"/>
+    <row r="145" ht="21" customHeight="1"/>
+    <row r="146" ht="21" customHeight="1"/>
+    <row r="147" ht="21" customHeight="1"/>
+    <row r="148" ht="21" customHeight="1"/>
+    <row r="149" ht="21" customHeight="1"/>
+    <row r="150" ht="21" customHeight="1"/>
+    <row r="151" ht="21" customHeight="1"/>
+    <row r="152" ht="21" customHeight="1"/>
+    <row r="153" ht="21" customHeight="1"/>
+    <row r="154" ht="21" customHeight="1"/>
+    <row r="155" ht="21" customHeight="1"/>
+    <row r="156" ht="21" customHeight="1"/>
+    <row r="157" ht="21" customHeight="1"/>
+    <row r="158" ht="21" customHeight="1"/>
+    <row r="159" ht="21" customHeight="1"/>
+    <row r="160" ht="21" customHeight="1"/>
+    <row r="161" ht="21" customHeight="1"/>
+    <row r="162" ht="21" customHeight="1"/>
+    <row r="163" ht="21" customHeight="1"/>
+    <row r="164" ht="21" customHeight="1"/>
+    <row r="165" ht="21" customHeight="1"/>
+    <row r="166" ht="21" customHeight="1"/>
+    <row r="167" ht="21" customHeight="1"/>
+    <row r="168" ht="21" customHeight="1"/>
+    <row r="169" ht="21" customHeight="1"/>
+    <row r="170" ht="21" customHeight="1"/>
+    <row r="171" ht="21" customHeight="1"/>
+    <row r="172" ht="21" customHeight="1"/>
+    <row r="173" ht="21" customHeight="1"/>
+    <row r="174" ht="21" customHeight="1"/>
+    <row r="175" ht="21" customHeight="1"/>
+    <row r="176" ht="21" customHeight="1"/>
+    <row r="177" ht="21" customHeight="1"/>
+    <row r="178" ht="21" customHeight="1"/>
+    <row r="179" ht="21" customHeight="1"/>
+    <row r="180" ht="21" customHeight="1"/>
+    <row r="181" ht="21" customHeight="1"/>
+    <row r="182" ht="21" customHeight="1"/>
+    <row r="183" ht="21" customHeight="1"/>
+    <row r="184" ht="21" customHeight="1"/>
+    <row r="185" ht="21" customHeight="1"/>
+    <row r="186" ht="21" customHeight="1"/>
+    <row r="187" ht="21" customHeight="1"/>
+    <row r="188" ht="21" customHeight="1"/>
+    <row r="189" ht="21" customHeight="1"/>
+    <row r="190" ht="21" customHeight="1"/>
+    <row r="191" ht="21" customHeight="1"/>
+    <row r="192" ht="21" customHeight="1"/>
+    <row r="193" ht="21" customHeight="1"/>
+    <row r="194" ht="21" customHeight="1"/>
+    <row r="195" ht="21" customHeight="1"/>
+    <row r="196" ht="21" customHeight="1"/>
+    <row r="197" ht="21" customHeight="1"/>
+    <row r="198" ht="21" customHeight="1"/>
+    <row r="199" ht="21" customHeight="1"/>
+    <row r="200" ht="21" customHeight="1"/>
+    <row r="201" ht="21" customHeight="1"/>
+    <row r="202" ht="21" customHeight="1"/>
+    <row r="203" ht="21" customHeight="1"/>
+    <row r="204" ht="21" customHeight="1"/>
+    <row r="205" ht="21" customHeight="1"/>
+    <row r="206" ht="21" customHeight="1"/>
+    <row r="207" ht="21" customHeight="1"/>
+    <row r="208" ht="21" customHeight="1"/>
+    <row r="209" ht="21" customHeight="1"/>
+    <row r="210" ht="21" customHeight="1"/>
+    <row r="211" ht="21" customHeight="1"/>
+    <row r="212" ht="21" customHeight="1"/>
+    <row r="213" ht="21" customHeight="1"/>
+    <row r="214" ht="21" customHeight="1"/>
+    <row r="215" ht="21" customHeight="1"/>
+    <row r="216" ht="21" customHeight="1"/>
+    <row r="217" ht="21" customHeight="1"/>
+    <row r="218" ht="21" customHeight="1"/>
+    <row r="219" ht="21" customHeight="1"/>
+    <row r="220" ht="21" customHeight="1"/>
+    <row r="221" ht="21" customHeight="1"/>
+    <row r="222" ht="21" customHeight="1"/>
+    <row r="223" ht="21" customHeight="1"/>
+    <row r="224" ht="21" customHeight="1"/>
+    <row r="225" ht="21" customHeight="1"/>
+    <row r="226" ht="21" customHeight="1"/>
+    <row r="227" ht="21" customHeight="1"/>
+    <row r="228" ht="21" customHeight="1"/>
+    <row r="229" ht="21" customHeight="1"/>
+    <row r="230" ht="21" customHeight="1"/>
+    <row r="231" ht="21" customHeight="1"/>
+    <row r="232" ht="21" customHeight="1"/>
+    <row r="233" ht="21" customHeight="1"/>
+    <row r="234" ht="21" customHeight="1"/>
+    <row r="235" ht="21" customHeight="1"/>
+    <row r="236" ht="21" customHeight="1"/>
+    <row r="237" ht="21" customHeight="1"/>
+    <row r="238" ht="21" customHeight="1"/>
+    <row r="239" ht="21" customHeight="1"/>
+    <row r="240" ht="21" customHeight="1"/>
+    <row r="241" ht="21" customHeight="1"/>
+    <row r="242" ht="21" customHeight="1"/>
+    <row r="243" ht="21" customHeight="1"/>
+    <row r="244" ht="21" customHeight="1"/>
+    <row r="245" ht="21" customHeight="1"/>
+    <row r="246" ht="21" customHeight="1"/>
+    <row r="247" ht="21" customHeight="1"/>
+    <row r="248" ht="21" customHeight="1"/>
+    <row r="249" ht="21" customHeight="1"/>
+    <row r="250" ht="21" customHeight="1"/>
+    <row r="251" ht="21" customHeight="1"/>
+    <row r="252" ht="21" customHeight="1"/>
+    <row r="253" ht="21" customHeight="1"/>
+    <row r="254" ht="21" customHeight="1"/>
+    <row r="255" ht="21" customHeight="1"/>
+    <row r="256" ht="21" customHeight="1"/>
+    <row r="257" ht="21" customHeight="1"/>
+    <row r="258" ht="21" customHeight="1"/>
+    <row r="259" ht="21" customHeight="1"/>
+    <row r="260" ht="21" customHeight="1"/>
+    <row r="261" ht="21" customHeight="1"/>
+    <row r="262" ht="21" customHeight="1"/>
+    <row r="263" ht="21" customHeight="1"/>
+    <row r="264" ht="21" customHeight="1"/>
+    <row r="265" ht="21" customHeight="1"/>
+    <row r="266" ht="21" customHeight="1"/>
+    <row r="267" ht="21" customHeight="1"/>
+    <row r="268" ht="21" customHeight="1"/>
+    <row r="269" ht="21" customHeight="1"/>
+    <row r="270" ht="21" customHeight="1"/>
+    <row r="271" ht="21" customHeight="1"/>
+    <row r="272" ht="21" customHeight="1"/>
+    <row r="273" ht="21" customHeight="1"/>
+    <row r="274" ht="21" customHeight="1"/>
+    <row r="275" ht="21" customHeight="1"/>
+    <row r="276" ht="21" customHeight="1"/>
+    <row r="277" ht="21" customHeight="1"/>
+    <row r="278" ht="21" customHeight="1"/>
+    <row r="279" ht="21" customHeight="1"/>
+    <row r="280" ht="21" customHeight="1"/>
+    <row r="281" ht="21" customHeight="1"/>
+    <row r="282" ht="21" customHeight="1"/>
+    <row r="283" ht="21" customHeight="1"/>
+    <row r="284" ht="21" customHeight="1"/>
+    <row r="285" ht="21" customHeight="1"/>
+    <row r="286" ht="21" customHeight="1"/>
+    <row r="287" ht="21" customHeight="1"/>
+    <row r="288" ht="21" customHeight="1"/>
+    <row r="289" ht="21" customHeight="1"/>
+    <row r="290" ht="21" customHeight="1"/>
+    <row r="291" ht="21" customHeight="1"/>
+    <row r="292" ht="21" customHeight="1"/>
+    <row r="293" ht="21" customHeight="1"/>
+    <row r="294" ht="21" customHeight="1"/>
+    <row r="295" ht="21" customHeight="1"/>
+    <row r="296" ht="21" customHeight="1"/>
+    <row r="297" ht="21" customHeight="1"/>
+    <row r="298" ht="21" customHeight="1"/>
+    <row r="299" ht="21" customHeight="1"/>
+    <row r="300" ht="21" customHeight="1"/>
+    <row r="301" ht="21" customHeight="1"/>
+    <row r="302" ht="21" customHeight="1"/>
+    <row r="303" ht="21" customHeight="1"/>
+    <row r="304" ht="21" customHeight="1"/>
+    <row r="305" ht="21" customHeight="1"/>
+    <row r="306" ht="21" customHeight="1"/>
+    <row r="307" ht="21" customHeight="1"/>
+    <row r="308" ht="21" customHeight="1"/>
+    <row r="309" ht="21" customHeight="1"/>
+    <row r="310" ht="21" customHeight="1"/>
+    <row r="311" ht="21" customHeight="1"/>
+    <row r="312" ht="21" customHeight="1"/>
+    <row r="313" ht="21" customHeight="1"/>
+    <row r="314" ht="21" customHeight="1"/>
+    <row r="315" ht="21" customHeight="1"/>
+    <row r="316" ht="21" customHeight="1"/>
+    <row r="317" ht="21" customHeight="1"/>
+    <row r="318" ht="21" customHeight="1"/>
+    <row r="319" ht="21" customHeight="1"/>
+    <row r="320" ht="21" customHeight="1"/>
+    <row r="321" ht="21" customHeight="1"/>
+    <row r="322" ht="21" customHeight="1"/>
+    <row r="323" ht="21" customHeight="1"/>
+    <row r="324" ht="21" customHeight="1"/>
+    <row r="325" ht="21" customHeight="1"/>
+    <row r="326" ht="21" customHeight="1"/>
+    <row r="327" ht="21" customHeight="1"/>
+    <row r="328" ht="21" customHeight="1"/>
+    <row r="329" ht="21" customHeight="1"/>
+    <row r="330" ht="21" customHeight="1"/>
+    <row r="331" ht="21" customHeight="1"/>
+    <row r="332" ht="21" customHeight="1"/>
+    <row r="333" ht="21" customHeight="1"/>
+    <row r="334" ht="21" customHeight="1"/>
+    <row r="335" ht="21" customHeight="1"/>
+    <row r="336" ht="21" customHeight="1"/>
+    <row r="337" ht="21" customHeight="1"/>
+    <row r="338" ht="21" customHeight="1"/>
+    <row r="339" ht="21" customHeight="1"/>
+    <row r="340" ht="21" customHeight="1"/>
+    <row r="341" ht="21" customHeight="1"/>
+    <row r="342" ht="21" customHeight="1"/>
+    <row r="343" ht="21" customHeight="1"/>
+    <row r="344" ht="21" customHeight="1"/>
+    <row r="345" ht="21" customHeight="1"/>
+    <row r="346" ht="21" customHeight="1"/>
+    <row r="347" ht="21" customHeight="1"/>
+    <row r="348" ht="21" customHeight="1"/>
+    <row r="349" ht="21" customHeight="1"/>
+    <row r="350" ht="21" customHeight="1"/>
+    <row r="351" ht="21" customHeight="1"/>
+    <row r="352" ht="21" customHeight="1"/>
+    <row r="353" ht="21" customHeight="1"/>
+    <row r="354" ht="21" customHeight="1"/>
+    <row r="355" ht="21" customHeight="1"/>
+    <row r="356" ht="21" customHeight="1"/>
+    <row r="357" ht="21" customHeight="1"/>
+    <row r="358" ht="21" customHeight="1"/>
+    <row r="359" ht="21" customHeight="1"/>
+    <row r="360" ht="21" customHeight="1"/>
+    <row r="361" ht="21" customHeight="1"/>
+    <row r="362" ht="21" customHeight="1"/>
+    <row r="363" ht="21" customHeight="1"/>
+    <row r="364" ht="21" customHeight="1"/>
+    <row r="365" ht="21" customHeight="1"/>
+    <row r="366" ht="21" customHeight="1"/>
+    <row r="367" ht="21" customHeight="1"/>
+    <row r="368" ht="21" customHeight="1"/>
+    <row r="369" ht="21" customHeight="1"/>
+    <row r="370" ht="21" customHeight="1"/>
+    <row r="371" ht="21" customHeight="1"/>
+    <row r="372" ht="21" customHeight="1"/>
+    <row r="373" ht="21" customHeight="1"/>
+    <row r="374" ht="21" customHeight="1"/>
+    <row r="375" ht="21" customHeight="1"/>
+    <row r="376" ht="21" customHeight="1"/>
+    <row r="377" ht="21" customHeight="1"/>
+    <row r="378" ht="21" customHeight="1"/>
+    <row r="379" ht="21" customHeight="1"/>
+    <row r="380" ht="21" customHeight="1"/>
+    <row r="381" ht="21" customHeight="1"/>
+    <row r="382" ht="21" customHeight="1"/>
+    <row r="383" ht="21" customHeight="1"/>
+    <row r="384" ht="21" customHeight="1"/>
+    <row r="385" ht="21" customHeight="1"/>
+    <row r="386" ht="21" customHeight="1"/>
+    <row r="387" ht="21" customHeight="1"/>
+    <row r="388" ht="21" customHeight="1"/>
+    <row r="389" ht="21" customHeight="1"/>
+    <row r="390" ht="21" customHeight="1"/>
+    <row r="391" ht="21" customHeight="1"/>
+    <row r="392" ht="21" customHeight="1"/>
+    <row r="393" ht="21" customHeight="1"/>
+    <row r="394" ht="21" customHeight="1"/>
+    <row r="395" ht="21" customHeight="1"/>
+    <row r="396" ht="21" customHeight="1"/>
+    <row r="397" ht="21" customHeight="1"/>
+    <row r="398" ht="21" customHeight="1"/>
+    <row r="399" ht="21" customHeight="1"/>
+    <row r="400" ht="21" customHeight="1"/>
+    <row r="401" ht="21" customHeight="1"/>
+    <row r="402" ht="21" customHeight="1"/>
+    <row r="403" ht="21" customHeight="1"/>
+    <row r="404" ht="21" customHeight="1"/>
+    <row r="405" ht="21" customHeight="1"/>
+    <row r="406" ht="21" customHeight="1"/>
+    <row r="407" ht="21" customHeight="1"/>
+    <row r="408" ht="21" customHeight="1"/>
+    <row r="409" ht="21" customHeight="1"/>
+    <row r="410" ht="21" customHeight="1"/>
+    <row r="411" ht="21" customHeight="1"/>
+    <row r="412" ht="21" customHeight="1"/>
+    <row r="413" ht="21" customHeight="1"/>
+    <row r="414" ht="21" customHeight="1"/>
+    <row r="415" ht="21" customHeight="1"/>
+    <row r="416" ht="21" customHeight="1"/>
+    <row r="417" ht="21" customHeight="1"/>
+    <row r="418" ht="21" customHeight="1"/>
+    <row r="419" ht="21" customHeight="1"/>
+    <row r="420" ht="21" customHeight="1"/>
+    <row r="421" ht="21" customHeight="1"/>
+    <row r="422" ht="21" customHeight="1"/>
+    <row r="423" ht="21" customHeight="1"/>
+    <row r="424" ht="21" customHeight="1"/>
+    <row r="425" ht="21" customHeight="1"/>
+    <row r="426" ht="21" customHeight="1"/>
+    <row r="427" ht="21" customHeight="1"/>
+    <row r="428" ht="21" customHeight="1"/>
+    <row r="429" ht="21" customHeight="1"/>
+    <row r="430" ht="21" customHeight="1"/>
+    <row r="431" ht="21" customHeight="1"/>
+    <row r="432" ht="21" customHeight="1"/>
+    <row r="433" ht="21" customHeight="1"/>
+    <row r="434" ht="21" customHeight="1"/>
+    <row r="435" ht="21" customHeight="1"/>
+    <row r="436" ht="21" customHeight="1"/>
+    <row r="437" ht="21" customHeight="1"/>
+    <row r="438" ht="21" customHeight="1"/>
+    <row r="439" ht="21" customHeight="1"/>
+    <row r="440" ht="21" customHeight="1"/>
+    <row r="441" ht="21" customHeight="1"/>
+    <row r="442" ht="21" customHeight="1"/>
+    <row r="443" ht="21" customHeight="1"/>
+    <row r="444" ht="21" customHeight="1"/>
+    <row r="445" ht="21" customHeight="1"/>
+    <row r="446" ht="21" customHeight="1"/>
+    <row r="447" ht="21" customHeight="1"/>
+    <row r="448" ht="21" customHeight="1"/>
+    <row r="449" ht="21" customHeight="1"/>
+    <row r="450" ht="21" customHeight="1"/>
+    <row r="451" ht="21" customHeight="1"/>
+    <row r="452" ht="21" customHeight="1"/>
+    <row r="453" ht="21" customHeight="1"/>
+    <row r="454" ht="21" customHeight="1"/>
+    <row r="455" ht="21" customHeight="1"/>
+    <row r="456" ht="21" customHeight="1"/>
+    <row r="457" ht="21" customHeight="1"/>
+    <row r="458" ht="21" customHeight="1"/>
+    <row r="459" ht="21" customHeight="1"/>
+    <row r="460" ht="21" customHeight="1"/>
+    <row r="461" ht="21" customHeight="1"/>
+    <row r="462" ht="21" customHeight="1"/>
+    <row r="463" ht="21" customHeight="1"/>
+    <row r="464" ht="21" customHeight="1"/>
+    <row r="465" ht="21" customHeight="1"/>
+    <row r="466" ht="21" customHeight="1"/>
+    <row r="467" ht="21" customHeight="1"/>
+    <row r="468" ht="21" customHeight="1"/>
+    <row r="469" ht="21" customHeight="1"/>
+    <row r="470" ht="21" customHeight="1"/>
+    <row r="471" ht="21" customHeight="1"/>
+    <row r="472" ht="21" customHeight="1"/>
+    <row r="473" ht="21" customHeight="1"/>
+    <row r="474" ht="21" customHeight="1"/>
+    <row r="475" ht="21" customHeight="1"/>
+    <row r="476" ht="21" customHeight="1"/>
+    <row r="477" ht="21" customHeight="1"/>
+    <row r="478" ht="21" customHeight="1"/>
+    <row r="479" ht="21" customHeight="1"/>
+    <row r="480" ht="21" customHeight="1"/>
+    <row r="481" ht="21" customHeight="1"/>
+    <row r="482" ht="21" customHeight="1"/>
+    <row r="483" ht="21" customHeight="1"/>
+    <row r="484" ht="21" customHeight="1"/>
+    <row r="485" ht="21" customHeight="1"/>
+    <row r="486" ht="21" customHeight="1"/>
+    <row r="487" ht="21" customHeight="1"/>
+    <row r="488" ht="21" customHeight="1"/>
+    <row r="489" ht="21" customHeight="1"/>
+    <row r="490" ht="21" customHeight="1"/>
+    <row r="491" ht="21" customHeight="1"/>
+    <row r="492" ht="21" customHeight="1"/>
+    <row r="493" ht="21" customHeight="1"/>
+    <row r="494" ht="21" customHeight="1"/>
+    <row r="495" ht="21" customHeight="1"/>
+    <row r="496" ht="21" customHeight="1"/>
+    <row r="497" ht="21" customHeight="1"/>
+    <row r="498" ht="21" customHeight="1"/>
+    <row r="499" ht="21" customHeight="1"/>
+    <row r="500" ht="21" customHeight="1"/>
+    <row r="501" ht="21" customHeight="1"/>
+    <row r="502" ht="21" customHeight="1"/>
+    <row r="503" ht="21" customHeight="1"/>
+    <row r="504" ht="21" customHeight="1"/>
+    <row r="505" ht="21" customHeight="1"/>
+    <row r="506" ht="21" customHeight="1"/>
+    <row r="507" ht="21" customHeight="1"/>
+    <row r="508" ht="21" customHeight="1"/>
+    <row r="509" ht="21" customHeight="1"/>
+    <row r="510" ht="21" customHeight="1"/>
+    <row r="511" ht="21" customHeight="1"/>
+    <row r="512" ht="21" customHeight="1"/>
+    <row r="513" ht="21" customHeight="1"/>
+    <row r="514" ht="21" customHeight="1"/>
+    <row r="515" ht="21" customHeight="1"/>
+    <row r="516" ht="21" customHeight="1"/>
+    <row r="517" ht="21" customHeight="1"/>
+    <row r="518" ht="21" customHeight="1"/>
+    <row r="519" ht="21" customHeight="1"/>
+    <row r="520" ht="21" customHeight="1"/>
+    <row r="521" ht="21" customHeight="1"/>
+    <row r="522" ht="21" customHeight="1"/>
+    <row r="523" ht="21" customHeight="1"/>
+    <row r="524" ht="21" customHeight="1"/>
+    <row r="525" ht="21" customHeight="1"/>
+    <row r="526" ht="21" customHeight="1"/>
+    <row r="527" ht="21" customHeight="1"/>
+    <row r="528" ht="21" customHeight="1"/>
+    <row r="529" ht="21" customHeight="1"/>
+    <row r="530" ht="21" customHeight="1"/>
+    <row r="531" ht="21" customHeight="1"/>
+    <row r="532" ht="21" customHeight="1"/>
+    <row r="533" ht="21" customHeight="1"/>
+    <row r="534" ht="21" customHeight="1"/>
+    <row r="535" ht="21" customHeight="1"/>
+    <row r="536" ht="21" customHeight="1"/>
+    <row r="537" ht="21" customHeight="1"/>
+    <row r="538" ht="21" customHeight="1"/>
+    <row r="539" ht="21" customHeight="1"/>
+    <row r="540" ht="21" customHeight="1"/>
+    <row r="541" ht="21" customHeight="1"/>
+    <row r="542" ht="21" customHeight="1"/>
+    <row r="543" ht="21" customHeight="1"/>
+    <row r="544" ht="21" customHeight="1"/>
+    <row r="545" ht="21" customHeight="1"/>
+    <row r="546" ht="21" customHeight="1"/>
+    <row r="547" ht="21" customHeight="1"/>
+    <row r="548" ht="21" customHeight="1"/>
+    <row r="549" ht="21" customHeight="1"/>
+    <row r="550" ht="21" customHeight="1"/>
+    <row r="551" ht="21" customHeight="1"/>
+    <row r="552" ht="21" customHeight="1"/>
+    <row r="553" ht="21" customHeight="1"/>
+    <row r="554" ht="21" customHeight="1"/>
+    <row r="555" ht="21" customHeight="1"/>
+    <row r="556" ht="21" customHeight="1"/>
+    <row r="557" ht="21" customHeight="1"/>
+    <row r="558" ht="21" customHeight="1"/>
+    <row r="559" ht="21" customHeight="1"/>
+    <row r="560" ht="21" customHeight="1"/>
+    <row r="561" ht="21" customHeight="1"/>
+    <row r="562" ht="21" customHeight="1"/>
+    <row r="563" ht="21" customHeight="1"/>
+    <row r="564" ht="21" customHeight="1"/>
+    <row r="565" ht="21" customHeight="1"/>
+    <row r="566" ht="21" customHeight="1"/>
+    <row r="567" ht="21" customHeight="1"/>
+    <row r="568" ht="21" customHeight="1"/>
+    <row r="569" ht="21" customHeight="1"/>
+    <row r="570" ht="21" customHeight="1"/>
+    <row r="571" ht="21" customHeight="1"/>
+    <row r="572" ht="21" customHeight="1"/>
+    <row r="573" ht="21" customHeight="1"/>
+    <row r="574" ht="21" customHeight="1"/>
+    <row r="575" ht="21" customHeight="1"/>
+    <row r="576" ht="21" customHeight="1"/>
+    <row r="577" ht="21" customHeight="1"/>
+    <row r="578" ht="21" customHeight="1"/>
+    <row r="579" ht="21" customHeight="1"/>
+    <row r="580" ht="21" customHeight="1"/>
+    <row r="581" ht="21" customHeight="1"/>
+    <row r="582" ht="21" customHeight="1"/>
+    <row r="583" ht="21" customHeight="1"/>
+    <row r="584" ht="21" customHeight="1"/>
+    <row r="585" ht="21" customHeight="1"/>
+    <row r="586" ht="21" customHeight="1"/>
+    <row r="587" ht="21" customHeight="1"/>
+    <row r="588" ht="21" customHeight="1"/>
+    <row r="589" ht="21" customHeight="1"/>
+    <row r="590" ht="21" customHeight="1"/>
+    <row r="591" ht="21" customHeight="1"/>
+    <row r="592" ht="21" customHeight="1"/>
+    <row r="593" ht="21" customHeight="1"/>
+    <row r="594" ht="21" customHeight="1"/>
+    <row r="595" ht="21" customHeight="1"/>
+    <row r="596" ht="21" customHeight="1"/>
+    <row r="597" ht="21" customHeight="1"/>
+    <row r="598" ht="21" customHeight="1"/>
+    <row r="599" ht="21" customHeight="1"/>
+    <row r="600" ht="21" customHeight="1"/>
+    <row r="601" ht="21" customHeight="1"/>
+    <row r="602" ht="21" customHeight="1"/>
+    <row r="603" ht="21" customHeight="1"/>
+    <row r="604" ht="21" customHeight="1"/>
+    <row r="605" ht="21" customHeight="1"/>
+    <row r="606" ht="21" customHeight="1"/>
+    <row r="607" ht="21" customHeight="1"/>
+    <row r="608" ht="21" customHeight="1"/>
+    <row r="609" ht="21" customHeight="1"/>
+    <row r="610" ht="21" customHeight="1"/>
+    <row r="611" ht="21" customHeight="1"/>
+    <row r="612" ht="21" customHeight="1"/>
+    <row r="613" ht="21" customHeight="1"/>
+    <row r="614" ht="21" customHeight="1"/>
+    <row r="615" ht="21" customHeight="1"/>
+    <row r="616" ht="21" customHeight="1"/>
+    <row r="617" ht="21" customHeight="1"/>
+    <row r="618" ht="21" customHeight="1"/>
+    <row r="619" ht="21" customHeight="1"/>
+    <row r="620" ht="21" customHeight="1"/>
+    <row r="621" ht="21" customHeight="1"/>
+    <row r="622" ht="21" customHeight="1"/>
+    <row r="623" ht="21" customHeight="1"/>
+    <row r="624" ht="21" customHeight="1"/>
+    <row r="625" ht="21" customHeight="1"/>
+    <row r="626" ht="21" customHeight="1"/>
+    <row r="627" ht="21" customHeight="1"/>
+    <row r="628" ht="21" customHeight="1"/>
+    <row r="629" ht="21" customHeight="1"/>
+    <row r="630" ht="21" customHeight="1"/>
+    <row r="631" ht="21" customHeight="1"/>
+    <row r="632" ht="21" customHeight="1"/>
+    <row r="633" ht="21" customHeight="1"/>
+    <row r="634" ht="21" customHeight="1"/>
+    <row r="635" ht="21" customHeight="1"/>
+    <row r="636" ht="21" customHeight="1"/>
+    <row r="637" ht="21" customHeight="1"/>
+    <row r="638" ht="21" customHeight="1"/>
+    <row r="639" ht="21" customHeight="1"/>
+    <row r="640" ht="21" customHeight="1"/>
+    <row r="641" ht="21" customHeight="1"/>
+    <row r="642" ht="21" customHeight="1"/>
+    <row r="643" ht="21" customHeight="1"/>
+    <row r="644" ht="21" customHeight="1"/>
+    <row r="645" ht="21" customHeight="1"/>
+    <row r="646" ht="21" customHeight="1"/>
+    <row r="647" ht="21" customHeight="1"/>
+    <row r="648" ht="21" customHeight="1"/>
+    <row r="649" ht="21" customHeight="1"/>
+    <row r="650" ht="21" customHeight="1"/>
+    <row r="651" ht="21" customHeight="1"/>
+    <row r="652" ht="21" customHeight="1"/>
+    <row r="653" ht="21" customHeight="1"/>
+    <row r="654" ht="21" customHeight="1"/>
+    <row r="655" ht="21" customHeight="1"/>
+    <row r="656" ht="21" customHeight="1"/>
+    <row r="657" ht="21" customHeight="1"/>
+    <row r="658" ht="21" customHeight="1"/>
+    <row r="659" ht="21" customHeight="1"/>
+    <row r="660" ht="21" customHeight="1"/>
+    <row r="661" ht="21" customHeight="1"/>
+    <row r="662" ht="21" customHeight="1"/>
+    <row r="663" ht="21" customHeight="1"/>
+    <row r="664" ht="21" customHeight="1"/>
+    <row r="665" ht="21" customHeight="1"/>
+    <row r="666" ht="21" customHeight="1"/>
+    <row r="667" ht="21" customHeight="1"/>
+    <row r="668" ht="21" customHeight="1"/>
+    <row r="669" ht="21" customHeight="1"/>
+    <row r="670" ht="21" customHeight="1"/>
+    <row r="671" ht="21" customHeight="1"/>
+    <row r="672" ht="21" customHeight="1"/>
+    <row r="673" ht="21" customHeight="1"/>
+    <row r="674" ht="21" customHeight="1"/>
+    <row r="675" ht="21" customHeight="1"/>
+    <row r="676" ht="21" customHeight="1"/>
+    <row r="677" ht="21" customHeight="1"/>
+    <row r="678" ht="21" customHeight="1"/>
+    <row r="679" ht="21" customHeight="1"/>
+    <row r="680" ht="21" customHeight="1"/>
+    <row r="681" ht="21" customHeight="1"/>
+    <row r="682" ht="21" customHeight="1"/>
+    <row r="683" ht="21" customHeight="1"/>
+    <row r="684" ht="21" customHeight="1"/>
+    <row r="685" ht="21" customHeight="1"/>
+    <row r="686" ht="21" customHeight="1"/>
+    <row r="687" ht="21" customHeight="1"/>
+    <row r="688" ht="21" customHeight="1"/>
+    <row r="689" ht="21" customHeight="1"/>
+    <row r="690" ht="21" customHeight="1"/>
+    <row r="691" ht="21" customHeight="1"/>
+    <row r="692" ht="21" customHeight="1"/>
+    <row r="693" ht="21" customHeight="1"/>
+    <row r="694" ht="21" customHeight="1"/>
+    <row r="695" ht="21" customHeight="1"/>
+    <row r="696" ht="21" customHeight="1"/>
+    <row r="697" ht="21" customHeight="1"/>
+    <row r="698" ht="21" customHeight="1"/>
+    <row r="699" ht="21" customHeight="1"/>
+    <row r="700" ht="21" customHeight="1"/>
+    <row r="701" ht="21" customHeight="1"/>
+    <row r="702" ht="21" customHeight="1"/>
+    <row r="703" ht="21" customHeight="1"/>
+    <row r="704" ht="21" customHeight="1"/>
+    <row r="705" ht="21" customHeight="1"/>
+    <row r="706" ht="21" customHeight="1"/>
+    <row r="707" ht="21" customHeight="1"/>
+    <row r="708" ht="21" customHeight="1"/>
+    <row r="709" ht="21" customHeight="1"/>
+    <row r="710" ht="21" customHeight="1"/>
+    <row r="711" ht="21" customHeight="1"/>
+    <row r="712" ht="21" customHeight="1"/>
+    <row r="713" ht="21" customHeight="1"/>
+    <row r="714" ht="21" customHeight="1"/>
+    <row r="715" ht="21" customHeight="1"/>
+    <row r="716" ht="21" customHeight="1"/>
+    <row r="717" ht="21" customHeight="1"/>
+    <row r="718" ht="21" customHeight="1"/>
+    <row r="719" ht="21" customHeight="1"/>
+    <row r="720" ht="21" customHeight="1"/>
+    <row r="721" ht="21" customHeight="1"/>
+    <row r="722" ht="21" customHeight="1"/>
+    <row r="723" ht="21" customHeight="1"/>
+    <row r="724" ht="21" customHeight="1"/>
+    <row r="725" ht="21" customHeight="1"/>
+    <row r="726" ht="21" customHeight="1"/>
+    <row r="727" ht="21" customHeight="1"/>
+    <row r="728" ht="21" customHeight="1"/>
+    <row r="729" ht="21" customHeight="1"/>
+    <row r="730" ht="21" customHeight="1"/>
+    <row r="731" ht="21" customHeight="1"/>
+    <row r="732" ht="21" customHeight="1"/>
+    <row r="733" ht="21" customHeight="1"/>
+    <row r="734" ht="21" customHeight="1"/>
+    <row r="735" ht="21" customHeight="1"/>
+    <row r="736" ht="21" customHeight="1"/>
+    <row r="737" ht="21" customHeight="1"/>
+    <row r="738" ht="21" customHeight="1"/>
+    <row r="739" ht="21" customHeight="1"/>
+    <row r="740" ht="21" customHeight="1"/>
+    <row r="741" ht="21" customHeight="1"/>
+    <row r="742" ht="21" customHeight="1"/>
+    <row r="743" ht="21" customHeight="1"/>
+    <row r="744" ht="21" customHeight="1"/>
+    <row r="745" ht="21" customHeight="1"/>
+    <row r="746" ht="21" customHeight="1"/>
+    <row r="747" ht="21" customHeight="1"/>
+    <row r="748" ht="21" customHeight="1"/>
+    <row r="749" ht="21" customHeight="1"/>
+    <row r="750" ht="21" customHeight="1"/>
+    <row r="751" ht="21" customHeight="1"/>
+    <row r="752" ht="21" customHeight="1"/>
+    <row r="753" ht="21" customHeight="1"/>
+    <row r="754" ht="21" customHeight="1"/>
+    <row r="755" ht="21" customHeight="1"/>
+    <row r="756" ht="21" customHeight="1"/>
+    <row r="757" ht="21" customHeight="1"/>
+    <row r="758" ht="21" customHeight="1"/>
+    <row r="759" ht="21" customHeight="1"/>
+    <row r="760" ht="21" customHeight="1"/>
+    <row r="761" ht="21" customHeight="1"/>
+    <row r="762" ht="21" customHeight="1"/>
+    <row r="763" ht="21" customHeight="1"/>
+    <row r="764" ht="21" customHeight="1"/>
+    <row r="765" ht="21" customHeight="1"/>
+    <row r="766" ht="21" customHeight="1"/>
+    <row r="767" ht="21" customHeight="1"/>
+    <row r="768" ht="21" customHeight="1"/>
+    <row r="769" ht="21" customHeight="1"/>
+    <row r="770" ht="21" customHeight="1"/>
+    <row r="771" ht="21" customHeight="1"/>
+    <row r="772" ht="21" customHeight="1"/>
+    <row r="773" ht="21" customHeight="1"/>
+    <row r="774" ht="21" customHeight="1"/>
+    <row r="775" ht="21" customHeight="1"/>
+    <row r="776" ht="21" customHeight="1"/>
+    <row r="777" ht="21" customHeight="1"/>
+    <row r="778" ht="21" customHeight="1"/>
+    <row r="779" ht="21" customHeight="1"/>
+    <row r="780" ht="21" customHeight="1"/>
+    <row r="781" ht="21" customHeight="1"/>
+    <row r="782" ht="21" customHeight="1"/>
+    <row r="783" ht="21" customHeight="1"/>
+    <row r="784" ht="21" customHeight="1"/>
+    <row r="785" ht="21" customHeight="1"/>
+    <row r="786" ht="21" customHeight="1"/>
+    <row r="787" ht="21" customHeight="1"/>
+    <row r="788" ht="21" customHeight="1"/>
+    <row r="789" ht="21" customHeight="1"/>
+    <row r="790" ht="21" customHeight="1"/>
+    <row r="791" ht="21" customHeight="1"/>
+    <row r="792" ht="21" customHeight="1"/>
+    <row r="793" ht="21" customHeight="1"/>
+    <row r="794" ht="21" customHeight="1"/>
+    <row r="795" ht="21" customHeight="1"/>
+    <row r="796" ht="21" customHeight="1"/>
+    <row r="797" ht="21" customHeight="1"/>
+    <row r="798" ht="21" customHeight="1"/>
+    <row r="799" ht="21" customHeight="1"/>
+    <row r="800" ht="21" customHeight="1"/>
+    <row r="801" ht="21" customHeight="1"/>
+    <row r="802" ht="21" customHeight="1"/>
+    <row r="803" ht="21" customHeight="1"/>
+    <row r="804" ht="21" customHeight="1"/>
+    <row r="805" ht="21" customHeight="1"/>
+    <row r="806" ht="21" customHeight="1"/>
+    <row r="807" ht="21" customHeight="1"/>
+    <row r="808" ht="21" customHeight="1"/>
+    <row r="809" ht="21" customHeight="1"/>
+    <row r="810" ht="21" customHeight="1"/>
+    <row r="811" ht="21" customHeight="1"/>
+    <row r="812" ht="21" customHeight="1"/>
+    <row r="813" ht="21" customHeight="1"/>
+    <row r="814" ht="21" customHeight="1"/>
+    <row r="815" ht="21" customHeight="1"/>
+    <row r="816" ht="21" customHeight="1"/>
+    <row r="817" ht="21" customHeight="1"/>
+    <row r="818" ht="21" customHeight="1"/>
+    <row r="819" ht="21" customHeight="1"/>
+    <row r="820" ht="21" customHeight="1"/>
+    <row r="821" ht="21" customHeight="1"/>
+    <row r="822" ht="21" customHeight="1"/>
+    <row r="823" ht="21" customHeight="1"/>
+    <row r="824" ht="21" customHeight="1"/>
+    <row r="825" ht="21" customHeight="1"/>
+    <row r="826" ht="21" customHeight="1"/>
+    <row r="827" ht="21" customHeight="1"/>
+    <row r="828" ht="21" customHeight="1"/>
+    <row r="829" ht="21" customHeight="1"/>
+    <row r="830" ht="21" customHeight="1"/>
+    <row r="831" ht="21" customHeight="1"/>
+    <row r="832" ht="21" customHeight="1"/>
+    <row r="833" ht="21" customHeight="1"/>
+    <row r="834" ht="21" customHeight="1"/>
+    <row r="835" ht="21" customHeight="1"/>
+    <row r="836" ht="21" customHeight="1"/>
+    <row r="837" ht="21" customHeight="1"/>
+    <row r="838" ht="21" customHeight="1"/>
+    <row r="839" ht="21" customHeight="1"/>
+    <row r="840" ht="21" customHeight="1"/>
+    <row r="841" ht="21" customHeight="1"/>
+    <row r="842" ht="21" customHeight="1"/>
+    <row r="843" ht="21" customHeight="1"/>
+    <row r="844" ht="21" customHeight="1"/>
+    <row r="845" ht="21" customHeight="1"/>
+    <row r="846" ht="21" customHeight="1"/>
+    <row r="847" ht="21" customHeight="1"/>
+    <row r="848" ht="21" customHeight="1"/>
+    <row r="849" ht="21" customHeight="1"/>
+    <row r="850" ht="21" customHeight="1"/>
+    <row r="851" ht="21" customHeight="1"/>
+    <row r="852" ht="21" customHeight="1"/>
+    <row r="853" ht="21" customHeight="1"/>
+    <row r="854" ht="21" customHeight="1"/>
+    <row r="855" ht="21" customHeight="1"/>
+    <row r="856" ht="21" customHeight="1"/>
+    <row r="857" ht="21" customHeight="1"/>
+    <row r="858" ht="21" customHeight="1"/>
+    <row r="859" ht="21" customHeight="1"/>
+    <row r="860" ht="21" customHeight="1"/>
+    <row r="861" ht="21" customHeight="1"/>
+    <row r="862" ht="21" customHeight="1"/>
+    <row r="863" ht="21" customHeight="1"/>
+    <row r="864" ht="21" customHeight="1"/>
+    <row r="865" ht="21" customHeight="1"/>
+    <row r="866" ht="21" customHeight="1"/>
+    <row r="867" ht="21" customHeight="1"/>
+    <row r="868" ht="21" customHeight="1"/>
+    <row r="869" ht="21" customHeight="1"/>
+    <row r="870" ht="21" customHeight="1"/>
+    <row r="871" ht="21" customHeight="1"/>
+    <row r="872" ht="21" customHeight="1"/>
+    <row r="873" ht="21" customHeight="1"/>
+    <row r="874" ht="21" customHeight="1"/>
+    <row r="875" ht="21" customHeight="1"/>
+    <row r="876" ht="21" customHeight="1"/>
+    <row r="877" ht="21" customHeight="1"/>
+    <row r="878" ht="21" customHeight="1"/>
+    <row r="879" ht="21" customHeight="1"/>
+    <row r="880" ht="21" customHeight="1"/>
+    <row r="881" ht="21" customHeight="1"/>
+    <row r="882" ht="21" customHeight="1"/>
+    <row r="883" ht="21" customHeight="1"/>
+    <row r="884" ht="21" customHeight="1"/>
+    <row r="885" ht="21" customHeight="1"/>
+    <row r="886" ht="21" customHeight="1"/>
+    <row r="887" ht="21" customHeight="1"/>
+    <row r="888" ht="21" customHeight="1"/>
+    <row r="889" ht="21" customHeight="1"/>
+    <row r="890" ht="21" customHeight="1"/>
+    <row r="891" ht="21" customHeight="1"/>
+    <row r="892" ht="21" customHeight="1"/>
+    <row r="893" ht="21" customHeight="1"/>
+    <row r="894" ht="21" customHeight="1"/>
+    <row r="895" ht="21" customHeight="1"/>
+    <row r="896" ht="21" customHeight="1"/>
+    <row r="897" ht="21" customHeight="1"/>
+    <row r="898" ht="21" customHeight="1"/>
+    <row r="899" ht="21" customHeight="1"/>
+    <row r="900" ht="21" customHeight="1"/>
+    <row r="901" ht="21" customHeight="1"/>
+    <row r="902" ht="21" customHeight="1"/>
+    <row r="903" ht="21" customHeight="1"/>
+    <row r="904" ht="21" customHeight="1"/>
+    <row r="905" ht="21" customHeight="1"/>
+    <row r="906" ht="21" customHeight="1"/>
+    <row r="907" ht="21" customHeight="1"/>
+    <row r="908" ht="21" customHeight="1"/>
+    <row r="909" ht="21" customHeight="1"/>
+    <row r="910" ht="21" customHeight="1"/>
+    <row r="911" ht="21" customHeight="1"/>
+    <row r="912" ht="21" customHeight="1"/>
+    <row r="913" ht="21" customHeight="1"/>
+    <row r="914" ht="21" customHeight="1"/>
+    <row r="915" ht="21" customHeight="1"/>
+    <row r="916" ht="21" customHeight="1"/>
+    <row r="917" ht="21" customHeight="1"/>
+    <row r="918" ht="21" customHeight="1"/>
+    <row r="919" ht="21" customHeight="1"/>
+    <row r="920" ht="21" customHeight="1"/>
+    <row r="921" ht="21" customHeight="1"/>
+    <row r="922" ht="21" customHeight="1"/>
+    <row r="923" ht="21" customHeight="1"/>
+    <row r="924" ht="21" customHeight="1"/>
+    <row r="925" ht="21" customHeight="1"/>
+    <row r="926" ht="21" customHeight="1"/>
+    <row r="927" ht="21" customHeight="1"/>
+    <row r="928" ht="21" customHeight="1"/>
+    <row r="929" ht="21" customHeight="1"/>
+    <row r="930" ht="21" customHeight="1"/>
+    <row r="931" ht="21" customHeight="1"/>
+    <row r="932" ht="21" customHeight="1"/>
+    <row r="933" ht="21" customHeight="1"/>
+    <row r="934" ht="21" customHeight="1"/>
+    <row r="935" ht="21" customHeight="1"/>
+    <row r="936" ht="21" customHeight="1"/>
+    <row r="937" ht="21" customHeight="1"/>
+    <row r="938" ht="21" customHeight="1"/>
+    <row r="939" ht="21" customHeight="1"/>
+    <row r="940" ht="21" customHeight="1"/>
+    <row r="941" ht="21" customHeight="1"/>
+    <row r="942" ht="21" customHeight="1"/>
+    <row r="943" ht="21" customHeight="1"/>
+    <row r="944" ht="21" customHeight="1"/>
+    <row r="945" ht="21" customHeight="1"/>
+    <row r="946" ht="21" customHeight="1"/>
+    <row r="947" ht="21" customHeight="1"/>
+    <row r="948" ht="21" customHeight="1"/>
+    <row r="949" ht="21" customHeight="1"/>
+    <row r="950" ht="21" customHeight="1"/>
+    <row r="951" ht="21" customHeight="1"/>
+    <row r="952" ht="21" customHeight="1"/>
+    <row r="953" ht="21" customHeight="1"/>
+    <row r="954" ht="21" customHeight="1"/>
+    <row r="955" ht="21" customHeight="1"/>
+    <row r="956" ht="21" customHeight="1"/>
+    <row r="957" ht="21" customHeight="1"/>
+    <row r="958" ht="21" customHeight="1"/>
+    <row r="959" ht="21" customHeight="1"/>
+    <row r="960" ht="21" customHeight="1"/>
+    <row r="961" ht="21" customHeight="1"/>
+    <row r="962" ht="21" customHeight="1"/>
+    <row r="963" ht="21" customHeight="1"/>
+    <row r="964" ht="21" customHeight="1"/>
+    <row r="965" ht="21" customHeight="1"/>
+    <row r="966" ht="21" customHeight="1"/>
+    <row r="967" ht="21" customHeight="1"/>
+    <row r="968" ht="21" customHeight="1"/>
+    <row r="969" ht="21" customHeight="1"/>
+    <row r="970" ht="21" customHeight="1"/>
+    <row r="971" ht="21" customHeight="1"/>
+    <row r="972" ht="21" customHeight="1"/>
+    <row r="973" ht="21" customHeight="1"/>
+    <row r="974" ht="21" customHeight="1"/>
+    <row r="975" ht="21" customHeight="1"/>
+    <row r="976" ht="21" customHeight="1"/>
+    <row r="977" ht="21" customHeight="1"/>
+    <row r="978" ht="21" customHeight="1"/>
+    <row r="979" ht="21" customHeight="1"/>
+    <row r="980" ht="21" customHeight="1"/>
+    <row r="981" ht="21" customHeight="1"/>
+    <row r="982" ht="21" customHeight="1"/>
+    <row r="983" ht="21" customHeight="1"/>
+    <row r="984" ht="21" customHeight="1"/>
+    <row r="985" ht="21" customHeight="1"/>
+    <row r="986" ht="21" customHeight="1"/>
+    <row r="987" ht="21" customHeight="1"/>
+    <row r="988" ht="21" customHeight="1"/>
+    <row r="989" ht="21" customHeight="1"/>
+    <row r="990" ht="21" customHeight="1"/>
+    <row r="991" ht="21" customHeight="1"/>
+    <row r="992" ht="21" customHeight="1"/>
+    <row r="993" ht="21" customHeight="1"/>
+    <row r="994" ht="21" customHeight="1"/>
+    <row r="995" ht="21" customHeight="1"/>
+    <row r="996" ht="21" customHeight="1"/>
+    <row r="997" ht="21" customHeight="1"/>
+    <row r="998" ht="21" customHeight="1"/>
+    <row r="999" ht="21" customHeight="1"/>
+    <row r="1000" ht="21" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.0"/>
-    <col customWidth="1" min="2" max="2" width="14.13"/>
-    <col customWidth="1" min="3" max="3" width="12.38"/>
-    <col customWidth="1" min="4" max="4" width="10.13"/>
-    <col customWidth="1" min="5" max="5" width="18.88"/>
-    <col customWidth="1" min="6" max="6" width="14.63"/>
-    <col customWidth="1" min="7" max="7" width="16.0"/>
-    <col customWidth="1" min="8" max="8" width="12.25"/>
-    <col customWidth="1" min="9" max="9" width="26.88"/>
-    <col customWidth="1" min="10" max="10" width="72.13"/>
-    <col customWidth="1" min="11" max="11" width="8.75"/>
-    <col customWidth="1" min="12" max="26" width="10.0"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="14.13" customWidth="1"/>
+    <col min="3" max="3" width="12.38" customWidth="1"/>
+    <col min="4" max="4" width="10.13" customWidth="1"/>
+    <col min="5" max="5" width="18.88" customWidth="1"/>
+    <col min="6" max="6" width="14.63" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="12.25" customWidth="1"/>
+    <col min="9" max="9" width="26.88" customWidth="1"/>
+    <col min="10" max="10" width="72.13" customWidth="1"/>
+    <col min="11" max="11" width="8.75" customWidth="1"/>
+    <col min="12" max="26" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.75" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" ht="21.75" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>78</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="K2" s="10">
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="3" ht="21.75" customHeight="1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>78</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="10">
         <v>0.5</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="4" ht="21.75" customHeight="1">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="10">
         <v>0.5</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" ht="21.75" customHeight="1">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>78</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="K5" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="L5" s="8" t="s">
+      <c r="K5" s="10">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="6" ht="21.75" customHeight="1">
-      <c r="A6" s="13" t="s">
+      <c r="A6" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="13">
         <v>0.5</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="7" ht="21.75" customHeight="1">
-      <c r="A7" s="13" t="s">
+      <c r="A7" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" t="s">
         <v>113</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="13">
         <v>0.5</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="8" ht="21.75" customHeight="1">
-      <c r="A8" s="13" t="s">
+      <c r="A8" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K8" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="L8" s="8" t="s">
+      <c r="K8" s="13">
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" ht="21.75" customHeight="1">
-      <c r="A9" s="13" t="s">
+      <c r="A9" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" t="s">
         <v>126</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="13">
         <v>0.5</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="10" ht="21.75" customHeight="1">
-      <c r="A10" s="13" t="s">
+      <c r="A10" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" t="s">
         <v>130</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="13">
         <v>0.5</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="11" ht="21.75" customHeight="1">
-      <c r="A11" s="13" t="s">
+      <c r="A11" t="s">
         <v>133</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" t="s">
         <v>135</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" t="s">
         <v>104</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" t="s">
         <v>137</v>
       </c>
-      <c r="K11" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="L11" s="8" t="s">
+      <c r="K11" s="13">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>80</v>
       </c>
     </row>
@@ -7731,190 +7692,205 @@
     <row r="1000" ht="21.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E5"/>
+    <hyperlink ref="E5" r:id="rId1"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="E1">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.63"/>
-    <col customWidth="1" min="2" max="2" width="20.0"/>
-    <col customWidth="1" min="3" max="3" width="8.38"/>
-    <col customWidth="1" min="4" max="4" width="22.38"/>
-    <col customWidth="1" min="5" max="5" width="21.75"/>
-    <col customWidth="1" min="6" max="6" width="14.25"/>
-    <col customWidth="1" min="7" max="7" width="20.0"/>
-    <col customWidth="1" min="8" max="8" width="9.38"/>
-    <col customWidth="1" min="9" max="26" width="8.63"/>
+    <col min="1" max="1" width="11.63" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="8.38" customWidth="1"/>
+    <col min="4" max="4" width="22.38" customWidth="1"/>
+    <col min="5" max="5" width="21.75" customWidth="1"/>
+    <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="9.38" customWidth="1"/>
+    <col min="9" max="26" width="8.63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="I1" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="5" t="s">
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="I2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="I3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="E5" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="H4" s="8" t="s">
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>80</v>
+      <c r="I6" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -8898,120 +8874,115 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.38"/>
-    <col customWidth="1" min="2" max="2" width="18.88"/>
-    <col customWidth="1" min="3" max="3" width="18.63"/>
-    <col customWidth="1" min="4" max="4" width="10.88"/>
-    <col customWidth="1" min="5" max="5" width="14.63"/>
-    <col customWidth="1" min="6" max="6" width="8.63"/>
-    <col customWidth="1" min="7" max="7" width="9.88"/>
-    <col customWidth="1" min="8" max="8" width="13.25"/>
-    <col customWidth="1" min="9" max="9" width="52.25"/>
-    <col customWidth="1" min="10" max="26" width="8.63"/>
+    <col min="1" max="1" width="10.38" customWidth="1"/>
+    <col min="2" max="2" width="18.88" customWidth="1"/>
+    <col min="3" max="3" width="18.63" customWidth="1"/>
+    <col min="4" max="4" width="10.88" customWidth="1"/>
+    <col min="5" max="5" width="14.63" customWidth="1"/>
+    <col min="6" max="6" width="8.63" customWidth="1"/>
+    <col min="7" max="7" width="9.88" customWidth="1"/>
+    <col min="8" max="8" width="13.25" customWidth="1"/>
+    <col min="9" max="9" width="52.25" customWidth="1"/>
+    <col min="10" max="26" width="8.63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" s="5" t="s">
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D2" s="5" t="s">
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E2" s="6">
+      <c r="B2" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="5">
         <v>45901.416666666664</v>
       </c>
-      <c r="F2" s="5">
-        <v>100.0</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="F2" s="4">
+        <v>100</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="I2" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D3" s="5" t="s">
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E3" s="6">
+      <c r="B3" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E3" s="5">
         <v>45935.583333333336</v>
       </c>
-      <c r="F3" s="5">
-        <v>50.0</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="F3" s="4">
+        <v>50</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>182</v>
+      <c r="I3" s="7" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -9995,9 +9966,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/UMS_Data.xlsx
+++ b/src/main/resources/UMS_Data.xlsx
@@ -3,11 +3,11 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brodin's Thinkpad\IdeaProjects\UMS\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liam Shier\Desktop\UMS-main (2)\UMS-main\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Subjects" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="17">
   <si>
     <t>Subject Code</t>
   </si>
@@ -579,6 +579,57 @@
   </si>
   <si>
     <t>Alice Smith, Bob Johnson, Lucka Racki,Helen Jones,David Lee</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>fsdsdf</t>
+  </si>
+  <si>
+    <t>dsf</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>PSYCHO10056y456</t>
+  </si>
+  <si>
+    <t>2e1</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
 </sst>
 </file>
@@ -873,24 +924,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A2:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A838"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="25.63" customWidth="1"/>
-    <col min="3" max="26" width="18" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.0"/>
+    <col min="2" max="2" customWidth="true" width="25.63"/>
+    <col min="3" max="26" customWidth="true" width="18.0"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
@@ -963,9 +1007,20 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="18" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
     </row>
     <row r="12" ht="18" customHeight="1">
       <c r="A12" s="2"/>
@@ -4931,21 +4986,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A2">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="15.38" customWidth="1"/>
-    <col min="5" max="5" width="8.75" customWidth="1"/>
-    <col min="6" max="6" width="16.88" customWidth="1"/>
-    <col min="7" max="7" width="20.63" customWidth="1"/>
-    <col min="8" max="8" width="9.63" customWidth="1"/>
-    <col min="9" max="9" width="16.63" customWidth="1"/>
-    <col min="10" max="26" width="10.88" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.25"/>
+    <col min="2" max="2" customWidth="true" width="27.0"/>
+    <col min="3" max="3" customWidth="true" width="12.75"/>
+    <col min="4" max="4" customWidth="true" width="15.38"/>
+    <col min="5" max="5" customWidth="true" width="8.75"/>
+    <col min="6" max="6" customWidth="true" width="16.88"/>
+    <col min="7" max="7" customWidth="true" width="20.63"/>
+    <col min="8" max="8" customWidth="true" width="9.63"/>
+    <col min="9" max="9" customWidth="true" width="16.63"/>
+    <col min="10" max="26" customWidth="true" width="10.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1">
@@ -5267,8 +5325,6 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" ht="21" customHeight="1"/>
-    <row r="13" ht="21" customHeight="1"/>
     <row r="14" ht="21" customHeight="1"/>
     <row r="15" ht="21" customHeight="1"/>
     <row r="16" ht="21" customHeight="1"/>
@@ -6264,23 +6320,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="14.13" customWidth="1"/>
-    <col min="3" max="3" width="12.38" customWidth="1"/>
-    <col min="4" max="4" width="10.13" customWidth="1"/>
-    <col min="5" max="5" width="18.88" customWidth="1"/>
-    <col min="6" max="6" width="14.63" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="12.25" customWidth="1"/>
-    <col min="9" max="9" width="26.88" customWidth="1"/>
-    <col min="10" max="10" width="72.13" customWidth="1"/>
-    <col min="11" max="11" width="8.75" customWidth="1"/>
-    <col min="12" max="26" width="10" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.0"/>
+    <col min="2" max="2" customWidth="true" width="14.13"/>
+    <col min="3" max="3" customWidth="true" width="12.38"/>
+    <col min="4" max="4" customWidth="true" width="10.13"/>
+    <col min="5" max="5" customWidth="true" width="18.88"/>
+    <col min="6" max="6" customWidth="true" width="14.63"/>
+    <col min="7" max="7" customWidth="true" width="16.0"/>
+    <col min="8" max="8" customWidth="true" width="12.25"/>
+    <col min="9" max="9" customWidth="true" width="26.88"/>
+    <col min="10" max="10" customWidth="true" width="72.13"/>
+    <col min="11" max="11" customWidth="true" width="8.75"/>
+    <col min="12" max="26" customWidth="true" width="10.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.75" customHeight="1">
@@ -6474,16 +6531,16 @@
       </c>
     </row>
     <row r="6" ht="21.75" customHeight="1">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>101</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>104</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -6512,16 +6569,16 @@
       </c>
     </row>
     <row r="7" ht="21.75" customHeight="1">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>110</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -6539,7 +6596,7 @@
       <c r="I7" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" t="s" s="0">
         <v>113</v>
       </c>
       <c r="K7" s="13">
@@ -6550,16 +6607,16 @@
       </c>
     </row>
     <row r="8" ht="21.75" customHeight="1">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>116</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>117</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -6588,16 +6645,16 @@
       </c>
     </row>
     <row r="9" ht="21.75" customHeight="1">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>120</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>122</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>123</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -6615,7 +6672,7 @@
       <c r="I9" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" t="s" s="0">
         <v>126</v>
       </c>
       <c r="K9" s="13">
@@ -6626,16 +6683,16 @@
       </c>
     </row>
     <row r="10" ht="21.75" customHeight="1">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>130</v>
       </c>
       <c r="E10" s="7" t="s">
@@ -6664,16 +6721,16 @@
       </c>
     </row>
     <row r="11" ht="21.75" customHeight="1">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>133</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>134</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>135</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>104</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -6691,7 +6748,7 @@
       <c r="I11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" t="s" s="0">
         <v>137</v>
       </c>
       <c r="K11" s="13">
@@ -7701,22 +7758,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="E1">
+    <sheetView workbookViewId="0" topLeftCell="E40">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.63" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="8.38" customWidth="1"/>
-    <col min="4" max="4" width="22.38" customWidth="1"/>
-    <col min="5" max="5" width="21.75" customWidth="1"/>
-    <col min="6" max="6" width="14.25" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="9.38" customWidth="1"/>
-    <col min="9" max="26" width="8.63" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="11.63"/>
+    <col min="2" max="2" customWidth="true" width="20.0"/>
+    <col min="3" max="3" customWidth="true" width="8.38"/>
+    <col min="4" max="4" customWidth="true" width="22.38"/>
+    <col min="5" max="5" customWidth="true" width="21.75"/>
+    <col min="6" max="6" customWidth="true" width="14.25"/>
+    <col min="7" max="7" customWidth="true" width="20.0"/>
+    <col min="8" max="8" customWidth="true" width="9.38"/>
+    <col min="9" max="26" customWidth="true" width="8.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -7744,7 +7802,7 @@
       <c r="H1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>143</v>
       </c>
     </row>
@@ -7773,7 +7831,7 @@
       <c r="H2" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>148</v>
       </c>
     </row>
@@ -7802,7 +7860,7 @@
       <c r="H3" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" t="s" s="0">
         <v>153</v>
       </c>
     </row>
@@ -7831,7 +7889,7 @@
       <c r="H4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" t="s" s="0">
         <v>153</v>
       </c>
     </row>
@@ -7860,7 +7918,7 @@
       <c r="H5" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" t="s" s="0">
         <v>153</v>
       </c>
     </row>
@@ -7868,7 +7926,7 @@
       <c r="A6" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>163</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -7889,7 +7947,7 @@
       <c r="H6" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" t="s" s="0">
         <v>153</v>
       </c>
     </row>
@@ -8881,21 +8939,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.38" customWidth="1"/>
-    <col min="2" max="2" width="18.88" customWidth="1"/>
-    <col min="3" max="3" width="18.63" customWidth="1"/>
-    <col min="4" max="4" width="10.88" customWidth="1"/>
-    <col min="5" max="5" width="14.63" customWidth="1"/>
-    <col min="6" max="6" width="8.63" customWidth="1"/>
-    <col min="7" max="7" width="9.88" customWidth="1"/>
-    <col min="8" max="8" width="13.25" customWidth="1"/>
-    <col min="9" max="9" width="52.25" customWidth="1"/>
-    <col min="10" max="26" width="8.63" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.38"/>
+    <col min="2" max="2" customWidth="true" width="18.88"/>
+    <col min="3" max="3" customWidth="true" width="18.63"/>
+    <col min="4" max="4" customWidth="true" width="10.88"/>
+    <col min="5" max="5" customWidth="true" width="14.63"/>
+    <col min="6" max="6" customWidth="true" width="8.63"/>
+    <col min="7" max="7" customWidth="true" width="9.88"/>
+    <col min="8" max="8" customWidth="true" width="13.25"/>
+    <col min="9" max="9" customWidth="true" width="52.25"/>
+    <col min="10" max="26" customWidth="true" width="8.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">

--- a/src/main/resources/UMS_Data.xlsx
+++ b/src/main/resources/UMS_Data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="22">
   <si>
     <t>Subject Code</t>
   </si>
@@ -630,6 +630,21 @@
   </si>
   <si>
     <t>21</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>46004.416666666664</t>
+  </si>
+  <si>
+    <t>ss</t>
   </si>
 </sst>
 </file>
@@ -975,14 +990,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="8" ht="18" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>14</v>
@@ -1009,10 +1016,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="C11" s="0"/>
       <c r="D11" s="0"/>
@@ -5035,35 +5042,6 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" ht="21" customHeight="1">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="4">
-        <v>30</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="5">
-        <v>46006.375</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
     <row r="3" ht="21" customHeight="1">
       <c r="A3" s="4">
         <v>2</v>
@@ -5122,35 +5100,6 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" ht="21" customHeight="1">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="4">
-        <v>42</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="5">
-        <v>46007.520833333336</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
     <row r="6" ht="21" customHeight="1">
       <c r="A6" s="4">
         <v>4</v>
@@ -5181,32 +5130,32 @@
       </c>
     </row>
     <row r="7" ht="21" customHeight="1">
-      <c r="A7" s="4">
+      <c r="A7" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="4">
-        <v>50</v>
+        <v>29</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>205</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="5">
-        <v>46005.166666666664</v>
+        <v>51</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" ht="21" customHeight="1">
@@ -5238,33 +5187,33 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" ht="21" customHeight="1">
-      <c r="A9" s="7">
-        <v>5</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="7">
-        <v>25</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="8">
-        <v>46004.416666666664</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>53</v>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>203</v>
       </c>
     </row>
     <row r="10" ht="21" customHeight="1">
@@ -5294,35 +5243,6 @@
       </c>
       <c r="I10" s="7" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="11" ht="21" customHeight="1">
-      <c r="A11" s="7">
-        <v>6</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="7">
-        <v>50</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="9">
-        <v>45992.375</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" ht="21" customHeight="1"/>

--- a/src/main/resources/UMS_Data.xlsx
+++ b/src/main/resources/UMS_Data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="24">
   <si>
     <t>Subject Code</t>
   </si>
@@ -645,6 +645,12 @@
   </si>
   <si>
     <t>ss</t>
+  </si>
+  <si>
+    <t>thera thmith</t>
+  </si>
+  <si>
+    <t>0.4</t>
   </si>
 </sst>
 </file>
@@ -6303,7 +6309,7 @@
         <v>71</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>72</v>
+        <v>208</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>73</v>
@@ -6329,8 +6335,8 @@
       <c r="J2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="10">
-        <v>0.40000000000000002</v>
+      <c r="K2" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>80</v>

--- a/src/main/resources/UMS_Data.xlsx
+++ b/src/main/resources/UMS_Data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="24">
   <si>
     <t>Subject Code</t>
   </si>
@@ -6309,7 +6309,7 @@
         <v>71</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>208</v>
+        <v>72</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>73</v>

--- a/src/main/resources/UMS_Data.xlsx
+++ b/src/main/resources/UMS_Data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="32">
   <si>
     <t>Subject Code</t>
   </si>
@@ -663,6 +663,18 @@
   </si>
   <si>
     <t>2025-03-06 10:26</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Not Admin</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>as</t>
   </si>
 </sst>
 </file>
@@ -7889,6 +7901,91 @@
         <v>153</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>215</v>
+      </c>
+    </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>

--- a/src/main/resources/UMS_Data.xlsx
+++ b/src/main/resources/UMS_Data.xlsx
@@ -3,11 +3,11 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liam Shier\Desktop\UMS-main (2)\UMS-main\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liam Shier\IdeaProjects\UMS\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Subjects" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="4">
   <si>
     <t>Subject Code</t>
   </si>
@@ -59,10 +59,10 @@
     <t>Biology</t>
   </si>
   <si>
-    <t>ENGG402</t>
-  </si>
-  <si>
-    <t>Engineering</t>
+    <t>PSYCHO100</t>
+  </si>
+  <si>
+    <t>Psychology</t>
   </si>
   <si>
     <t>HIST101</t>
@@ -77,12 +77,6 @@
     <t>Music</t>
   </si>
   <si>
-    <t>PSYCHO100</t>
-  </si>
-  <si>
-    <t>Psychology</t>
-  </si>
-  <si>
     <t>Course Code</t>
   </si>
   <si>
@@ -107,423 +101,390 @@
     <t>Teacher Name</t>
   </si>
   <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>Student ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Academic Level</t>
+  </si>
+  <si>
+    <t>Current Semester</t>
+  </si>
+  <si>
+    <t>Profile Photo</t>
+  </si>
+  <si>
+    <t>Subjects Registered</t>
+  </si>
+  <si>
+    <t>Thesis Title</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>S20250001</t>
+  </si>
+  <si>
+    <t>Tharah thmith</t>
+  </si>
+  <si>
+    <t>123 Maple St.</t>
+  </si>
+  <si>
+    <t>555-1234</t>
+  </si>
+  <si>
+    <t>alice@example.edu</t>
+  </si>
+  <si>
+    <t>Undergraduate</t>
+  </si>
+  <si>
+    <t>Fall 2025</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>default123</t>
+  </si>
+  <si>
+    <t>S20250002</t>
+  </si>
+  <si>
+    <t>Bob Johnson</t>
+  </si>
+  <si>
+    <t>456 Oak St.</t>
+  </si>
+  <si>
+    <t>555-5678</t>
+  </si>
+  <si>
+    <t>bob@example.edu</t>
+  </si>
+  <si>
+    <t>Graduate</t>
+  </si>
+  <si>
+    <t>"The detection of oil under ice by remote mode conversion of ultrasound"</t>
+  </si>
+  <si>
+    <t>S20250003</t>
+  </si>
+  <si>
+    <t>Carol Williams</t>
+  </si>
+  <si>
+    <t>789 Pine St.</t>
+  </si>
+  <si>
+    <t>555-9012</t>
+  </si>
+  <si>
+    <t>carol@example.edu</t>
+  </si>
+  <si>
+    <t>ENGG402, HIST101</t>
+  </si>
+  <si>
+    <t>"On the economic optimality of marine reserves when fishing damages habitat"</t>
+  </si>
+  <si>
+    <t>S20250004</t>
+  </si>
+  <si>
+    <t>Lucka Racki</t>
+  </si>
+  <si>
+    <t>1767 Jane St.</t>
+  </si>
+  <si>
+    <t>439-9966</t>
+  </si>
+  <si>
+    <t>lucka@example.edu</t>
+  </si>
+  <si>
+    <t>Bio300</t>
+  </si>
+  <si>
+    <t>S20250005</t>
+  </si>
+  <si>
+    <t>David Lee</t>
+  </si>
+  <si>
+    <t>90 Elm St.</t>
+  </si>
+  <si>
+    <t>555-3456</t>
+  </si>
+  <si>
+    <t>lee@example.edu</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>S20250006</t>
+  </si>
+  <si>
+    <t>Emily Brown</t>
+  </si>
+  <si>
+    <t>111 Oak Ave.</t>
+  </si>
+  <si>
+    <t>555-7890</t>
+  </si>
+  <si>
+    <t>brown@example.edu</t>
+  </si>
+  <si>
+    <t>Chem200</t>
+  </si>
+  <si>
+    <t>Synthesis and Characterization of Novel Catalysts</t>
+  </si>
+  <si>
+    <t>S20250007</t>
+  </si>
+  <si>
+    <t>George Smith</t>
+  </si>
+  <si>
+    <t>222 Pine Rd.</t>
+  </si>
+  <si>
+    <t>555-2345</t>
+  </si>
+  <si>
+    <t>smith@example.edu</t>
+  </si>
+  <si>
+    <t>Music102</t>
+  </si>
+  <si>
+    <t>S20250008</t>
+  </si>
+  <si>
+    <t>Helen Jones</t>
+  </si>
+  <si>
+    <t>333 Maple Dr.</t>
+  </si>
+  <si>
+    <t>555-4567</t>
+  </si>
+  <si>
+    <t>jones@example.edu</t>
+  </si>
+  <si>
+    <t>PSYCHO100, Music102, HIST101</t>
+  </si>
+  <si>
+    <t>The Effects of Stress on Cognitive Function</t>
+  </si>
+  <si>
+    <t>S20250009</t>
+  </si>
+  <si>
+    <t>Isaac Clark</t>
+  </si>
+  <si>
+    <t>444 Cedar Ln.</t>
+  </si>
+  <si>
+    <t>555-8901</t>
+  </si>
+  <si>
+    <t>clark@example.edu</t>
+  </si>
+  <si>
+    <t>BIo300</t>
+  </si>
+  <si>
+    <t>S20250010</t>
+  </si>
+  <si>
+    <t>Jennifer Davis</t>
+  </si>
+  <si>
+    <t>555 Oakwood Pl.</t>
+  </si>
+  <si>
+    <t>davis@example.edu</t>
+  </si>
+  <si>
+    <t>The Renaissance: Art, Culture, and Society</t>
+  </si>
+  <si>
+    <t>Faculty ID</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>Research Interest</t>
+  </si>
+  <si>
+    <t>Office Location</t>
+  </si>
+  <si>
+    <t>Courses Offered</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>F0001</t>
+  </si>
+  <si>
+    <t>Dr. Alan Turing</t>
+  </si>
+  <si>
+    <t>Ph.D.</t>
+  </si>
+  <si>
+    <t>Computational Theory</t>
+  </si>
+  <si>
+    <t>turing@university.edu</t>
+  </si>
+  <si>
+    <t>Room 201</t>
+  </si>
+  <si>
     <t>Calculus I</t>
   </si>
   <si>
-    <t>Section 1</t>
-  </si>
-  <si>
-    <t>Mon/Wed 9-11 AM</t>
-  </si>
-  <si>
-    <t>Room 101</t>
-  </si>
-  <si>
-    <t>Dr. Alan Turing</t>
+    <t>ADMIN</t>
+  </si>
+  <si>
+    <t>F0002</t>
+  </si>
+  <si>
+    <t>Prof. Emily Brontë</t>
+  </si>
+  <si>
+    <t>Master's</t>
+  </si>
+  <si>
+    <t>English Literature</t>
+  </si>
+  <si>
+    <t>bronte@university.edu</t>
+  </si>
+  <si>
+    <t>Room 202</t>
   </si>
   <si>
     <t>Literature Basics</t>
   </si>
   <si>
-    <t>Tue/Thu 10-12 PM</t>
-  </si>
-  <si>
-    <t>Room 102</t>
-  </si>
-  <si>
-    <t>Prof. Emily Brontë</t>
-  </si>
-  <si>
-    <t>Section 2</t>
-  </si>
-  <si>
-    <t>Mon/Wed 10-12 PM</t>
-  </si>
-  <si>
-    <t>Introduction to Programming</t>
-  </si>
-  <si>
-    <t>Tue/Thu 12-2 PM</t>
-  </si>
-  <si>
-    <t>Room 103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prof. Bahar Nozari </t>
-  </si>
-  <si>
-    <t>Introduction to Chemistry</t>
-  </si>
-  <si>
-    <t>Mon/ Thu 3-4 PM</t>
-  </si>
-  <si>
-    <t>Room 201</t>
-  </si>
-  <si>
-    <t>Dr. Lucka Lucku</t>
-  </si>
-  <si>
-    <t>Mon/ Tue 5-6 PM</t>
-  </si>
-  <si>
-    <t>Section 3</t>
-  </si>
-  <si>
-    <t>Fri/ Thu 2-3 PM</t>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>F0003</t>
+  </si>
+  <si>
+    <t>Dr. Grace Hopper</t>
+  </si>
+  <si>
+    <t>Computer Programming</t>
+  </si>
+  <si>
+    <t>hopper@university.edu</t>
+  </si>
+  <si>
+    <t>Lab 203</t>
+  </si>
+  <si>
+    <t>Intro to Programming</t>
+  </si>
+  <si>
+    <t>F0004</t>
+  </si>
+  <si>
+    <t>Dr. Lakyn Copeland</t>
+  </si>
+  <si>
+    <t>copeland@university.edu</t>
   </si>
   <si>
     <t>Introduction to French</t>
   </si>
   <si>
-    <t>Tue/Thur 4:30 - 5:30 PM</t>
-  </si>
-  <si>
-    <t>Room 202</t>
-  </si>
-  <si>
-    <t>Dr. Lakyn Copeland</t>
-  </si>
-  <si>
-    <t>Tue/Thur 5:30 - 6:30 PM</t>
+    <t>F0005</t>
+  </si>
+  <si>
+    <t>Albozr Gharabaghi</t>
+  </si>
+  <si>
+    <t>Water and Soil</t>
+  </si>
+  <si>
+    <t>gharabaghi@university.edu</t>
+  </si>
+  <si>
+    <t>Lab 202</t>
   </si>
   <si>
     <t>Water Resources</t>
   </si>
   <si>
-    <t>Mon/Fri 9:00 - 10:30</t>
-  </si>
-  <si>
-    <t>Room 203</t>
-  </si>
-  <si>
-    <t>Dr. Albozr Gharabaghi</t>
-  </si>
-  <si>
-    <t>Student ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Telephone</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Academic Level</t>
-  </si>
-  <si>
-    <t>Current Semester</t>
-  </si>
-  <si>
-    <t>Profile Photo</t>
-  </si>
-  <si>
-    <t>Subjects Registered</t>
-  </si>
-  <si>
-    <t>Thesis Title</t>
-  </si>
-  <si>
-    <t>Progress</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>S20250001</t>
-  </si>
-  <si>
-    <t>Alice Smith</t>
-  </si>
-  <si>
-    <t>123 Maple St.</t>
-  </si>
-  <si>
-    <t>555-1234</t>
-  </si>
-  <si>
-    <t>alice@example.edu</t>
-  </si>
-  <si>
-    <t>Undergraduate</t>
-  </si>
-  <si>
-    <t>Fall 2025</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>default123</t>
-  </si>
-  <si>
-    <t>S20250002</t>
-  </si>
-  <si>
-    <t>Bob Johnson</t>
-  </si>
-  <si>
-    <t>456 Oak St.</t>
-  </si>
-  <si>
-    <t>555-5678</t>
-  </si>
-  <si>
-    <t>bob@example.edu</t>
-  </si>
-  <si>
-    <t>Graduate</t>
-  </si>
-  <si>
-    <t>"The detection of oil under ice by remote mode conversion of ultrasound"</t>
-  </si>
-  <si>
-    <t>S20250003</t>
-  </si>
-  <si>
-    <t>Carol Williams</t>
-  </si>
-  <si>
-    <t>789 Pine St.</t>
-  </si>
-  <si>
-    <t>555-9012</t>
-  </si>
-  <si>
-    <t>carol@example.edu</t>
-  </si>
-  <si>
-    <t>ENGG402, HIST101</t>
-  </si>
-  <si>
-    <t>"On the economic optimality of marine reserves when fishing damages habitat"</t>
-  </si>
-  <si>
-    <t>S20250004</t>
-  </si>
-  <si>
-    <t>Lucka Racki</t>
-  </si>
-  <si>
-    <t>1767 Jane St.</t>
-  </si>
-  <si>
-    <t>439-9966</t>
-  </si>
-  <si>
-    <t>lucka@example.edu</t>
-  </si>
-  <si>
-    <t>Bio300</t>
-  </si>
-  <si>
-    <t>S20250005</t>
-  </si>
-  <si>
-    <t>David Lee</t>
-  </si>
-  <si>
-    <t>90 Elm St.</t>
-  </si>
-  <si>
-    <t>555-3456</t>
-  </si>
-  <si>
-    <t>lee@example.edu</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>S20250006</t>
-  </si>
-  <si>
-    <t>Emily Brown</t>
-  </si>
-  <si>
-    <t>111 Oak Ave.</t>
-  </si>
-  <si>
-    <t>555-7890</t>
-  </si>
-  <si>
-    <t>brown@example.edu</t>
-  </si>
-  <si>
-    <t>Chem200</t>
-  </si>
-  <si>
-    <t>Synthesis and Characterization of Novel Catalysts</t>
-  </si>
-  <si>
-    <t>S20250007</t>
-  </si>
-  <si>
-    <t>George Smith</t>
-  </si>
-  <si>
-    <t>222 Pine Rd.</t>
-  </si>
-  <si>
-    <t>555-2345</t>
-  </si>
-  <si>
-    <t>smith@example.edu</t>
-  </si>
-  <si>
-    <t>Music102</t>
-  </si>
-  <si>
-    <t>S20250008</t>
-  </si>
-  <si>
-    <t>Helen Jones</t>
-  </si>
-  <si>
-    <t>333 Maple Dr.</t>
-  </si>
-  <si>
-    <t>555-4567</t>
-  </si>
-  <si>
-    <t>jones@example.edu</t>
-  </si>
-  <si>
-    <t>PSYCHO100, Music102, HIST101</t>
-  </si>
-  <si>
-    <t>The Effects of Stress on Cognitive Function</t>
-  </si>
-  <si>
-    <t>S20250009</t>
-  </si>
-  <si>
-    <t>Isaac Clark</t>
-  </si>
-  <si>
-    <t>444 Cedar Ln.</t>
-  </si>
-  <si>
-    <t>555-8901</t>
-  </si>
-  <si>
-    <t>clark@example.edu</t>
-  </si>
-  <si>
-    <t>BIo300</t>
-  </si>
-  <si>
-    <t>S20250010</t>
-  </si>
-  <si>
-    <t>Jennifer Davis</t>
-  </si>
-  <si>
-    <t>555 Oakwood Pl.</t>
-  </si>
-  <si>
-    <t>davis@example.edu</t>
-  </si>
-  <si>
-    <t>The Renaissance: Art, Culture, and Society</t>
-  </si>
-  <si>
-    <t>Faculty ID</t>
-  </si>
-  <si>
-    <t>Degree</t>
-  </si>
-  <si>
-    <t>Research Interest</t>
-  </si>
-  <si>
-    <t>Office Location</t>
-  </si>
-  <si>
-    <t>Courses Offered</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>F0001</t>
-  </si>
-  <si>
-    <t>Ph.D.</t>
-  </si>
-  <si>
-    <t>Computational Theory</t>
-  </si>
-  <si>
-    <t>turing@university.edu</t>
-  </si>
-  <si>
-    <t>ADMIN</t>
-  </si>
-  <si>
-    <t>F0002</t>
-  </si>
-  <si>
-    <t>Master's</t>
-  </si>
-  <si>
-    <t>English Literature</t>
-  </si>
-  <si>
-    <t>bronte@university.edu</t>
-  </si>
-  <si>
-    <t>USER</t>
-  </si>
-  <si>
-    <t>F0003</t>
-  </si>
-  <si>
-    <t>Dr. Grace Hopper</t>
-  </si>
-  <si>
-    <t>Computer Programming</t>
-  </si>
-  <si>
-    <t>hopper@university.edu</t>
-  </si>
-  <si>
-    <t>Lab 203</t>
-  </si>
-  <si>
-    <t>Intro to Programming</t>
-  </si>
-  <si>
-    <t>F0004</t>
-  </si>
-  <si>
-    <t>copeland@university.edu</t>
-  </si>
-  <si>
-    <t>F0005</t>
-  </si>
-  <si>
-    <t>Albozr Gharabaghi</t>
-  </si>
-  <si>
-    <t>Water and Soil</t>
-  </si>
-  <si>
-    <t>gharabaghi@university.edu</t>
-  </si>
-  <si>
-    <t>Lab 202</t>
-  </si>
-  <si>
     <t>Event Code</t>
   </si>
   <si>
@@ -581,81 +542,6 @@
     <t>Alice Smith, Bob Johnson, Lucka Racki,Helen Jones,David Lee</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>fsdsdf</t>
-  </si>
-  <si>
-    <t>dsf</t>
-  </si>
-  <si>
-    <t>sdf</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>PSYCHO10056y456</t>
-  </si>
-  <si>
-    <t>2e1</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>46004.416666666664</t>
-  </si>
-  <si>
-    <t>ss</t>
-  </si>
-  <si>
-    <t>thera thmith</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>Tharah thmith</t>
-  </si>
-  <si>
     <t>EV003</t>
   </si>
   <si>
@@ -665,37 +551,30 @@
     <t>2025-03-06 10:26</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Not Admin</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>as</t>
+    <t>CUM</t>
+  </si>
+  <si>
+    <t>RIZZ101</t>
+  </si>
+  <si>
+    <t>RIZZ</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy h:mm"/>
-  </numFmts>
-  <fonts count="7">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="11"/>
@@ -738,29 +617,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -969,9 +843,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:I1000"/>
+  <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A838"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -980,4040 +856,4048 @@
     <col min="3" max="26" customWidth="true" width="18.0"/>
   </cols>
   <sheetData>
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
     <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
+      <c r="B5" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>203</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>203</v>
-      </c>
-      <c r="C11" s="0"/>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
-      <c r="F11" s="0"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="0"/>
-      <c r="I11" s="0"/>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
     </row>
     <row r="12" ht="18" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" ht="18" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" ht="18" customHeight="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" ht="18" customHeight="1">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" ht="18" customHeight="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
     </row>
     <row r="17" ht="18" customHeight="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
     </row>
     <row r="18" ht="18" customHeight="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
     </row>
     <row r="19" ht="18" customHeight="1">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" ht="18" customHeight="1">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
     </row>
     <row r="21" ht="18" customHeight="1">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
     </row>
     <row r="22" ht="18" customHeight="1">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
     </row>
     <row r="23" ht="18" customHeight="1">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
     </row>
     <row r="24" ht="18" customHeight="1">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
     </row>
     <row r="25" ht="18" customHeight="1">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
     </row>
     <row r="26" ht="18" customHeight="1">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
     </row>
     <row r="27" ht="18" customHeight="1">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
     </row>
     <row r="28" ht="18" customHeight="1">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
     </row>
     <row r="29" ht="18" customHeight="1">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
     </row>
     <row r="30" ht="18" customHeight="1">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
     </row>
     <row r="31" ht="18" customHeight="1">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
     </row>
     <row r="32" ht="18" customHeight="1">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
     </row>
     <row r="33" ht="18" customHeight="1">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
     </row>
     <row r="34" ht="18" customHeight="1">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
     </row>
     <row r="35" ht="18" customHeight="1">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
     </row>
     <row r="36" ht="18" customHeight="1">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
     </row>
     <row r="37" ht="18" customHeight="1">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
     </row>
     <row r="38" ht="18" customHeight="1">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
     </row>
     <row r="39" ht="18" customHeight="1">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
     </row>
     <row r="40" ht="18" customHeight="1">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
     </row>
     <row r="41" ht="18" customHeight="1">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
     </row>
     <row r="42" ht="18" customHeight="1">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
     </row>
     <row r="43" ht="18" customHeight="1">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
     </row>
     <row r="44" ht="18" customHeight="1">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
     </row>
     <row r="45" ht="18" customHeight="1">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
     </row>
     <row r="46" ht="18" customHeight="1">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
     </row>
     <row r="47" ht="18" customHeight="1">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
     </row>
     <row r="48" ht="18" customHeight="1">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
     </row>
     <row r="49" ht="18" customHeight="1">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
     </row>
     <row r="50" ht="18" customHeight="1">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
     </row>
     <row r="51" ht="18" customHeight="1">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
     </row>
     <row r="52" ht="18" customHeight="1">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
     </row>
     <row r="53" ht="18" customHeight="1">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
     </row>
     <row r="54" ht="18" customHeight="1">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
     </row>
     <row r="55" ht="18" customHeight="1">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
     </row>
     <row r="56" ht="18" customHeight="1">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
     </row>
     <row r="57" ht="18" customHeight="1">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
     </row>
     <row r="58" ht="18" customHeight="1">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
     </row>
     <row r="59" ht="18" customHeight="1">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
     </row>
     <row r="60" ht="18" customHeight="1">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
     </row>
     <row r="61" ht="18" customHeight="1">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
     </row>
     <row r="62" ht="18" customHeight="1">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
     </row>
     <row r="63" ht="18" customHeight="1">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
     </row>
     <row r="64" ht="18" customHeight="1">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
     </row>
     <row r="65" ht="18" customHeight="1">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
     </row>
     <row r="66" ht="18" customHeight="1">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
     </row>
     <row r="67" ht="18" customHeight="1">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
     </row>
     <row r="68" ht="18" customHeight="1">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
     </row>
     <row r="69" ht="18" customHeight="1">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
     </row>
     <row r="70" ht="18" customHeight="1">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
     </row>
     <row r="71" ht="18" customHeight="1">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
     </row>
     <row r="72" ht="18" customHeight="1">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
     </row>
     <row r="73" ht="18" customHeight="1">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
     </row>
     <row r="74" ht="18" customHeight="1">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
     </row>
     <row r="75" ht="18" customHeight="1">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
     </row>
     <row r="76" ht="18" customHeight="1">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
     </row>
     <row r="77" ht="18" customHeight="1">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
     </row>
     <row r="78" ht="18" customHeight="1">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
     </row>
     <row r="79" ht="18" customHeight="1">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
     </row>
     <row r="80" ht="18" customHeight="1">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
     </row>
     <row r="81" ht="18" customHeight="1">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
     </row>
     <row r="82" ht="18" customHeight="1">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
     </row>
     <row r="83" ht="18" customHeight="1">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
     </row>
     <row r="84" ht="18" customHeight="1">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
     </row>
     <row r="85" ht="18" customHeight="1">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
     </row>
     <row r="86" ht="18" customHeight="1">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
     </row>
     <row r="87" ht="18" customHeight="1">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
     </row>
     <row r="88" ht="18" customHeight="1">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
     </row>
     <row r="89" ht="18" customHeight="1">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
     </row>
     <row r="90" ht="18" customHeight="1">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
     </row>
     <row r="91" ht="18" customHeight="1">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
     </row>
     <row r="92" ht="18" customHeight="1">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
     </row>
     <row r="93" ht="18" customHeight="1">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
     </row>
     <row r="94" ht="18" customHeight="1">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
     </row>
     <row r="95" ht="18" customHeight="1">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
     </row>
     <row r="96" ht="18" customHeight="1">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
     </row>
     <row r="97" ht="18" customHeight="1">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
     </row>
     <row r="98" ht="18" customHeight="1">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
     </row>
     <row r="99" ht="18" customHeight="1">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
     </row>
     <row r="100" ht="18" customHeight="1">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
     </row>
     <row r="101" ht="18" customHeight="1">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
     </row>
     <row r="102" ht="18" customHeight="1">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
     </row>
     <row r="103" ht="18" customHeight="1">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
     </row>
     <row r="104" ht="18" customHeight="1">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
     </row>
     <row r="105" ht="18" customHeight="1">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
     </row>
     <row r="106" ht="18" customHeight="1">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
     </row>
     <row r="107" ht="18" customHeight="1">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
     </row>
     <row r="108" ht="18" customHeight="1">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
     </row>
     <row r="109" ht="18" customHeight="1">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
     </row>
     <row r="110" ht="18" customHeight="1">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
     </row>
     <row r="111" ht="18" customHeight="1">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
     </row>
     <row r="112" ht="18" customHeight="1">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
     </row>
     <row r="113" ht="18" customHeight="1">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
     </row>
     <row r="114" ht="18" customHeight="1">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
     </row>
     <row r="115" ht="18" customHeight="1">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
     </row>
     <row r="116" ht="18" customHeight="1">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
     </row>
     <row r="117" ht="18" customHeight="1">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
     </row>
     <row r="118" ht="18" customHeight="1">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
     </row>
     <row r="119" ht="18" customHeight="1">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
     </row>
     <row r="120" ht="18" customHeight="1">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
     </row>
     <row r="121" ht="18" customHeight="1">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
     </row>
     <row r="122" ht="18" customHeight="1">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
     </row>
     <row r="123" ht="18" customHeight="1">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
     </row>
     <row r="124" ht="18" customHeight="1">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
     </row>
     <row r="125" ht="18" customHeight="1">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
     </row>
     <row r="126" ht="18" customHeight="1">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
     </row>
     <row r="127" ht="18" customHeight="1">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
     </row>
     <row r="128" ht="18" customHeight="1">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
     </row>
     <row r="129" ht="18" customHeight="1">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
     </row>
     <row r="130" ht="18" customHeight="1">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
     </row>
     <row r="131" ht="18" customHeight="1">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
     </row>
     <row r="132" ht="18" customHeight="1">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
     </row>
     <row r="133" ht="18" customHeight="1">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
     </row>
     <row r="134" ht="18" customHeight="1">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
     </row>
     <row r="135" ht="18" customHeight="1">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
     </row>
     <row r="136" ht="18" customHeight="1">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
     </row>
     <row r="137" ht="18" customHeight="1">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
     </row>
     <row r="138" ht="18" customHeight="1">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
     </row>
     <row r="139" ht="18" customHeight="1">
-      <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
     </row>
     <row r="140" ht="18" customHeight="1">
-      <c r="A140" s="2"/>
-      <c r="B140" s="2"/>
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
     </row>
     <row r="141" ht="18" customHeight="1">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
     </row>
     <row r="142" ht="18" customHeight="1">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
     </row>
     <row r="143" ht="18" customHeight="1">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
     </row>
     <row r="144" ht="18" customHeight="1">
-      <c r="A144" s="2"/>
-      <c r="B144" s="2"/>
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
     </row>
     <row r="145" ht="18" customHeight="1">
-      <c r="A145" s="2"/>
-      <c r="B145" s="2"/>
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
     </row>
     <row r="146" ht="18" customHeight="1">
-      <c r="A146" s="2"/>
-      <c r="B146" s="2"/>
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
     </row>
     <row r="147" ht="18" customHeight="1">
-      <c r="A147" s="2"/>
-      <c r="B147" s="2"/>
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
     </row>
     <row r="148" ht="18" customHeight="1">
-      <c r="A148" s="2"/>
-      <c r="B148" s="2"/>
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
     </row>
     <row r="149" ht="18" customHeight="1">
-      <c r="A149" s="2"/>
-      <c r="B149" s="2"/>
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
     </row>
     <row r="150" ht="18" customHeight="1">
-      <c r="A150" s="2"/>
-      <c r="B150" s="2"/>
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
     </row>
     <row r="151" ht="18" customHeight="1">
-      <c r="A151" s="2"/>
-      <c r="B151" s="2"/>
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
     </row>
     <row r="152" ht="18" customHeight="1">
-      <c r="A152" s="2"/>
-      <c r="B152" s="2"/>
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
     </row>
     <row r="153" ht="18" customHeight="1">
-      <c r="A153" s="2"/>
-      <c r="B153" s="2"/>
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
     </row>
     <row r="154" ht="18" customHeight="1">
-      <c r="A154" s="2"/>
-      <c r="B154" s="2"/>
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
     </row>
     <row r="155" ht="18" customHeight="1">
-      <c r="A155" s="2"/>
-      <c r="B155" s="2"/>
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
     </row>
     <row r="156" ht="18" customHeight="1">
-      <c r="A156" s="2"/>
-      <c r="B156" s="2"/>
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
     </row>
     <row r="157" ht="18" customHeight="1">
-      <c r="A157" s="2"/>
-      <c r="B157" s="2"/>
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
     </row>
     <row r="158" ht="18" customHeight="1">
-      <c r="A158" s="2"/>
-      <c r="B158" s="2"/>
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
     </row>
     <row r="159" ht="18" customHeight="1">
-      <c r="A159" s="2"/>
-      <c r="B159" s="2"/>
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
     </row>
     <row r="160" ht="18" customHeight="1">
-      <c r="A160" s="2"/>
-      <c r="B160" s="2"/>
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
     </row>
     <row r="161" ht="18" customHeight="1">
-      <c r="A161" s="2"/>
-      <c r="B161" s="2"/>
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
     </row>
     <row r="162" ht="18" customHeight="1">
-      <c r="A162" s="2"/>
-      <c r="B162" s="2"/>
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
     </row>
     <row r="163" ht="18" customHeight="1">
-      <c r="A163" s="2"/>
-      <c r="B163" s="2"/>
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
     </row>
     <row r="164" ht="18" customHeight="1">
-      <c r="A164" s="2"/>
-      <c r="B164" s="2"/>
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
     </row>
     <row r="165" ht="18" customHeight="1">
-      <c r="A165" s="2"/>
-      <c r="B165" s="2"/>
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
     </row>
     <row r="166" ht="18" customHeight="1">
-      <c r="A166" s="2"/>
-      <c r="B166" s="2"/>
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
     </row>
     <row r="167" ht="18" customHeight="1">
-      <c r="A167" s="2"/>
-      <c r="B167" s="2"/>
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
     </row>
     <row r="168" ht="18" customHeight="1">
-      <c r="A168" s="2"/>
-      <c r="B168" s="2"/>
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
     </row>
     <row r="169" ht="18" customHeight="1">
-      <c r="A169" s="2"/>
-      <c r="B169" s="2"/>
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
     </row>
     <row r="170" ht="18" customHeight="1">
-      <c r="A170" s="2"/>
-      <c r="B170" s="2"/>
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
     </row>
     <row r="171" ht="18" customHeight="1">
-      <c r="A171" s="2"/>
-      <c r="B171" s="2"/>
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
     </row>
     <row r="172" ht="18" customHeight="1">
-      <c r="A172" s="2"/>
-      <c r="B172" s="2"/>
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
     </row>
     <row r="173" ht="18" customHeight="1">
-      <c r="A173" s="2"/>
-      <c r="B173" s="2"/>
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
     </row>
     <row r="174" ht="18" customHeight="1">
-      <c r="A174" s="2"/>
-      <c r="B174" s="2"/>
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
     </row>
     <row r="175" ht="18" customHeight="1">
-      <c r="A175" s="2"/>
-      <c r="B175" s="2"/>
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
     </row>
     <row r="176" ht="18" customHeight="1">
-      <c r="A176" s="2"/>
-      <c r="B176" s="2"/>
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
     </row>
     <row r="177" ht="18" customHeight="1">
-      <c r="A177" s="2"/>
-      <c r="B177" s="2"/>
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
     </row>
     <row r="178" ht="18" customHeight="1">
-      <c r="A178" s="2"/>
-      <c r="B178" s="2"/>
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
     </row>
     <row r="179" ht="18" customHeight="1">
-      <c r="A179" s="2"/>
-      <c r="B179" s="2"/>
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
     </row>
     <row r="180" ht="18" customHeight="1">
-      <c r="A180" s="2"/>
-      <c r="B180" s="2"/>
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
     </row>
     <row r="181" ht="18" customHeight="1">
-      <c r="A181" s="2"/>
-      <c r="B181" s="2"/>
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
     </row>
     <row r="182" ht="18" customHeight="1">
-      <c r="A182" s="2"/>
-      <c r="B182" s="2"/>
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
     </row>
     <row r="183" ht="18" customHeight="1">
-      <c r="A183" s="2"/>
-      <c r="B183" s="2"/>
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
     </row>
     <row r="184" ht="18" customHeight="1">
-      <c r="A184" s="2"/>
-      <c r="B184" s="2"/>
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
     </row>
     <row r="185" ht="18" customHeight="1">
-      <c r="A185" s="2"/>
-      <c r="B185" s="2"/>
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
     </row>
     <row r="186" ht="18" customHeight="1">
-      <c r="A186" s="2"/>
-      <c r="B186" s="2"/>
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
     </row>
     <row r="187" ht="18" customHeight="1">
-      <c r="A187" s="2"/>
-      <c r="B187" s="2"/>
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
     </row>
     <row r="188" ht="18" customHeight="1">
-      <c r="A188" s="2"/>
-      <c r="B188" s="2"/>
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
     </row>
     <row r="189" ht="18" customHeight="1">
-      <c r="A189" s="2"/>
-      <c r="B189" s="2"/>
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
     </row>
     <row r="190" ht="18" customHeight="1">
-      <c r="A190" s="2"/>
-      <c r="B190" s="2"/>
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
     </row>
     <row r="191" ht="18" customHeight="1">
-      <c r="A191" s="2"/>
-      <c r="B191" s="2"/>
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
     </row>
     <row r="192" ht="18" customHeight="1">
-      <c r="A192" s="2"/>
-      <c r="B192" s="2"/>
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
     </row>
     <row r="193" ht="18" customHeight="1">
-      <c r="A193" s="2"/>
-      <c r="B193" s="2"/>
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
     </row>
     <row r="194" ht="18" customHeight="1">
-      <c r="A194" s="2"/>
-      <c r="B194" s="2"/>
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
     </row>
     <row r="195" ht="18" customHeight="1">
-      <c r="A195" s="2"/>
-      <c r="B195" s="2"/>
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
     </row>
     <row r="196" ht="18" customHeight="1">
-      <c r="A196" s="2"/>
-      <c r="B196" s="2"/>
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
     </row>
     <row r="197" ht="18" customHeight="1">
-      <c r="A197" s="2"/>
-      <c r="B197" s="2"/>
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
     </row>
     <row r="198" ht="18" customHeight="1">
-      <c r="A198" s="2"/>
-      <c r="B198" s="2"/>
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
     </row>
     <row r="199" ht="18" customHeight="1">
-      <c r="A199" s="2"/>
-      <c r="B199" s="2"/>
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
     </row>
     <row r="200" ht="18" customHeight="1">
-      <c r="A200" s="2"/>
-      <c r="B200" s="2"/>
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
     </row>
     <row r="201" ht="18" customHeight="1">
-      <c r="A201" s="2"/>
-      <c r="B201" s="2"/>
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
     </row>
     <row r="202" ht="18" customHeight="1">
-      <c r="A202" s="2"/>
-      <c r="B202" s="2"/>
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
     </row>
     <row r="203" ht="18" customHeight="1">
-      <c r="A203" s="2"/>
-      <c r="B203" s="2"/>
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
     </row>
     <row r="204" ht="18" customHeight="1">
-      <c r="A204" s="2"/>
-      <c r="B204" s="2"/>
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
     </row>
     <row r="205" ht="18" customHeight="1">
-      <c r="A205" s="2"/>
-      <c r="B205" s="2"/>
+      <c r="A205" s="1"/>
+      <c r="B205" s="1"/>
     </row>
     <row r="206" ht="18" customHeight="1">
-      <c r="A206" s="2"/>
-      <c r="B206" s="2"/>
+      <c r="A206" s="1"/>
+      <c r="B206" s="1"/>
     </row>
     <row r="207" ht="18" customHeight="1">
-      <c r="A207" s="2"/>
-      <c r="B207" s="2"/>
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
     </row>
     <row r="208" ht="18" customHeight="1">
-      <c r="A208" s="2"/>
-      <c r="B208" s="2"/>
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
     </row>
     <row r="209" ht="18" customHeight="1">
-      <c r="A209" s="2"/>
-      <c r="B209" s="2"/>
+      <c r="A209" s="1"/>
+      <c r="B209" s="1"/>
     </row>
     <row r="210" ht="18" customHeight="1">
-      <c r="A210" s="2"/>
-      <c r="B210" s="2"/>
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
     </row>
     <row r="211" ht="18" customHeight="1">
-      <c r="A211" s="2"/>
-      <c r="B211" s="2"/>
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
     </row>
     <row r="212" ht="18" customHeight="1">
-      <c r="A212" s="2"/>
-      <c r="B212" s="2"/>
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
     </row>
     <row r="213" ht="18" customHeight="1">
-      <c r="A213" s="2"/>
-      <c r="B213" s="2"/>
+      <c r="A213" s="1"/>
+      <c r="B213" s="1"/>
     </row>
     <row r="214" ht="18" customHeight="1">
-      <c r="A214" s="2"/>
-      <c r="B214" s="2"/>
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
     </row>
     <row r="215" ht="18" customHeight="1">
-      <c r="A215" s="2"/>
-      <c r="B215" s="2"/>
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
     </row>
     <row r="216" ht="18" customHeight="1">
-      <c r="A216" s="2"/>
-      <c r="B216" s="2"/>
+      <c r="A216" s="1"/>
+      <c r="B216" s="1"/>
     </row>
     <row r="217" ht="18" customHeight="1">
-      <c r="A217" s="2"/>
-      <c r="B217" s="2"/>
+      <c r="A217" s="1"/>
+      <c r="B217" s="1"/>
     </row>
     <row r="218" ht="18" customHeight="1">
-      <c r="A218" s="2"/>
-      <c r="B218" s="2"/>
+      <c r="A218" s="1"/>
+      <c r="B218" s="1"/>
     </row>
     <row r="219" ht="18" customHeight="1">
-      <c r="A219" s="2"/>
-      <c r="B219" s="2"/>
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
     </row>
     <row r="220" ht="18" customHeight="1">
-      <c r="A220" s="2"/>
-      <c r="B220" s="2"/>
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
     </row>
     <row r="221" ht="18" customHeight="1">
-      <c r="A221" s="2"/>
-      <c r="B221" s="2"/>
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
     </row>
     <row r="222" ht="18" customHeight="1">
-      <c r="A222" s="2"/>
-      <c r="B222" s="2"/>
+      <c r="A222" s="1"/>
+      <c r="B222" s="1"/>
     </row>
     <row r="223" ht="18" customHeight="1">
-      <c r="A223" s="2"/>
-      <c r="B223" s="2"/>
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
     </row>
     <row r="224" ht="18" customHeight="1">
-      <c r="A224" s="2"/>
-      <c r="B224" s="2"/>
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
     </row>
     <row r="225" ht="18" customHeight="1">
-      <c r="A225" s="2"/>
-      <c r="B225" s="2"/>
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
     </row>
     <row r="226" ht="18" customHeight="1">
-      <c r="A226" s="2"/>
-      <c r="B226" s="2"/>
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
     </row>
     <row r="227" ht="18" customHeight="1">
-      <c r="A227" s="2"/>
-      <c r="B227" s="2"/>
+      <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
     </row>
     <row r="228" ht="18" customHeight="1">
-      <c r="A228" s="2"/>
-      <c r="B228" s="2"/>
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
     </row>
     <row r="229" ht="18" customHeight="1">
-      <c r="A229" s="2"/>
-      <c r="B229" s="2"/>
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
     </row>
     <row r="230" ht="18" customHeight="1">
-      <c r="A230" s="2"/>
-      <c r="B230" s="2"/>
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
     </row>
     <row r="231" ht="18" customHeight="1">
-      <c r="A231" s="2"/>
-      <c r="B231" s="2"/>
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
     </row>
     <row r="232" ht="18" customHeight="1">
-      <c r="A232" s="2"/>
-      <c r="B232" s="2"/>
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
     </row>
     <row r="233" ht="18" customHeight="1">
-      <c r="A233" s="2"/>
-      <c r="B233" s="2"/>
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
     </row>
     <row r="234" ht="18" customHeight="1">
-      <c r="A234" s="2"/>
-      <c r="B234" s="2"/>
+      <c r="A234" s="1"/>
+      <c r="B234" s="1"/>
     </row>
     <row r="235" ht="18" customHeight="1">
-      <c r="A235" s="2"/>
-      <c r="B235" s="2"/>
+      <c r="A235" s="1"/>
+      <c r="B235" s="1"/>
     </row>
     <row r="236" ht="18" customHeight="1">
-      <c r="A236" s="2"/>
-      <c r="B236" s="2"/>
+      <c r="A236" s="1"/>
+      <c r="B236" s="1"/>
     </row>
     <row r="237" ht="18" customHeight="1">
-      <c r="A237" s="2"/>
-      <c r="B237" s="2"/>
+      <c r="A237" s="1"/>
+      <c r="B237" s="1"/>
     </row>
     <row r="238" ht="18" customHeight="1">
-      <c r="A238" s="2"/>
-      <c r="B238" s="2"/>
+      <c r="A238" s="1"/>
+      <c r="B238" s="1"/>
     </row>
     <row r="239" ht="18" customHeight="1">
-      <c r="A239" s="2"/>
-      <c r="B239" s="2"/>
+      <c r="A239" s="1"/>
+      <c r="B239" s="1"/>
     </row>
     <row r="240" ht="18" customHeight="1">
-      <c r="A240" s="2"/>
-      <c r="B240" s="2"/>
+      <c r="A240" s="1"/>
+      <c r="B240" s="1"/>
     </row>
     <row r="241" ht="18" customHeight="1">
-      <c r="A241" s="2"/>
-      <c r="B241" s="2"/>
+      <c r="A241" s="1"/>
+      <c r="B241" s="1"/>
     </row>
     <row r="242" ht="18" customHeight="1">
-      <c r="A242" s="2"/>
-      <c r="B242" s="2"/>
+      <c r="A242" s="1"/>
+      <c r="B242" s="1"/>
     </row>
     <row r="243" ht="18" customHeight="1">
-      <c r="A243" s="2"/>
-      <c r="B243" s="2"/>
+      <c r="A243" s="1"/>
+      <c r="B243" s="1"/>
     </row>
     <row r="244" ht="18" customHeight="1">
-      <c r="A244" s="2"/>
-      <c r="B244" s="2"/>
+      <c r="A244" s="1"/>
+      <c r="B244" s="1"/>
     </row>
     <row r="245" ht="18" customHeight="1">
-      <c r="A245" s="2"/>
-      <c r="B245" s="2"/>
+      <c r="A245" s="1"/>
+      <c r="B245" s="1"/>
     </row>
     <row r="246" ht="18" customHeight="1">
-      <c r="A246" s="2"/>
-      <c r="B246" s="2"/>
+      <c r="A246" s="1"/>
+      <c r="B246" s="1"/>
     </row>
     <row r="247" ht="18" customHeight="1">
-      <c r="A247" s="2"/>
-      <c r="B247" s="2"/>
+      <c r="A247" s="1"/>
+      <c r="B247" s="1"/>
     </row>
     <row r="248" ht="18" customHeight="1">
-      <c r="A248" s="2"/>
-      <c r="B248" s="2"/>
+      <c r="A248" s="1"/>
+      <c r="B248" s="1"/>
     </row>
     <row r="249" ht="18" customHeight="1">
-      <c r="A249" s="2"/>
-      <c r="B249" s="2"/>
+      <c r="A249" s="1"/>
+      <c r="B249" s="1"/>
     </row>
     <row r="250" ht="18" customHeight="1">
-      <c r="A250" s="2"/>
-      <c r="B250" s="2"/>
+      <c r="A250" s="1"/>
+      <c r="B250" s="1"/>
     </row>
     <row r="251" ht="18" customHeight="1">
-      <c r="A251" s="2"/>
-      <c r="B251" s="2"/>
+      <c r="A251" s="1"/>
+      <c r="B251" s="1"/>
     </row>
     <row r="252" ht="18" customHeight="1">
-      <c r="A252" s="2"/>
-      <c r="B252" s="2"/>
+      <c r="A252" s="1"/>
+      <c r="B252" s="1"/>
     </row>
     <row r="253" ht="18" customHeight="1">
-      <c r="A253" s="2"/>
-      <c r="B253" s="2"/>
+      <c r="A253" s="1"/>
+      <c r="B253" s="1"/>
     </row>
     <row r="254" ht="18" customHeight="1">
-      <c r="A254" s="2"/>
-      <c r="B254" s="2"/>
+      <c r="A254" s="1"/>
+      <c r="B254" s="1"/>
     </row>
     <row r="255" ht="18" customHeight="1">
-      <c r="A255" s="2"/>
-      <c r="B255" s="2"/>
+      <c r="A255" s="1"/>
+      <c r="B255" s="1"/>
     </row>
     <row r="256" ht="18" customHeight="1">
-      <c r="A256" s="2"/>
-      <c r="B256" s="2"/>
+      <c r="A256" s="1"/>
+      <c r="B256" s="1"/>
     </row>
     <row r="257" ht="18" customHeight="1">
-      <c r="A257" s="2"/>
-      <c r="B257" s="2"/>
+      <c r="A257" s="1"/>
+      <c r="B257" s="1"/>
     </row>
     <row r="258" ht="18" customHeight="1">
-      <c r="A258" s="2"/>
-      <c r="B258" s="2"/>
+      <c r="A258" s="1"/>
+      <c r="B258" s="1"/>
     </row>
     <row r="259" ht="18" customHeight="1">
-      <c r="A259" s="2"/>
-      <c r="B259" s="2"/>
+      <c r="A259" s="1"/>
+      <c r="B259" s="1"/>
     </row>
     <row r="260" ht="18" customHeight="1">
-      <c r="A260" s="2"/>
-      <c r="B260" s="2"/>
+      <c r="A260" s="1"/>
+      <c r="B260" s="1"/>
     </row>
     <row r="261" ht="18" customHeight="1">
-      <c r="A261" s="2"/>
-      <c r="B261" s="2"/>
+      <c r="A261" s="1"/>
+      <c r="B261" s="1"/>
     </row>
     <row r="262" ht="18" customHeight="1">
-      <c r="A262" s="2"/>
-      <c r="B262" s="2"/>
+      <c r="A262" s="1"/>
+      <c r="B262" s="1"/>
     </row>
     <row r="263" ht="18" customHeight="1">
-      <c r="A263" s="2"/>
-      <c r="B263" s="2"/>
+      <c r="A263" s="1"/>
+      <c r="B263" s="1"/>
     </row>
     <row r="264" ht="18" customHeight="1">
-      <c r="A264" s="2"/>
-      <c r="B264" s="2"/>
+      <c r="A264" s="1"/>
+      <c r="B264" s="1"/>
     </row>
     <row r="265" ht="18" customHeight="1">
-      <c r="A265" s="2"/>
-      <c r="B265" s="2"/>
+      <c r="A265" s="1"/>
+      <c r="B265" s="1"/>
     </row>
     <row r="266" ht="18" customHeight="1">
-      <c r="A266" s="2"/>
-      <c r="B266" s="2"/>
+      <c r="A266" s="1"/>
+      <c r="B266" s="1"/>
     </row>
     <row r="267" ht="18" customHeight="1">
-      <c r="A267" s="2"/>
-      <c r="B267" s="2"/>
+      <c r="A267" s="1"/>
+      <c r="B267" s="1"/>
     </row>
     <row r="268" ht="18" customHeight="1">
-      <c r="A268" s="2"/>
-      <c r="B268" s="2"/>
+      <c r="A268" s="1"/>
+      <c r="B268" s="1"/>
     </row>
     <row r="269" ht="18" customHeight="1">
-      <c r="A269" s="2"/>
-      <c r="B269" s="2"/>
+      <c r="A269" s="1"/>
+      <c r="B269" s="1"/>
     </row>
     <row r="270" ht="18" customHeight="1">
-      <c r="A270" s="2"/>
-      <c r="B270" s="2"/>
+      <c r="A270" s="1"/>
+      <c r="B270" s="1"/>
     </row>
     <row r="271" ht="18" customHeight="1">
-      <c r="A271" s="2"/>
-      <c r="B271" s="2"/>
+      <c r="A271" s="1"/>
+      <c r="B271" s="1"/>
     </row>
     <row r="272" ht="18" customHeight="1">
-      <c r="A272" s="2"/>
-      <c r="B272" s="2"/>
+      <c r="A272" s="1"/>
+      <c r="B272" s="1"/>
     </row>
     <row r="273" ht="18" customHeight="1">
-      <c r="A273" s="2"/>
-      <c r="B273" s="2"/>
+      <c r="A273" s="1"/>
+      <c r="B273" s="1"/>
     </row>
     <row r="274" ht="18" customHeight="1">
-      <c r="A274" s="2"/>
-      <c r="B274" s="2"/>
+      <c r="A274" s="1"/>
+      <c r="B274" s="1"/>
     </row>
     <row r="275" ht="18" customHeight="1">
-      <c r="A275" s="2"/>
-      <c r="B275" s="2"/>
+      <c r="A275" s="1"/>
+      <c r="B275" s="1"/>
     </row>
     <row r="276" ht="18" customHeight="1">
-      <c r="A276" s="2"/>
-      <c r="B276" s="2"/>
+      <c r="A276" s="1"/>
+      <c r="B276" s="1"/>
     </row>
     <row r="277" ht="18" customHeight="1">
-      <c r="A277" s="2"/>
-      <c r="B277" s="2"/>
+      <c r="A277" s="1"/>
+      <c r="B277" s="1"/>
     </row>
     <row r="278" ht="18" customHeight="1">
-      <c r="A278" s="2"/>
-      <c r="B278" s="2"/>
+      <c r="A278" s="1"/>
+      <c r="B278" s="1"/>
     </row>
     <row r="279" ht="18" customHeight="1">
-      <c r="A279" s="2"/>
-      <c r="B279" s="2"/>
+      <c r="A279" s="1"/>
+      <c r="B279" s="1"/>
     </row>
     <row r="280" ht="18" customHeight="1">
-      <c r="A280" s="2"/>
-      <c r="B280" s="2"/>
+      <c r="A280" s="1"/>
+      <c r="B280" s="1"/>
     </row>
     <row r="281" ht="18" customHeight="1">
-      <c r="A281" s="2"/>
-      <c r="B281" s="2"/>
+      <c r="A281" s="1"/>
+      <c r="B281" s="1"/>
     </row>
     <row r="282" ht="18" customHeight="1">
-      <c r="A282" s="2"/>
-      <c r="B282" s="2"/>
+      <c r="A282" s="1"/>
+      <c r="B282" s="1"/>
     </row>
     <row r="283" ht="18" customHeight="1">
-      <c r="A283" s="2"/>
-      <c r="B283" s="2"/>
+      <c r="A283" s="1"/>
+      <c r="B283" s="1"/>
     </row>
     <row r="284" ht="18" customHeight="1">
-      <c r="A284" s="2"/>
-      <c r="B284" s="2"/>
+      <c r="A284" s="1"/>
+      <c r="B284" s="1"/>
     </row>
     <row r="285" ht="18" customHeight="1">
-      <c r="A285" s="2"/>
-      <c r="B285" s="2"/>
+      <c r="A285" s="1"/>
+      <c r="B285" s="1"/>
     </row>
     <row r="286" ht="18" customHeight="1">
-      <c r="A286" s="2"/>
-      <c r="B286" s="2"/>
+      <c r="A286" s="1"/>
+      <c r="B286" s="1"/>
     </row>
     <row r="287" ht="18" customHeight="1">
-      <c r="A287" s="2"/>
-      <c r="B287" s="2"/>
+      <c r="A287" s="1"/>
+      <c r="B287" s="1"/>
     </row>
     <row r="288" ht="18" customHeight="1">
-      <c r="A288" s="2"/>
-      <c r="B288" s="2"/>
+      <c r="A288" s="1"/>
+      <c r="B288" s="1"/>
     </row>
     <row r="289" ht="18" customHeight="1">
-      <c r="A289" s="2"/>
-      <c r="B289" s="2"/>
+      <c r="A289" s="1"/>
+      <c r="B289" s="1"/>
     </row>
     <row r="290" ht="18" customHeight="1">
-      <c r="A290" s="2"/>
-      <c r="B290" s="2"/>
+      <c r="A290" s="1"/>
+      <c r="B290" s="1"/>
     </row>
     <row r="291" ht="18" customHeight="1">
-      <c r="A291" s="2"/>
-      <c r="B291" s="2"/>
+      <c r="A291" s="1"/>
+      <c r="B291" s="1"/>
     </row>
     <row r="292" ht="18" customHeight="1">
-      <c r="A292" s="2"/>
-      <c r="B292" s="2"/>
+      <c r="A292" s="1"/>
+      <c r="B292" s="1"/>
     </row>
     <row r="293" ht="18" customHeight="1">
-      <c r="A293" s="2"/>
-      <c r="B293" s="2"/>
+      <c r="A293" s="1"/>
+      <c r="B293" s="1"/>
     </row>
     <row r="294" ht="18" customHeight="1">
-      <c r="A294" s="2"/>
-      <c r="B294" s="2"/>
+      <c r="A294" s="1"/>
+      <c r="B294" s="1"/>
     </row>
     <row r="295" ht="18" customHeight="1">
-      <c r="A295" s="2"/>
-      <c r="B295" s="2"/>
+      <c r="A295" s="1"/>
+      <c r="B295" s="1"/>
     </row>
     <row r="296" ht="18" customHeight="1">
-      <c r="A296" s="2"/>
-      <c r="B296" s="2"/>
+      <c r="A296" s="1"/>
+      <c r="B296" s="1"/>
     </row>
     <row r="297" ht="18" customHeight="1">
-      <c r="A297" s="2"/>
-      <c r="B297" s="2"/>
+      <c r="A297" s="1"/>
+      <c r="B297" s="1"/>
     </row>
     <row r="298" ht="18" customHeight="1">
-      <c r="A298" s="2"/>
-      <c r="B298" s="2"/>
+      <c r="A298" s="1"/>
+      <c r="B298" s="1"/>
     </row>
     <row r="299" ht="18" customHeight="1">
-      <c r="A299" s="2"/>
-      <c r="B299" s="2"/>
+      <c r="A299" s="1"/>
+      <c r="B299" s="1"/>
     </row>
     <row r="300" ht="18" customHeight="1">
-      <c r="A300" s="2"/>
-      <c r="B300" s="2"/>
+      <c r="A300" s="1"/>
+      <c r="B300" s="1"/>
     </row>
     <row r="301" ht="18" customHeight="1">
-      <c r="A301" s="2"/>
-      <c r="B301" s="2"/>
+      <c r="A301" s="1"/>
+      <c r="B301" s="1"/>
     </row>
     <row r="302" ht="18" customHeight="1">
-      <c r="A302" s="2"/>
-      <c r="B302" s="2"/>
+      <c r="A302" s="1"/>
+      <c r="B302" s="1"/>
     </row>
     <row r="303" ht="18" customHeight="1">
-      <c r="A303" s="2"/>
-      <c r="B303" s="2"/>
+      <c r="A303" s="1"/>
+      <c r="B303" s="1"/>
     </row>
     <row r="304" ht="18" customHeight="1">
-      <c r="A304" s="2"/>
-      <c r="B304" s="2"/>
+      <c r="A304" s="1"/>
+      <c r="B304" s="1"/>
     </row>
     <row r="305" ht="18" customHeight="1">
-      <c r="A305" s="2"/>
-      <c r="B305" s="2"/>
+      <c r="A305" s="1"/>
+      <c r="B305" s="1"/>
     </row>
     <row r="306" ht="18" customHeight="1">
-      <c r="A306" s="2"/>
-      <c r="B306" s="2"/>
+      <c r="A306" s="1"/>
+      <c r="B306" s="1"/>
     </row>
     <row r="307" ht="18" customHeight="1">
-      <c r="A307" s="2"/>
-      <c r="B307" s="2"/>
+      <c r="A307" s="1"/>
+      <c r="B307" s="1"/>
     </row>
     <row r="308" ht="18" customHeight="1">
-      <c r="A308" s="2"/>
-      <c r="B308" s="2"/>
+      <c r="A308" s="1"/>
+      <c r="B308" s="1"/>
     </row>
     <row r="309" ht="18" customHeight="1">
-      <c r="A309" s="2"/>
-      <c r="B309" s="2"/>
+      <c r="A309" s="1"/>
+      <c r="B309" s="1"/>
     </row>
     <row r="310" ht="18" customHeight="1">
-      <c r="A310" s="2"/>
-      <c r="B310" s="2"/>
+      <c r="A310" s="1"/>
+      <c r="B310" s="1"/>
     </row>
     <row r="311" ht="18" customHeight="1">
-      <c r="A311" s="2"/>
-      <c r="B311" s="2"/>
+      <c r="A311" s="1"/>
+      <c r="B311" s="1"/>
     </row>
     <row r="312" ht="18" customHeight="1">
-      <c r="A312" s="2"/>
-      <c r="B312" s="2"/>
+      <c r="A312" s="1"/>
+      <c r="B312" s="1"/>
     </row>
     <row r="313" ht="18" customHeight="1">
-      <c r="A313" s="2"/>
-      <c r="B313" s="2"/>
+      <c r="A313" s="1"/>
+      <c r="B313" s="1"/>
     </row>
     <row r="314" ht="18" customHeight="1">
-      <c r="A314" s="2"/>
-      <c r="B314" s="2"/>
+      <c r="A314" s="1"/>
+      <c r="B314" s="1"/>
     </row>
     <row r="315" ht="18" customHeight="1">
-      <c r="A315" s="2"/>
-      <c r="B315" s="2"/>
+      <c r="A315" s="1"/>
+      <c r="B315" s="1"/>
     </row>
     <row r="316" ht="18" customHeight="1">
-      <c r="A316" s="2"/>
-      <c r="B316" s="2"/>
+      <c r="A316" s="1"/>
+      <c r="B316" s="1"/>
     </row>
     <row r="317" ht="18" customHeight="1">
-      <c r="A317" s="2"/>
-      <c r="B317" s="2"/>
+      <c r="A317" s="1"/>
+      <c r="B317" s="1"/>
     </row>
     <row r="318" ht="18" customHeight="1">
-      <c r="A318" s="2"/>
-      <c r="B318" s="2"/>
+      <c r="A318" s="1"/>
+      <c r="B318" s="1"/>
     </row>
     <row r="319" ht="18" customHeight="1">
-      <c r="A319" s="2"/>
-      <c r="B319" s="2"/>
+      <c r="A319" s="1"/>
+      <c r="B319" s="1"/>
     </row>
     <row r="320" ht="18" customHeight="1">
-      <c r="A320" s="2"/>
-      <c r="B320" s="2"/>
+      <c r="A320" s="1"/>
+      <c r="B320" s="1"/>
     </row>
     <row r="321" ht="18" customHeight="1">
-      <c r="A321" s="2"/>
-      <c r="B321" s="2"/>
+      <c r="A321" s="1"/>
+      <c r="B321" s="1"/>
     </row>
     <row r="322" ht="18" customHeight="1">
-      <c r="A322" s="2"/>
-      <c r="B322" s="2"/>
+      <c r="A322" s="1"/>
+      <c r="B322" s="1"/>
     </row>
     <row r="323" ht="18" customHeight="1">
-      <c r="A323" s="2"/>
-      <c r="B323" s="2"/>
+      <c r="A323" s="1"/>
+      <c r="B323" s="1"/>
     </row>
     <row r="324" ht="18" customHeight="1">
-      <c r="A324" s="2"/>
-      <c r="B324" s="2"/>
+      <c r="A324" s="1"/>
+      <c r="B324" s="1"/>
     </row>
     <row r="325" ht="18" customHeight="1">
-      <c r="A325" s="2"/>
-      <c r="B325" s="2"/>
+      <c r="A325" s="1"/>
+      <c r="B325" s="1"/>
     </row>
     <row r="326" ht="18" customHeight="1">
-      <c r="A326" s="2"/>
-      <c r="B326" s="2"/>
+      <c r="A326" s="1"/>
+      <c r="B326" s="1"/>
     </row>
     <row r="327" ht="18" customHeight="1">
-      <c r="A327" s="2"/>
-      <c r="B327" s="2"/>
+      <c r="A327" s="1"/>
+      <c r="B327" s="1"/>
     </row>
     <row r="328" ht="18" customHeight="1">
-      <c r="A328" s="2"/>
-      <c r="B328" s="2"/>
+      <c r="A328" s="1"/>
+      <c r="B328" s="1"/>
     </row>
     <row r="329" ht="18" customHeight="1">
-      <c r="A329" s="2"/>
-      <c r="B329" s="2"/>
+      <c r="A329" s="1"/>
+      <c r="B329" s="1"/>
     </row>
     <row r="330" ht="18" customHeight="1">
-      <c r="A330" s="2"/>
-      <c r="B330" s="2"/>
+      <c r="A330" s="1"/>
+      <c r="B330" s="1"/>
     </row>
     <row r="331" ht="18" customHeight="1">
-      <c r="A331" s="2"/>
-      <c r="B331" s="2"/>
+      <c r="A331" s="1"/>
+      <c r="B331" s="1"/>
     </row>
     <row r="332" ht="18" customHeight="1">
-      <c r="A332" s="2"/>
-      <c r="B332" s="2"/>
+      <c r="A332" s="1"/>
+      <c r="B332" s="1"/>
     </row>
     <row r="333" ht="18" customHeight="1">
-      <c r="A333" s="2"/>
-      <c r="B333" s="2"/>
+      <c r="A333" s="1"/>
+      <c r="B333" s="1"/>
     </row>
     <row r="334" ht="18" customHeight="1">
-      <c r="A334" s="2"/>
-      <c r="B334" s="2"/>
+      <c r="A334" s="1"/>
+      <c r="B334" s="1"/>
     </row>
     <row r="335" ht="18" customHeight="1">
-      <c r="A335" s="2"/>
-      <c r="B335" s="2"/>
+      <c r="A335" s="1"/>
+      <c r="B335" s="1"/>
     </row>
     <row r="336" ht="18" customHeight="1">
-      <c r="A336" s="2"/>
-      <c r="B336" s="2"/>
+      <c r="A336" s="1"/>
+      <c r="B336" s="1"/>
     </row>
     <row r="337" ht="18" customHeight="1">
-      <c r="A337" s="2"/>
-      <c r="B337" s="2"/>
+      <c r="A337" s="1"/>
+      <c r="B337" s="1"/>
     </row>
     <row r="338" ht="18" customHeight="1">
-      <c r="A338" s="2"/>
-      <c r="B338" s="2"/>
+      <c r="A338" s="1"/>
+      <c r="B338" s="1"/>
     </row>
     <row r="339" ht="18" customHeight="1">
-      <c r="A339" s="2"/>
-      <c r="B339" s="2"/>
+      <c r="A339" s="1"/>
+      <c r="B339" s="1"/>
     </row>
     <row r="340" ht="18" customHeight="1">
-      <c r="A340" s="2"/>
-      <c r="B340" s="2"/>
+      <c r="A340" s="1"/>
+      <c r="B340" s="1"/>
     </row>
     <row r="341" ht="18" customHeight="1">
-      <c r="A341" s="2"/>
-      <c r="B341" s="2"/>
+      <c r="A341" s="1"/>
+      <c r="B341" s="1"/>
     </row>
     <row r="342" ht="18" customHeight="1">
-      <c r="A342" s="2"/>
-      <c r="B342" s="2"/>
+      <c r="A342" s="1"/>
+      <c r="B342" s="1"/>
     </row>
     <row r="343" ht="18" customHeight="1">
-      <c r="A343" s="2"/>
-      <c r="B343" s="2"/>
+      <c r="A343" s="1"/>
+      <c r="B343" s="1"/>
     </row>
     <row r="344" ht="18" customHeight="1">
-      <c r="A344" s="2"/>
-      <c r="B344" s="2"/>
+      <c r="A344" s="1"/>
+      <c r="B344" s="1"/>
     </row>
     <row r="345" ht="18" customHeight="1">
-      <c r="A345" s="2"/>
-      <c r="B345" s="2"/>
+      <c r="A345" s="1"/>
+      <c r="B345" s="1"/>
     </row>
     <row r="346" ht="18" customHeight="1">
-      <c r="A346" s="2"/>
-      <c r="B346" s="2"/>
+      <c r="A346" s="1"/>
+      <c r="B346" s="1"/>
     </row>
     <row r="347" ht="18" customHeight="1">
-      <c r="A347" s="2"/>
-      <c r="B347" s="2"/>
+      <c r="A347" s="1"/>
+      <c r="B347" s="1"/>
     </row>
     <row r="348" ht="18" customHeight="1">
-      <c r="A348" s="2"/>
-      <c r="B348" s="2"/>
+      <c r="A348" s="1"/>
+      <c r="B348" s="1"/>
     </row>
     <row r="349" ht="18" customHeight="1">
-      <c r="A349" s="2"/>
-      <c r="B349" s="2"/>
+      <c r="A349" s="1"/>
+      <c r="B349" s="1"/>
     </row>
     <row r="350" ht="18" customHeight="1">
-      <c r="A350" s="2"/>
-      <c r="B350" s="2"/>
+      <c r="A350" s="1"/>
+      <c r="B350" s="1"/>
     </row>
     <row r="351" ht="18" customHeight="1">
-      <c r="A351" s="2"/>
-      <c r="B351" s="2"/>
+      <c r="A351" s="1"/>
+      <c r="B351" s="1"/>
     </row>
     <row r="352" ht="18" customHeight="1">
-      <c r="A352" s="2"/>
-      <c r="B352" s="2"/>
+      <c r="A352" s="1"/>
+      <c r="B352" s="1"/>
     </row>
     <row r="353" ht="18" customHeight="1">
-      <c r="A353" s="2"/>
-      <c r="B353" s="2"/>
+      <c r="A353" s="1"/>
+      <c r="B353" s="1"/>
     </row>
     <row r="354" ht="18" customHeight="1">
-      <c r="A354" s="2"/>
-      <c r="B354" s="2"/>
+      <c r="A354" s="1"/>
+      <c r="B354" s="1"/>
     </row>
     <row r="355" ht="18" customHeight="1">
-      <c r="A355" s="2"/>
-      <c r="B355" s="2"/>
+      <c r="A355" s="1"/>
+      <c r="B355" s="1"/>
     </row>
     <row r="356" ht="18" customHeight="1">
-      <c r="A356" s="2"/>
-      <c r="B356" s="2"/>
+      <c r="A356" s="1"/>
+      <c r="B356" s="1"/>
     </row>
     <row r="357" ht="18" customHeight="1">
-      <c r="A357" s="2"/>
-      <c r="B357" s="2"/>
+      <c r="A357" s="1"/>
+      <c r="B357" s="1"/>
     </row>
     <row r="358" ht="18" customHeight="1">
-      <c r="A358" s="2"/>
-      <c r="B358" s="2"/>
+      <c r="A358" s="1"/>
+      <c r="B358" s="1"/>
     </row>
     <row r="359" ht="18" customHeight="1">
-      <c r="A359" s="2"/>
-      <c r="B359" s="2"/>
+      <c r="A359" s="1"/>
+      <c r="B359" s="1"/>
     </row>
     <row r="360" ht="18" customHeight="1">
-      <c r="A360" s="2"/>
-      <c r="B360" s="2"/>
+      <c r="A360" s="1"/>
+      <c r="B360" s="1"/>
     </row>
     <row r="361" ht="18" customHeight="1">
-      <c r="A361" s="2"/>
-      <c r="B361" s="2"/>
+      <c r="A361" s="1"/>
+      <c r="B361" s="1"/>
     </row>
     <row r="362" ht="18" customHeight="1">
-      <c r="A362" s="2"/>
-      <c r="B362" s="2"/>
+      <c r="A362" s="1"/>
+      <c r="B362" s="1"/>
     </row>
     <row r="363" ht="18" customHeight="1">
-      <c r="A363" s="2"/>
-      <c r="B363" s="2"/>
+      <c r="A363" s="1"/>
+      <c r="B363" s="1"/>
     </row>
     <row r="364" ht="18" customHeight="1">
-      <c r="A364" s="2"/>
-      <c r="B364" s="2"/>
+      <c r="A364" s="1"/>
+      <c r="B364" s="1"/>
     </row>
     <row r="365" ht="18" customHeight="1">
-      <c r="A365" s="2"/>
-      <c r="B365" s="2"/>
+      <c r="A365" s="1"/>
+      <c r="B365" s="1"/>
     </row>
     <row r="366" ht="18" customHeight="1">
-      <c r="A366" s="2"/>
-      <c r="B366" s="2"/>
+      <c r="A366" s="1"/>
+      <c r="B366" s="1"/>
     </row>
     <row r="367" ht="18" customHeight="1">
-      <c r="A367" s="2"/>
-      <c r="B367" s="2"/>
+      <c r="A367" s="1"/>
+      <c r="B367" s="1"/>
     </row>
     <row r="368" ht="18" customHeight="1">
-      <c r="A368" s="2"/>
-      <c r="B368" s="2"/>
+      <c r="A368" s="1"/>
+      <c r="B368" s="1"/>
     </row>
     <row r="369" ht="18" customHeight="1">
-      <c r="A369" s="2"/>
-      <c r="B369" s="2"/>
+      <c r="A369" s="1"/>
+      <c r="B369" s="1"/>
     </row>
     <row r="370" ht="18" customHeight="1">
-      <c r="A370" s="2"/>
-      <c r="B370" s="2"/>
+      <c r="A370" s="1"/>
+      <c r="B370" s="1"/>
     </row>
     <row r="371" ht="18" customHeight="1">
-      <c r="A371" s="2"/>
-      <c r="B371" s="2"/>
+      <c r="A371" s="1"/>
+      <c r="B371" s="1"/>
     </row>
     <row r="372" ht="18" customHeight="1">
-      <c r="A372" s="2"/>
-      <c r="B372" s="2"/>
+      <c r="A372" s="1"/>
+      <c r="B372" s="1"/>
     </row>
     <row r="373" ht="18" customHeight="1">
-      <c r="A373" s="2"/>
-      <c r="B373" s="2"/>
+      <c r="A373" s="1"/>
+      <c r="B373" s="1"/>
     </row>
     <row r="374" ht="18" customHeight="1">
-      <c r="A374" s="2"/>
-      <c r="B374" s="2"/>
+      <c r="A374" s="1"/>
+      <c r="B374" s="1"/>
     </row>
     <row r="375" ht="18" customHeight="1">
-      <c r="A375" s="2"/>
-      <c r="B375" s="2"/>
+      <c r="A375" s="1"/>
+      <c r="B375" s="1"/>
     </row>
     <row r="376" ht="18" customHeight="1">
-      <c r="A376" s="2"/>
-      <c r="B376" s="2"/>
+      <c r="A376" s="1"/>
+      <c r="B376" s="1"/>
     </row>
     <row r="377" ht="18" customHeight="1">
-      <c r="A377" s="2"/>
-      <c r="B377" s="2"/>
+      <c r="A377" s="1"/>
+      <c r="B377" s="1"/>
     </row>
     <row r="378" ht="18" customHeight="1">
-      <c r="A378" s="2"/>
-      <c r="B378" s="2"/>
+      <c r="A378" s="1"/>
+      <c r="B378" s="1"/>
     </row>
     <row r="379" ht="18" customHeight="1">
-      <c r="A379" s="2"/>
-      <c r="B379" s="2"/>
+      <c r="A379" s="1"/>
+      <c r="B379" s="1"/>
     </row>
     <row r="380" ht="18" customHeight="1">
-      <c r="A380" s="2"/>
-      <c r="B380" s="2"/>
+      <c r="A380" s="1"/>
+      <c r="B380" s="1"/>
     </row>
     <row r="381" ht="18" customHeight="1">
-      <c r="A381" s="2"/>
-      <c r="B381" s="2"/>
+      <c r="A381" s="1"/>
+      <c r="B381" s="1"/>
     </row>
     <row r="382" ht="18" customHeight="1">
-      <c r="A382" s="2"/>
-      <c r="B382" s="2"/>
+      <c r="A382" s="1"/>
+      <c r="B382" s="1"/>
     </row>
     <row r="383" ht="18" customHeight="1">
-      <c r="A383" s="2"/>
-      <c r="B383" s="2"/>
+      <c r="A383" s="1"/>
+      <c r="B383" s="1"/>
     </row>
     <row r="384" ht="18" customHeight="1">
-      <c r="A384" s="2"/>
-      <c r="B384" s="2"/>
+      <c r="A384" s="1"/>
+      <c r="B384" s="1"/>
     </row>
     <row r="385" ht="18" customHeight="1">
-      <c r="A385" s="2"/>
-      <c r="B385" s="2"/>
+      <c r="A385" s="1"/>
+      <c r="B385" s="1"/>
     </row>
     <row r="386" ht="18" customHeight="1">
-      <c r="A386" s="2"/>
-      <c r="B386" s="2"/>
+      <c r="A386" s="1"/>
+      <c r="B386" s="1"/>
     </row>
     <row r="387" ht="18" customHeight="1">
-      <c r="A387" s="2"/>
-      <c r="B387" s="2"/>
+      <c r="A387" s="1"/>
+      <c r="B387" s="1"/>
     </row>
     <row r="388" ht="18" customHeight="1">
-      <c r="A388" s="2"/>
-      <c r="B388" s="2"/>
+      <c r="A388" s="1"/>
+      <c r="B388" s="1"/>
     </row>
     <row r="389" ht="18" customHeight="1">
-      <c r="A389" s="2"/>
-      <c r="B389" s="2"/>
+      <c r="A389" s="1"/>
+      <c r="B389" s="1"/>
     </row>
     <row r="390" ht="18" customHeight="1">
-      <c r="A390" s="2"/>
-      <c r="B390" s="2"/>
+      <c r="A390" s="1"/>
+      <c r="B390" s="1"/>
     </row>
     <row r="391" ht="18" customHeight="1">
-      <c r="A391" s="2"/>
-      <c r="B391" s="2"/>
+      <c r="A391" s="1"/>
+      <c r="B391" s="1"/>
     </row>
     <row r="392" ht="18" customHeight="1">
-      <c r="A392" s="2"/>
-      <c r="B392" s="2"/>
+      <c r="A392" s="1"/>
+      <c r="B392" s="1"/>
     </row>
     <row r="393" ht="18" customHeight="1">
-      <c r="A393" s="2"/>
-      <c r="B393" s="2"/>
+      <c r="A393" s="1"/>
+      <c r="B393" s="1"/>
     </row>
     <row r="394" ht="18" customHeight="1">
-      <c r="A394" s="2"/>
-      <c r="B394" s="2"/>
+      <c r="A394" s="1"/>
+      <c r="B394" s="1"/>
     </row>
     <row r="395" ht="18" customHeight="1">
-      <c r="A395" s="2"/>
-      <c r="B395" s="2"/>
+      <c r="A395" s="1"/>
+      <c r="B395" s="1"/>
     </row>
     <row r="396" ht="18" customHeight="1">
-      <c r="A396" s="2"/>
-      <c r="B396" s="2"/>
+      <c r="A396" s="1"/>
+      <c r="B396" s="1"/>
     </row>
     <row r="397" ht="18" customHeight="1">
-      <c r="A397" s="2"/>
-      <c r="B397" s="2"/>
+      <c r="A397" s="1"/>
+      <c r="B397" s="1"/>
     </row>
     <row r="398" ht="18" customHeight="1">
-      <c r="A398" s="2"/>
-      <c r="B398" s="2"/>
+      <c r="A398" s="1"/>
+      <c r="B398" s="1"/>
     </row>
     <row r="399" ht="18" customHeight="1">
-      <c r="A399" s="2"/>
-      <c r="B399" s="2"/>
+      <c r="A399" s="1"/>
+      <c r="B399" s="1"/>
     </row>
     <row r="400" ht="18" customHeight="1">
-      <c r="A400" s="2"/>
-      <c r="B400" s="2"/>
+      <c r="A400" s="1"/>
+      <c r="B400" s="1"/>
     </row>
     <row r="401" ht="18" customHeight="1">
-      <c r="A401" s="2"/>
-      <c r="B401" s="2"/>
+      <c r="A401" s="1"/>
+      <c r="B401" s="1"/>
     </row>
     <row r="402" ht="18" customHeight="1">
-      <c r="A402" s="2"/>
-      <c r="B402" s="2"/>
+      <c r="A402" s="1"/>
+      <c r="B402" s="1"/>
     </row>
     <row r="403" ht="18" customHeight="1">
-      <c r="A403" s="2"/>
-      <c r="B403" s="2"/>
+      <c r="A403" s="1"/>
+      <c r="B403" s="1"/>
     </row>
     <row r="404" ht="18" customHeight="1">
-      <c r="A404" s="2"/>
-      <c r="B404" s="2"/>
+      <c r="A404" s="1"/>
+      <c r="B404" s="1"/>
     </row>
     <row r="405" ht="18" customHeight="1">
-      <c r="A405" s="2"/>
-      <c r="B405" s="2"/>
+      <c r="A405" s="1"/>
+      <c r="B405" s="1"/>
     </row>
     <row r="406" ht="18" customHeight="1">
-      <c r="A406" s="2"/>
-      <c r="B406" s="2"/>
+      <c r="A406" s="1"/>
+      <c r="B406" s="1"/>
     </row>
     <row r="407" ht="18" customHeight="1">
-      <c r="A407" s="2"/>
-      <c r="B407" s="2"/>
+      <c r="A407" s="1"/>
+      <c r="B407" s="1"/>
     </row>
     <row r="408" ht="18" customHeight="1">
-      <c r="A408" s="2"/>
-      <c r="B408" s="2"/>
+      <c r="A408" s="1"/>
+      <c r="B408" s="1"/>
     </row>
     <row r="409" ht="18" customHeight="1">
-      <c r="A409" s="2"/>
-      <c r="B409" s="2"/>
+      <c r="A409" s="1"/>
+      <c r="B409" s="1"/>
     </row>
     <row r="410" ht="18" customHeight="1">
-      <c r="A410" s="2"/>
-      <c r="B410" s="2"/>
+      <c r="A410" s="1"/>
+      <c r="B410" s="1"/>
     </row>
     <row r="411" ht="18" customHeight="1">
-      <c r="A411" s="2"/>
-      <c r="B411" s="2"/>
+      <c r="A411" s="1"/>
+      <c r="B411" s="1"/>
     </row>
     <row r="412" ht="18" customHeight="1">
-      <c r="A412" s="2"/>
-      <c r="B412" s="2"/>
+      <c r="A412" s="1"/>
+      <c r="B412" s="1"/>
     </row>
     <row r="413" ht="18" customHeight="1">
-      <c r="A413" s="2"/>
-      <c r="B413" s="2"/>
+      <c r="A413" s="1"/>
+      <c r="B413" s="1"/>
     </row>
     <row r="414" ht="18" customHeight="1">
-      <c r="A414" s="2"/>
-      <c r="B414" s="2"/>
+      <c r="A414" s="1"/>
+      <c r="B414" s="1"/>
     </row>
     <row r="415" ht="18" customHeight="1">
-      <c r="A415" s="2"/>
-      <c r="B415" s="2"/>
+      <c r="A415" s="1"/>
+      <c r="B415" s="1"/>
     </row>
     <row r="416" ht="18" customHeight="1">
-      <c r="A416" s="2"/>
-      <c r="B416" s="2"/>
+      <c r="A416" s="1"/>
+      <c r="B416" s="1"/>
     </row>
     <row r="417" ht="18" customHeight="1">
-      <c r="A417" s="2"/>
-      <c r="B417" s="2"/>
+      <c r="A417" s="1"/>
+      <c r="B417" s="1"/>
     </row>
     <row r="418" ht="18" customHeight="1">
-      <c r="A418" s="2"/>
-      <c r="B418" s="2"/>
+      <c r="A418" s="1"/>
+      <c r="B418" s="1"/>
     </row>
     <row r="419" ht="18" customHeight="1">
-      <c r="A419" s="2"/>
-      <c r="B419" s="2"/>
+      <c r="A419" s="1"/>
+      <c r="B419" s="1"/>
     </row>
     <row r="420" ht="18" customHeight="1">
-      <c r="A420" s="2"/>
-      <c r="B420" s="2"/>
+      <c r="A420" s="1"/>
+      <c r="B420" s="1"/>
     </row>
     <row r="421" ht="18" customHeight="1">
-      <c r="A421" s="2"/>
-      <c r="B421" s="2"/>
+      <c r="A421" s="1"/>
+      <c r="B421" s="1"/>
     </row>
     <row r="422" ht="18" customHeight="1">
-      <c r="A422" s="2"/>
-      <c r="B422" s="2"/>
+      <c r="A422" s="1"/>
+      <c r="B422" s="1"/>
     </row>
     <row r="423" ht="18" customHeight="1">
-      <c r="A423" s="2"/>
-      <c r="B423" s="2"/>
+      <c r="A423" s="1"/>
+      <c r="B423" s="1"/>
     </row>
     <row r="424" ht="18" customHeight="1">
-      <c r="A424" s="2"/>
-      <c r="B424" s="2"/>
+      <c r="A424" s="1"/>
+      <c r="B424" s="1"/>
     </row>
     <row r="425" ht="18" customHeight="1">
-      <c r="A425" s="2"/>
-      <c r="B425" s="2"/>
+      <c r="A425" s="1"/>
+      <c r="B425" s="1"/>
     </row>
     <row r="426" ht="18" customHeight="1">
-      <c r="A426" s="2"/>
-      <c r="B426" s="2"/>
+      <c r="A426" s="1"/>
+      <c r="B426" s="1"/>
     </row>
     <row r="427" ht="18" customHeight="1">
-      <c r="A427" s="2"/>
-      <c r="B427" s="2"/>
+      <c r="A427" s="1"/>
+      <c r="B427" s="1"/>
     </row>
     <row r="428" ht="18" customHeight="1">
-      <c r="A428" s="2"/>
-      <c r="B428" s="2"/>
+      <c r="A428" s="1"/>
+      <c r="B428" s="1"/>
     </row>
     <row r="429" ht="18" customHeight="1">
-      <c r="A429" s="2"/>
-      <c r="B429" s="2"/>
+      <c r="A429" s="1"/>
+      <c r="B429" s="1"/>
     </row>
     <row r="430" ht="18" customHeight="1">
-      <c r="A430" s="2"/>
-      <c r="B430" s="2"/>
+      <c r="A430" s="1"/>
+      <c r="B430" s="1"/>
     </row>
     <row r="431" ht="18" customHeight="1">
-      <c r="A431" s="2"/>
-      <c r="B431" s="2"/>
+      <c r="A431" s="1"/>
+      <c r="B431" s="1"/>
     </row>
     <row r="432" ht="18" customHeight="1">
-      <c r="A432" s="2"/>
-      <c r="B432" s="2"/>
+      <c r="A432" s="1"/>
+      <c r="B432" s="1"/>
     </row>
     <row r="433" ht="18" customHeight="1">
-      <c r="A433" s="2"/>
-      <c r="B433" s="2"/>
+      <c r="A433" s="1"/>
+      <c r="B433" s="1"/>
     </row>
     <row r="434" ht="18" customHeight="1">
-      <c r="A434" s="2"/>
-      <c r="B434" s="2"/>
+      <c r="A434" s="1"/>
+      <c r="B434" s="1"/>
     </row>
     <row r="435" ht="18" customHeight="1">
-      <c r="A435" s="2"/>
-      <c r="B435" s="2"/>
+      <c r="A435" s="1"/>
+      <c r="B435" s="1"/>
     </row>
     <row r="436" ht="18" customHeight="1">
-      <c r="A436" s="2"/>
-      <c r="B436" s="2"/>
+      <c r="A436" s="1"/>
+      <c r="B436" s="1"/>
     </row>
     <row r="437" ht="18" customHeight="1">
-      <c r="A437" s="2"/>
-      <c r="B437" s="2"/>
+      <c r="A437" s="1"/>
+      <c r="B437" s="1"/>
     </row>
     <row r="438" ht="18" customHeight="1">
-      <c r="A438" s="2"/>
-      <c r="B438" s="2"/>
+      <c r="A438" s="1"/>
+      <c r="B438" s="1"/>
     </row>
     <row r="439" ht="18" customHeight="1">
-      <c r="A439" s="2"/>
-      <c r="B439" s="2"/>
+      <c r="A439" s="1"/>
+      <c r="B439" s="1"/>
     </row>
     <row r="440" ht="18" customHeight="1">
-      <c r="A440" s="2"/>
-      <c r="B440" s="2"/>
+      <c r="A440" s="1"/>
+      <c r="B440" s="1"/>
     </row>
     <row r="441" ht="18" customHeight="1">
-      <c r="A441" s="2"/>
-      <c r="B441" s="2"/>
+      <c r="A441" s="1"/>
+      <c r="B441" s="1"/>
     </row>
     <row r="442" ht="18" customHeight="1">
-      <c r="A442" s="2"/>
-      <c r="B442" s="2"/>
+      <c r="A442" s="1"/>
+      <c r="B442" s="1"/>
     </row>
     <row r="443" ht="18" customHeight="1">
-      <c r="A443" s="2"/>
-      <c r="B443" s="2"/>
+      <c r="A443" s="1"/>
+      <c r="B443" s="1"/>
     </row>
     <row r="444" ht="18" customHeight="1">
-      <c r="A444" s="2"/>
-      <c r="B444" s="2"/>
+      <c r="A444" s="1"/>
+      <c r="B444" s="1"/>
     </row>
     <row r="445" ht="18" customHeight="1">
-      <c r="A445" s="2"/>
-      <c r="B445" s="2"/>
+      <c r="A445" s="1"/>
+      <c r="B445" s="1"/>
     </row>
     <row r="446" ht="18" customHeight="1">
-      <c r="A446" s="2"/>
-      <c r="B446" s="2"/>
+      <c r="A446" s="1"/>
+      <c r="B446" s="1"/>
     </row>
     <row r="447" ht="18" customHeight="1">
-      <c r="A447" s="2"/>
-      <c r="B447" s="2"/>
+      <c r="A447" s="1"/>
+      <c r="B447" s="1"/>
     </row>
     <row r="448" ht="18" customHeight="1">
-      <c r="A448" s="2"/>
-      <c r="B448" s="2"/>
+      <c r="A448" s="1"/>
+      <c r="B448" s="1"/>
     </row>
     <row r="449" ht="18" customHeight="1">
-      <c r="A449" s="2"/>
-      <c r="B449" s="2"/>
+      <c r="A449" s="1"/>
+      <c r="B449" s="1"/>
     </row>
     <row r="450" ht="18" customHeight="1">
-      <c r="A450" s="2"/>
-      <c r="B450" s="2"/>
+      <c r="A450" s="1"/>
+      <c r="B450" s="1"/>
     </row>
     <row r="451" ht="18" customHeight="1">
-      <c r="A451" s="2"/>
-      <c r="B451" s="2"/>
+      <c r="A451" s="1"/>
+      <c r="B451" s="1"/>
     </row>
     <row r="452" ht="18" customHeight="1">
-      <c r="A452" s="2"/>
-      <c r="B452" s="2"/>
+      <c r="A452" s="1"/>
+      <c r="B452" s="1"/>
     </row>
     <row r="453" ht="18" customHeight="1">
-      <c r="A453" s="2"/>
-      <c r="B453" s="2"/>
+      <c r="A453" s="1"/>
+      <c r="B453" s="1"/>
     </row>
     <row r="454" ht="18" customHeight="1">
-      <c r="A454" s="2"/>
-      <c r="B454" s="2"/>
+      <c r="A454" s="1"/>
+      <c r="B454" s="1"/>
     </row>
     <row r="455" ht="18" customHeight="1">
-      <c r="A455" s="2"/>
-      <c r="B455" s="2"/>
+      <c r="A455" s="1"/>
+      <c r="B455" s="1"/>
     </row>
     <row r="456" ht="18" customHeight="1">
-      <c r="A456" s="2"/>
-      <c r="B456" s="2"/>
+      <c r="A456" s="1"/>
+      <c r="B456" s="1"/>
     </row>
     <row r="457" ht="18" customHeight="1">
-      <c r="A457" s="2"/>
-      <c r="B457" s="2"/>
+      <c r="A457" s="1"/>
+      <c r="B457" s="1"/>
     </row>
     <row r="458" ht="18" customHeight="1">
-      <c r="A458" s="2"/>
-      <c r="B458" s="2"/>
+      <c r="A458" s="1"/>
+      <c r="B458" s="1"/>
     </row>
     <row r="459" ht="18" customHeight="1">
-      <c r="A459" s="2"/>
-      <c r="B459" s="2"/>
+      <c r="A459" s="1"/>
+      <c r="B459" s="1"/>
     </row>
     <row r="460" ht="18" customHeight="1">
-      <c r="A460" s="2"/>
-      <c r="B460" s="2"/>
+      <c r="A460" s="1"/>
+      <c r="B460" s="1"/>
     </row>
     <row r="461" ht="18" customHeight="1">
-      <c r="A461" s="2"/>
-      <c r="B461" s="2"/>
+      <c r="A461" s="1"/>
+      <c r="B461" s="1"/>
     </row>
     <row r="462" ht="18" customHeight="1">
-      <c r="A462" s="2"/>
-      <c r="B462" s="2"/>
+      <c r="A462" s="1"/>
+      <c r="B462" s="1"/>
     </row>
     <row r="463" ht="18" customHeight="1">
-      <c r="A463" s="2"/>
-      <c r="B463" s="2"/>
+      <c r="A463" s="1"/>
+      <c r="B463" s="1"/>
     </row>
     <row r="464" ht="18" customHeight="1">
-      <c r="A464" s="2"/>
-      <c r="B464" s="2"/>
+      <c r="A464" s="1"/>
+      <c r="B464" s="1"/>
     </row>
     <row r="465" ht="18" customHeight="1">
-      <c r="A465" s="2"/>
-      <c r="B465" s="2"/>
+      <c r="A465" s="1"/>
+      <c r="B465" s="1"/>
     </row>
     <row r="466" ht="18" customHeight="1">
-      <c r="A466" s="2"/>
-      <c r="B466" s="2"/>
+      <c r="A466" s="1"/>
+      <c r="B466" s="1"/>
     </row>
     <row r="467" ht="18" customHeight="1">
-      <c r="A467" s="2"/>
-      <c r="B467" s="2"/>
+      <c r="A467" s="1"/>
+      <c r="B467" s="1"/>
     </row>
     <row r="468" ht="18" customHeight="1">
-      <c r="A468" s="2"/>
-      <c r="B468" s="2"/>
+      <c r="A468" s="1"/>
+      <c r="B468" s="1"/>
     </row>
     <row r="469" ht="18" customHeight="1">
-      <c r="A469" s="2"/>
-      <c r="B469" s="2"/>
+      <c r="A469" s="1"/>
+      <c r="B469" s="1"/>
     </row>
     <row r="470" ht="18" customHeight="1">
-      <c r="A470" s="2"/>
-      <c r="B470" s="2"/>
+      <c r="A470" s="1"/>
+      <c r="B470" s="1"/>
     </row>
     <row r="471" ht="18" customHeight="1">
-      <c r="A471" s="2"/>
-      <c r="B471" s="2"/>
+      <c r="A471" s="1"/>
+      <c r="B471" s="1"/>
     </row>
     <row r="472" ht="18" customHeight="1">
-      <c r="A472" s="2"/>
-      <c r="B472" s="2"/>
+      <c r="A472" s="1"/>
+      <c r="B472" s="1"/>
     </row>
     <row r="473" ht="18" customHeight="1">
-      <c r="A473" s="2"/>
-      <c r="B473" s="2"/>
+      <c r="A473" s="1"/>
+      <c r="B473" s="1"/>
     </row>
     <row r="474" ht="18" customHeight="1">
-      <c r="A474" s="2"/>
-      <c r="B474" s="2"/>
+      <c r="A474" s="1"/>
+      <c r="B474" s="1"/>
     </row>
     <row r="475" ht="18" customHeight="1">
-      <c r="A475" s="2"/>
-      <c r="B475" s="2"/>
+      <c r="A475" s="1"/>
+      <c r="B475" s="1"/>
     </row>
     <row r="476" ht="18" customHeight="1">
-      <c r="A476" s="2"/>
-      <c r="B476" s="2"/>
+      <c r="A476" s="1"/>
+      <c r="B476" s="1"/>
     </row>
     <row r="477" ht="18" customHeight="1">
-      <c r="A477" s="2"/>
-      <c r="B477" s="2"/>
+      <c r="A477" s="1"/>
+      <c r="B477" s="1"/>
     </row>
     <row r="478" ht="18" customHeight="1">
-      <c r="A478" s="2"/>
-      <c r="B478" s="2"/>
+      <c r="A478" s="1"/>
+      <c r="B478" s="1"/>
     </row>
     <row r="479" ht="18" customHeight="1">
-      <c r="A479" s="2"/>
-      <c r="B479" s="2"/>
+      <c r="A479" s="1"/>
+      <c r="B479" s="1"/>
     </row>
     <row r="480" ht="18" customHeight="1">
-      <c r="A480" s="2"/>
-      <c r="B480" s="2"/>
+      <c r="A480" s="1"/>
+      <c r="B480" s="1"/>
     </row>
     <row r="481" ht="18" customHeight="1">
-      <c r="A481" s="2"/>
-      <c r="B481" s="2"/>
+      <c r="A481" s="1"/>
+      <c r="B481" s="1"/>
     </row>
     <row r="482" ht="18" customHeight="1">
-      <c r="A482" s="2"/>
-      <c r="B482" s="2"/>
+      <c r="A482" s="1"/>
+      <c r="B482" s="1"/>
     </row>
     <row r="483" ht="18" customHeight="1">
-      <c r="A483" s="2"/>
-      <c r="B483" s="2"/>
+      <c r="A483" s="1"/>
+      <c r="B483" s="1"/>
     </row>
     <row r="484" ht="18" customHeight="1">
-      <c r="A484" s="2"/>
-      <c r="B484" s="2"/>
+      <c r="A484" s="1"/>
+      <c r="B484" s="1"/>
     </row>
     <row r="485" ht="18" customHeight="1">
-      <c r="A485" s="2"/>
-      <c r="B485" s="2"/>
+      <c r="A485" s="1"/>
+      <c r="B485" s="1"/>
     </row>
     <row r="486" ht="18" customHeight="1">
-      <c r="A486" s="2"/>
-      <c r="B486" s="2"/>
+      <c r="A486" s="1"/>
+      <c r="B486" s="1"/>
     </row>
     <row r="487" ht="18" customHeight="1">
-      <c r="A487" s="2"/>
-      <c r="B487" s="2"/>
+      <c r="A487" s="1"/>
+      <c r="B487" s="1"/>
     </row>
     <row r="488" ht="18" customHeight="1">
-      <c r="A488" s="2"/>
-      <c r="B488" s="2"/>
+      <c r="A488" s="1"/>
+      <c r="B488" s="1"/>
     </row>
     <row r="489" ht="18" customHeight="1">
-      <c r="A489" s="2"/>
-      <c r="B489" s="2"/>
+      <c r="A489" s="1"/>
+      <c r="B489" s="1"/>
     </row>
     <row r="490" ht="18" customHeight="1">
-      <c r="A490" s="2"/>
-      <c r="B490" s="2"/>
+      <c r="A490" s="1"/>
+      <c r="B490" s="1"/>
     </row>
     <row r="491" ht="18" customHeight="1">
-      <c r="A491" s="2"/>
-      <c r="B491" s="2"/>
+      <c r="A491" s="1"/>
+      <c r="B491" s="1"/>
     </row>
     <row r="492" ht="18" customHeight="1">
-      <c r="A492" s="2"/>
-      <c r="B492" s="2"/>
+      <c r="A492" s="1"/>
+      <c r="B492" s="1"/>
     </row>
     <row r="493" ht="18" customHeight="1">
-      <c r="A493" s="2"/>
-      <c r="B493" s="2"/>
+      <c r="A493" s="1"/>
+      <c r="B493" s="1"/>
     </row>
     <row r="494" ht="18" customHeight="1">
-      <c r="A494" s="2"/>
-      <c r="B494" s="2"/>
+      <c r="A494" s="1"/>
+      <c r="B494" s="1"/>
     </row>
     <row r="495" ht="18" customHeight="1">
-      <c r="A495" s="2"/>
-      <c r="B495" s="2"/>
+      <c r="A495" s="1"/>
+      <c r="B495" s="1"/>
     </row>
     <row r="496" ht="18" customHeight="1">
-      <c r="A496" s="2"/>
-      <c r="B496" s="2"/>
+      <c r="A496" s="1"/>
+      <c r="B496" s="1"/>
     </row>
     <row r="497" ht="18" customHeight="1">
-      <c r="A497" s="2"/>
-      <c r="B497" s="2"/>
+      <c r="A497" s="1"/>
+      <c r="B497" s="1"/>
     </row>
     <row r="498" ht="18" customHeight="1">
-      <c r="A498" s="2"/>
-      <c r="B498" s="2"/>
+      <c r="A498" s="1"/>
+      <c r="B498" s="1"/>
     </row>
     <row r="499" ht="18" customHeight="1">
-      <c r="A499" s="2"/>
-      <c r="B499" s="2"/>
+      <c r="A499" s="1"/>
+      <c r="B499" s="1"/>
     </row>
     <row r="500" ht="18" customHeight="1">
-      <c r="A500" s="2"/>
-      <c r="B500" s="2"/>
+      <c r="A500" s="1"/>
+      <c r="B500" s="1"/>
     </row>
     <row r="501" ht="18" customHeight="1">
-      <c r="A501" s="2"/>
-      <c r="B501" s="2"/>
+      <c r="A501" s="1"/>
+      <c r="B501" s="1"/>
     </row>
     <row r="502" ht="18" customHeight="1">
-      <c r="A502" s="2"/>
-      <c r="B502" s="2"/>
+      <c r="A502" s="1"/>
+      <c r="B502" s="1"/>
     </row>
     <row r="503" ht="18" customHeight="1">
-      <c r="A503" s="2"/>
-      <c r="B503" s="2"/>
+      <c r="A503" s="1"/>
+      <c r="B503" s="1"/>
     </row>
     <row r="504" ht="18" customHeight="1">
-      <c r="A504" s="2"/>
-      <c r="B504" s="2"/>
+      <c r="A504" s="1"/>
+      <c r="B504" s="1"/>
     </row>
     <row r="505" ht="18" customHeight="1">
-      <c r="A505" s="2"/>
-      <c r="B505" s="2"/>
+      <c r="A505" s="1"/>
+      <c r="B505" s="1"/>
     </row>
     <row r="506" ht="18" customHeight="1">
-      <c r="A506" s="2"/>
-      <c r="B506" s="2"/>
+      <c r="A506" s="1"/>
+      <c r="B506" s="1"/>
     </row>
     <row r="507" ht="18" customHeight="1">
-      <c r="A507" s="2"/>
-      <c r="B507" s="2"/>
+      <c r="A507" s="1"/>
+      <c r="B507" s="1"/>
     </row>
     <row r="508" ht="18" customHeight="1">
-      <c r="A508" s="2"/>
-      <c r="B508" s="2"/>
+      <c r="A508" s="1"/>
+      <c r="B508" s="1"/>
     </row>
     <row r="509" ht="18" customHeight="1">
-      <c r="A509" s="2"/>
-      <c r="B509" s="2"/>
+      <c r="A509" s="1"/>
+      <c r="B509" s="1"/>
     </row>
     <row r="510" ht="18" customHeight="1">
-      <c r="A510" s="2"/>
-      <c r="B510" s="2"/>
+      <c r="A510" s="1"/>
+      <c r="B510" s="1"/>
     </row>
     <row r="511" ht="18" customHeight="1">
-      <c r="A511" s="2"/>
-      <c r="B511" s="2"/>
+      <c r="A511" s="1"/>
+      <c r="B511" s="1"/>
     </row>
     <row r="512" ht="18" customHeight="1">
-      <c r="A512" s="2"/>
-      <c r="B512" s="2"/>
+      <c r="A512" s="1"/>
+      <c r="B512" s="1"/>
     </row>
     <row r="513" ht="18" customHeight="1">
-      <c r="A513" s="2"/>
-      <c r="B513" s="2"/>
+      <c r="A513" s="1"/>
+      <c r="B513" s="1"/>
     </row>
     <row r="514" ht="18" customHeight="1">
-      <c r="A514" s="2"/>
-      <c r="B514" s="2"/>
+      <c r="A514" s="1"/>
+      <c r="B514" s="1"/>
     </row>
     <row r="515" ht="18" customHeight="1">
-      <c r="A515" s="2"/>
-      <c r="B515" s="2"/>
+      <c r="A515" s="1"/>
+      <c r="B515" s="1"/>
     </row>
     <row r="516" ht="18" customHeight="1">
-      <c r="A516" s="2"/>
-      <c r="B516" s="2"/>
+      <c r="A516" s="1"/>
+      <c r="B516" s="1"/>
     </row>
     <row r="517" ht="18" customHeight="1">
-      <c r="A517" s="2"/>
-      <c r="B517" s="2"/>
+      <c r="A517" s="1"/>
+      <c r="B517" s="1"/>
     </row>
     <row r="518" ht="18" customHeight="1">
-      <c r="A518" s="2"/>
-      <c r="B518" s="2"/>
+      <c r="A518" s="1"/>
+      <c r="B518" s="1"/>
     </row>
     <row r="519" ht="18" customHeight="1">
-      <c r="A519" s="2"/>
-      <c r="B519" s="2"/>
+      <c r="A519" s="1"/>
+      <c r="B519" s="1"/>
     </row>
     <row r="520" ht="18" customHeight="1">
-      <c r="A520" s="2"/>
-      <c r="B520" s="2"/>
+      <c r="A520" s="1"/>
+      <c r="B520" s="1"/>
     </row>
     <row r="521" ht="18" customHeight="1">
-      <c r="A521" s="2"/>
-      <c r="B521" s="2"/>
+      <c r="A521" s="1"/>
+      <c r="B521" s="1"/>
     </row>
     <row r="522" ht="18" customHeight="1">
-      <c r="A522" s="2"/>
-      <c r="B522" s="2"/>
+      <c r="A522" s="1"/>
+      <c r="B522" s="1"/>
     </row>
     <row r="523" ht="18" customHeight="1">
-      <c r="A523" s="2"/>
-      <c r="B523" s="2"/>
+      <c r="A523" s="1"/>
+      <c r="B523" s="1"/>
     </row>
     <row r="524" ht="18" customHeight="1">
-      <c r="A524" s="2"/>
-      <c r="B524" s="2"/>
+      <c r="A524" s="1"/>
+      <c r="B524" s="1"/>
     </row>
     <row r="525" ht="18" customHeight="1">
-      <c r="A525" s="2"/>
-      <c r="B525" s="2"/>
+      <c r="A525" s="1"/>
+      <c r="B525" s="1"/>
     </row>
     <row r="526" ht="18" customHeight="1">
-      <c r="A526" s="2"/>
-      <c r="B526" s="2"/>
+      <c r="A526" s="1"/>
+      <c r="B526" s="1"/>
     </row>
     <row r="527" ht="18" customHeight="1">
-      <c r="A527" s="2"/>
-      <c r="B527" s="2"/>
+      <c r="A527" s="1"/>
+      <c r="B527" s="1"/>
     </row>
     <row r="528" ht="18" customHeight="1">
-      <c r="A528" s="2"/>
-      <c r="B528" s="2"/>
+      <c r="A528" s="1"/>
+      <c r="B528" s="1"/>
     </row>
     <row r="529" ht="18" customHeight="1">
-      <c r="A529" s="2"/>
-      <c r="B529" s="2"/>
+      <c r="A529" s="1"/>
+      <c r="B529" s="1"/>
     </row>
     <row r="530" ht="18" customHeight="1">
-      <c r="A530" s="2"/>
-      <c r="B530" s="2"/>
+      <c r="A530" s="1"/>
+      <c r="B530" s="1"/>
     </row>
     <row r="531" ht="18" customHeight="1">
-      <c r="A531" s="2"/>
-      <c r="B531" s="2"/>
+      <c r="A531" s="1"/>
+      <c r="B531" s="1"/>
     </row>
     <row r="532" ht="18" customHeight="1">
-      <c r="A532" s="2"/>
-      <c r="B532" s="2"/>
+      <c r="A532" s="1"/>
+      <c r="B532" s="1"/>
     </row>
     <row r="533" ht="18" customHeight="1">
-      <c r="A533" s="2"/>
-      <c r="B533" s="2"/>
+      <c r="A533" s="1"/>
+      <c r="B533" s="1"/>
     </row>
     <row r="534" ht="18" customHeight="1">
-      <c r="A534" s="2"/>
-      <c r="B534" s="2"/>
+      <c r="A534" s="1"/>
+      <c r="B534" s="1"/>
     </row>
     <row r="535" ht="18" customHeight="1">
-      <c r="A535" s="2"/>
-      <c r="B535" s="2"/>
+      <c r="A535" s="1"/>
+      <c r="B535" s="1"/>
     </row>
     <row r="536" ht="18" customHeight="1">
-      <c r="A536" s="2"/>
-      <c r="B536" s="2"/>
+      <c r="A536" s="1"/>
+      <c r="B536" s="1"/>
     </row>
     <row r="537" ht="18" customHeight="1">
-      <c r="A537" s="2"/>
-      <c r="B537" s="2"/>
+      <c r="A537" s="1"/>
+      <c r="B537" s="1"/>
     </row>
     <row r="538" ht="18" customHeight="1">
-      <c r="A538" s="2"/>
-      <c r="B538" s="2"/>
+      <c r="A538" s="1"/>
+      <c r="B538" s="1"/>
     </row>
     <row r="539" ht="18" customHeight="1">
-      <c r="A539" s="2"/>
-      <c r="B539" s="2"/>
+      <c r="A539" s="1"/>
+      <c r="B539" s="1"/>
     </row>
     <row r="540" ht="18" customHeight="1">
-      <c r="A540" s="2"/>
-      <c r="B540" s="2"/>
+      <c r="A540" s="1"/>
+      <c r="B540" s="1"/>
     </row>
     <row r="541" ht="18" customHeight="1">
-      <c r="A541" s="2"/>
-      <c r="B541" s="2"/>
+      <c r="A541" s="1"/>
+      <c r="B541" s="1"/>
     </row>
     <row r="542" ht="18" customHeight="1">
-      <c r="A542" s="2"/>
-      <c r="B542" s="2"/>
+      <c r="A542" s="1"/>
+      <c r="B542" s="1"/>
     </row>
     <row r="543" ht="18" customHeight="1">
-      <c r="A543" s="2"/>
-      <c r="B543" s="2"/>
+      <c r="A543" s="1"/>
+      <c r="B543" s="1"/>
     </row>
     <row r="544" ht="18" customHeight="1">
-      <c r="A544" s="2"/>
-      <c r="B544" s="2"/>
+      <c r="A544" s="1"/>
+      <c r="B544" s="1"/>
     </row>
     <row r="545" ht="18" customHeight="1">
-      <c r="A545" s="2"/>
-      <c r="B545" s="2"/>
+      <c r="A545" s="1"/>
+      <c r="B545" s="1"/>
     </row>
     <row r="546" ht="18" customHeight="1">
-      <c r="A546" s="2"/>
-      <c r="B546" s="2"/>
+      <c r="A546" s="1"/>
+      <c r="B546" s="1"/>
     </row>
     <row r="547" ht="18" customHeight="1">
-      <c r="A547" s="2"/>
-      <c r="B547" s="2"/>
+      <c r="A547" s="1"/>
+      <c r="B547" s="1"/>
     </row>
     <row r="548" ht="18" customHeight="1">
-      <c r="A548" s="2"/>
-      <c r="B548" s="2"/>
+      <c r="A548" s="1"/>
+      <c r="B548" s="1"/>
     </row>
     <row r="549" ht="18" customHeight="1">
-      <c r="A549" s="2"/>
-      <c r="B549" s="2"/>
+      <c r="A549" s="1"/>
+      <c r="B549" s="1"/>
     </row>
     <row r="550" ht="18" customHeight="1">
-      <c r="A550" s="2"/>
-      <c r="B550" s="2"/>
+      <c r="A550" s="1"/>
+      <c r="B550" s="1"/>
     </row>
     <row r="551" ht="18" customHeight="1">
-      <c r="A551" s="2"/>
-      <c r="B551" s="2"/>
+      <c r="A551" s="1"/>
+      <c r="B551" s="1"/>
     </row>
     <row r="552" ht="18" customHeight="1">
-      <c r="A552" s="2"/>
-      <c r="B552" s="2"/>
+      <c r="A552" s="1"/>
+      <c r="B552" s="1"/>
     </row>
     <row r="553" ht="18" customHeight="1">
-      <c r="A553" s="2"/>
-      <c r="B553" s="2"/>
+      <c r="A553" s="1"/>
+      <c r="B553" s="1"/>
     </row>
     <row r="554" ht="18" customHeight="1">
-      <c r="A554" s="2"/>
-      <c r="B554" s="2"/>
+      <c r="A554" s="1"/>
+      <c r="B554" s="1"/>
     </row>
     <row r="555" ht="18" customHeight="1">
-      <c r="A555" s="2"/>
-      <c r="B555" s="2"/>
+      <c r="A555" s="1"/>
+      <c r="B555" s="1"/>
     </row>
     <row r="556" ht="18" customHeight="1">
-      <c r="A556" s="2"/>
-      <c r="B556" s="2"/>
+      <c r="A556" s="1"/>
+      <c r="B556" s="1"/>
     </row>
     <row r="557" ht="18" customHeight="1">
-      <c r="A557" s="2"/>
-      <c r="B557" s="2"/>
+      <c r="A557" s="1"/>
+      <c r="B557" s="1"/>
     </row>
     <row r="558" ht="18" customHeight="1">
-      <c r="A558" s="2"/>
-      <c r="B558" s="2"/>
+      <c r="A558" s="1"/>
+      <c r="B558" s="1"/>
     </row>
     <row r="559" ht="18" customHeight="1">
-      <c r="A559" s="2"/>
-      <c r="B559" s="2"/>
+      <c r="A559" s="1"/>
+      <c r="B559" s="1"/>
     </row>
     <row r="560" ht="18" customHeight="1">
-      <c r="A560" s="2"/>
-      <c r="B560" s="2"/>
+      <c r="A560" s="1"/>
+      <c r="B560" s="1"/>
     </row>
     <row r="561" ht="18" customHeight="1">
-      <c r="A561" s="2"/>
-      <c r="B561" s="2"/>
+      <c r="A561" s="1"/>
+      <c r="B561" s="1"/>
     </row>
     <row r="562" ht="18" customHeight="1">
-      <c r="A562" s="2"/>
-      <c r="B562" s="2"/>
+      <c r="A562" s="1"/>
+      <c r="B562" s="1"/>
     </row>
     <row r="563" ht="18" customHeight="1">
-      <c r="A563" s="2"/>
-      <c r="B563" s="2"/>
+      <c r="A563" s="1"/>
+      <c r="B563" s="1"/>
     </row>
     <row r="564" ht="18" customHeight="1">
-      <c r="A564" s="2"/>
-      <c r="B564" s="2"/>
+      <c r="A564" s="1"/>
+      <c r="B564" s="1"/>
     </row>
     <row r="565" ht="18" customHeight="1">
-      <c r="A565" s="2"/>
-      <c r="B565" s="2"/>
+      <c r="A565" s="1"/>
+      <c r="B565" s="1"/>
     </row>
     <row r="566" ht="18" customHeight="1">
-      <c r="A566" s="2"/>
-      <c r="B566" s="2"/>
+      <c r="A566" s="1"/>
+      <c r="B566" s="1"/>
     </row>
     <row r="567" ht="18" customHeight="1">
-      <c r="A567" s="2"/>
-      <c r="B567" s="2"/>
+      <c r="A567" s="1"/>
+      <c r="B567" s="1"/>
     </row>
     <row r="568" ht="18" customHeight="1">
-      <c r="A568" s="2"/>
-      <c r="B568" s="2"/>
+      <c r="A568" s="1"/>
+      <c r="B568" s="1"/>
     </row>
     <row r="569" ht="18" customHeight="1">
-      <c r="A569" s="2"/>
-      <c r="B569" s="2"/>
+      <c r="A569" s="1"/>
+      <c r="B569" s="1"/>
     </row>
     <row r="570" ht="18" customHeight="1">
-      <c r="A570" s="2"/>
-      <c r="B570" s="2"/>
+      <c r="A570" s="1"/>
+      <c r="B570" s="1"/>
     </row>
     <row r="571" ht="18" customHeight="1">
-      <c r="A571" s="2"/>
-      <c r="B571" s="2"/>
+      <c r="A571" s="1"/>
+      <c r="B571" s="1"/>
     </row>
     <row r="572" ht="18" customHeight="1">
-      <c r="A572" s="2"/>
-      <c r="B572" s="2"/>
+      <c r="A572" s="1"/>
+      <c r="B572" s="1"/>
     </row>
     <row r="573" ht="18" customHeight="1">
-      <c r="A573" s="2"/>
-      <c r="B573" s="2"/>
+      <c r="A573" s="1"/>
+      <c r="B573" s="1"/>
     </row>
     <row r="574" ht="18" customHeight="1">
-      <c r="A574" s="2"/>
-      <c r="B574" s="2"/>
+      <c r="A574" s="1"/>
+      <c r="B574" s="1"/>
     </row>
     <row r="575" ht="18" customHeight="1">
-      <c r="A575" s="2"/>
-      <c r="B575" s="2"/>
+      <c r="A575" s="1"/>
+      <c r="B575" s="1"/>
     </row>
     <row r="576" ht="18" customHeight="1">
-      <c r="A576" s="2"/>
-      <c r="B576" s="2"/>
+      <c r="A576" s="1"/>
+      <c r="B576" s="1"/>
     </row>
     <row r="577" ht="18" customHeight="1">
-      <c r="A577" s="2"/>
-      <c r="B577" s="2"/>
+      <c r="A577" s="1"/>
+      <c r="B577" s="1"/>
     </row>
     <row r="578" ht="18" customHeight="1">
-      <c r="A578" s="2"/>
-      <c r="B578" s="2"/>
+      <c r="A578" s="1"/>
+      <c r="B578" s="1"/>
     </row>
     <row r="579" ht="18" customHeight="1">
-      <c r="A579" s="2"/>
-      <c r="B579" s="2"/>
+      <c r="A579" s="1"/>
+      <c r="B579" s="1"/>
     </row>
     <row r="580" ht="18" customHeight="1">
-      <c r="A580" s="2"/>
-      <c r="B580" s="2"/>
+      <c r="A580" s="1"/>
+      <c r="B580" s="1"/>
     </row>
     <row r="581" ht="18" customHeight="1">
-      <c r="A581" s="2"/>
-      <c r="B581" s="2"/>
+      <c r="A581" s="1"/>
+      <c r="B581" s="1"/>
     </row>
     <row r="582" ht="18" customHeight="1">
-      <c r="A582" s="2"/>
-      <c r="B582" s="2"/>
+      <c r="A582" s="1"/>
+      <c r="B582" s="1"/>
     </row>
     <row r="583" ht="18" customHeight="1">
-      <c r="A583" s="2"/>
-      <c r="B583" s="2"/>
+      <c r="A583" s="1"/>
+      <c r="B583" s="1"/>
     </row>
     <row r="584" ht="18" customHeight="1">
-      <c r="A584" s="2"/>
-      <c r="B584" s="2"/>
+      <c r="A584" s="1"/>
+      <c r="B584" s="1"/>
     </row>
     <row r="585" ht="18" customHeight="1">
-      <c r="A585" s="2"/>
-      <c r="B585" s="2"/>
+      <c r="A585" s="1"/>
+      <c r="B585" s="1"/>
     </row>
     <row r="586" ht="18" customHeight="1">
-      <c r="A586" s="2"/>
-      <c r="B586" s="2"/>
+      <c r="A586" s="1"/>
+      <c r="B586" s="1"/>
     </row>
     <row r="587" ht="18" customHeight="1">
-      <c r="A587" s="2"/>
-      <c r="B587" s="2"/>
+      <c r="A587" s="1"/>
+      <c r="B587" s="1"/>
     </row>
     <row r="588" ht="18" customHeight="1">
-      <c r="A588" s="2"/>
-      <c r="B588" s="2"/>
+      <c r="A588" s="1"/>
+      <c r="B588" s="1"/>
     </row>
     <row r="589" ht="18" customHeight="1">
-      <c r="A589" s="2"/>
-      <c r="B589" s="2"/>
+      <c r="A589" s="1"/>
+      <c r="B589" s="1"/>
     </row>
     <row r="590" ht="18" customHeight="1">
-      <c r="A590" s="2"/>
-      <c r="B590" s="2"/>
+      <c r="A590" s="1"/>
+      <c r="B590" s="1"/>
     </row>
     <row r="591" ht="18" customHeight="1">
-      <c r="A591" s="2"/>
-      <c r="B591" s="2"/>
+      <c r="A591" s="1"/>
+      <c r="B591" s="1"/>
     </row>
     <row r="592" ht="18" customHeight="1">
-      <c r="A592" s="2"/>
-      <c r="B592" s="2"/>
+      <c r="A592" s="1"/>
+      <c r="B592" s="1"/>
     </row>
     <row r="593" ht="18" customHeight="1">
-      <c r="A593" s="2"/>
-      <c r="B593" s="2"/>
+      <c r="A593" s="1"/>
+      <c r="B593" s="1"/>
     </row>
     <row r="594" ht="18" customHeight="1">
-      <c r="A594" s="2"/>
-      <c r="B594" s="2"/>
+      <c r="A594" s="1"/>
+      <c r="B594" s="1"/>
     </row>
     <row r="595" ht="18" customHeight="1">
-      <c r="A595" s="2"/>
-      <c r="B595" s="2"/>
+      <c r="A595" s="1"/>
+      <c r="B595" s="1"/>
     </row>
     <row r="596" ht="18" customHeight="1">
-      <c r="A596" s="2"/>
-      <c r="B596" s="2"/>
+      <c r="A596" s="1"/>
+      <c r="B596" s="1"/>
     </row>
     <row r="597" ht="18" customHeight="1">
-      <c r="A597" s="2"/>
-      <c r="B597" s="2"/>
+      <c r="A597" s="1"/>
+      <c r="B597" s="1"/>
     </row>
     <row r="598" ht="18" customHeight="1">
-      <c r="A598" s="2"/>
-      <c r="B598" s="2"/>
+      <c r="A598" s="1"/>
+      <c r="B598" s="1"/>
     </row>
     <row r="599" ht="18" customHeight="1">
-      <c r="A599" s="2"/>
-      <c r="B599" s="2"/>
+      <c r="A599" s="1"/>
+      <c r="B599" s="1"/>
     </row>
     <row r="600" ht="18" customHeight="1">
-      <c r="A600" s="2"/>
-      <c r="B600" s="2"/>
+      <c r="A600" s="1"/>
+      <c r="B600" s="1"/>
     </row>
     <row r="601" ht="18" customHeight="1">
-      <c r="A601" s="2"/>
-      <c r="B601" s="2"/>
+      <c r="A601" s="1"/>
+      <c r="B601" s="1"/>
     </row>
     <row r="602" ht="18" customHeight="1">
-      <c r="A602" s="2"/>
-      <c r="B602" s="2"/>
+      <c r="A602" s="1"/>
+      <c r="B602" s="1"/>
     </row>
     <row r="603" ht="18" customHeight="1">
-      <c r="A603" s="2"/>
-      <c r="B603" s="2"/>
+      <c r="A603" s="1"/>
+      <c r="B603" s="1"/>
     </row>
     <row r="604" ht="18" customHeight="1">
-      <c r="A604" s="2"/>
-      <c r="B604" s="2"/>
+      <c r="A604" s="1"/>
+      <c r="B604" s="1"/>
     </row>
     <row r="605" ht="18" customHeight="1">
-      <c r="A605" s="2"/>
-      <c r="B605" s="2"/>
+      <c r="A605" s="1"/>
+      <c r="B605" s="1"/>
     </row>
     <row r="606" ht="18" customHeight="1">
-      <c r="A606" s="2"/>
-      <c r="B606" s="2"/>
+      <c r="A606" s="1"/>
+      <c r="B606" s="1"/>
     </row>
     <row r="607" ht="18" customHeight="1">
-      <c r="A607" s="2"/>
-      <c r="B607" s="2"/>
+      <c r="A607" s="1"/>
+      <c r="B607" s="1"/>
     </row>
     <row r="608" ht="18" customHeight="1">
-      <c r="A608" s="2"/>
-      <c r="B608" s="2"/>
+      <c r="A608" s="1"/>
+      <c r="B608" s="1"/>
     </row>
     <row r="609" ht="18" customHeight="1">
-      <c r="A609" s="2"/>
-      <c r="B609" s="2"/>
+      <c r="A609" s="1"/>
+      <c r="B609" s="1"/>
     </row>
     <row r="610" ht="18" customHeight="1">
-      <c r="A610" s="2"/>
-      <c r="B610" s="2"/>
+      <c r="A610" s="1"/>
+      <c r="B610" s="1"/>
     </row>
     <row r="611" ht="18" customHeight="1">
-      <c r="A611" s="2"/>
-      <c r="B611" s="2"/>
+      <c r="A611" s="1"/>
+      <c r="B611" s="1"/>
     </row>
     <row r="612" ht="18" customHeight="1">
-      <c r="A612" s="2"/>
-      <c r="B612" s="2"/>
+      <c r="A612" s="1"/>
+      <c r="B612" s="1"/>
     </row>
     <row r="613" ht="18" customHeight="1">
-      <c r="A613" s="2"/>
-      <c r="B613" s="2"/>
+      <c r="A613" s="1"/>
+      <c r="B613" s="1"/>
     </row>
     <row r="614" ht="18" customHeight="1">
-      <c r="A614" s="2"/>
-      <c r="B614" s="2"/>
+      <c r="A614" s="1"/>
+      <c r="B614" s="1"/>
     </row>
     <row r="615" ht="18" customHeight="1">
-      <c r="A615" s="2"/>
-      <c r="B615" s="2"/>
+      <c r="A615" s="1"/>
+      <c r="B615" s="1"/>
     </row>
     <row r="616" ht="18" customHeight="1">
-      <c r="A616" s="2"/>
-      <c r="B616" s="2"/>
+      <c r="A616" s="1"/>
+      <c r="B616" s="1"/>
     </row>
     <row r="617" ht="18" customHeight="1">
-      <c r="A617" s="2"/>
-      <c r="B617" s="2"/>
+      <c r="A617" s="1"/>
+      <c r="B617" s="1"/>
     </row>
     <row r="618" ht="18" customHeight="1">
-      <c r="A618" s="2"/>
-      <c r="B618" s="2"/>
+      <c r="A618" s="1"/>
+      <c r="B618" s="1"/>
     </row>
     <row r="619" ht="18" customHeight="1">
-      <c r="A619" s="2"/>
-      <c r="B619" s="2"/>
+      <c r="A619" s="1"/>
+      <c r="B619" s="1"/>
     </row>
     <row r="620" ht="18" customHeight="1">
-      <c r="A620" s="2"/>
-      <c r="B620" s="2"/>
+      <c r="A620" s="1"/>
+      <c r="B620" s="1"/>
     </row>
     <row r="621" ht="18" customHeight="1">
-      <c r="A621" s="2"/>
-      <c r="B621" s="2"/>
+      <c r="A621" s="1"/>
+      <c r="B621" s="1"/>
     </row>
     <row r="622" ht="18" customHeight="1">
-      <c r="A622" s="2"/>
-      <c r="B622" s="2"/>
+      <c r="A622" s="1"/>
+      <c r="B622" s="1"/>
     </row>
     <row r="623" ht="18" customHeight="1">
-      <c r="A623" s="2"/>
-      <c r="B623" s="2"/>
+      <c r="A623" s="1"/>
+      <c r="B623" s="1"/>
     </row>
     <row r="624" ht="18" customHeight="1">
-      <c r="A624" s="2"/>
-      <c r="B624" s="2"/>
+      <c r="A624" s="1"/>
+      <c r="B624" s="1"/>
     </row>
     <row r="625" ht="18" customHeight="1">
-      <c r="A625" s="2"/>
-      <c r="B625" s="2"/>
+      <c r="A625" s="1"/>
+      <c r="B625" s="1"/>
     </row>
     <row r="626" ht="18" customHeight="1">
-      <c r="A626" s="2"/>
-      <c r="B626" s="2"/>
+      <c r="A626" s="1"/>
+      <c r="B626" s="1"/>
     </row>
     <row r="627" ht="18" customHeight="1">
-      <c r="A627" s="2"/>
-      <c r="B627" s="2"/>
+      <c r="A627" s="1"/>
+      <c r="B627" s="1"/>
     </row>
     <row r="628" ht="18" customHeight="1">
-      <c r="A628" s="2"/>
-      <c r="B628" s="2"/>
+      <c r="A628" s="1"/>
+      <c r="B628" s="1"/>
     </row>
     <row r="629" ht="18" customHeight="1">
-      <c r="A629" s="2"/>
-      <c r="B629" s="2"/>
+      <c r="A629" s="1"/>
+      <c r="B629" s="1"/>
     </row>
     <row r="630" ht="18" customHeight="1">
-      <c r="A630" s="2"/>
-      <c r="B630" s="2"/>
+      <c r="A630" s="1"/>
+      <c r="B630" s="1"/>
     </row>
     <row r="631" ht="18" customHeight="1">
-      <c r="A631" s="2"/>
-      <c r="B631" s="2"/>
+      <c r="A631" s="1"/>
+      <c r="B631" s="1"/>
     </row>
     <row r="632" ht="18" customHeight="1">
-      <c r="A632" s="2"/>
-      <c r="B632" s="2"/>
+      <c r="A632" s="1"/>
+      <c r="B632" s="1"/>
     </row>
     <row r="633" ht="18" customHeight="1">
-      <c r="A633" s="2"/>
-      <c r="B633" s="2"/>
+      <c r="A633" s="1"/>
+      <c r="B633" s="1"/>
     </row>
     <row r="634" ht="18" customHeight="1">
-      <c r="A634" s="2"/>
-      <c r="B634" s="2"/>
+      <c r="A634" s="1"/>
+      <c r="B634" s="1"/>
     </row>
     <row r="635" ht="18" customHeight="1">
-      <c r="A635" s="2"/>
-      <c r="B635" s="2"/>
+      <c r="A635" s="1"/>
+      <c r="B635" s="1"/>
     </row>
     <row r="636" ht="18" customHeight="1">
-      <c r="A636" s="2"/>
-      <c r="B636" s="2"/>
+      <c r="A636" s="1"/>
+      <c r="B636" s="1"/>
     </row>
     <row r="637" ht="18" customHeight="1">
-      <c r="A637" s="2"/>
-      <c r="B637" s="2"/>
+      <c r="A637" s="1"/>
+      <c r="B637" s="1"/>
     </row>
     <row r="638" ht="18" customHeight="1">
-      <c r="A638" s="2"/>
-      <c r="B638" s="2"/>
+      <c r="A638" s="1"/>
+      <c r="B638" s="1"/>
     </row>
     <row r="639" ht="18" customHeight="1">
-      <c r="A639" s="2"/>
-      <c r="B639" s="2"/>
+      <c r="A639" s="1"/>
+      <c r="B639" s="1"/>
     </row>
     <row r="640" ht="18" customHeight="1">
-      <c r="A640" s="2"/>
-      <c r="B640" s="2"/>
+      <c r="A640" s="1"/>
+      <c r="B640" s="1"/>
     </row>
     <row r="641" ht="18" customHeight="1">
-      <c r="A641" s="2"/>
-      <c r="B641" s="2"/>
+      <c r="A641" s="1"/>
+      <c r="B641" s="1"/>
     </row>
     <row r="642" ht="18" customHeight="1">
-      <c r="A642" s="2"/>
-      <c r="B642" s="2"/>
+      <c r="A642" s="1"/>
+      <c r="B642" s="1"/>
     </row>
     <row r="643" ht="18" customHeight="1">
-      <c r="A643" s="2"/>
-      <c r="B643" s="2"/>
+      <c r="A643" s="1"/>
+      <c r="B643" s="1"/>
     </row>
     <row r="644" ht="18" customHeight="1">
-      <c r="A644" s="2"/>
-      <c r="B644" s="2"/>
+      <c r="A644" s="1"/>
+      <c r="B644" s="1"/>
     </row>
     <row r="645" ht="18" customHeight="1">
-      <c r="A645" s="2"/>
-      <c r="B645" s="2"/>
+      <c r="A645" s="1"/>
+      <c r="B645" s="1"/>
     </row>
     <row r="646" ht="18" customHeight="1">
-      <c r="A646" s="2"/>
-      <c r="B646" s="2"/>
+      <c r="A646" s="1"/>
+      <c r="B646" s="1"/>
     </row>
     <row r="647" ht="18" customHeight="1">
-      <c r="A647" s="2"/>
-      <c r="B647" s="2"/>
+      <c r="A647" s="1"/>
+      <c r="B647" s="1"/>
     </row>
     <row r="648" ht="18" customHeight="1">
-      <c r="A648" s="2"/>
-      <c r="B648" s="2"/>
+      <c r="A648" s="1"/>
+      <c r="B648" s="1"/>
     </row>
     <row r="649" ht="18" customHeight="1">
-      <c r="A649" s="2"/>
-      <c r="B649" s="2"/>
+      <c r="A649" s="1"/>
+      <c r="B649" s="1"/>
     </row>
     <row r="650" ht="18" customHeight="1">
-      <c r="A650" s="2"/>
-      <c r="B650" s="2"/>
+      <c r="A650" s="1"/>
+      <c r="B650" s="1"/>
     </row>
     <row r="651" ht="18" customHeight="1">
-      <c r="A651" s="2"/>
-      <c r="B651" s="2"/>
+      <c r="A651" s="1"/>
+      <c r="B651" s="1"/>
     </row>
     <row r="652" ht="18" customHeight="1">
-      <c r="A652" s="2"/>
-      <c r="B652" s="2"/>
+      <c r="A652" s="1"/>
+      <c r="B652" s="1"/>
     </row>
     <row r="653" ht="18" customHeight="1">
-      <c r="A653" s="2"/>
-      <c r="B653" s="2"/>
+      <c r="A653" s="1"/>
+      <c r="B653" s="1"/>
     </row>
     <row r="654" ht="18" customHeight="1">
-      <c r="A654" s="2"/>
-      <c r="B654" s="2"/>
+      <c r="A654" s="1"/>
+      <c r="B654" s="1"/>
     </row>
     <row r="655" ht="18" customHeight="1">
-      <c r="A655" s="2"/>
-      <c r="B655" s="2"/>
+      <c r="A655" s="1"/>
+      <c r="B655" s="1"/>
     </row>
     <row r="656" ht="18" customHeight="1">
-      <c r="A656" s="2"/>
-      <c r="B656" s="2"/>
+      <c r="A656" s="1"/>
+      <c r="B656" s="1"/>
     </row>
     <row r="657" ht="18" customHeight="1">
-      <c r="A657" s="2"/>
-      <c r="B657" s="2"/>
+      <c r="A657" s="1"/>
+      <c r="B657" s="1"/>
     </row>
     <row r="658" ht="18" customHeight="1">
-      <c r="A658" s="2"/>
-      <c r="B658" s="2"/>
+      <c r="A658" s="1"/>
+      <c r="B658" s="1"/>
     </row>
     <row r="659" ht="18" customHeight="1">
-      <c r="A659" s="2"/>
-      <c r="B659" s="2"/>
+      <c r="A659" s="1"/>
+      <c r="B659" s="1"/>
     </row>
     <row r="660" ht="18" customHeight="1">
-      <c r="A660" s="2"/>
-      <c r="B660" s="2"/>
+      <c r="A660" s="1"/>
+      <c r="B660" s="1"/>
     </row>
     <row r="661" ht="18" customHeight="1">
-      <c r="A661" s="2"/>
-      <c r="B661" s="2"/>
+      <c r="A661" s="1"/>
+      <c r="B661" s="1"/>
     </row>
     <row r="662" ht="18" customHeight="1">
-      <c r="A662" s="2"/>
-      <c r="B662" s="2"/>
+      <c r="A662" s="1"/>
+      <c r="B662" s="1"/>
     </row>
     <row r="663" ht="18" customHeight="1">
-      <c r="A663" s="2"/>
-      <c r="B663" s="2"/>
+      <c r="A663" s="1"/>
+      <c r="B663" s="1"/>
     </row>
     <row r="664" ht="18" customHeight="1">
-      <c r="A664" s="2"/>
-      <c r="B664" s="2"/>
+      <c r="A664" s="1"/>
+      <c r="B664" s="1"/>
     </row>
     <row r="665" ht="18" customHeight="1">
-      <c r="A665" s="2"/>
-      <c r="B665" s="2"/>
+      <c r="A665" s="1"/>
+      <c r="B665" s="1"/>
     </row>
     <row r="666" ht="18" customHeight="1">
-      <c r="A666" s="2"/>
-      <c r="B666" s="2"/>
+      <c r="A666" s="1"/>
+      <c r="B666" s="1"/>
     </row>
     <row r="667" ht="18" customHeight="1">
-      <c r="A667" s="2"/>
-      <c r="B667" s="2"/>
+      <c r="A667" s="1"/>
+      <c r="B667" s="1"/>
     </row>
     <row r="668" ht="18" customHeight="1">
-      <c r="A668" s="2"/>
-      <c r="B668" s="2"/>
+      <c r="A668" s="1"/>
+      <c r="B668" s="1"/>
     </row>
     <row r="669" ht="18" customHeight="1">
-      <c r="A669" s="2"/>
-      <c r="B669" s="2"/>
+      <c r="A669" s="1"/>
+      <c r="B669" s="1"/>
     </row>
     <row r="670" ht="18" customHeight="1">
-      <c r="A670" s="2"/>
-      <c r="B670" s="2"/>
+      <c r="A670" s="1"/>
+      <c r="B670" s="1"/>
     </row>
     <row r="671" ht="18" customHeight="1">
-      <c r="A671" s="2"/>
-      <c r="B671" s="2"/>
+      <c r="A671" s="1"/>
+      <c r="B671" s="1"/>
     </row>
     <row r="672" ht="18" customHeight="1">
-      <c r="A672" s="2"/>
-      <c r="B672" s="2"/>
+      <c r="A672" s="1"/>
+      <c r="B672" s="1"/>
     </row>
     <row r="673" ht="18" customHeight="1">
-      <c r="A673" s="2"/>
-      <c r="B673" s="2"/>
+      <c r="A673" s="1"/>
+      <c r="B673" s="1"/>
     </row>
     <row r="674" ht="18" customHeight="1">
-      <c r="A674" s="2"/>
-      <c r="B674" s="2"/>
+      <c r="A674" s="1"/>
+      <c r="B674" s="1"/>
     </row>
     <row r="675" ht="18" customHeight="1">
-      <c r="A675" s="2"/>
-      <c r="B675" s="2"/>
+      <c r="A675" s="1"/>
+      <c r="B675" s="1"/>
     </row>
     <row r="676" ht="18" customHeight="1">
-      <c r="A676" s="2"/>
-      <c r="B676" s="2"/>
+      <c r="A676" s="1"/>
+      <c r="B676" s="1"/>
     </row>
     <row r="677" ht="18" customHeight="1">
-      <c r="A677" s="2"/>
-      <c r="B677" s="2"/>
+      <c r="A677" s="1"/>
+      <c r="B677" s="1"/>
     </row>
     <row r="678" ht="18" customHeight="1">
-      <c r="A678" s="2"/>
-      <c r="B678" s="2"/>
+      <c r="A678" s="1"/>
+      <c r="B678" s="1"/>
     </row>
     <row r="679" ht="18" customHeight="1">
-      <c r="A679" s="2"/>
-      <c r="B679" s="2"/>
+      <c r="A679" s="1"/>
+      <c r="B679" s="1"/>
     </row>
     <row r="680" ht="18" customHeight="1">
-      <c r="A680" s="2"/>
-      <c r="B680" s="2"/>
+      <c r="A680" s="1"/>
+      <c r="B680" s="1"/>
     </row>
     <row r="681" ht="18" customHeight="1">
-      <c r="A681" s="2"/>
-      <c r="B681" s="2"/>
+      <c r="A681" s="1"/>
+      <c r="B681" s="1"/>
     </row>
     <row r="682" ht="18" customHeight="1">
-      <c r="A682" s="2"/>
-      <c r="B682" s="2"/>
+      <c r="A682" s="1"/>
+      <c r="B682" s="1"/>
     </row>
     <row r="683" ht="18" customHeight="1">
-      <c r="A683" s="2"/>
-      <c r="B683" s="2"/>
+      <c r="A683" s="1"/>
+      <c r="B683" s="1"/>
     </row>
     <row r="684" ht="18" customHeight="1">
-      <c r="A684" s="2"/>
-      <c r="B684" s="2"/>
+      <c r="A684" s="1"/>
+      <c r="B684" s="1"/>
     </row>
     <row r="685" ht="18" customHeight="1">
-      <c r="A685" s="2"/>
-      <c r="B685" s="2"/>
+      <c r="A685" s="1"/>
+      <c r="B685" s="1"/>
     </row>
     <row r="686" ht="18" customHeight="1">
-      <c r="A686" s="2"/>
-      <c r="B686" s="2"/>
+      <c r="A686" s="1"/>
+      <c r="B686" s="1"/>
     </row>
     <row r="687" ht="18" customHeight="1">
-      <c r="A687" s="2"/>
-      <c r="B687" s="2"/>
+      <c r="A687" s="1"/>
+      <c r="B687" s="1"/>
     </row>
     <row r="688" ht="18" customHeight="1">
-      <c r="A688" s="2"/>
-      <c r="B688" s="2"/>
+      <c r="A688" s="1"/>
+      <c r="B688" s="1"/>
     </row>
     <row r="689" ht="18" customHeight="1">
-      <c r="A689" s="2"/>
-      <c r="B689" s="2"/>
+      <c r="A689" s="1"/>
+      <c r="B689" s="1"/>
     </row>
     <row r="690" ht="18" customHeight="1">
-      <c r="A690" s="2"/>
-      <c r="B690" s="2"/>
+      <c r="A690" s="1"/>
+      <c r="B690" s="1"/>
     </row>
     <row r="691" ht="18" customHeight="1">
-      <c r="A691" s="2"/>
-      <c r="B691" s="2"/>
+      <c r="A691" s="1"/>
+      <c r="B691" s="1"/>
     </row>
     <row r="692" ht="18" customHeight="1">
-      <c r="A692" s="2"/>
-      <c r="B692" s="2"/>
+      <c r="A692" s="1"/>
+      <c r="B692" s="1"/>
     </row>
     <row r="693" ht="18" customHeight="1">
-      <c r="A693" s="2"/>
-      <c r="B693" s="2"/>
+      <c r="A693" s="1"/>
+      <c r="B693" s="1"/>
     </row>
     <row r="694" ht="18" customHeight="1">
-      <c r="A694" s="2"/>
-      <c r="B694" s="2"/>
+      <c r="A694" s="1"/>
+      <c r="B694" s="1"/>
     </row>
     <row r="695" ht="18" customHeight="1">
-      <c r="A695" s="2"/>
-      <c r="B695" s="2"/>
+      <c r="A695" s="1"/>
+      <c r="B695" s="1"/>
     </row>
     <row r="696" ht="18" customHeight="1">
-      <c r="A696" s="2"/>
-      <c r="B696" s="2"/>
+      <c r="A696" s="1"/>
+      <c r="B696" s="1"/>
     </row>
     <row r="697" ht="18" customHeight="1">
-      <c r="A697" s="2"/>
-      <c r="B697" s="2"/>
+      <c r="A697" s="1"/>
+      <c r="B697" s="1"/>
     </row>
     <row r="698" ht="18" customHeight="1">
-      <c r="A698" s="2"/>
-      <c r="B698" s="2"/>
+      <c r="A698" s="1"/>
+      <c r="B698" s="1"/>
     </row>
     <row r="699" ht="18" customHeight="1">
-      <c r="A699" s="2"/>
-      <c r="B699" s="2"/>
+      <c r="A699" s="1"/>
+      <c r="B699" s="1"/>
     </row>
     <row r="700" ht="18" customHeight="1">
-      <c r="A700" s="2"/>
-      <c r="B700" s="2"/>
+      <c r="A700" s="1"/>
+      <c r="B700" s="1"/>
     </row>
     <row r="701" ht="18" customHeight="1">
-      <c r="A701" s="2"/>
-      <c r="B701" s="2"/>
+      <c r="A701" s="1"/>
+      <c r="B701" s="1"/>
     </row>
     <row r="702" ht="18" customHeight="1">
-      <c r="A702" s="2"/>
-      <c r="B702" s="2"/>
+      <c r="A702" s="1"/>
+      <c r="B702" s="1"/>
     </row>
     <row r="703" ht="18" customHeight="1">
-      <c r="A703" s="2"/>
-      <c r="B703" s="2"/>
+      <c r="A703" s="1"/>
+      <c r="B703" s="1"/>
     </row>
     <row r="704" ht="18" customHeight="1">
-      <c r="A704" s="2"/>
-      <c r="B704" s="2"/>
+      <c r="A704" s="1"/>
+      <c r="B704" s="1"/>
     </row>
     <row r="705" ht="18" customHeight="1">
-      <c r="A705" s="2"/>
-      <c r="B705" s="2"/>
+      <c r="A705" s="1"/>
+      <c r="B705" s="1"/>
     </row>
     <row r="706" ht="18" customHeight="1">
-      <c r="A706" s="2"/>
-      <c r="B706" s="2"/>
+      <c r="A706" s="1"/>
+      <c r="B706" s="1"/>
     </row>
     <row r="707" ht="18" customHeight="1">
-      <c r="A707" s="2"/>
-      <c r="B707" s="2"/>
+      <c r="A707" s="1"/>
+      <c r="B707" s="1"/>
     </row>
     <row r="708" ht="18" customHeight="1">
-      <c r="A708" s="2"/>
-      <c r="B708" s="2"/>
+      <c r="A708" s="1"/>
+      <c r="B708" s="1"/>
     </row>
     <row r="709" ht="18" customHeight="1">
-      <c r="A709" s="2"/>
-      <c r="B709" s="2"/>
+      <c r="A709" s="1"/>
+      <c r="B709" s="1"/>
     </row>
     <row r="710" ht="18" customHeight="1">
-      <c r="A710" s="2"/>
-      <c r="B710" s="2"/>
+      <c r="A710" s="1"/>
+      <c r="B710" s="1"/>
     </row>
     <row r="711" ht="18" customHeight="1">
-      <c r="A711" s="2"/>
-      <c r="B711" s="2"/>
+      <c r="A711" s="1"/>
+      <c r="B711" s="1"/>
     </row>
     <row r="712" ht="18" customHeight="1">
-      <c r="A712" s="2"/>
-      <c r="B712" s="2"/>
+      <c r="A712" s="1"/>
+      <c r="B712" s="1"/>
     </row>
     <row r="713" ht="18" customHeight="1">
-      <c r="A713" s="2"/>
-      <c r="B713" s="2"/>
+      <c r="A713" s="1"/>
+      <c r="B713" s="1"/>
     </row>
     <row r="714" ht="18" customHeight="1">
-      <c r="A714" s="2"/>
-      <c r="B714" s="2"/>
+      <c r="A714" s="1"/>
+      <c r="B714" s="1"/>
     </row>
     <row r="715" ht="18" customHeight="1">
-      <c r="A715" s="2"/>
-      <c r="B715" s="2"/>
+      <c r="A715" s="1"/>
+      <c r="B715" s="1"/>
     </row>
     <row r="716" ht="18" customHeight="1">
-      <c r="A716" s="2"/>
-      <c r="B716" s="2"/>
+      <c r="A716" s="1"/>
+      <c r="B716" s="1"/>
     </row>
     <row r="717" ht="18" customHeight="1">
-      <c r="A717" s="2"/>
-      <c r="B717" s="2"/>
+      <c r="A717" s="1"/>
+      <c r="B717" s="1"/>
     </row>
     <row r="718" ht="18" customHeight="1">
-      <c r="A718" s="2"/>
-      <c r="B718" s="2"/>
+      <c r="A718" s="1"/>
+      <c r="B718" s="1"/>
     </row>
     <row r="719" ht="18" customHeight="1">
-      <c r="A719" s="2"/>
-      <c r="B719" s="2"/>
+      <c r="A719" s="1"/>
+      <c r="B719" s="1"/>
     </row>
     <row r="720" ht="18" customHeight="1">
-      <c r="A720" s="2"/>
-      <c r="B720" s="2"/>
+      <c r="A720" s="1"/>
+      <c r="B720" s="1"/>
     </row>
     <row r="721" ht="18" customHeight="1">
-      <c r="A721" s="2"/>
-      <c r="B721" s="2"/>
+      <c r="A721" s="1"/>
+      <c r="B721" s="1"/>
     </row>
     <row r="722" ht="18" customHeight="1">
-      <c r="A722" s="2"/>
-      <c r="B722" s="2"/>
+      <c r="A722" s="1"/>
+      <c r="B722" s="1"/>
     </row>
     <row r="723" ht="18" customHeight="1">
-      <c r="A723" s="2"/>
-      <c r="B723" s="2"/>
+      <c r="A723" s="1"/>
+      <c r="B723" s="1"/>
     </row>
     <row r="724" ht="18" customHeight="1">
-      <c r="A724" s="2"/>
-      <c r="B724" s="2"/>
+      <c r="A724" s="1"/>
+      <c r="B724" s="1"/>
     </row>
     <row r="725" ht="18" customHeight="1">
-      <c r="A725" s="2"/>
-      <c r="B725" s="2"/>
+      <c r="A725" s="1"/>
+      <c r="B725" s="1"/>
     </row>
     <row r="726" ht="18" customHeight="1">
-      <c r="A726" s="2"/>
-      <c r="B726" s="2"/>
+      <c r="A726" s="1"/>
+      <c r="B726" s="1"/>
     </row>
     <row r="727" ht="18" customHeight="1">
-      <c r="A727" s="2"/>
-      <c r="B727" s="2"/>
+      <c r="A727" s="1"/>
+      <c r="B727" s="1"/>
     </row>
     <row r="728" ht="18" customHeight="1">
-      <c r="A728" s="2"/>
-      <c r="B728" s="2"/>
+      <c r="A728" s="1"/>
+      <c r="B728" s="1"/>
     </row>
     <row r="729" ht="18" customHeight="1">
-      <c r="A729" s="2"/>
-      <c r="B729" s="2"/>
+      <c r="A729" s="1"/>
+      <c r="B729" s="1"/>
     </row>
     <row r="730" ht="18" customHeight="1">
-      <c r="A730" s="2"/>
-      <c r="B730" s="2"/>
+      <c r="A730" s="1"/>
+      <c r="B730" s="1"/>
     </row>
     <row r="731" ht="18" customHeight="1">
-      <c r="A731" s="2"/>
-      <c r="B731" s="2"/>
+      <c r="A731" s="1"/>
+      <c r="B731" s="1"/>
     </row>
     <row r="732" ht="18" customHeight="1">
-      <c r="A732" s="2"/>
-      <c r="B732" s="2"/>
+      <c r="A732" s="1"/>
+      <c r="B732" s="1"/>
     </row>
     <row r="733" ht="18" customHeight="1">
-      <c r="A733" s="2"/>
-      <c r="B733" s="2"/>
+      <c r="A733" s="1"/>
+      <c r="B733" s="1"/>
     </row>
     <row r="734" ht="18" customHeight="1">
-      <c r="A734" s="2"/>
-      <c r="B734" s="2"/>
+      <c r="A734" s="1"/>
+      <c r="B734" s="1"/>
     </row>
     <row r="735" ht="18" customHeight="1">
-      <c r="A735" s="2"/>
-      <c r="B735" s="2"/>
+      <c r="A735" s="1"/>
+      <c r="B735" s="1"/>
     </row>
     <row r="736" ht="18" customHeight="1">
-      <c r="A736" s="2"/>
-      <c r="B736" s="2"/>
+      <c r="A736" s="1"/>
+      <c r="B736" s="1"/>
     </row>
     <row r="737" ht="18" customHeight="1">
-      <c r="A737" s="2"/>
-      <c r="B737" s="2"/>
+      <c r="A737" s="1"/>
+      <c r="B737" s="1"/>
     </row>
     <row r="738" ht="18" customHeight="1">
-      <c r="A738" s="2"/>
-      <c r="B738" s="2"/>
+      <c r="A738" s="1"/>
+      <c r="B738" s="1"/>
     </row>
     <row r="739" ht="18" customHeight="1">
-      <c r="A739" s="2"/>
-      <c r="B739" s="2"/>
+      <c r="A739" s="1"/>
+      <c r="B739" s="1"/>
     </row>
     <row r="740" ht="18" customHeight="1">
-      <c r="A740" s="2"/>
-      <c r="B740" s="2"/>
+      <c r="A740" s="1"/>
+      <c r="B740" s="1"/>
     </row>
     <row r="741" ht="18" customHeight="1">
-      <c r="A741" s="2"/>
-      <c r="B741" s="2"/>
+      <c r="A741" s="1"/>
+      <c r="B741" s="1"/>
     </row>
     <row r="742" ht="18" customHeight="1">
-      <c r="A742" s="2"/>
-      <c r="B742" s="2"/>
+      <c r="A742" s="1"/>
+      <c r="B742" s="1"/>
     </row>
     <row r="743" ht="18" customHeight="1">
-      <c r="A743" s="2"/>
-      <c r="B743" s="2"/>
+      <c r="A743" s="1"/>
+      <c r="B743" s="1"/>
     </row>
     <row r="744" ht="18" customHeight="1">
-      <c r="A744" s="2"/>
-      <c r="B744" s="2"/>
+      <c r="A744" s="1"/>
+      <c r="B744" s="1"/>
     </row>
     <row r="745" ht="18" customHeight="1">
-      <c r="A745" s="2"/>
-      <c r="B745" s="2"/>
+      <c r="A745" s="1"/>
+      <c r="B745" s="1"/>
     </row>
     <row r="746" ht="18" customHeight="1">
-      <c r="A746" s="2"/>
-      <c r="B746" s="2"/>
+      <c r="A746" s="1"/>
+      <c r="B746" s="1"/>
     </row>
     <row r="747" ht="18" customHeight="1">
-      <c r="A747" s="2"/>
-      <c r="B747" s="2"/>
+      <c r="A747" s="1"/>
+      <c r="B747" s="1"/>
     </row>
     <row r="748" ht="18" customHeight="1">
-      <c r="A748" s="2"/>
-      <c r="B748" s="2"/>
+      <c r="A748" s="1"/>
+      <c r="B748" s="1"/>
     </row>
     <row r="749" ht="18" customHeight="1">
-      <c r="A749" s="2"/>
-      <c r="B749" s="2"/>
+      <c r="A749" s="1"/>
+      <c r="B749" s="1"/>
     </row>
     <row r="750" ht="18" customHeight="1">
-      <c r="A750" s="2"/>
-      <c r="B750" s="2"/>
+      <c r="A750" s="1"/>
+      <c r="B750" s="1"/>
     </row>
     <row r="751" ht="18" customHeight="1">
-      <c r="A751" s="2"/>
-      <c r="B751" s="2"/>
+      <c r="A751" s="1"/>
+      <c r="B751" s="1"/>
     </row>
     <row r="752" ht="18" customHeight="1">
-      <c r="A752" s="2"/>
-      <c r="B752" s="2"/>
+      <c r="A752" s="1"/>
+      <c r="B752" s="1"/>
     </row>
     <row r="753" ht="18" customHeight="1">
-      <c r="A753" s="2"/>
-      <c r="B753" s="2"/>
+      <c r="A753" s="1"/>
+      <c r="B753" s="1"/>
     </row>
     <row r="754" ht="18" customHeight="1">
-      <c r="A754" s="2"/>
-      <c r="B754" s="2"/>
+      <c r="A754" s="1"/>
+      <c r="B754" s="1"/>
     </row>
     <row r="755" ht="18" customHeight="1">
-      <c r="A755" s="2"/>
-      <c r="B755" s="2"/>
+      <c r="A755" s="1"/>
+      <c r="B755" s="1"/>
     </row>
     <row r="756" ht="18" customHeight="1">
-      <c r="A756" s="2"/>
-      <c r="B756" s="2"/>
+      <c r="A756" s="1"/>
+      <c r="B756" s="1"/>
     </row>
     <row r="757" ht="18" customHeight="1">
-      <c r="A757" s="2"/>
-      <c r="B757" s="2"/>
+      <c r="A757" s="1"/>
+      <c r="B757" s="1"/>
     </row>
     <row r="758" ht="18" customHeight="1">
-      <c r="A758" s="2"/>
-      <c r="B758" s="2"/>
+      <c r="A758" s="1"/>
+      <c r="B758" s="1"/>
     </row>
     <row r="759" ht="18" customHeight="1">
-      <c r="A759" s="2"/>
-      <c r="B759" s="2"/>
+      <c r="A759" s="1"/>
+      <c r="B759" s="1"/>
     </row>
     <row r="760" ht="18" customHeight="1">
-      <c r="A760" s="2"/>
-      <c r="B760" s="2"/>
+      <c r="A760" s="1"/>
+      <c r="B760" s="1"/>
     </row>
     <row r="761" ht="18" customHeight="1">
-      <c r="A761" s="2"/>
-      <c r="B761" s="2"/>
+      <c r="A761" s="1"/>
+      <c r="B761" s="1"/>
     </row>
     <row r="762" ht="18" customHeight="1">
-      <c r="A762" s="2"/>
-      <c r="B762" s="2"/>
+      <c r="A762" s="1"/>
+      <c r="B762" s="1"/>
     </row>
     <row r="763" ht="18" customHeight="1">
-      <c r="A763" s="2"/>
-      <c r="B763" s="2"/>
+      <c r="A763" s="1"/>
+      <c r="B763" s="1"/>
     </row>
     <row r="764" ht="18" customHeight="1">
-      <c r="A764" s="2"/>
-      <c r="B764" s="2"/>
+      <c r="A764" s="1"/>
+      <c r="B764" s="1"/>
     </row>
     <row r="765" ht="18" customHeight="1">
-      <c r="A765" s="2"/>
-      <c r="B765" s="2"/>
+      <c r="A765" s="1"/>
+      <c r="B765" s="1"/>
     </row>
     <row r="766" ht="18" customHeight="1">
-      <c r="A766" s="2"/>
-      <c r="B766" s="2"/>
+      <c r="A766" s="1"/>
+      <c r="B766" s="1"/>
     </row>
     <row r="767" ht="18" customHeight="1">
-      <c r="A767" s="2"/>
-      <c r="B767" s="2"/>
+      <c r="A767" s="1"/>
+      <c r="B767" s="1"/>
     </row>
     <row r="768" ht="18" customHeight="1">
-      <c r="A768" s="2"/>
-      <c r="B768" s="2"/>
+      <c r="A768" s="1"/>
+      <c r="B768" s="1"/>
     </row>
     <row r="769" ht="18" customHeight="1">
-      <c r="A769" s="2"/>
-      <c r="B769" s="2"/>
+      <c r="A769" s="1"/>
+      <c r="B769" s="1"/>
     </row>
     <row r="770" ht="18" customHeight="1">
-      <c r="A770" s="2"/>
-      <c r="B770" s="2"/>
+      <c r="A770" s="1"/>
+      <c r="B770" s="1"/>
     </row>
     <row r="771" ht="18" customHeight="1">
-      <c r="A771" s="2"/>
-      <c r="B771" s="2"/>
+      <c r="A771" s="1"/>
+      <c r="B771" s="1"/>
     </row>
     <row r="772" ht="18" customHeight="1">
-      <c r="A772" s="2"/>
-      <c r="B772" s="2"/>
+      <c r="A772" s="1"/>
+      <c r="B772" s="1"/>
     </row>
     <row r="773" ht="18" customHeight="1">
-      <c r="A773" s="2"/>
-      <c r="B773" s="2"/>
+      <c r="A773" s="1"/>
+      <c r="B773" s="1"/>
     </row>
     <row r="774" ht="18" customHeight="1">
-      <c r="A774" s="2"/>
-      <c r="B774" s="2"/>
+      <c r="A774" s="1"/>
+      <c r="B774" s="1"/>
     </row>
     <row r="775" ht="18" customHeight="1">
-      <c r="A775" s="2"/>
-      <c r="B775" s="2"/>
+      <c r="A775" s="1"/>
+      <c r="B775" s="1"/>
     </row>
     <row r="776" ht="18" customHeight="1">
-      <c r="A776" s="2"/>
-      <c r="B776" s="2"/>
+      <c r="A776" s="1"/>
+      <c r="B776" s="1"/>
     </row>
     <row r="777" ht="18" customHeight="1">
-      <c r="A777" s="2"/>
-      <c r="B777" s="2"/>
+      <c r="A777" s="1"/>
+      <c r="B777" s="1"/>
     </row>
     <row r="778" ht="18" customHeight="1">
-      <c r="A778" s="2"/>
-      <c r="B778" s="2"/>
+      <c r="A778" s="1"/>
+      <c r="B778" s="1"/>
     </row>
     <row r="779" ht="18" customHeight="1">
-      <c r="A779" s="2"/>
-      <c r="B779" s="2"/>
+      <c r="A779" s="1"/>
+      <c r="B779" s="1"/>
     </row>
     <row r="780" ht="18" customHeight="1">
-      <c r="A780" s="2"/>
-      <c r="B780" s="2"/>
+      <c r="A780" s="1"/>
+      <c r="B780" s="1"/>
     </row>
     <row r="781" ht="18" customHeight="1">
-      <c r="A781" s="2"/>
-      <c r="B781" s="2"/>
+      <c r="A781" s="1"/>
+      <c r="B781" s="1"/>
     </row>
     <row r="782" ht="18" customHeight="1">
-      <c r="A782" s="2"/>
-      <c r="B782" s="2"/>
+      <c r="A782" s="1"/>
+      <c r="B782" s="1"/>
     </row>
     <row r="783" ht="18" customHeight="1">
-      <c r="A783" s="2"/>
-      <c r="B783" s="2"/>
+      <c r="A783" s="1"/>
+      <c r="B783" s="1"/>
     </row>
     <row r="784" ht="18" customHeight="1">
-      <c r="A784" s="2"/>
-      <c r="B784" s="2"/>
+      <c r="A784" s="1"/>
+      <c r="B784" s="1"/>
     </row>
     <row r="785" ht="18" customHeight="1">
-      <c r="A785" s="2"/>
-      <c r="B785" s="2"/>
+      <c r="A785" s="1"/>
+      <c r="B785" s="1"/>
     </row>
     <row r="786" ht="18" customHeight="1">
-      <c r="A786" s="2"/>
-      <c r="B786" s="2"/>
+      <c r="A786" s="1"/>
+      <c r="B786" s="1"/>
     </row>
     <row r="787" ht="18" customHeight="1">
-      <c r="A787" s="2"/>
-      <c r="B787" s="2"/>
+      <c r="A787" s="1"/>
+      <c r="B787" s="1"/>
     </row>
     <row r="788" ht="18" customHeight="1">
-      <c r="A788" s="2"/>
-      <c r="B788" s="2"/>
+      <c r="A788" s="1"/>
+      <c r="B788" s="1"/>
     </row>
     <row r="789" ht="18" customHeight="1">
-      <c r="A789" s="2"/>
-      <c r="B789" s="2"/>
+      <c r="A789" s="1"/>
+      <c r="B789" s="1"/>
     </row>
     <row r="790" ht="18" customHeight="1">
-      <c r="A790" s="2"/>
-      <c r="B790" s="2"/>
+      <c r="A790" s="1"/>
+      <c r="B790" s="1"/>
     </row>
     <row r="791" ht="18" customHeight="1">
-      <c r="A791" s="2"/>
-      <c r="B791" s="2"/>
+      <c r="A791" s="1"/>
+      <c r="B791" s="1"/>
     </row>
     <row r="792" ht="18" customHeight="1">
-      <c r="A792" s="2"/>
-      <c r="B792" s="2"/>
+      <c r="A792" s="1"/>
+      <c r="B792" s="1"/>
     </row>
     <row r="793" ht="18" customHeight="1">
-      <c r="A793" s="2"/>
-      <c r="B793" s="2"/>
+      <c r="A793" s="1"/>
+      <c r="B793" s="1"/>
     </row>
     <row r="794" ht="18" customHeight="1">
-      <c r="A794" s="2"/>
-      <c r="B794" s="2"/>
+      <c r="A794" s="1"/>
+      <c r="B794" s="1"/>
     </row>
     <row r="795" ht="18" customHeight="1">
-      <c r="A795" s="2"/>
-      <c r="B795" s="2"/>
+      <c r="A795" s="1"/>
+      <c r="B795" s="1"/>
     </row>
     <row r="796" ht="18" customHeight="1">
-      <c r="A796" s="2"/>
-      <c r="B796" s="2"/>
+      <c r="A796" s="1"/>
+      <c r="B796" s="1"/>
     </row>
     <row r="797" ht="18" customHeight="1">
-      <c r="A797" s="2"/>
-      <c r="B797" s="2"/>
+      <c r="A797" s="1"/>
+      <c r="B797" s="1"/>
     </row>
     <row r="798" ht="18" customHeight="1">
-      <c r="A798" s="2"/>
-      <c r="B798" s="2"/>
+      <c r="A798" s="1"/>
+      <c r="B798" s="1"/>
     </row>
     <row r="799" ht="18" customHeight="1">
-      <c r="A799" s="2"/>
-      <c r="B799" s="2"/>
+      <c r="A799" s="1"/>
+      <c r="B799" s="1"/>
     </row>
     <row r="800" ht="18" customHeight="1">
-      <c r="A800" s="2"/>
-      <c r="B800" s="2"/>
+      <c r="A800" s="1"/>
+      <c r="B800" s="1"/>
     </row>
     <row r="801" ht="18" customHeight="1">
-      <c r="A801" s="2"/>
-      <c r="B801" s="2"/>
+      <c r="A801" s="1"/>
+      <c r="B801" s="1"/>
     </row>
     <row r="802" ht="18" customHeight="1">
-      <c r="A802" s="2"/>
-      <c r="B802" s="2"/>
+      <c r="A802" s="1"/>
+      <c r="B802" s="1"/>
     </row>
     <row r="803" ht="18" customHeight="1">
-      <c r="A803" s="2"/>
-      <c r="B803" s="2"/>
+      <c r="A803" s="1"/>
+      <c r="B803" s="1"/>
     </row>
     <row r="804" ht="18" customHeight="1">
-      <c r="A804" s="2"/>
-      <c r="B804" s="2"/>
+      <c r="A804" s="1"/>
+      <c r="B804" s="1"/>
     </row>
     <row r="805" ht="18" customHeight="1">
-      <c r="A805" s="2"/>
-      <c r="B805" s="2"/>
+      <c r="A805" s="1"/>
+      <c r="B805" s="1"/>
     </row>
     <row r="806" ht="18" customHeight="1">
-      <c r="A806" s="2"/>
-      <c r="B806" s="2"/>
+      <c r="A806" s="1"/>
+      <c r="B806" s="1"/>
     </row>
     <row r="807" ht="18" customHeight="1">
-      <c r="A807" s="2"/>
-      <c r="B807" s="2"/>
+      <c r="A807" s="1"/>
+      <c r="B807" s="1"/>
     </row>
     <row r="808" ht="18" customHeight="1">
-      <c r="A808" s="2"/>
-      <c r="B808" s="2"/>
+      <c r="A808" s="1"/>
+      <c r="B808" s="1"/>
     </row>
     <row r="809" ht="18" customHeight="1">
-      <c r="A809" s="2"/>
-      <c r="B809" s="2"/>
+      <c r="A809" s="1"/>
+      <c r="B809" s="1"/>
     </row>
     <row r="810" ht="18" customHeight="1">
-      <c r="A810" s="2"/>
-      <c r="B810" s="2"/>
+      <c r="A810" s="1"/>
+      <c r="B810" s="1"/>
     </row>
     <row r="811" ht="18" customHeight="1">
-      <c r="A811" s="2"/>
-      <c r="B811" s="2"/>
+      <c r="A811" s="1"/>
+      <c r="B811" s="1"/>
     </row>
     <row r="812" ht="18" customHeight="1">
-      <c r="A812" s="2"/>
-      <c r="B812" s="2"/>
+      <c r="A812" s="1"/>
+      <c r="B812" s="1"/>
     </row>
     <row r="813" ht="18" customHeight="1">
-      <c r="A813" s="2"/>
-      <c r="B813" s="2"/>
+      <c r="A813" s="1"/>
+      <c r="B813" s="1"/>
     </row>
     <row r="814" ht="18" customHeight="1">
-      <c r="A814" s="2"/>
-      <c r="B814" s="2"/>
+      <c r="A814" s="1"/>
+      <c r="B814" s="1"/>
     </row>
     <row r="815" ht="18" customHeight="1">
-      <c r="A815" s="2"/>
-      <c r="B815" s="2"/>
+      <c r="A815" s="1"/>
+      <c r="B815" s="1"/>
     </row>
     <row r="816" ht="18" customHeight="1">
-      <c r="A816" s="2"/>
-      <c r="B816" s="2"/>
+      <c r="A816" s="1"/>
+      <c r="B816" s="1"/>
     </row>
     <row r="817" ht="18" customHeight="1">
-      <c r="A817" s="2"/>
-      <c r="B817" s="2"/>
+      <c r="A817" s="1"/>
+      <c r="B817" s="1"/>
     </row>
     <row r="818" ht="18" customHeight="1">
-      <c r="A818" s="2"/>
-      <c r="B818" s="2"/>
+      <c r="A818" s="1"/>
+      <c r="B818" s="1"/>
     </row>
     <row r="819" ht="18" customHeight="1">
-      <c r="A819" s="2"/>
-      <c r="B819" s="2"/>
+      <c r="A819" s="1"/>
+      <c r="B819" s="1"/>
     </row>
     <row r="820" ht="18" customHeight="1">
-      <c r="A820" s="2"/>
-      <c r="B820" s="2"/>
+      <c r="A820" s="1"/>
+      <c r="B820" s="1"/>
     </row>
     <row r="821" ht="18" customHeight="1">
-      <c r="A821" s="2"/>
-      <c r="B821" s="2"/>
+      <c r="A821" s="1"/>
+      <c r="B821" s="1"/>
     </row>
     <row r="822" ht="18" customHeight="1">
-      <c r="A822" s="2"/>
-      <c r="B822" s="2"/>
+      <c r="A822" s="1"/>
+      <c r="B822" s="1"/>
     </row>
     <row r="823" ht="18" customHeight="1">
-      <c r="A823" s="2"/>
-      <c r="B823" s="2"/>
+      <c r="A823" s="1"/>
+      <c r="B823" s="1"/>
     </row>
     <row r="824" ht="18" customHeight="1">
-      <c r="A824" s="2"/>
-      <c r="B824" s="2"/>
+      <c r="A824" s="1"/>
+      <c r="B824" s="1"/>
     </row>
     <row r="825" ht="18" customHeight="1">
-      <c r="A825" s="2"/>
-      <c r="B825" s="2"/>
+      <c r="A825" s="1"/>
+      <c r="B825" s="1"/>
     </row>
     <row r="826" ht="18" customHeight="1">
-      <c r="A826" s="2"/>
-      <c r="B826" s="2"/>
+      <c r="A826" s="1"/>
+      <c r="B826" s="1"/>
     </row>
     <row r="827" ht="18" customHeight="1">
-      <c r="A827" s="2"/>
-      <c r="B827" s="2"/>
+      <c r="A827" s="1"/>
+      <c r="B827" s="1"/>
     </row>
     <row r="828" ht="18" customHeight="1">
-      <c r="A828" s="2"/>
-      <c r="B828" s="2"/>
+      <c r="A828" s="1"/>
+      <c r="B828" s="1"/>
     </row>
     <row r="829" ht="18" customHeight="1">
-      <c r="A829" s="2"/>
-      <c r="B829" s="2"/>
+      <c r="A829" s="1"/>
+      <c r="B829" s="1"/>
     </row>
     <row r="830" ht="18" customHeight="1">
-      <c r="A830" s="2"/>
-      <c r="B830" s="2"/>
+      <c r="A830" s="1"/>
+      <c r="B830" s="1"/>
     </row>
     <row r="831" ht="18" customHeight="1">
-      <c r="A831" s="2"/>
-      <c r="B831" s="2"/>
+      <c r="A831" s="1"/>
+      <c r="B831" s="1"/>
     </row>
     <row r="832" ht="18" customHeight="1">
-      <c r="A832" s="2"/>
-      <c r="B832" s="2"/>
+      <c r="A832" s="1"/>
+      <c r="B832" s="1"/>
     </row>
     <row r="833" ht="18" customHeight="1">
-      <c r="A833" s="2"/>
-      <c r="B833" s="2"/>
+      <c r="A833" s="1"/>
+      <c r="B833" s="1"/>
     </row>
     <row r="834" ht="18" customHeight="1">
-      <c r="A834" s="2"/>
-      <c r="B834" s="2"/>
+      <c r="A834" s="1"/>
+      <c r="B834" s="1"/>
     </row>
     <row r="835" ht="18" customHeight="1">
-      <c r="A835" s="2"/>
-      <c r="B835" s="2"/>
+      <c r="A835" s="1"/>
+      <c r="B835" s="1"/>
     </row>
     <row r="836" ht="18" customHeight="1">
-      <c r="A836" s="2"/>
-      <c r="B836" s="2"/>
+      <c r="A836" s="1"/>
+      <c r="B836" s="1"/>
     </row>
     <row r="837" ht="18" customHeight="1">
-      <c r="A837" s="2"/>
-      <c r="B837" s="2"/>
+      <c r="A837" s="1"/>
+      <c r="B837" s="1"/>
     </row>
     <row r="838" ht="18" customHeight="1">
-      <c r="A838" s="2"/>
-      <c r="B838" s="2"/>
+      <c r="A838" s="1"/>
+      <c r="B838" s="1"/>
     </row>
     <row r="839" ht="18" customHeight="1">
-      <c r="A839" s="2"/>
-      <c r="B839" s="2"/>
+      <c r="A839" s="1"/>
+      <c r="B839" s="1"/>
     </row>
     <row r="840" ht="18" customHeight="1">
-      <c r="A840" s="2"/>
-      <c r="B840" s="2"/>
+      <c r="A840" s="1"/>
+      <c r="B840" s="1"/>
     </row>
     <row r="841" ht="18" customHeight="1">
-      <c r="A841" s="2"/>
-      <c r="B841" s="2"/>
+      <c r="A841" s="1"/>
+      <c r="B841" s="1"/>
     </row>
     <row r="842" ht="18" customHeight="1">
-      <c r="A842" s="2"/>
-      <c r="B842" s="2"/>
+      <c r="A842" s="1"/>
+      <c r="B842" s="1"/>
     </row>
     <row r="843" ht="18" customHeight="1">
-      <c r="A843" s="2"/>
-      <c r="B843" s="2"/>
+      <c r="A843" s="1"/>
+      <c r="B843" s="1"/>
     </row>
     <row r="844" ht="18" customHeight="1">
-      <c r="A844" s="2"/>
-      <c r="B844" s="2"/>
+      <c r="A844" s="1"/>
+      <c r="B844" s="1"/>
     </row>
     <row r="845" ht="18" customHeight="1">
-      <c r="A845" s="2"/>
-      <c r="B845" s="2"/>
+      <c r="A845" s="1"/>
+      <c r="B845" s="1"/>
     </row>
     <row r="846" ht="18" customHeight="1">
-      <c r="A846" s="2"/>
-      <c r="B846" s="2"/>
+      <c r="A846" s="1"/>
+      <c r="B846" s="1"/>
     </row>
     <row r="847" ht="18" customHeight="1">
-      <c r="A847" s="2"/>
-      <c r="B847" s="2"/>
+      <c r="A847" s="1"/>
+      <c r="B847" s="1"/>
     </row>
     <row r="848" ht="18" customHeight="1">
-      <c r="A848" s="2"/>
-      <c r="B848" s="2"/>
+      <c r="A848" s="1"/>
+      <c r="B848" s="1"/>
     </row>
     <row r="849" ht="18" customHeight="1">
-      <c r="A849" s="2"/>
-      <c r="B849" s="2"/>
+      <c r="A849" s="1"/>
+      <c r="B849" s="1"/>
     </row>
     <row r="850" ht="18" customHeight="1">
-      <c r="A850" s="2"/>
-      <c r="B850" s="2"/>
+      <c r="A850" s="1"/>
+      <c r="B850" s="1"/>
     </row>
     <row r="851" ht="18" customHeight="1">
-      <c r="A851" s="2"/>
-      <c r="B851" s="2"/>
+      <c r="A851" s="1"/>
+      <c r="B851" s="1"/>
     </row>
     <row r="852" ht="18" customHeight="1">
-      <c r="A852" s="2"/>
-      <c r="B852" s="2"/>
+      <c r="A852" s="1"/>
+      <c r="B852" s="1"/>
     </row>
     <row r="853" ht="18" customHeight="1">
-      <c r="A853" s="2"/>
-      <c r="B853" s="2"/>
+      <c r="A853" s="1"/>
+      <c r="B853" s="1"/>
     </row>
     <row r="854" ht="18" customHeight="1">
-      <c r="A854" s="2"/>
-      <c r="B854" s="2"/>
+      <c r="A854" s="1"/>
+      <c r="B854" s="1"/>
     </row>
     <row r="855" ht="18" customHeight="1">
-      <c r="A855" s="2"/>
-      <c r="B855" s="2"/>
+      <c r="A855" s="1"/>
+      <c r="B855" s="1"/>
     </row>
     <row r="856" ht="18" customHeight="1">
-      <c r="A856" s="2"/>
-      <c r="B856" s="2"/>
+      <c r="A856" s="1"/>
+      <c r="B856" s="1"/>
     </row>
     <row r="857" ht="18" customHeight="1">
-      <c r="A857" s="2"/>
-      <c r="B857" s="2"/>
+      <c r="A857" s="1"/>
+      <c r="B857" s="1"/>
     </row>
     <row r="858" ht="18" customHeight="1">
-      <c r="A858" s="2"/>
-      <c r="B858" s="2"/>
+      <c r="A858" s="1"/>
+      <c r="B858" s="1"/>
     </row>
     <row r="859" ht="18" customHeight="1">
-      <c r="A859" s="2"/>
-      <c r="B859" s="2"/>
+      <c r="A859" s="1"/>
+      <c r="B859" s="1"/>
     </row>
     <row r="860" ht="18" customHeight="1">
-      <c r="A860" s="2"/>
-      <c r="B860" s="2"/>
+      <c r="A860" s="1"/>
+      <c r="B860" s="1"/>
     </row>
     <row r="861" ht="18" customHeight="1">
-      <c r="A861" s="2"/>
-      <c r="B861" s="2"/>
+      <c r="A861" s="1"/>
+      <c r="B861" s="1"/>
     </row>
     <row r="862" ht="18" customHeight="1">
-      <c r="A862" s="2"/>
-      <c r="B862" s="2"/>
+      <c r="A862" s="1"/>
+      <c r="B862" s="1"/>
     </row>
     <row r="863" ht="18" customHeight="1">
-      <c r="A863" s="2"/>
-      <c r="B863" s="2"/>
+      <c r="A863" s="1"/>
+      <c r="B863" s="1"/>
     </row>
     <row r="864" ht="18" customHeight="1">
-      <c r="A864" s="2"/>
-      <c r="B864" s="2"/>
+      <c r="A864" s="1"/>
+      <c r="B864" s="1"/>
     </row>
     <row r="865" ht="18" customHeight="1">
-      <c r="A865" s="2"/>
-      <c r="B865" s="2"/>
+      <c r="A865" s="1"/>
+      <c r="B865" s="1"/>
     </row>
     <row r="866" ht="18" customHeight="1">
-      <c r="A866" s="2"/>
-      <c r="B866" s="2"/>
+      <c r="A866" s="1"/>
+      <c r="B866" s="1"/>
     </row>
     <row r="867" ht="18" customHeight="1">
-      <c r="A867" s="2"/>
-      <c r="B867" s="2"/>
+      <c r="A867" s="1"/>
+      <c r="B867" s="1"/>
     </row>
     <row r="868" ht="18" customHeight="1">
-      <c r="A868" s="2"/>
-      <c r="B868" s="2"/>
+      <c r="A868" s="1"/>
+      <c r="B868" s="1"/>
     </row>
     <row r="869" ht="18" customHeight="1">
-      <c r="A869" s="2"/>
-      <c r="B869" s="2"/>
+      <c r="A869" s="1"/>
+      <c r="B869" s="1"/>
     </row>
     <row r="870" ht="18" customHeight="1">
-      <c r="A870" s="2"/>
-      <c r="B870" s="2"/>
+      <c r="A870" s="1"/>
+      <c r="B870" s="1"/>
     </row>
     <row r="871" ht="18" customHeight="1">
-      <c r="A871" s="2"/>
-      <c r="B871" s="2"/>
+      <c r="A871" s="1"/>
+      <c r="B871" s="1"/>
     </row>
     <row r="872" ht="18" customHeight="1">
-      <c r="A872" s="2"/>
-      <c r="B872" s="2"/>
+      <c r="A872" s="1"/>
+      <c r="B872" s="1"/>
     </row>
     <row r="873" ht="18" customHeight="1">
-      <c r="A873" s="2"/>
-      <c r="B873" s="2"/>
+      <c r="A873" s="1"/>
+      <c r="B873" s="1"/>
     </row>
     <row r="874" ht="18" customHeight="1">
-      <c r="A874" s="2"/>
-      <c r="B874" s="2"/>
+      <c r="A874" s="1"/>
+      <c r="B874" s="1"/>
     </row>
     <row r="875" ht="18" customHeight="1">
-      <c r="A875" s="2"/>
-      <c r="B875" s="2"/>
+      <c r="A875" s="1"/>
+      <c r="B875" s="1"/>
     </row>
     <row r="876" ht="18" customHeight="1">
-      <c r="A876" s="2"/>
-      <c r="B876" s="2"/>
+      <c r="A876" s="1"/>
+      <c r="B876" s="1"/>
     </row>
     <row r="877" ht="18" customHeight="1">
-      <c r="A877" s="2"/>
-      <c r="B877" s="2"/>
+      <c r="A877" s="1"/>
+      <c r="B877" s="1"/>
     </row>
     <row r="878" ht="18" customHeight="1">
-      <c r="A878" s="2"/>
-      <c r="B878" s="2"/>
+      <c r="A878" s="1"/>
+      <c r="B878" s="1"/>
     </row>
     <row r="879" ht="18" customHeight="1">
-      <c r="A879" s="2"/>
-      <c r="B879" s="2"/>
+      <c r="A879" s="1"/>
+      <c r="B879" s="1"/>
     </row>
     <row r="880" ht="18" customHeight="1">
-      <c r="A880" s="2"/>
-      <c r="B880" s="2"/>
+      <c r="A880" s="1"/>
+      <c r="B880" s="1"/>
     </row>
     <row r="881" ht="18" customHeight="1">
-      <c r="A881" s="2"/>
-      <c r="B881" s="2"/>
+      <c r="A881" s="1"/>
+      <c r="B881" s="1"/>
     </row>
     <row r="882" ht="18" customHeight="1">
-      <c r="A882" s="2"/>
-      <c r="B882" s="2"/>
+      <c r="A882" s="1"/>
+      <c r="B882" s="1"/>
     </row>
     <row r="883" ht="18" customHeight="1">
-      <c r="A883" s="2"/>
-      <c r="B883" s="2"/>
+      <c r="A883" s="1"/>
+      <c r="B883" s="1"/>
     </row>
     <row r="884" ht="18" customHeight="1">
-      <c r="A884" s="2"/>
-      <c r="B884" s="2"/>
+      <c r="A884" s="1"/>
+      <c r="B884" s="1"/>
     </row>
     <row r="885" ht="18" customHeight="1">
-      <c r="A885" s="2"/>
-      <c r="B885" s="2"/>
+      <c r="A885" s="1"/>
+      <c r="B885" s="1"/>
     </row>
     <row r="886" ht="18" customHeight="1">
-      <c r="A886" s="2"/>
-      <c r="B886" s="2"/>
+      <c r="A886" s="1"/>
+      <c r="B886" s="1"/>
     </row>
     <row r="887" ht="18" customHeight="1">
-      <c r="A887" s="2"/>
-      <c r="B887" s="2"/>
+      <c r="A887" s="1"/>
+      <c r="B887" s="1"/>
     </row>
     <row r="888" ht="18" customHeight="1">
-      <c r="A888" s="2"/>
-      <c r="B888" s="2"/>
+      <c r="A888" s="1"/>
+      <c r="B888" s="1"/>
     </row>
     <row r="889" ht="18" customHeight="1">
-      <c r="A889" s="2"/>
-      <c r="B889" s="2"/>
+      <c r="A889" s="1"/>
+      <c r="B889" s="1"/>
     </row>
     <row r="890" ht="18" customHeight="1">
-      <c r="A890" s="2"/>
-      <c r="B890" s="2"/>
+      <c r="A890" s="1"/>
+      <c r="B890" s="1"/>
     </row>
     <row r="891" ht="18" customHeight="1">
-      <c r="A891" s="2"/>
-      <c r="B891" s="2"/>
+      <c r="A891" s="1"/>
+      <c r="B891" s="1"/>
     </row>
     <row r="892" ht="18" customHeight="1">
-      <c r="A892" s="2"/>
-      <c r="B892" s="2"/>
+      <c r="A892" s="1"/>
+      <c r="B892" s="1"/>
     </row>
     <row r="893" ht="18" customHeight="1">
-      <c r="A893" s="2"/>
-      <c r="B893" s="2"/>
+      <c r="A893" s="1"/>
+      <c r="B893" s="1"/>
     </row>
     <row r="894" ht="18" customHeight="1">
-      <c r="A894" s="2"/>
-      <c r="B894" s="2"/>
+      <c r="A894" s="1"/>
+      <c r="B894" s="1"/>
     </row>
     <row r="895" ht="18" customHeight="1">
-      <c r="A895" s="2"/>
-      <c r="B895" s="2"/>
+      <c r="A895" s="1"/>
+      <c r="B895" s="1"/>
     </row>
     <row r="896" ht="18" customHeight="1">
-      <c r="A896" s="2"/>
-      <c r="B896" s="2"/>
+      <c r="A896" s="1"/>
+      <c r="B896" s="1"/>
     </row>
     <row r="897" ht="18" customHeight="1">
-      <c r="A897" s="2"/>
-      <c r="B897" s="2"/>
+      <c r="A897" s="1"/>
+      <c r="B897" s="1"/>
     </row>
     <row r="898" ht="18" customHeight="1">
-      <c r="A898" s="2"/>
-      <c r="B898" s="2"/>
+      <c r="A898" s="1"/>
+      <c r="B898" s="1"/>
     </row>
     <row r="899" ht="18" customHeight="1">
-      <c r="A899" s="2"/>
-      <c r="B899" s="2"/>
+      <c r="A899" s="1"/>
+      <c r="B899" s="1"/>
     </row>
     <row r="900" ht="18" customHeight="1">
-      <c r="A900" s="2"/>
-      <c r="B900" s="2"/>
+      <c r="A900" s="1"/>
+      <c r="B900" s="1"/>
     </row>
     <row r="901" ht="18" customHeight="1">
-      <c r="A901" s="2"/>
-      <c r="B901" s="2"/>
+      <c r="A901" s="1"/>
+      <c r="B901" s="1"/>
     </row>
     <row r="902" ht="18" customHeight="1">
-      <c r="A902" s="2"/>
-      <c r="B902" s="2"/>
+      <c r="A902" s="1"/>
+      <c r="B902" s="1"/>
     </row>
     <row r="903" ht="18" customHeight="1">
-      <c r="A903" s="2"/>
-      <c r="B903" s="2"/>
+      <c r="A903" s="1"/>
+      <c r="B903" s="1"/>
     </row>
     <row r="904" ht="18" customHeight="1">
-      <c r="A904" s="2"/>
-      <c r="B904" s="2"/>
+      <c r="A904" s="1"/>
+      <c r="B904" s="1"/>
     </row>
     <row r="905" ht="18" customHeight="1">
-      <c r="A905" s="2"/>
-      <c r="B905" s="2"/>
+      <c r="A905" s="1"/>
+      <c r="B905" s="1"/>
     </row>
     <row r="906" ht="18" customHeight="1">
-      <c r="A906" s="2"/>
-      <c r="B906" s="2"/>
+      <c r="A906" s="1"/>
+      <c r="B906" s="1"/>
     </row>
     <row r="907" ht="18" customHeight="1">
-      <c r="A907" s="2"/>
-      <c r="B907" s="2"/>
+      <c r="A907" s="1"/>
+      <c r="B907" s="1"/>
     </row>
     <row r="908" ht="18" customHeight="1">
-      <c r="A908" s="2"/>
-      <c r="B908" s="2"/>
+      <c r="A908" s="1"/>
+      <c r="B908" s="1"/>
     </row>
     <row r="909" ht="18" customHeight="1">
-      <c r="A909" s="2"/>
-      <c r="B909" s="2"/>
+      <c r="A909" s="1"/>
+      <c r="B909" s="1"/>
     </row>
     <row r="910" ht="18" customHeight="1">
-      <c r="A910" s="2"/>
-      <c r="B910" s="2"/>
+      <c r="A910" s="1"/>
+      <c r="B910" s="1"/>
     </row>
     <row r="911" ht="18" customHeight="1">
-      <c r="A911" s="2"/>
-      <c r="B911" s="2"/>
+      <c r="A911" s="1"/>
+      <c r="B911" s="1"/>
     </row>
     <row r="912" ht="18" customHeight="1">
-      <c r="A912" s="2"/>
-      <c r="B912" s="2"/>
+      <c r="A912" s="1"/>
+      <c r="B912" s="1"/>
     </row>
     <row r="913" ht="18" customHeight="1">
-      <c r="A913" s="2"/>
-      <c r="B913" s="2"/>
+      <c r="A913" s="1"/>
+      <c r="B913" s="1"/>
     </row>
     <row r="914" ht="18" customHeight="1">
-      <c r="A914" s="2"/>
-      <c r="B914" s="2"/>
+      <c r="A914" s="1"/>
+      <c r="B914" s="1"/>
     </row>
     <row r="915" ht="18" customHeight="1">
-      <c r="A915" s="2"/>
-      <c r="B915" s="2"/>
+      <c r="A915" s="1"/>
+      <c r="B915" s="1"/>
     </row>
     <row r="916" ht="18" customHeight="1">
-      <c r="A916" s="2"/>
-      <c r="B916" s="2"/>
+      <c r="A916" s="1"/>
+      <c r="B916" s="1"/>
     </row>
     <row r="917" ht="18" customHeight="1">
-      <c r="A917" s="2"/>
-      <c r="B917" s="2"/>
+      <c r="A917" s="1"/>
+      <c r="B917" s="1"/>
     </row>
     <row r="918" ht="18" customHeight="1">
-      <c r="A918" s="2"/>
-      <c r="B918" s="2"/>
+      <c r="A918" s="1"/>
+      <c r="B918" s="1"/>
     </row>
     <row r="919" ht="18" customHeight="1">
-      <c r="A919" s="2"/>
-      <c r="B919" s="2"/>
+      <c r="A919" s="1"/>
+      <c r="B919" s="1"/>
     </row>
     <row r="920" ht="18" customHeight="1">
-      <c r="A920" s="2"/>
-      <c r="B920" s="2"/>
+      <c r="A920" s="1"/>
+      <c r="B920" s="1"/>
     </row>
     <row r="921" ht="18" customHeight="1">
-      <c r="A921" s="2"/>
-      <c r="B921" s="2"/>
+      <c r="A921" s="1"/>
+      <c r="B921" s="1"/>
     </row>
     <row r="922" ht="18" customHeight="1">
-      <c r="A922" s="2"/>
-      <c r="B922" s="2"/>
+      <c r="A922" s="1"/>
+      <c r="B922" s="1"/>
     </row>
     <row r="923" ht="18" customHeight="1">
-      <c r="A923" s="2"/>
-      <c r="B923" s="2"/>
+      <c r="A923" s="1"/>
+      <c r="B923" s="1"/>
     </row>
     <row r="924" ht="18" customHeight="1">
-      <c r="A924" s="2"/>
-      <c r="B924" s="2"/>
+      <c r="A924" s="1"/>
+      <c r="B924" s="1"/>
     </row>
     <row r="925" ht="18" customHeight="1">
-      <c r="A925" s="2"/>
-      <c r="B925" s="2"/>
+      <c r="A925" s="1"/>
+      <c r="B925" s="1"/>
     </row>
     <row r="926" ht="18" customHeight="1">
-      <c r="A926" s="2"/>
-      <c r="B926" s="2"/>
+      <c r="A926" s="1"/>
+      <c r="B926" s="1"/>
     </row>
     <row r="927" ht="18" customHeight="1">
-      <c r="A927" s="2"/>
-      <c r="B927" s="2"/>
+      <c r="A927" s="1"/>
+      <c r="B927" s="1"/>
     </row>
     <row r="928" ht="18" customHeight="1">
-      <c r="A928" s="2"/>
-      <c r="B928" s="2"/>
+      <c r="A928" s="1"/>
+      <c r="B928" s="1"/>
     </row>
     <row r="929" ht="18" customHeight="1">
-      <c r="A929" s="2"/>
-      <c r="B929" s="2"/>
+      <c r="A929" s="1"/>
+      <c r="B929" s="1"/>
     </row>
     <row r="930" ht="18" customHeight="1">
-      <c r="A930" s="2"/>
-      <c r="B930" s="2"/>
+      <c r="A930" s="1"/>
+      <c r="B930" s="1"/>
     </row>
     <row r="931" ht="18" customHeight="1">
-      <c r="A931" s="2"/>
-      <c r="B931" s="2"/>
+      <c r="A931" s="1"/>
+      <c r="B931" s="1"/>
     </row>
     <row r="932" ht="18" customHeight="1">
-      <c r="A932" s="2"/>
-      <c r="B932" s="2"/>
+      <c r="A932" s="1"/>
+      <c r="B932" s="1"/>
     </row>
     <row r="933" ht="18" customHeight="1">
-      <c r="A933" s="2"/>
-      <c r="B933" s="2"/>
+      <c r="A933" s="1"/>
+      <c r="B933" s="1"/>
     </row>
     <row r="934" ht="18" customHeight="1">
-      <c r="A934" s="2"/>
-      <c r="B934" s="2"/>
+      <c r="A934" s="1"/>
+      <c r="B934" s="1"/>
     </row>
     <row r="935" ht="18" customHeight="1">
-      <c r="A935" s="2"/>
-      <c r="B935" s="2"/>
+      <c r="A935" s="1"/>
+      <c r="B935" s="1"/>
     </row>
     <row r="936" ht="18" customHeight="1">
-      <c r="A936" s="2"/>
-      <c r="B936" s="2"/>
+      <c r="A936" s="1"/>
+      <c r="B936" s="1"/>
     </row>
     <row r="937" ht="18" customHeight="1">
-      <c r="A937" s="2"/>
-      <c r="B937" s="2"/>
+      <c r="A937" s="1"/>
+      <c r="B937" s="1"/>
     </row>
     <row r="938" ht="18" customHeight="1">
-      <c r="A938" s="2"/>
-      <c r="B938" s="2"/>
+      <c r="A938" s="1"/>
+      <c r="B938" s="1"/>
     </row>
     <row r="939" ht="18" customHeight="1">
-      <c r="A939" s="2"/>
-      <c r="B939" s="2"/>
+      <c r="A939" s="1"/>
+      <c r="B939" s="1"/>
     </row>
     <row r="940" ht="18" customHeight="1">
-      <c r="A940" s="2"/>
-      <c r="B940" s="2"/>
+      <c r="A940" s="1"/>
+      <c r="B940" s="1"/>
     </row>
     <row r="941" ht="18" customHeight="1">
-      <c r="A941" s="2"/>
-      <c r="B941" s="2"/>
+      <c r="A941" s="1"/>
+      <c r="B941" s="1"/>
     </row>
     <row r="942" ht="18" customHeight="1">
-      <c r="A942" s="2"/>
-      <c r="B942" s="2"/>
+      <c r="A942" s="1"/>
+      <c r="B942" s="1"/>
     </row>
     <row r="943" ht="18" customHeight="1">
-      <c r="A943" s="2"/>
-      <c r="B943" s="2"/>
+      <c r="A943" s="1"/>
+      <c r="B943" s="1"/>
     </row>
     <row r="944" ht="18" customHeight="1">
-      <c r="A944" s="2"/>
-      <c r="B944" s="2"/>
+      <c r="A944" s="1"/>
+      <c r="B944" s="1"/>
     </row>
     <row r="945" ht="18" customHeight="1">
-      <c r="A945" s="2"/>
-      <c r="B945" s="2"/>
+      <c r="A945" s="1"/>
+      <c r="B945" s="1"/>
     </row>
     <row r="946" ht="18" customHeight="1">
-      <c r="A946" s="2"/>
-      <c r="B946" s="2"/>
+      <c r="A946" s="1"/>
+      <c r="B946" s="1"/>
     </row>
     <row r="947" ht="18" customHeight="1">
-      <c r="A947" s="2"/>
-      <c r="B947" s="2"/>
+      <c r="A947" s="1"/>
+      <c r="B947" s="1"/>
     </row>
     <row r="948" ht="18" customHeight="1">
-      <c r="A948" s="2"/>
-      <c r="B948" s="2"/>
+      <c r="A948" s="1"/>
+      <c r="B948" s="1"/>
     </row>
     <row r="949" ht="18" customHeight="1">
-      <c r="A949" s="2"/>
-      <c r="B949" s="2"/>
+      <c r="A949" s="1"/>
+      <c r="B949" s="1"/>
     </row>
     <row r="950" ht="18" customHeight="1">
-      <c r="A950" s="2"/>
-      <c r="B950" s="2"/>
+      <c r="A950" s="1"/>
+      <c r="B950" s="1"/>
     </row>
     <row r="951" ht="18" customHeight="1">
-      <c r="A951" s="2"/>
-      <c r="B951" s="2"/>
+      <c r="A951" s="1"/>
+      <c r="B951" s="1"/>
     </row>
     <row r="952" ht="18" customHeight="1">
-      <c r="A952" s="2"/>
-      <c r="B952" s="2"/>
+      <c r="A952" s="1"/>
+      <c r="B952" s="1"/>
     </row>
     <row r="953" ht="18" customHeight="1">
-      <c r="A953" s="2"/>
-      <c r="B953" s="2"/>
+      <c r="A953" s="1"/>
+      <c r="B953" s="1"/>
     </row>
     <row r="954" ht="18" customHeight="1">
-      <c r="A954" s="2"/>
-      <c r="B954" s="2"/>
+      <c r="A954" s="1"/>
+      <c r="B954" s="1"/>
     </row>
     <row r="955" ht="18" customHeight="1">
-      <c r="A955" s="2"/>
-      <c r="B955" s="2"/>
+      <c r="A955" s="1"/>
+      <c r="B955" s="1"/>
     </row>
     <row r="956" ht="18" customHeight="1">
-      <c r="A956" s="2"/>
-      <c r="B956" s="2"/>
+      <c r="A956" s="1"/>
+      <c r="B956" s="1"/>
     </row>
     <row r="957" ht="18" customHeight="1">
-      <c r="A957" s="2"/>
-      <c r="B957" s="2"/>
+      <c r="A957" s="1"/>
+      <c r="B957" s="1"/>
     </row>
     <row r="958" ht="18" customHeight="1">
-      <c r="A958" s="2"/>
-      <c r="B958" s="2"/>
+      <c r="A958" s="1"/>
+      <c r="B958" s="1"/>
     </row>
     <row r="959" ht="18" customHeight="1">
-      <c r="A959" s="2"/>
-      <c r="B959" s="2"/>
+      <c r="A959" s="1"/>
+      <c r="B959" s="1"/>
     </row>
     <row r="960" ht="18" customHeight="1">
-      <c r="A960" s="2"/>
-      <c r="B960" s="2"/>
+      <c r="A960" s="1"/>
+      <c r="B960" s="1"/>
     </row>
     <row r="961" ht="18" customHeight="1">
-      <c r="A961" s="2"/>
-      <c r="B961" s="2"/>
+      <c r="A961" s="1"/>
+      <c r="B961" s="1"/>
     </row>
     <row r="962" ht="18" customHeight="1">
-      <c r="A962" s="2"/>
-      <c r="B962" s="2"/>
+      <c r="A962" s="1"/>
+      <c r="B962" s="1"/>
     </row>
     <row r="963" ht="18" customHeight="1">
-      <c r="A963" s="2"/>
-      <c r="B963" s="2"/>
+      <c r="A963" s="1"/>
+      <c r="B963" s="1"/>
     </row>
     <row r="964" ht="18" customHeight="1">
-      <c r="A964" s="2"/>
-      <c r="B964" s="2"/>
+      <c r="A964" s="1"/>
+      <c r="B964" s="1"/>
     </row>
     <row r="965" ht="18" customHeight="1">
-      <c r="A965" s="2"/>
-      <c r="B965" s="2"/>
+      <c r="A965" s="1"/>
+      <c r="B965" s="1"/>
     </row>
     <row r="966" ht="18" customHeight="1">
-      <c r="A966" s="2"/>
-      <c r="B966" s="2"/>
+      <c r="A966" s="1"/>
+      <c r="B966" s="1"/>
     </row>
     <row r="967" ht="18" customHeight="1">
-      <c r="A967" s="2"/>
-      <c r="B967" s="2"/>
+      <c r="A967" s="1"/>
+      <c r="B967" s="1"/>
     </row>
     <row r="968" ht="18" customHeight="1">
-      <c r="A968" s="2"/>
-      <c r="B968" s="2"/>
+      <c r="A968" s="1"/>
+      <c r="B968" s="1"/>
     </row>
     <row r="969" ht="18" customHeight="1">
-      <c r="A969" s="2"/>
-      <c r="B969" s="2"/>
+      <c r="A969" s="1"/>
+      <c r="B969" s="1"/>
     </row>
     <row r="970" ht="18" customHeight="1">
-      <c r="A970" s="2"/>
-      <c r="B970" s="2"/>
+      <c r="A970" s="1"/>
+      <c r="B970" s="1"/>
     </row>
     <row r="971" ht="18" customHeight="1">
-      <c r="A971" s="2"/>
-      <c r="B971" s="2"/>
+      <c r="A971" s="1"/>
+      <c r="B971" s="1"/>
     </row>
     <row r="972" ht="18" customHeight="1">
-      <c r="A972" s="2"/>
-      <c r="B972" s="2"/>
+      <c r="A972" s="1"/>
+      <c r="B972" s="1"/>
     </row>
     <row r="973" ht="18" customHeight="1">
-      <c r="A973" s="2"/>
-      <c r="B973" s="2"/>
+      <c r="A973" s="1"/>
+      <c r="B973" s="1"/>
     </row>
     <row r="974" ht="18" customHeight="1">
-      <c r="A974" s="2"/>
-      <c r="B974" s="2"/>
+      <c r="A974" s="1"/>
+      <c r="B974" s="1"/>
     </row>
     <row r="975" ht="18" customHeight="1">
-      <c r="A975" s="2"/>
-      <c r="B975" s="2"/>
+      <c r="A975" s="1"/>
+      <c r="B975" s="1"/>
     </row>
     <row r="976" ht="18" customHeight="1">
-      <c r="A976" s="2"/>
-      <c r="B976" s="2"/>
+      <c r="A976" s="1"/>
+      <c r="B976" s="1"/>
     </row>
     <row r="977" ht="18" customHeight="1">
-      <c r="A977" s="2"/>
-      <c r="B977" s="2"/>
+      <c r="A977" s="1"/>
+      <c r="B977" s="1"/>
     </row>
     <row r="978" ht="18" customHeight="1">
-      <c r="A978" s="2"/>
-      <c r="B978" s="2"/>
+      <c r="A978" s="1"/>
+      <c r="B978" s="1"/>
     </row>
     <row r="979" ht="18" customHeight="1">
-      <c r="A979" s="2"/>
-      <c r="B979" s="2"/>
+      <c r="A979" s="1"/>
+      <c r="B979" s="1"/>
     </row>
     <row r="980" ht="18" customHeight="1">
-      <c r="A980" s="2"/>
-      <c r="B980" s="2"/>
+      <c r="A980" s="1"/>
+      <c r="B980" s="1"/>
     </row>
     <row r="981" ht="18" customHeight="1">
-      <c r="A981" s="2"/>
-      <c r="B981" s="2"/>
+      <c r="A981" s="1"/>
+      <c r="B981" s="1"/>
     </row>
     <row r="982" ht="18" customHeight="1">
-      <c r="A982" s="2"/>
-      <c r="B982" s="2"/>
+      <c r="A982" s="1"/>
+      <c r="B982" s="1"/>
     </row>
     <row r="983" ht="18" customHeight="1">
-      <c r="A983" s="2"/>
-      <c r="B983" s="2"/>
+      <c r="A983" s="1"/>
+      <c r="B983" s="1"/>
     </row>
     <row r="984" ht="18" customHeight="1">
-      <c r="A984" s="2"/>
-      <c r="B984" s="2"/>
+      <c r="A984" s="1"/>
+      <c r="B984" s="1"/>
     </row>
     <row r="985" ht="18" customHeight="1">
-      <c r="A985" s="2"/>
-      <c r="B985" s="2"/>
+      <c r="A985" s="1"/>
+      <c r="B985" s="1"/>
     </row>
     <row r="986" ht="18" customHeight="1">
-      <c r="A986" s="2"/>
-      <c r="B986" s="2"/>
+      <c r="A986" s="1"/>
+      <c r="B986" s="1"/>
     </row>
     <row r="987" ht="18" customHeight="1">
-      <c r="A987" s="2"/>
-      <c r="B987" s="2"/>
+      <c r="A987" s="1"/>
+      <c r="B987" s="1"/>
     </row>
     <row r="988" ht="18" customHeight="1">
-      <c r="A988" s="2"/>
-      <c r="B988" s="2"/>
+      <c r="A988" s="1"/>
+      <c r="B988" s="1"/>
     </row>
     <row r="989" ht="18" customHeight="1">
-      <c r="A989" s="2"/>
-      <c r="B989" s="2"/>
+      <c r="A989" s="1"/>
+      <c r="B989" s="1"/>
     </row>
     <row r="990" ht="18" customHeight="1">
-      <c r="A990" s="2"/>
-      <c r="B990" s="2"/>
+      <c r="A990" s="1"/>
+      <c r="B990" s="1"/>
     </row>
     <row r="991" ht="18" customHeight="1">
-      <c r="A991" s="2"/>
-      <c r="B991" s="2"/>
+      <c r="A991" s="1"/>
+      <c r="B991" s="1"/>
     </row>
     <row r="992" ht="18" customHeight="1">
-      <c r="A992" s="2"/>
-      <c r="B992" s="2"/>
+      <c r="A992" s="1"/>
+      <c r="B992" s="1"/>
     </row>
     <row r="993" ht="18" customHeight="1">
-      <c r="A993" s="2"/>
-      <c r="B993" s="2"/>
+      <c r="A993" s="1"/>
+      <c r="B993" s="1"/>
     </row>
     <row r="994" ht="18" customHeight="1">
-      <c r="A994" s="2"/>
-      <c r="B994" s="2"/>
+      <c r="A994" s="1"/>
+      <c r="B994" s="1"/>
     </row>
     <row r="995" ht="18" customHeight="1">
-      <c r="A995" s="2"/>
-      <c r="B995" s="2"/>
+      <c r="A995" s="1"/>
+      <c r="B995" s="1"/>
     </row>
     <row r="996" ht="18" customHeight="1">
-      <c r="A996" s="2"/>
-      <c r="B996" s="2"/>
+      <c r="A996" s="1"/>
+      <c r="B996" s="1"/>
     </row>
     <row r="997" ht="18" customHeight="1">
-      <c r="A997" s="2"/>
-      <c r="B997" s="2"/>
+      <c r="A997" s="1"/>
+      <c r="B997" s="1"/>
     </row>
     <row r="998" ht="18" customHeight="1">
-      <c r="A998" s="2"/>
-      <c r="B998" s="2"/>
+      <c r="A998" s="1"/>
+      <c r="B998" s="1"/>
     </row>
     <row r="999" ht="18" customHeight="1">
-      <c r="A999" s="2"/>
-      <c r="B999" s="2"/>
+      <c r="A999" s="1"/>
+      <c r="B999" s="1"/>
     </row>
     <row r="1000" ht="18" customHeight="1">
-      <c r="A1000" s="2"/>
-      <c r="B1000" s="2"/>
+      <c r="A1000" s="1"/>
+      <c r="B1000" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -5025,8 +4909,8 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A2">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15" customHeight="1"/>
@@ -5044,235 +4928,221 @@
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="3" t="s">
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="I1" s="3" t="s">
+    </row>
+    <row r="3" ht="21" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" ht="21" customHeight="1">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" ht="21" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" ht="21" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" ht="21" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" ht="21" customHeight="1">
+      <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="4">
-        <v>25</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="G3" s="5">
-        <v>46007.416666666664</v>
-      </c>
-      <c r="H3" s="4" t="s">
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" ht="21" customHeight="1">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="4">
-        <v>25</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="5">
-        <v>46007.416666666664</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" ht="21" customHeight="1">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="4">
-        <v>50</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="5">
-        <v>46005.166666666664</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" ht="21" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" ht="21" customHeight="1">
-      <c r="A8" s="4">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="4">
-        <v>50</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="5">
-        <v>46005.166666666664</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>203</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>203</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>203</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>203</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>203</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>203</v>
-      </c>
-      <c r="G9" t="s" s="0">
-        <v>207</v>
-      </c>
-      <c r="H9" t="s" s="0">
-        <v>190</v>
-      </c>
-      <c r="I9" t="s" s="0">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" ht="21" customHeight="1">
-      <c r="A10" s="7">
-        <v>5</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="7">
-        <v>25</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="8">
-        <v>46004.416666666664</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>53</v>
+      <c r="B10" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="14" ht="21" customHeight="1"/>
@@ -6291,421 +6161,421 @@
   </cols>
   <sheetData>
     <row r="1" ht="21.75" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" ht="21.75" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" ht="21.75" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" ht="21.75" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="E4" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" ht="21.75" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="F4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="J4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" ht="21.75" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="E5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="F5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" ht="21.75" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="K3" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" ht="21.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="K4" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" ht="21.75" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" s="10">
+      <c r="J5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="7">
         <v>0.59999999999999998</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>80</v>
+      <c r="L5" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" ht="21.75" customHeight="1">
       <c r="A6" t="s" s="0">
-        <v>101</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>102</v>
+        <v>79</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>104</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I6" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K6" s="13">
+      <c r="J6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="10">
         <v>0.5</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>80</v>
+      <c r="L6" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" ht="21.75" customHeight="1">
       <c r="A7" t="s" s="0">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>110</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>112</v>
+        <v>88</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>113</v>
-      </c>
-      <c r="K7" s="13">
+        <v>91</v>
+      </c>
+      <c r="K7" s="10">
         <v>0.5</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>80</v>
+      <c r="L7" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" ht="21.75" customHeight="1">
       <c r="A8" t="s" s="0">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>117</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K8" s="13">
+        <v>95</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="10">
         <v>0.40000000000000002</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>80</v>
+      <c r="L8" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9" ht="21.75" customHeight="1">
       <c r="A9" t="s" s="0">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>123</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>125</v>
+        <v>101</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>126</v>
-      </c>
-      <c r="K9" s="13">
+        <v>104</v>
+      </c>
+      <c r="K9" s="10">
         <v>0.5</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>80</v>
+      <c r="L9" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" ht="21.75" customHeight="1">
       <c r="A10" t="s" s="0">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>130</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" s="13">
+        <v>108</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="10">
         <v>0.5</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>80</v>
+      <c r="L10" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" ht="21.75" customHeight="1">
       <c r="A11" t="s" s="0">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>104</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>14</v>
       </c>
       <c r="J11" t="s" s="0">
-        <v>137</v>
-      </c>
-      <c r="K11" s="13">
+        <v>115</v>
+      </c>
+      <c r="K11" s="10">
         <v>0.20000000000000001</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>80</v>
+      <c r="L11" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12" ht="21.75" customHeight="1"/>
@@ -7710,7 +7580,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="E40">
+    <sheetView workbookViewId="0" topLeftCell="E1">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -7728,262 +7598,177 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" t="s" s="0">
+      <c r="G4" s="3" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="H4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C5" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F5" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" t="s" s="0">
+      <c r="H5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" s="6" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="B6" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="C6" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E6" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F6" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="I3" t="s" s="0">
+      <c r="G6" s="6" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="I5" t="s" s="0">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>163</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>80</v>
+      <c r="H6" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>214</v>
-      </c>
-      <c r="B7" s="0"/>
-      <c r="C7" t="s" s="0">
-        <v>214</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>214</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>214</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>214</v>
-      </c>
-      <c r="G7" t="s" s="0">
-        <v>214</v>
-      </c>
-      <c r="H7" t="s" s="0">
-        <v>214</v>
-      </c>
-      <c r="I7" t="s" s="0">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>214</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>217</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>214</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>214</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>214</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>214</v>
-      </c>
-      <c r="G9" t="s" s="0">
-        <v>214</v>
-      </c>
-      <c r="H9" t="s" s="0">
-        <v>214</v>
-      </c>
-      <c r="I9" t="s" s="0">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>214</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>217</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>214</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>214</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>214</v>
-      </c>
-      <c r="F10" t="s" s="0">
-        <v>214</v>
-      </c>
-      <c r="G10" t="s" s="0">
-        <v>214</v>
-      </c>
-      <c r="H10" t="s" s="0">
-        <v>214</v>
-      </c>
-      <c r="I10" t="s" s="0">
-        <v>215</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -8993,115 +8778,113 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="4">
+        <v>45901.416666666664</v>
+      </c>
+      <c r="F2" s="3">
+        <v>100</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="E3" s="4">
+        <v>45935.583333333336</v>
+      </c>
+      <c r="F3" s="3">
+        <v>50</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="I1" s="4" t="s">
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="s" s="0">
         <v>173</v>
       </c>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="B4" t="s" s="0">
         <v>174</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C4" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="E4" t="s" s="0">
         <v>175</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E2" s="5">
-        <v>45901.416666666664</v>
-      </c>
-      <c r="F2" s="4">
-        <v>100</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45935.583333333336</v>
-      </c>
-      <c r="F3" s="4">
-        <v>50</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>211</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>212</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>212</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>212</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>213</v>
-      </c>
-      <c r="F4" s="0"/>
-      <c r="G4" s="0"/>
       <c r="H4" t="s" s="0">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>190</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
